--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="2042">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36446857452393</t>
+    <t xml:space="preserve">5.36446714401245</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3866720199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.257887840271</t>
+    <t xml:space="preserve">5.38667106628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25788879394531</t>
   </si>
   <si>
     <t xml:space="preserve">5.18683767318726</t>
@@ -56,325 +56,325 @@
     <t xml:space="preserve">4.95591497421265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0758171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09357881546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02696704864502</t>
+    <t xml:space="preserve">5.07581806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09358024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02696847915649</t>
   </si>
   <si>
     <t xml:space="preserve">4.90706634521484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65838289260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73831748962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92926931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87154102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00476408004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1690731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20015859603882</t>
+    <t xml:space="preserve">4.65838432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73831701278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92927169799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87154006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16907262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20015954971313</t>
   </si>
   <si>
     <t xml:space="preserve">5.33338260650635</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56874513626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40887546539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33782434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17351388931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72055530548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76052188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57844877243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28091716766357</t>
+    <t xml:space="preserve">5.56874418258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40887594223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33782386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17351341247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7205548286438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76051998138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57844829559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28091907501221</t>
   </si>
   <si>
     <t xml:space="preserve">4.20098257064819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25960111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14769268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21696901321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3057861328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26137781143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41946935653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64950084686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61397552490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81381034851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69391012191772</t>
+    <t xml:space="preserve">4.25960063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14769315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21696996688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30578374862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26137590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41946792602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64950132369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61397647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8138108253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69390964508057</t>
   </si>
   <si>
     <t xml:space="preserve">4.46298885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53848171234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65394020080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70723152160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79604721069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80492830276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8404541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76940298080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74719858169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.671706199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58288908004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75163984298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64062023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66282367706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56068658828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54736423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51293992996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43866205215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48214292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44047164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42960357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44228601455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41329908370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35170030593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44409608840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18683576583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15784931182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33720636367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50388288497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35532426834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53830575942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64700603485107</t>
+    <t xml:space="preserve">4.53848218917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6539421081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70723295211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7960467338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80492877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84045505523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76940202713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74719905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67170524597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58288860321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75163841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64061975479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66282224655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56068563461304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54736375808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51294088363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43866109848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48214340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44047451019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42960214614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44228363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41329860687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35169887542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4440975189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18683528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15784740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33720684051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50388193130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35532331466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53830480575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64700794219971</t>
   </si>
   <si>
     <t xml:space="preserve">4.56548023223877</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71041679382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66512489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68776893615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67871332168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59265661239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16334056854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09540224075317</t>
+    <t xml:space="preserve">4.71041631698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.665123462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68776988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59265565872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16334104537964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09540319442749</t>
   </si>
   <si>
     <t xml:space="preserve">4.86441087722778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76929569244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56095123291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42235708236694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37344169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27017402648926</t>
+    <t xml:space="preserve">4.76929712295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56095218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42235612869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37344121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27017211914062</t>
   </si>
   <si>
     <t xml:space="preserve">4.32452392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27923250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20495271682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23212671279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.277419090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29372644424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65153694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68324136734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81005954742432</t>
+    <t xml:space="preserve">4.27923440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20495176315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23212766647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27742052078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29372501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65153741836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68324041366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81005907058716</t>
   </si>
   <si>
     <t xml:space="preserve">4.8508243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90064430236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91423368453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92329072952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85535192489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8281774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8327054977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8055305480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01387548446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87799882888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58812761306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50569486618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47127151489258</t>
+    <t xml:space="preserve">4.90064382553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91423177719116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92329025268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85535144805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817554473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83270597457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80553102493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01387643814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87799739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58812665939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50569343566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47127294540405</t>
   </si>
   <si>
     <t xml:space="preserve">4.45859003067017</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55189228057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7123327255249</t>
+    <t xml:space="preserve">4.55189323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71233177185059</t>
   </si>
   <si>
     <t xml:space="preserve">4.7673397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83610010147095</t>
+    <t xml:space="preserve">4.83609914779663</t>
   </si>
   <si>
     <t xml:space="preserve">4.97820234298706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6664924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56931066513062</t>
+    <t xml:space="preserve">4.66649341583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56931209564209</t>
   </si>
   <si>
     <t xml:space="preserve">4.68482875823975</t>
@@ -383,28 +383,28 @@
     <t xml:space="preserve">4.80401229858398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8315167427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73066711425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58398103713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43179321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49413299560547</t>
+    <t xml:space="preserve">4.83151578903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73066759109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58398056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43179273605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49413537979126</t>
   </si>
   <si>
     <t xml:space="preserve">4.89110708236694</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95528268814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9369478225708</t>
+    <t xml:space="preserve">4.95528316497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93694591522217</t>
   </si>
   <si>
     <t xml:space="preserve">4.96903562545776</t>
@@ -413,130 +413,130 @@
     <t xml:space="preserve">5.06071376800537</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08821868896484</t>
+    <t xml:space="preserve">5.088219165802</t>
   </si>
   <si>
     <t xml:space="preserve">5.19823455810547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23490571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23948955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3220009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3907618522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95459032058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91333532333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97751188278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95917463302612</t>
+    <t xml:space="preserve">5.23490476608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23949193954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32200193405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39076042175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91333627700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97751092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95917367935181</t>
   </si>
   <si>
     <t xml:space="preserve">5.72997570037842</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78039836883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98667812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0966944694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11044549942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01876640319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12419748306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07835865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00501537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1975417137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17003774642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14253282546997</t>
+    <t xml:space="preserve">5.78039932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98668003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09669399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11044645309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01876592636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12419843673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07836008071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00501394271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19754266738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17003870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14253425598145</t>
   </si>
   <si>
     <t xml:space="preserve">6.30755805969238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2433819770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20212554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23421382904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18378829956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26171636581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15170240402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13336563110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96834278106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98209476470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06002283096313</t>
+    <t xml:space="preserve">6.24338102340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20212459564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23421335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18378877639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26171731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15170192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13336420059204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96834182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98209571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06002187728882</t>
   </si>
   <si>
     <t xml:space="preserve">6.21129465103149</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22504472732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3213095664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28463792800903</t>
+    <t xml:space="preserve">6.22504663467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32130908966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28463745117188</t>
   </si>
   <si>
     <t xml:space="preserve">6.48811292648315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58060359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64996957778931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70546293258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65459442138672</t>
+    <t xml:space="preserve">6.58060312271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64997005462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70546388626099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65459489822388</t>
   </si>
   <si>
     <t xml:space="preserve">6.59447574615479</t>
@@ -545,262 +545,262 @@
     <t xml:space="preserve">6.60834980010986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69159078598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47424173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68234062194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68696546554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77483081817627</t>
+    <t xml:space="preserve">6.69158983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47424077987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68234252929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68696451187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77482891082764</t>
   </si>
   <si>
     <t xml:space="preserve">6.87194299697876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94593477249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73783445358276</t>
+    <t xml:space="preserve">6.94593572616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73783493041992</t>
   </si>
   <si>
     <t xml:space="preserve">6.55748081207275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.696213722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79332733154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90893888473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7702054977417</t>
+    <t xml:space="preserve">6.69621467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79332828521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90893983840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77020406723022</t>
   </si>
   <si>
     <t xml:space="preserve">6.84419727325439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86731910705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38063478469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78758430480957</t>
+    <t xml:space="preserve">6.86731958389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38063335418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78758525848389</t>
   </si>
   <si>
     <t xml:space="preserve">8.046555519104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73209095001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55173826217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5008692741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48237371444702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82458305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93556785583496</t>
+    <t xml:space="preserve">7.73209142684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55173778533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50086832046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48237133026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82458114624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93556976318359</t>
   </si>
   <si>
     <t xml:space="preserve">7.68584871292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64422750473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80608320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91244888305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93094491958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20378875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.314772605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57836532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68010807037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64773654937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5552453994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54599761962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62923526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92520236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70322799682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60149002075195</t>
+    <t xml:space="preserve">7.64422941207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8060827255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91244554519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93094205856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20378971099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31477451324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.578369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6801061630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64773750305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55524444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54599571228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62923622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92520523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7032299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6014928817749</t>
   </si>
   <si>
     <t xml:space="preserve">8.83733940124512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95294952392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94370174407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36915302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23504257202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13792514801025</t>
+    <t xml:space="preserve">8.95294666290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94369888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36915016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23504066467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1379280090332</t>
   </si>
   <si>
     <t xml:space="preserve">9.31365776062012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29515838623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.452392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6466178894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75824356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91638946533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96290302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88848209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0001125335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.083833694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0652265548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0466222763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0559272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81406211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70243549346924</t>
+    <t xml:space="preserve">9.29515933990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45238971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64661979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7582483291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91638660430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96290016174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88848400115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0001077651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0838317871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0652275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0466203689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0559244155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81406307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70243358612061</t>
   </si>
   <si>
     <t xml:space="preserve">9.67452621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49778079986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78615665435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95359706878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0280170440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89778614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2140674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303453445435</t>
+    <t xml:space="preserve">9.49777889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78615379333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9535961151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0280160903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89778423309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2140655517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303434371948</t>
   </si>
   <si>
     <t xml:space="preserve">10.0931367874146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2698793411255</t>
+    <t xml:space="preserve">10.2698802947998</t>
   </si>
   <si>
     <t xml:space="preserve">10.4001150131226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.246636390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6559410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.609429359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.330358505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7210597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.307110786438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3629274368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2419948577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4373445510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1303653717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9536190032959</t>
+    <t xml:space="preserve">11.2466344833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6559419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6094284057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3303575515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7210626602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3071146011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3629293441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2419939041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4373455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1303691864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9536199569702</t>
   </si>
   <si>
     <t xml:space="preserve">11.8512935638428</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0373430252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0745506286621</t>
+    <t xml:space="preserve">12.0373420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0745525360107</t>
   </si>
   <si>
     <t xml:space="preserve">12.2140874862671</t>
@@ -809,118 +809,118 @@
     <t xml:space="preserve">12.4280433654785</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3722295761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.632698059082</t>
+    <t xml:space="preserve">12.3722305297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6326999664307</t>
   </si>
   <si>
     <t xml:space="preserve">12.7908372879028</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1536359786987</t>
+    <t xml:space="preserve">13.1536340713501</t>
   </si>
   <si>
     <t xml:space="preserve">13.274564743042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1722383499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4885234832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3861951828003</t>
+    <t xml:space="preserve">13.1722364425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4885215759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.386194229126</t>
   </si>
   <si>
     <t xml:space="preserve">13.6652660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6838684082031</t>
+    <t xml:space="preserve">13.6838722229004</t>
   </si>
   <si>
     <t xml:space="preserve">13.7210807800293</t>
   </si>
   <si>
-    <t xml:space="preserve">13.414101600647</t>
+    <t xml:space="preserve">13.4141006469727</t>
   </si>
   <si>
     <t xml:space="preserve">13.5443363189697</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7582912445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2094459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2373561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2838659286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.442008972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4699153900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5257263183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3949565887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8251571655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0119762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2455034255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.815299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4136390686035</t>
+    <t xml:space="preserve">13.7582921981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2094469070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2373552322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2838687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420099258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4699172973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.525731086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3949556350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8251543045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0119791030884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454996109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8153009414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4136381149292</t>
   </si>
   <si>
     <t xml:space="preserve">13.4977073669434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4883670806885</t>
+    <t xml:space="preserve">13.4883642196655</t>
   </si>
   <si>
     <t xml:space="preserve">13.4229803085327</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3762760162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3575944900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2922058105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3669338226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7032098770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6191396713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1240711212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0306577682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9839534759521</t>
+    <t xml:space="preserve">13.3762741088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3575916290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2922048568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3669347763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7032117843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6191434860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1240701675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0306568145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9839544296265</t>
   </si>
   <si>
     <t xml:space="preserve">12.6103143692017</t>
@@ -929,205 +929,205 @@
     <t xml:space="preserve">12.7597684860229</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7691097259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1894559860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7592544555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.525728225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8620071411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1142101287842</t>
+    <t xml:space="preserve">12.7691106796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1894540786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7592535018921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5257301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8620052337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1142091751099</t>
   </si>
   <si>
     <t xml:space="preserve">13.8339834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0488233566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1702547073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3944406509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0675058364868</t>
+    <t xml:space="preserve">14.0488252639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1702575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3944387435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0675086975098</t>
   </si>
   <si>
     <t xml:space="preserve">14.3197135925293</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3570766448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6845264434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5537538528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.479024887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.572437286377</t>
+    <t xml:space="preserve">14.3570775985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6845245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5537528991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4790239334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5724334716797</t>
   </si>
   <si>
     <t xml:space="preserve">13.7499132156372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7312307357788</t>
+    <t xml:space="preserve">13.7312326431274</t>
   </si>
   <si>
     <t xml:space="preserve">13.5350713729858</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8246402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6097984313965</t>
+    <t xml:space="preserve">13.8246421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6098003387451</t>
   </si>
   <si>
     <t xml:space="preserve">13.5444135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0581674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2169599533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3290567398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1614322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9559335708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6289968490601</t>
+    <t xml:space="preserve">14.0581665039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2169618606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3290529251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.161434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9559307098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6289978027344</t>
   </si>
   <si>
     <t xml:space="preserve">12.6757011413574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0586805343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7224073410034</t>
+    <t xml:space="preserve">13.0586814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7224054336548</t>
   </si>
   <si>
     <t xml:space="preserve">12.8344974517822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5636100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.516902923584</t>
+    <t xml:space="preserve">12.5636119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5169048309326</t>
   </si>
   <si>
     <t xml:space="preserve">12.1603517532349</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0196075439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7287378311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8037986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8882455825806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7474994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0665216445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.188497543335</t>
+    <t xml:space="preserve">12.019606590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7287330627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8037977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8882465362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.747501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0665225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1885004043579</t>
   </si>
   <si>
     <t xml:space="preserve">12.3386268615723</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6013526916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5544357299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9672861099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9860563278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0048217773438</t>
+    <t xml:space="preserve">12.6013536453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5544366836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9672889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9860582351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0048170089722</t>
   </si>
   <si>
     <t xml:space="preserve">12.7983961105347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1830987930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.276927947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3613748550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.445821762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7179298400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6991624832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3519916534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5396556854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4833526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6053323745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7648448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.671012878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7554597854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9055871963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4739694595337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.098650932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4176740646362</t>
+    <t xml:space="preserve">13.1830949783325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2769269943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3613739013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4458198547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7179269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.699161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3519897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5396499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4833517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6053333282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7648429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6710119247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7554607391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9055881500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4739713668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0986499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4176731109619</t>
   </si>
   <si>
     <t xml:space="preserve">13.5115022659302</t>
@@ -1136,172 +1136,172 @@
     <t xml:space="preserve">13.3144569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2018632888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5584173202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.549036026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4552049636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5208826065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5021181106567</t>
+    <t xml:space="preserve">13.2018623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5584192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5490312576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4552059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5208854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5021200180054</t>
   </si>
   <si>
     <t xml:space="preserve">13.2300138473511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3238391876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6803960800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8399076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0181837081909</t>
+    <t xml:space="preserve">13.3238410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6803951263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8399038314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0181827545166</t>
   </si>
   <si>
     <t xml:space="preserve">14.0650968551636</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1495447158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5060968399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6186943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8251209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7688217163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0878429412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0690765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4646425247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6059131622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3327865600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3610410690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4269676208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8242053985596</t>
+    <t xml:space="preserve">14.1495456695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5060977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6186952590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.825122833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7688226699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.778205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0878448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0690784454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4646444320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6059150695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3327903747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4269666671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8242044448853</t>
   </si>
   <si>
     <t xml:space="preserve">14.8712978363037</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2291879653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2668581008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3987150192261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9449701309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0203170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072942733765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8225317001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8036956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8319463729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.860203742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8790473937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9261322021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.029727935791</t>
+    <t xml:space="preserve">15.2291851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2668590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3987169265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9449682235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0203113555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8225297927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8036975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8319530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6812562942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8602075576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8790397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9261341094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0297336578369</t>
   </si>
   <si>
     <t xml:space="preserve">16.1521663665771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7095136642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.897876739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5854091644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7926025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6889991760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6856575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7515830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1754055023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0435466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4014415740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2507495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7404918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0136203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7593250274658</t>
+    <t xml:space="preserve">15.7095146179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8978776931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5854053497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7926082611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6890048980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6856555938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7515869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1754035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0435447692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4014377593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2507514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7404899597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0136184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7593269348145</t>
   </si>
   <si>
     <t xml:space="preserve">19.9288539886475</t>
@@ -1310,121 +1310,121 @@
     <t xml:space="preserve">18.8457641601562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2789974212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9399490356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3166732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1471519470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3731822967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.749906539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2319202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3920154571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0341281890869</t>
+    <t xml:space="preserve">19.2790031433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9399509429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3166770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.147144317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3731842041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7499122619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2319183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3920192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0341300964355</t>
   </si>
   <si>
     <t xml:space="preserve">19.0623817443848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7626724243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9510345458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3011837005615</t>
+    <t xml:space="preserve">17.762674331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9510402679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3011913299561</t>
   </si>
   <si>
     <t xml:space="preserve">17.4142017364502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6873340606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0280590057373</t>
+    <t xml:space="preserve">17.6873359680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0280609130859</t>
   </si>
   <si>
     <t xml:space="preserve">17.254093170166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2635135650635</t>
+    <t xml:space="preserve">17.2635173797607</t>
   </si>
   <si>
     <t xml:space="preserve">17.536642074585</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4895439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2258396148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5471076965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6604995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3864784240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4998645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.490421295166</t>
+    <t xml:space="preserve">17.4895477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2258415222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5471096038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6605033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3864765167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4998722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4904193878174</t>
   </si>
   <si>
     <t xml:space="preserve">17.4526214599609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1974945068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4148216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9628753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2180042266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3597393035889</t>
+    <t xml:space="preserve">17.1974983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4148235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9628734588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2180023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3597450256348</t>
   </si>
   <si>
     <t xml:space="preserve">18.2841453552246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6243133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4920291900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8983497619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8794479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6904602050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5676174163818</t>
+    <t xml:space="preserve">18.6243171691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4920272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8983421325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8794441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.690465927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5676193237305</t>
   </si>
   <si>
     <t xml:space="preserve">19.276309967041</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">19.3141098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">19.10622215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.955041885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7644424438477</t>
+    <t xml:space="preserve">19.1062202453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9550342559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7644386291504</t>
   </si>
   <si>
     <t xml:space="preserve">17.8967323303223</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">18.4069843292236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1707534790039</t>
+    <t xml:space="preserve">18.1707592010498</t>
   </si>
   <si>
     <t xml:space="preserve">18.0101184844971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4715156555176</t>
+    <t xml:space="preserve">17.4715175628662</t>
   </si>
   <si>
     <t xml:space="preserve">17.5990810394287</t>
@@ -1469,94 +1469,94 @@
     <t xml:space="preserve">17.0982761383057</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3297824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3328914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2431297302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5077018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3990364074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.876220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0557537078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0699234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9990615844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4478950500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7313690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4101009368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.632152557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6557750701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8305892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7880687713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1029949188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6919612884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2258377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5849113464355</t>
+    <t xml:space="preserve">17.329776763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.332893371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2431259155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5077037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3990345001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8762168884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.055757522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0699329376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.999059677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4478969573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7313671112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.410099029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6321487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6557769775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8305854797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7880668640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1030006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6919593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2258358001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5849094390869</t>
   </si>
   <si>
     <t xml:space="preserve">17.7738914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6006984710693</t>
+    <t xml:space="preserve">18.6006946563721</t>
   </si>
   <si>
     <t xml:space="preserve">18.7093601226807</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8699970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3833656311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3030433654785</t>
+    <t xml:space="preserve">18.8699951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3833599090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3030452728271</t>
   </si>
   <si>
     <t xml:space="preserve">18.7046356201172</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7707824707031</t>
+    <t xml:space="preserve">18.7707786560059</t>
   </si>
   <si>
     <t xml:space="preserve">18.4674911499023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8702964782715</t>
+    <t xml:space="preserve">18.8703002929688</t>
   </si>
   <si>
     <t xml:space="preserve">19.2967967987061</t>
@@ -1568,67 +1568,67 @@
     <t xml:space="preserve">17.6239700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6334438323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0789031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.116907119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0458202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.538761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1359519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5671901702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4250240325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5103206634521</t>
+    <t xml:space="preserve">17.6334419250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0788974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1169052124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0458183288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5387592315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1359481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5671882629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.42502784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5103244781494</t>
   </si>
   <si>
     <t xml:space="preserve">16.9415664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7235774993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5481452941895</t>
+    <t xml:space="preserve">16.723575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5481433868408</t>
   </si>
   <si>
     <t xml:space="preserve">17.3159408569336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4723243713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7850875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4960136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9083919525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6572360992432</t>
+    <t xml:space="preserve">17.4723205566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.785083770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4960155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.908390045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6572380065918</t>
   </si>
   <si>
     <t xml:space="preserve">16.851526260376</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7283134460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2164211273193</t>
+    <t xml:space="preserve">16.7283153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.216423034668</t>
   </si>
   <si>
     <t xml:space="preserve">17.3917617797852</t>
@@ -1637,142 +1637,142 @@
     <t xml:space="preserve">17.18798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1832427978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9793853759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9936008453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2258014678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8608207702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5670070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8418617248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8987293243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1641025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3157501220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3536720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072406768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9840335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1830654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.116720199585</t>
+    <t xml:space="preserve">17.1832408905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.979377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9936027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2258071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.860818862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5670051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8418598175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8987255096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1641082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3157520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3536701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072463989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9840297698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1830615997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1167240142822</t>
   </si>
   <si>
     <t xml:space="preserve">18.8134307861328</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1451530456543</t>
+    <t xml:space="preserve">19.145149230957</t>
   </si>
   <si>
     <t xml:space="preserve">19.4768733978271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3820972442627</t>
+    <t xml:space="preserve">19.3820991516113</t>
   </si>
   <si>
     <t xml:space="preserve">19.1925392150879</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3726234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3062763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2873229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2399272918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.073974609375</t>
+    <t xml:space="preserve">19.3726215362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3062744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2873210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2399291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0739784240723</t>
   </si>
   <si>
     <t xml:space="preserve">20.3298797607422</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1497993469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9128513336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2540588378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782341003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0596675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4956474304199</t>
+    <t xml:space="preserve">20.1497974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9128570556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1782360076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0596656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4956455230713</t>
   </si>
   <si>
     <t xml:space="preserve">21.2871341705322</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0590534210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1657562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9661884307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4530181884766</t>
+    <t xml:space="preserve">21.0590648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1657638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.966194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4530220031738</t>
   </si>
   <si>
     <t xml:space="preserve">19.1584243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2366142272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6404933929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8495693206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8897476196289</t>
+    <t xml:space="preserve">18.2366161346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6404972076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8495674133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8897457122803</t>
   </si>
   <si>
     <t xml:space="preserve">18.1843433380127</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8137226104736</t>
+    <t xml:space="preserve">17.813720703125</t>
   </si>
   <si>
     <t xml:space="preserve">18.0322952270508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4953670501709</t>
+    <t xml:space="preserve">17.4953632354736</t>
   </si>
   <si>
     <t xml:space="preserve">18.0180358886719</t>
@@ -1781,16 +1781,16 @@
     <t xml:space="preserve">18.0513019561768</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1890926361084</t>
+    <t xml:space="preserve">18.1890983581543</t>
   </si>
   <si>
     <t xml:space="preserve">18.5692253112793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1415767669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4456844329834</t>
+    <t xml:space="preserve">18.141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4456825256348</t>
   </si>
   <si>
     <t xml:space="preserve">18.4884471893311</t>
@@ -1799,76 +1799,76 @@
     <t xml:space="preserve">18.5312099456787</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6880111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2819633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2059345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.234447479248</t>
+    <t xml:space="preserve">18.6880168914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2819652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.205940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2344455718994</t>
   </si>
   <si>
     <t xml:space="preserve">18.8115558624268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5860652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8564872741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1130695343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.231861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329444885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.699686050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6806735992432</t>
+    <t xml:space="preserve">19.5860691070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8564853668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1130752563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2318572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329425811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6806812286377</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232250213623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0417976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0845603942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1178226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0275440216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1152381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1770114898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.015453338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4737682342529</t>
+    <t xml:space="preserve">18.0418014526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0845623016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.117826461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0275382995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1152362823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1770076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0154552459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4737701416016</t>
   </si>
   <si>
     <t xml:space="preserve">16.0983963012695</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1031475067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.321720123291</t>
+    <t xml:space="preserve">16.1031494140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3217182159424</t>
   </si>
   <si>
     <t xml:space="preserve">16.1649188995361</t>
@@ -1877,244 +1877,244 @@
     <t xml:space="preserve">16.1459121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5593032836914</t>
+    <t xml:space="preserve">16.5593013763428</t>
   </si>
   <si>
     <t xml:space="preserve">16.8253917694092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.78737449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9299278259277</t>
+    <t xml:space="preserve">16.7873802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9299240112305</t>
   </si>
   <si>
     <t xml:space="preserve">16.8111381530762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8158874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8348922729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4215049743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6612501144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4236698150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904085159302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3856611251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1148166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5018615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8297185897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1053152084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8334465026855</t>
+    <t xml:space="preserve">16.8158893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8348903656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4215068817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6612529754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4236707687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904113769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3856563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1148176193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5018587112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8297214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1053142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8334455490112</t>
   </si>
   <si>
     <t xml:space="preserve">14.9240694046021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9622240066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4868822097778</t>
+    <t xml:space="preserve">14.9622268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4868831634521</t>
   </si>
   <si>
     <t xml:space="preserve">15.5059595108032</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3962574005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6872043609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4296445846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1625480651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9526863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2865571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5775022506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6395082473755</t>
+    <t xml:space="preserve">15.3962554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6872091293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4296464920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1625490188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9526882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2865600585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5775051116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6395092010498</t>
   </si>
   <si>
     <t xml:space="preserve">15.2293224334717</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4804964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2610950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3040189743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4788789749146</t>
+    <t xml:space="preserve">14.4804954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2610931396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3040218353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4788818359375</t>
   </si>
   <si>
     <t xml:space="preserve">13.7459774017334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7221298217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1466255187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5504245758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3071746826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3596429824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9065284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5948915481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5233449935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6187372207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2721719741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2912530899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7825183868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1974773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1736288070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6585092544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206748962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6632804870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5106544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.391411781311</t>
+    <t xml:space="preserve">13.7221279144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1466245651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5504236221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3071765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3596410751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9065294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5948877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5233459472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6187381744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2721738815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2912511825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7825193405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.197473526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1736278533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6585121154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206758499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6632785797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5106534957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3914127349854</t>
   </si>
   <si>
     <t xml:space="preserve">11.9669170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8619890213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7809085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996608734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6330471038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4279527664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9716892242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7904415130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8715257644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2054004669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1386270523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1004676818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3961849212646</t>
+    <t xml:space="preserve">11.8619861602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7809066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6330451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4279546737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9716882705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7904434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8715267181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2053966522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1386251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1004667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.396183013916</t>
   </si>
   <si>
     <t xml:space="preserve">12.3532543182373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0973119735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6775894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2674016952515</t>
+    <t xml:space="preserve">13.0973100662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6775875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2674036026001</t>
   </si>
   <si>
     <t xml:space="preserve">11.5328855514526</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4088764190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0893144607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4470329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6712007522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6807432174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6759738922119</t>
+    <t xml:space="preserve">11.4088773727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0893135070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4470291137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6712026596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6807422637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6759691238403</t>
   </si>
   <si>
     <t xml:space="preserve">11.6088676452637</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6136627197266</t>
+    <t xml:space="preserve">11.6136617660522</t>
   </si>
   <si>
     <t xml:space="preserve">11.5273866653442</t>
@@ -2123,373 +2123,373 @@
     <t xml:space="preserve">11.1870775222778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4746627807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3835954666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7239007949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6328363418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2763910293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4633226394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8707342147827</t>
+    <t xml:space="preserve">11.474663734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3835945129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7239036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6328372955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2763900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4633197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.870735168457</t>
   </si>
   <si>
     <t xml:space="preserve">10.918664932251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5034208297729</t>
+    <t xml:space="preserve">11.50341796875</t>
   </si>
   <si>
     <t xml:space="preserve">11.652006149292</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7766284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6472148895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8053855895996</t>
+    <t xml:space="preserve">11.7766246795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6472139358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8053865432739</t>
   </si>
   <si>
     <t xml:space="preserve">12.0306625366211</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8005952835083</t>
+    <t xml:space="preserve">11.8005924224854</t>
   </si>
   <si>
     <t xml:space="preserve">12.3278331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">12.380558013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9587669372559</t>
+    <t xml:space="preserve">12.3805561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9587659835815</t>
   </si>
   <si>
     <t xml:space="preserve">11.9779367446899</t>
   </si>
   <si>
-    <t xml:space="preserve">13.195387840271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7801418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4733839035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2624864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3200044631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3008317947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3343830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3775224685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2385206222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9095525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2720746994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9796934127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3487615585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0677251815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0150012969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9814500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1108636856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0102090835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8664169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0821046829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0533456802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211027145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6285190582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4080352783203</t>
+    <t xml:space="preserve">13.1953840255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7801370620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4733858108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2624855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3200035095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3008308410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3343820571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3775196075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2385234832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9095544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2720737457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9796924591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3487644195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0677270889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0150022506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9814481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1108627319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0102081298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.866418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.082103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0533447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211055755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6285152435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.408034324646</t>
   </si>
   <si>
     <t xml:space="preserve">14.0964841842651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7897272109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2402763366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1683807373047</t>
+    <t xml:space="preserve">13.7897253036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2402772903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.168381690979</t>
   </si>
   <si>
     <t xml:space="preserve">13.6555194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3679313659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3535556793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5788307189941</t>
+    <t xml:space="preserve">13.3679342269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3535537719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5788278579712</t>
   </si>
   <si>
     <t xml:space="preserve">13.5165214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3823137283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3918991088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721417427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8658037185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6877288818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2893342971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9716873168945</t>
+    <t xml:space="preserve">13.3823127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3919010162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7214193344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8658027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6877269744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2893333435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9716844558716</t>
   </si>
   <si>
     <t xml:space="preserve">13.4326467514038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6059083938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7155361175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2679405212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6866588592529</t>
+    <t xml:space="preserve">13.6059103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7155351638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2679386138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6866569519043</t>
   </si>
   <si>
     <t xml:space="preserve">13.1968193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5577821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3422737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5781059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0016355514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.073826789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9438800811768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0257005691528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.107518196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.43479347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2567157745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6128644943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8631286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9786434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4299793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2096576690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9497623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6273021697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7668752670288</t>
+    <t xml:space="preserve">13.5577812194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3422775268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5781049728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.001633644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0738277435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9438791275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0256967544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075162887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4347896575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2567167282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6128635406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.863133430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9786462783813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4299812316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2096633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.949764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6273040771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.559928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7668733596802</t>
   </si>
   <si>
     <t xml:space="preserve">15.7716875076294</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7861270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7417402267456</t>
+    <t xml:space="preserve">15.7861261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7417411804199</t>
   </si>
   <si>
     <t xml:space="preserve">14.9775705337524</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2219533920288</t>
+    <t xml:space="preserve">14.2219514846802</t>
   </si>
   <si>
     <t xml:space="preserve">14.3567152023315</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6251602172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5347900390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0160722732544</t>
+    <t xml:space="preserve">13.6251583099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5347890853882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0160751342773</t>
   </si>
   <si>
     <t xml:space="preserve">15.1652708053589</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9920091629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6203470230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.226767539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0053768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2112598419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1486902236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1871910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0379972457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0043058395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0765008926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1823787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2593822479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.596284866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456711769104</t>
+    <t xml:space="preserve">14.9920101165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6203479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2267665863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0053787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2112579345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1486892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1871929168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0379953384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0043039321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0764951705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1823806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2593841552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5962829589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4567127227783</t>
   </si>
   <si>
     <t xml:space="preserve">13.3075132369995</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9283742904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2556467056274</t>
+    <t xml:space="preserve">13.9283714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2556447982788</t>
   </si>
   <si>
     <t xml:space="preserve">13.9957504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0535049438477</t>
+    <t xml:space="preserve">14.053505897522</t>
   </si>
   <si>
     <t xml:space="preserve">13.6009941101074</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0214967727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3308258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6836605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4903249740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4709949493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3743286132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6401624679565</t>
+    <t xml:space="preserve">14.0214929580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3308248519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6836576461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4903268814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4709939956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3743267059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6401615142822</t>
   </si>
   <si>
     <t xml:space="preserve">14.8818292617798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0799932479858</t>
+    <t xml:space="preserve">15.0799942016602</t>
   </si>
   <si>
     <t xml:space="preserve">15.7131605148315</t>
@@ -2498,103 +2498,103 @@
     <t xml:space="preserve">15.563328742981</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4714946746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6019916534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2249927520752</t>
+    <t xml:space="preserve">15.4714937210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6019926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2249946594238</t>
   </si>
   <si>
     <t xml:space="preserve">15.1428289413452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9881629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1814947128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1331586837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3071613311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699941635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3554973602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4183263778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7711553573608</t>
+    <t xml:space="preserve">14.9881610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.181492805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1331615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3071594238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3554964065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.41832447052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7711629867554</t>
   </si>
   <si>
     <t xml:space="preserve">16.0901622772217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4236602783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5203247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.834493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1674976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1529922485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3704929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2781600952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6208267211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5144948959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5918264389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1766595840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1573276519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6648283004761</t>
+    <t xml:space="preserve">16.4236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0036582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5203266143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8344955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1674938201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1529903411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3704967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2781620025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6208276748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5144958496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918283462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1766586303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1573286056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6648292541504</t>
   </si>
   <si>
     <t xml:space="preserve">14.9639911651611</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7373285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7276601791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7953281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0896625518799</t>
+    <t xml:space="preserve">15.7373304367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7276620864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.911322593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7953290939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0896596908569</t>
   </si>
   <si>
     <t xml:space="preserve">15.2104921340942</t>
@@ -2603,88 +2603,88 @@
     <t xml:space="preserve">15.2491607666016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5826644897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5729942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5053281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3023271560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7663269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7426567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.061653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8199939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4918251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5691623687744</t>
+    <t xml:space="preserve">15.5826635360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5729951858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5053272247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3023252487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7663240432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7426643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0616550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.819995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4918270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5691585540771</t>
   </si>
   <si>
     <t xml:space="preserve">17.6561584472656</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5106792449951</t>
+    <t xml:space="preserve">17.5106830596924</t>
   </si>
   <si>
     <t xml:space="preserve">17.2682189941406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5543251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6028156280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1954765319824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1033458709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9772624969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9627151489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0160541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2536735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2100257873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1566829681396</t>
+    <t xml:space="preserve">17.5543270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6028175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1954822540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1033401489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9772605895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9627170562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.016056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2536716461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2100296020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1566886901855</t>
   </si>
   <si>
     <t xml:space="preserve">16.6863079071045</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8075370788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3458080291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3603572845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8802814483643</t>
+    <t xml:space="preserve">16.8075428009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3458118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.880277633667</t>
   </si>
   <si>
     <t xml:space="preserve">17.1178913116455</t>
@@ -2693,220 +2693,220 @@
     <t xml:space="preserve">17.3846035003662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.621166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.441743850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8927230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8199863433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4465866088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4271945953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6502532958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9228668212891</t>
+    <t xml:space="preserve">18.6211624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4417419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8927249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8199844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.446590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4271926879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6502590179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9228706359863</t>
   </si>
   <si>
     <t xml:space="preserve">19.44553565979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6007080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0371494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3378047943115</t>
+    <t xml:space="preserve">19.6007137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0371475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3378009796143</t>
   </si>
   <si>
     <t xml:space="preserve">20.0468444824219</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7267951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1244335174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3765983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6675491333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5511741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9391059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.968204498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4143371582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2009716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0651893615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3367519378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3755435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2203617095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8130264282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0942802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.49192237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8410739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8798656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7828807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6277027130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1330833435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1233825683594</t>
+    <t xml:space="preserve">19.7267990112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1244316101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.376594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.667552947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5511703491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9391098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9682121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4143333435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2009735107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0651874542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3367481231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.375545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2203636169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8130283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0942859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4919261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8410720825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8798694610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7828845977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.62770652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1330795288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.123384475708</t>
   </si>
   <si>
     <t xml:space="preserve">21.6083106994629</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6567974090576</t>
+    <t xml:space="preserve">21.6568031311035</t>
   </si>
   <si>
     <t xml:space="preserve">22.2969055175781</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3938903808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6848487854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9951953887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.460729598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8292713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7806529998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6542682647705</t>
+    <t xml:space="preserve">22.3938884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6848430633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9951934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4607238769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8292675018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7806549072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6542720794678</t>
   </si>
   <si>
     <t xml:space="preserve">23.2653770446777</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4306621551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6737155914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5959358215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3042678833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0723247528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9070453643799</t>
+    <t xml:space="preserve">23.4306602478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.673713684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5959396362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3042659759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.072322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9070529937744</t>
   </si>
   <si>
     <t xml:space="preserve">23.3626041412354</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9556579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9362125396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5098285675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0237140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2278842926025</t>
+    <t xml:space="preserve">23.9556560516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9362106323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.509822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0237121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2278823852539</t>
   </si>
   <si>
     <t xml:space="preserve">24.3931617736816</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4514942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6362152099609</t>
+    <t xml:space="preserve">24.4514961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6362190246582</t>
   </si>
   <si>
     <t xml:space="preserve">24.4028835296631</t>
   </si>
   <si>
-    <t xml:space="preserve">26.250114440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9792900085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4237232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3084468841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1528911590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7153911590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778846740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0445575714111</t>
+    <t xml:space="preserve">26.2501125335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9792881011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4237213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3084449768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1528873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7153873443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778865814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0445499420166</t>
   </si>
   <si>
     <t xml:space="preserve">25.9292774200439</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6292839050293</t>
+    <t xml:space="preserve">26.6292819976807</t>
   </si>
   <si>
     <t xml:space="preserve">26.4640026092529</t>
@@ -2915,118 +2915,118 @@
     <t xml:space="preserve">26.7848358154297</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4751205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7862281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5348472595215</t>
+    <t xml:space="preserve">27.4751224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7862319946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5348453521729</t>
   </si>
   <si>
     <t xml:space="preserve">28.1459579467773</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3973369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0667877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3112335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9029006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5042877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.55983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3653869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9487228393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1695442199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.702880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6348266601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2862167358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7514953613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6431522369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3487014770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5139789581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1056461334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8972949981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6410503387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0413093566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7925672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6173086166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7146949768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5194396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6755123138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9385604858398</t>
+    <t xml:space="preserve">27.3973426818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.066780090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3112354278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9028987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5042896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5598316192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.365385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9487266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1695461273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7028770446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6348247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2862129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7514915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6431541442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3486995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5139808654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1056423187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8972930908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6410484313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0413112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7925682067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6173105239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.714693069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5194406509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6755113601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9385623931885</t>
   </si>
   <si>
     <t xml:space="preserve">18.9627857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7335548400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0165939331055</t>
+    <t xml:space="preserve">18.7335510253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0165958404541</t>
   </si>
   <si>
     <t xml:space="preserve">18.9286460876465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3871097564697</t>
+    <t xml:space="preserve">19.3871078491211</t>
   </si>
   <si>
     <t xml:space="preserve">18.4701843261719</t>
   </si>
   <si>
-    <t xml:space="preserve">18.031229019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4996070861816</t>
+    <t xml:space="preserve">18.0312271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4996089935303</t>
   </si>
   <si>
     <t xml:space="preserve">19.1139793395996</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">20.0943088531494</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6795787811279</t>
+    <t xml:space="preserve">20.6795864105225</t>
   </si>
   <si>
     <t xml:space="preserve">21.625768661499</t>
@@ -3062,37 +3062,37 @@
     <t xml:space="preserve">20.8259010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8111057281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0939865112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3133029937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6937274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3472766876221</t>
+    <t xml:space="preserve">21.8111038208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0939846038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3133010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6937313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3472805023193</t>
   </si>
   <si>
     <t xml:space="preserve">23.1279621124268</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8793888092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2208003997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3476028442383</t>
+    <t xml:space="preserve">21.8793849945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.220796585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3476047515869</t>
   </si>
   <si>
     <t xml:space="preserve">22.630485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8255748748779</t>
+    <t xml:space="preserve">22.8255786895752</t>
   </si>
   <si>
     <t xml:space="preserve">22.318338394165</t>
@@ -3101,13 +3101,13 @@
     <t xml:space="preserve">23.1182117462158</t>
   </si>
   <si>
-    <t xml:space="preserve">21.723316192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0892734527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6647834777832</t>
+    <t xml:space="preserve">21.7233142852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0892753601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6647872924805</t>
   </si>
   <si>
     <t xml:space="preserve">21.9476680755615</t>
@@ -3116,52 +3116,52 @@
     <t xml:space="preserve">21.3428859710693</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3916645050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6842956542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3866271972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1965732574463</t>
+    <t xml:space="preserve">21.3916606903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6842937469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3866195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1965675354004</t>
   </si>
   <si>
     <t xml:space="preserve">21.67453956604</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7720851898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1915340423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.035135269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6839790344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4350719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.39133644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4596157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4451503753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3671112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2598094940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2450218200684</t>
+    <t xml:space="preserve">21.7720890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1915321350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0351333618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6839733123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4350700378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3913345336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4596176147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4451484680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3671131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2598171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2450256347656</t>
   </si>
   <si>
     <t xml:space="preserve">23.4206027984619</t>
@@ -3170,49 +3170,49 @@
     <t xml:space="preserve">23.7327480316162</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6059379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1486320495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8033237457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1877155303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1681709289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9336605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9727478027344</t>
+    <t xml:space="preserve">23.6059398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1486339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8033180236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1877136230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1681728363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9336566925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9727420806885</t>
   </si>
   <si>
     <t xml:space="preserve">23.6665172576904</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4710903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6762866973877</t>
+    <t xml:space="preserve">23.4710922241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6762886047363</t>
   </si>
   <si>
     <t xml:space="preserve">24.1062355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">23.988977432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.295202255249</t>
+    <t xml:space="preserve">23.9889755249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2952079772949</t>
   </si>
   <si>
     <t xml:space="preserve">23.5785751342773</t>
   </si>
   <si>
-    <t xml:space="preserve">24.770694732666</t>
+    <t xml:space="preserve">24.7706966400146</t>
   </si>
   <si>
     <t xml:space="preserve">25.26904296875</t>
@@ -3224,31 +3224,31 @@
     <t xml:space="preserve">24.9368133544922</t>
   </si>
   <si>
-    <t xml:space="preserve">24.966121673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5621852874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1680221557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8748741149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0703067779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9628124237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2983570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5524120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2137260437012</t>
+    <t xml:space="preserve">24.9661235809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.562183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1680183410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8748722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0703048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9628143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2983589172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5524158477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2137241363525</t>
   </si>
   <si>
     <t xml:space="preserve">24.0182914733887</t>
@@ -3257,16 +3257,16 @@
     <t xml:space="preserve">23.1193141937256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2658882141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0085182189941</t>
+    <t xml:space="preserve">23.2658920288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0085201263428</t>
   </si>
   <si>
     <t xml:space="preserve">24.1257801055908</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8424053192139</t>
+    <t xml:space="preserve">23.8424072265625</t>
   </si>
   <si>
     <t xml:space="preserve">23.7837772369385</t>
@@ -3278,13 +3278,13 @@
     <t xml:space="preserve">23.6176643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4482383728027</t>
+    <t xml:space="preserve">24.4482364654541</t>
   </si>
   <si>
     <t xml:space="preserve">24.89772605896</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7316093444824</t>
+    <t xml:space="preserve">24.7316112518311</t>
   </si>
   <si>
     <t xml:space="preserve">24.1355514526367</t>
@@ -3296,22 +3296,22 @@
     <t xml:space="preserve">24.1746349334717</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1941814422607</t>
+    <t xml:space="preserve">24.1941795349121</t>
   </si>
   <si>
     <t xml:space="preserve">23.764232635498</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5166397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7218360900879</t>
+    <t xml:space="preserve">24.5166339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7218379974365</t>
   </si>
   <si>
     <t xml:space="preserve">25.4156150817871</t>
   </si>
   <si>
-    <t xml:space="preserve">25.014986038208</t>
+    <t xml:space="preserve">25.0149841308594</t>
   </si>
   <si>
     <t xml:space="preserve">24.6925239562988</t>
@@ -3320,76 +3320,76 @@
     <t xml:space="preserve">24.5654926300049</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9270420074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4058399200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6469764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.080228805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5883445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7773151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3798389434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6338958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8195495605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7478466033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.992130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1973285675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5035572052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3472156524658</t>
+    <t xml:space="preserve">24.9270401000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4058437347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6469841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0802345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5883464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7773132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3798427581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6338920593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8195514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7478446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9921321868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1973304748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5035552978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3472175598145</t>
   </si>
   <si>
     <t xml:space="preserve">24.6934146881104</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7815093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9772510528564</t>
+    <t xml:space="preserve">24.7815055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9772529602051</t>
   </si>
   <si>
     <t xml:space="preserve">25.1240634918213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5172481536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2023582458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6330032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6917266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4828033447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1696147918701</t>
+    <t xml:space="preserve">24.5172519683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2023601531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6330070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6917285919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4828109741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1696109771729</t>
   </si>
   <si>
     <t xml:space="preserve">27.4632301330566</t>
@@ -3398,25 +3398,25 @@
     <t xml:space="preserve">27.4338722229004</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6296195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9036636352539</t>
+    <t xml:space="preserve">27.6296157836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9036655426025</t>
   </si>
   <si>
     <t xml:space="preserve">28.6572856903076</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0487785339355</t>
+    <t xml:space="preserve">29.0487804412842</t>
   </si>
   <si>
     <t xml:space="preserve">29.2445240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8921852111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4811153411865</t>
+    <t xml:space="preserve">28.8921813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4811134338379</t>
   </si>
   <si>
     <t xml:space="preserve">28.6181373596191</t>
@@ -3425,22 +3425,22 @@
     <t xml:space="preserve">28.8236751556396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5202655792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3245182037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0504722595215</t>
+    <t xml:space="preserve">28.5202598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3245162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0504741668701</t>
   </si>
   <si>
     <t xml:space="preserve">28.001537322998</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3653564453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6215229034424</t>
+    <t xml:space="preserve">27.3653583526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.621524810791</t>
   </si>
   <si>
     <t xml:space="preserve">25.3883209228516</t>
@@ -3449,16 +3449,16 @@
     <t xml:space="preserve">25.9755611419678</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6134262084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.112585067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8662071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3457870483398</t>
+    <t xml:space="preserve">25.6134300231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1125831604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8662090301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3457832336426</t>
   </si>
   <si>
     <t xml:space="preserve">28.207067489624</t>
@@ -3467,91 +3467,91 @@
     <t xml:space="preserve">28.3832416534424</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8317623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0406837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5398406982422</t>
+    <t xml:space="preserve">29.83176612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0406818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5398368835449</t>
   </si>
   <si>
     <t xml:space="preserve">28.1091938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">28.344087600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1466503143311</t>
+    <t xml:space="preserve">28.3440895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.146656036377</t>
   </si>
   <si>
     <t xml:space="preserve">29.0585670471191</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4794254302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7828311920166</t>
+    <t xml:space="preserve">29.479419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7828273773193</t>
   </si>
   <si>
     <t xml:space="preserve">30.4483680725098</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6538944244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7615623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2998695373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.847957611084</t>
+    <t xml:space="preserve">30.6539001464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7615604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.299861907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8479537963867</t>
   </si>
   <si>
     <t xml:space="preserve">32.533073425293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1317825317383</t>
+    <t xml:space="preserve">32.1317939758301</t>
   </si>
   <si>
     <t xml:space="preserve">33.5803108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7092323303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9539260864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3747673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6586112976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2573356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3032493591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8138828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3850574493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5906391143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4044170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0613632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4142169952393</t>
+    <t xml:space="preserve">32.7092399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9539184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3747749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.658618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2573280334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3032512664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8138885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3850593566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5906429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.404411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0613574981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4142150878906</t>
   </si>
   <si>
     <t xml:space="preserve">28.5026779174805</t>
@@ -3560,142 +3560,142 @@
     <t xml:space="preserve">29.5808410644531</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7278614044189</t>
+    <t xml:space="preserve">29.7278633117676</t>
   </si>
   <si>
     <t xml:space="preserve">29.8062744140625</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5416316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9434947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0902652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3745079040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.462718963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7371673583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3448524475098</t>
+    <t xml:space="preserve">29.5416355133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9434928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0902633666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3745059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4627170562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7371654510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.344856262207</t>
   </si>
   <si>
     <t xml:space="preserve">32.6781005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9623527526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0015563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2468414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4428596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0998229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8251342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7369232177734</t>
+    <t xml:space="preserve">32.9623489379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0015487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2468452453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.44287109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0998191833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8251304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7369117736816</t>
   </si>
   <si>
     <t xml:space="preserve">31.9527931213379</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0018043518066</t>
+    <t xml:space="preserve">32.0018081665039</t>
   </si>
   <si>
     <t xml:space="preserve">32.0508155822754</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0510597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3546600341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6094932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2661895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2563972473145</t>
+    <t xml:space="preserve">31.0510635375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3546485900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6094970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2661933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2563896179199</t>
   </si>
   <si>
     <t xml:space="preserve">33.0407638549805</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0505599975586</t>
+    <t xml:space="preserve">33.0505676269531</t>
   </si>
   <si>
     <t xml:space="preserve">33.6190414428711</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8836860656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9819450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1777267456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6580009460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8540344238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4423637390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7170677185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2759971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.932689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1583824157715</t>
+    <t xml:space="preserve">33.8836822509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9819526672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6580047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8540306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4423675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7170639038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2760009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9326934814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1583786010742</t>
   </si>
   <si>
     <t xml:space="preserve">32.2664413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0900268554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7861728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3549060821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8060245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1395244598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7572689056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.688907623291</t>
+    <t xml:space="preserve">32.0900230407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.786169052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3549098968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8060264587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1395263671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.757266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6889057159424</t>
   </si>
   <si>
     <t xml:space="preserve">27.9047870635986</t>
@@ -3704,28 +3704,28 @@
     <t xml:space="preserve">28.4928760528564</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3063983917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5614891052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6886596679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0907669067383</t>
+    <t xml:space="preserve">29.3064002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5614852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6886577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0907688140869</t>
   </si>
   <si>
     <t xml:space="preserve">29.629846572876</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1885261535645</t>
+    <t xml:space="preserve">30.1885299682617</t>
   </si>
   <si>
     <t xml:space="preserve">29.9630966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2081317901611</t>
+    <t xml:space="preserve">30.2081356048584</t>
   </si>
   <si>
     <t xml:space="preserve">31.4271392822266</t>
@@ -3737,31 +3737,31 @@
     <t xml:space="preserve">30.6713924407959</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8775062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6725082397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3093585968018</t>
+    <t xml:space="preserve">30.8775081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6725044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3093566894531</t>
   </si>
   <si>
     <t xml:space="preserve">31.3388042449951</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9178771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.472412109375</t>
+    <t xml:space="preserve">31.9178810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4724197387695</t>
   </si>
   <si>
     <t xml:space="preserve">32.5362129211426</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5852966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5018653869629</t>
+    <t xml:space="preserve">32.5852890014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5018615722656</t>
   </si>
   <si>
     <t xml:space="preserve">32.6638069152832</t>
@@ -3773,37 +3773,37 @@
     <t xml:space="preserve">32.1926918029785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9865837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0651054382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3142681121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.121768951416</t>
+    <t xml:space="preserve">31.9865779876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0651016235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3142700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1217632293701</t>
   </si>
   <si>
     <t xml:space="preserve">30.4701881408691</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1228790283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6038055419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0111198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1436233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.407506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.568338394165</t>
+    <t xml:space="preserve">31.1228733062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6038074493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0111236572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1436195373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4075088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5683403015137</t>
   </si>
   <si>
     <t xml:space="preserve">30.1315803527832</t>
@@ -3812,172 +3812,172 @@
     <t xml:space="preserve">29.4936103820801</t>
   </si>
   <si>
-    <t xml:space="preserve">30.219913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5475959777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3720436096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5819435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5857372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0017566680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3796310424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6495380401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4974060058594</t>
+    <t xml:space="preserve">30.2199172973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5475997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3720417022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5819473266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0017547607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3796291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6495399475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.497407913208</t>
   </si>
   <si>
     <t xml:space="preserve">28.6544437408447</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6446266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0519428253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.130464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.380744934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.513240814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4690780639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6899108886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0628776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0825042724609</t>
+    <t xml:space="preserve">28.644624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.051944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1304664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3807411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5132427215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4690742492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6899070739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0628719329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0825023651123</t>
   </si>
   <si>
     <t xml:space="preserve">29.9598178863525</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9549121856689</t>
+    <t xml:space="preserve">29.9549102783203</t>
   </si>
   <si>
     <t xml:space="preserve">29.557409286499</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0039863586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5917625427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6261119842529</t>
+    <t xml:space="preserve">30.0039844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5917644500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6261100769043</t>
   </si>
   <si>
     <t xml:space="preserve">29.9941711425781</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5143566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8284320831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0051002502441</t>
+    <t xml:space="preserve">30.5143623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8284339904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0050983428955</t>
   </si>
   <si>
     <t xml:space="preserve">30.9658393859863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9069499969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2750053405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8812980651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6797008514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0337295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.259916305542</t>
+    <t xml:space="preserve">30.9069480895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2750091552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8812999725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6796989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0337314605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2599201202393</t>
   </si>
   <si>
     <t xml:space="preserve">30.2894191741943</t>
   </si>
   <si>
-    <t xml:space="preserve">30.432014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6582050323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0976524353027</t>
+    <t xml:space="preserve">30.4320163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0976505279541</t>
   </si>
   <si>
     <t xml:space="preserve">30.2402515411377</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9089794158936</t>
+    <t xml:space="preserve">30.9089775085449</t>
   </si>
   <si>
     <t xml:space="preserve">31.2187557220459</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1007442474365</t>
+    <t xml:space="preserve">31.1007423400879</t>
   </si>
   <si>
     <t xml:space="preserve">31.3416843414307</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4664363861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6072082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8579788208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8874759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9809036254883</t>
+    <t xml:space="preserve">30.4664344787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6072044372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8579845428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8874855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6791458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9809074401855</t>
   </si>
   <si>
     <t xml:space="preserve">31.6367073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8204650878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5795269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7940578460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7842254638672</t>
+    <t xml:space="preserve">30.8204669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5795288085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7940540313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7842197418213</t>
   </si>
   <si>
     <t xml:space="preserve">32.782398223877</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">32.6447219848633</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4591407775879</t>
+    <t xml:space="preserve">34.4591255187988</t>
   </si>
   <si>
     <t xml:space="preserve">33.9526748657227</t>
@@ -3998,7 +3998,7 @@
     <t xml:space="preserve">34.5279731750488</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9213371276855</t>
+    <t xml:space="preserve">34.9213409423828</t>
   </si>
   <si>
     <t xml:space="preserve">35.1868629455566</t>
@@ -4007,67 +4007,67 @@
     <t xml:space="preserve">35.3540458679199</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8998374938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7769241333008</t>
+    <t xml:space="preserve">35.8998413085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7769317626953</t>
   </si>
   <si>
     <t xml:space="preserve">35.6294021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9932632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8850975036621</t>
+    <t xml:space="preserve">35.9932594299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8850936889648</t>
   </si>
   <si>
     <t xml:space="preserve">35.9146003723145</t>
   </si>
   <si>
-    <t xml:space="preserve">35.496639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8752670288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2458724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7818412780762</t>
+    <t xml:space="preserve">35.4966430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8752555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2458686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7818374633789</t>
   </si>
   <si>
     <t xml:space="preserve">35.8801803588867</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0276832580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1801223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9096832275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6767539978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2520637512207</t>
+    <t xml:space="preserve">36.0276870727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.180118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9096794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6767501831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2520523071289</t>
   </si>
   <si>
     <t xml:space="preserve">37.0553741455078</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3110542297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.291389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2668075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5864181518555</t>
+    <t xml:space="preserve">37.3110580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2913932800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2668113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5864219665527</t>
   </si>
   <si>
     <t xml:space="preserve">37.5765800476074</t>
@@ -4076,13 +4076,13 @@
     <t xml:space="preserve">36.9029426574707</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0307807922363</t>
+    <t xml:space="preserve">37.0307846069336</t>
   </si>
   <si>
     <t xml:space="preserve">37.6208381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4880676269531</t>
+    <t xml:space="preserve">37.4880752563477</t>
   </si>
   <si>
     <t xml:space="preserve">38.8451957702637</t>
@@ -4091,37 +4091,37 @@
     <t xml:space="preserve">38.9435386657715</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2975654602051</t>
+    <t xml:space="preserve">39.2975730895996</t>
   </si>
   <si>
     <t xml:space="preserve">38.2207260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6543846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2010269165039</t>
+    <t xml:space="preserve">37.6543807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2010307312012</t>
   </si>
   <si>
     <t xml:space="preserve">38.5014381408691</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0234527587891</t>
+    <t xml:space="preserve">39.0234489440918</t>
   </si>
   <si>
     <t xml:space="preserve">38.900333404541</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9545059204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.999397277832</t>
+    <t xml:space="preserve">38.9545021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9993896484375</t>
   </si>
   <si>
     <t xml:space="preserve">36.920597076416</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1963768005371</t>
+    <t xml:space="preserve">37.1963806152344</t>
   </si>
   <si>
     <t xml:space="preserve">36.748233795166</t>
@@ -4130,16 +4130,16 @@
     <t xml:space="preserve">35.4973564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3838081359863</t>
+    <t xml:space="preserve">36.3838043212891</t>
   </si>
   <si>
     <t xml:space="preserve">35.7780609130859</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3345642089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4825820922852</t>
+    <t xml:space="preserve">36.3345565795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4825859069824</t>
   </si>
   <si>
     <t xml:space="preserve">35.4136390686035</t>
@@ -4157,10 +4157,10 @@
     <t xml:space="preserve">35.9849052429199</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4872283935547</t>
+    <t xml:space="preserve">36.1572647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4872245788574</t>
   </si>
   <si>
     <t xml:space="preserve">36.8910522460938</t>
@@ -4169,82 +4169,82 @@
     <t xml:space="preserve">37.3490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6987075805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2502708435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2551956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7077140808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2792510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5156402587891</t>
+    <t xml:space="preserve">37.6987113952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2502746582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.255199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7077102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2792549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5156440734863</t>
   </si>
   <si>
     <t xml:space="preserve">41.1016845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7616004943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7465438842773</t>
+    <t xml:space="preserve">41.7615966796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7465400695801</t>
   </si>
   <si>
     <t xml:space="preserve">43.3966064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9974174499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6231384277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7662353515625</t>
+    <t xml:space="preserve">43.9974212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6231422424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7662391662598</t>
   </si>
   <si>
     <t xml:space="preserve">43.5738945007324</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1254539489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2141036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4603424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0660781860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7262763977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1005554199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0217590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2143936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.032169342041</t>
+    <t xml:space="preserve">44.1254577636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2141075134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4603385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0660820007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7262687683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1005516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0217552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2143974304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0321731567383</t>
   </si>
   <si>
     <t xml:space="preserve">42.8598098754883</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2838973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3525581359863</t>
+    <t xml:space="preserve">41.2839088439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3525619506836</t>
   </si>
   <si>
     <t xml:space="preserve">42.451057434082</t>
@@ -4253,13 +4253,13 @@
     <t xml:space="preserve">44.2682800292969</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3380699157715</t>
+    <t xml:space="preserve">41.3380737304688</t>
   </si>
   <si>
     <t xml:space="preserve">41.2543525695801</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3971710205078</t>
+    <t xml:space="preserve">41.3971672058105</t>
   </si>
   <si>
     <t xml:space="preserve">43.7954978942871</t>
@@ -4268,10 +4268,10 @@
     <t xml:space="preserve">42.5249328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2392959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.796070098877</t>
+    <t xml:space="preserve">42.2392921447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7960662841797</t>
   </si>
   <si>
     <t xml:space="preserve">41.8799095153809</t>
@@ -4283,7 +4283,7 @@
     <t xml:space="preserve">42.0130653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3571472167969</t>
+    <t xml:space="preserve">41.3571510314941</t>
   </si>
   <si>
     <t xml:space="preserve">40.8245277404785</t>
@@ -4292,49 +4292,49 @@
     <t xml:space="preserve">40.804801940918</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2881050109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9193649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3533515930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3101081848145</t>
+    <t xml:space="preserve">41.2881011962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9193572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3533477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3101005554199</t>
   </si>
   <si>
     <t xml:space="preserve">43.4038009643555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.196662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1621437072754</t>
+    <t xml:space="preserve">43.1966667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1621398925781</t>
   </si>
   <si>
     <t xml:space="preserve">42.6393890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0240592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2349967956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7786064147949</t>
+    <t xml:space="preserve">43.0240631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2349891662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7786102294922</t>
   </si>
   <si>
     <t xml:space="preserve">41.7960739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2793769836426</t>
+    <t xml:space="preserve">42.2793731689453</t>
   </si>
   <si>
     <t xml:space="preserve">43.300235748291</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3780097961426</t>
+    <t xml:space="preserve">42.3780136108398</t>
   </si>
   <si>
     <t xml:space="preserve">43.0289878845215</t>
@@ -4343,37 +4343,37 @@
     <t xml:space="preserve">42.082103729248</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7702827453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8689117431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0946350097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1663398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.102237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2957077026367</t>
+    <t xml:space="preserve">40.7702789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8689079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0946388244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1663475036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1022338867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2957000732422</t>
   </si>
   <si>
     <t xml:space="preserve">40.0551795959473</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4485855102539</t>
+    <t xml:space="preserve">39.4485893249512</t>
   </si>
   <si>
     <t xml:space="preserve">40.6864395141602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8985023498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7900009155273</t>
+    <t xml:space="preserve">40.8985061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7900085449219</t>
   </si>
   <si>
     <t xml:space="preserve">39.1280212402344</t>
@@ -4382,16 +4382,16 @@
     <t xml:space="preserve">38.3093681335449</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4030685424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8074645996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3017692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1291618347168</t>
+    <t xml:space="preserve">38.4030647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8074722290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3017654418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1291580200195</t>
   </si>
   <si>
     <t xml:space="preserve">39.4535179138184</t>
@@ -4406,19 +4406,19 @@
     <t xml:space="preserve">39.3400917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5855407714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7175636291504</t>
+    <t xml:space="preserve">38.5855369567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7175674438477</t>
   </si>
   <si>
     <t xml:space="preserve">37.0517807006836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1800079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9630126953125</t>
+    <t xml:space="preserve">37.180004119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9630165100098</t>
   </si>
   <si>
     <t xml:space="preserve">36.1788749694824</t>
@@ -4430,37 +4430,37 @@
     <t xml:space="preserve">37.4413871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3860092163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3021697998047</t>
+    <t xml:space="preserve">36.3860054016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.302173614502</t>
   </si>
   <si>
     <t xml:space="preserve">36.0358581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5305595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0965690612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2433891296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5920028686523</t>
+    <t xml:space="preserve">33.5305557250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0965728759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2433853149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5919990539551</t>
   </si>
   <si>
     <t xml:space="preserve">34.6500511169434</t>
   </si>
   <si>
-    <t xml:space="preserve">34.511962890625</t>
+    <t xml:space="preserve">34.5119667053223</t>
   </si>
   <si>
     <t xml:space="preserve">34.1568832397461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6599159240723</t>
+    <t xml:space="preserve">34.6599082946777</t>
   </si>
   <si>
     <t xml:space="preserve">37.258918762207</t>
@@ -4469,13 +4469,13 @@
     <t xml:space="preserve">37.1208305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2107315063477</t>
+    <t xml:space="preserve">38.2107353210449</t>
   </si>
   <si>
     <t xml:space="preserve">38.2996406555176</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7046661376953</t>
+    <t xml:space="preserve">38.7046699523926</t>
   </si>
   <si>
     <t xml:space="preserve">38.6256370544434</t>
@@ -4484,28 +4484,28 @@
     <t xml:space="preserve">39.4208641052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7073516845703</t>
+    <t xml:space="preserve">39.707347869873</t>
   </si>
   <si>
     <t xml:space="preserve">39.8357734680176</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9174842834473</t>
+    <t xml:space="preserve">40.91748046875</t>
   </si>
   <si>
     <t xml:space="preserve">40.2309265136719</t>
   </si>
   <si>
-    <t xml:space="preserve">39.129451751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1810989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2304916381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1905403137207</t>
+    <t xml:space="preserve">39.1294479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.181095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2304878234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1905364990234</t>
   </si>
   <si>
     <t xml:space="preserve">35.1631622314453</t>
@@ -4514,13 +4514,13 @@
     <t xml:space="preserve">34.8174018859863</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6050109863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4469528198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3580474853516</t>
+    <t xml:space="preserve">34.6050186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4469604492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3580436706543</t>
   </si>
   <si>
     <t xml:space="preserve">34.2790107727051</t>
@@ -4535,7 +4535,7 @@
     <t xml:space="preserve">35.2866439819336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5484237670898</t>
+    <t xml:space="preserve">35.5484313964844</t>
   </si>
   <si>
     <t xml:space="preserve">34.8766746520996</t>
@@ -4544,22 +4544,22 @@
     <t xml:space="preserve">34.8569183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4321365356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6000785827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1680946350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3360404968262</t>
+    <t xml:space="preserve">34.4321327209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6000747680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.168098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3360328674316</t>
   </si>
   <si>
     <t xml:space="preserve">34.4420204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2619476318359</t>
+    <t xml:space="preserve">35.2619438171387</t>
   </si>
   <si>
     <t xml:space="preserve">34.5901947021484</t>
@@ -4568,7 +4568,7 @@
     <t xml:space="preserve">34.6889839172363</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3284072875977</t>
+    <t xml:space="preserve">34.3284111022949</t>
   </si>
   <si>
     <t xml:space="preserve">32.9898490905762</t>
@@ -4583,10 +4583,10 @@
     <t xml:space="preserve">35.3162803649902</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4451370239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7091789245605</t>
+    <t xml:space="preserve">37.445125579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7091751098633</t>
   </si>
   <si>
     <t xml:space="preserve">37.6871643066406</t>
@@ -4601,40 +4601,40 @@
     <t xml:space="preserve">36.2992057800293</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4029273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1433982849121</t>
+    <t xml:space="preserve">36.4029312133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1434020996094</t>
   </si>
   <si>
     <t xml:space="preserve">35.3310966491699</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9682731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8129005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3710479736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7338638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5955657958984</t>
+    <t xml:space="preserve">35.9682693481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8128967285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3710441589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7338714599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5955696105957</t>
   </si>
   <si>
     <t xml:space="preserve">37.2475624084473</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4276313781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5906295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3486022949219</t>
+    <t xml:space="preserve">36.4276351928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5906257629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3485946655273</t>
   </si>
   <si>
     <t xml:space="preserve">36.5362930297852</t>
@@ -4646,34 +4646,34 @@
     <t xml:space="preserve">34.0567398071289</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1748542785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1304016113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2960929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1968727111816</t>
+    <t xml:space="preserve">32.1748580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1304092407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2960891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.196870803833</t>
   </si>
   <si>
     <t xml:space="preserve">31.325288772583</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1966247558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9983158111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3549861907959</t>
+    <t xml:space="preserve">31.196626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9983196258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3549842834473</t>
   </si>
   <si>
     <t xml:space="preserve">30.8056793212891</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4836483001709</t>
+    <t xml:space="preserve">31.4836502075195</t>
   </si>
   <si>
     <t xml:space="preserve">31.5182914733887</t>
@@ -4688,31 +4688,31 @@
     <t xml:space="preserve">29.677375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2669906616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7226333618164</t>
+    <t xml:space="preserve">28.8064022064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2669925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7226371765137</t>
   </si>
   <si>
     <t xml:space="preserve">29.0637359619141</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8802719116211</t>
+    <t xml:space="preserve">29.8802738189697</t>
   </si>
   <si>
     <t xml:space="preserve">30.5087547302246</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4493713378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7908306121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8254737854004</t>
+    <t xml:space="preserve">30.449369430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7908325195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.825475692749</t>
   </si>
   <si>
     <t xml:space="preserve">30.9244480133057</t>
@@ -4721,34 +4721,34 @@
     <t xml:space="preserve">31.9488258361816</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3100852966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7158737182617</t>
+    <t xml:space="preserve">32.3100776672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.715877532959</t>
   </si>
   <si>
     <t xml:space="preserve">33.4482841491699</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7155113220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.581901550293</t>
+    <t xml:space="preserve">33.7155151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5819053649902</t>
   </si>
   <si>
     <t xml:space="preserve">33.8045921325684</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5027236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6409187316895</t>
+    <t xml:space="preserve">33.5027198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6409225463867</t>
   </si>
   <si>
     <t xml:space="preserve">35.8978958129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5560722351074</t>
+    <t xml:space="preserve">36.5560760498047</t>
   </si>
   <si>
     <t xml:space="preserve">36.882682800293</t>
@@ -4757,34 +4757,34 @@
     <t xml:space="preserve">37.1895027160645</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0258369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2188377380371</t>
+    <t xml:space="preserve">38.0258293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2188339233398</t>
   </si>
   <si>
     <t xml:space="preserve">37.2587890625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0113525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0566101074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2442970275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6203994750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7441253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1598167419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5712776184082</t>
+    <t xml:space="preserve">37.0113563537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0566139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2443008422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6204032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7441215515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1598091125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5712852478027</t>
   </si>
   <si>
     <t xml:space="preserve">36.7243232727051</t>
@@ -4793,13 +4793,13 @@
     <t xml:space="preserve">35.2149772644043</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3931198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5316886901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1156425476074</t>
+    <t xml:space="preserve">35.3931274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5316925048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1156349182129</t>
   </si>
   <si>
     <t xml:space="preserve">35.2100219726562</t>
@@ -4817,16 +4817,16 @@
     <t xml:space="preserve">33.9233589172363</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2248725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3390464782715</t>
+    <t xml:space="preserve">35.2248687744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3390502929688</t>
   </si>
   <si>
     <t xml:space="preserve">34.5666923522949</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2941474914551</t>
+    <t xml:space="preserve">35.2941513061523</t>
   </si>
   <si>
     <t xml:space="preserve">35.7692260742188</t>
@@ -4838,28 +4838,28 @@
     <t xml:space="preserve">36.5412254333496</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3238410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4871482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3980712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9477386474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4831123352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3988418579102</t>
+    <t xml:space="preserve">35.323844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4871559143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.398078918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9477348327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4831085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3988456726074</t>
   </si>
   <si>
     <t xml:space="preserve">36.5488967895508</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3578414916992</t>
+    <t xml:space="preserve">34.3578453063965</t>
   </si>
   <si>
     <t xml:space="preserve">33.470516204834</t>
@@ -4868,7 +4868,7 @@
     <t xml:space="preserve">33.812557220459</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2190399169922</t>
+    <t xml:space="preserve">34.2190437316895</t>
   </si>
   <si>
     <t xml:space="preserve">33.3416328430176</t>
@@ -4883,31 +4883,31 @@
     <t xml:space="preserve">32.4196090698242</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1744346618652</t>
+    <t xml:space="preserve">34.174430847168</t>
   </si>
   <si>
     <t xml:space="preserve">34.6750984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">35.225341796875</t>
+    <t xml:space="preserve">35.2253456115723</t>
   </si>
   <si>
     <t xml:space="preserve">33.3713722229004</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7319107055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7305679321289</t>
+    <t xml:space="preserve">32.7319068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7305660247803</t>
   </si>
   <si>
     <t xml:space="preserve">31.4827079772949</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2262802124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7206535339355</t>
+    <t xml:space="preserve">32.2262763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7206516265869</t>
   </si>
   <si>
     <t xml:space="preserve">32.3006362915039</t>
@@ -4925,13 +4925,13 @@
     <t xml:space="preserve">33.0640296936035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7778549194336</t>
+    <t xml:space="preserve">33.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">34.8981704711914</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6304817199707</t>
+    <t xml:space="preserve">34.630485534668</t>
   </si>
   <si>
     <t xml:space="preserve">32.221321105957</t>
@@ -4949,7 +4949,7 @@
     <t xml:space="preserve">31.1357116699219</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6399993896484</t>
+    <t xml:space="preserve">30.6399974822998</t>
   </si>
   <si>
     <t xml:space="preserve">31.6661243438721</t>
@@ -4958,7 +4958,7 @@
     <t xml:space="preserve">31.8247489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2127456665039</t>
+    <t xml:space="preserve">33.2127494812012</t>
   </si>
   <si>
     <t xml:space="preserve">32.8954925537109</t>
@@ -4967,22 +4967,22 @@
     <t xml:space="preserve">35.5624237060547</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6777801513672</t>
+    <t xml:space="preserve">36.6777763366699</t>
   </si>
   <si>
     <t xml:space="preserve">37.3370780944824</t>
   </si>
   <si>
-    <t xml:space="preserve">36.360523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3803482055664</t>
+    <t xml:space="preserve">36.3605194091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3803520202637</t>
   </si>
   <si>
     <t xml:space="preserve">36.6629104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">36.618293762207</t>
+    <t xml:space="preserve">36.6182975769043</t>
   </si>
   <si>
     <t xml:space="preserve">36.6579475402832</t>
@@ -5000,19 +5000,19 @@
     <t xml:space="preserve">36.0581359863281</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4384956359863</t>
+    <t xml:space="preserve">35.4384994506836</t>
   </si>
   <si>
     <t xml:space="preserve">35.7359199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5637626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3853073120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3357315063477</t>
+    <t xml:space="preserve">36.5637664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.385311126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3357353210449</t>
   </si>
   <si>
     <t xml:space="preserve">35.9094276428223</t>
@@ -5027,28 +5027,28 @@
     <t xml:space="preserve">36.5736808776855</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2261123657227</t>
+    <t xml:space="preserve">36.2261161804199</t>
   </si>
   <si>
     <t xml:space="preserve">37.4872741699219</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9758605957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1437034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.686897277832</t>
+    <t xml:space="preserve">36.9758567810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1436996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6869010925293</t>
   </si>
   <si>
     <t xml:space="preserve">34.3939514160156</t>
   </si>
   <si>
-    <t xml:space="preserve">34.289680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8904724121094</t>
+    <t xml:space="preserve">34.2896842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8904685974121</t>
   </si>
   <si>
     <t xml:space="preserve">33.6392402648926</t>
@@ -5069,7 +5069,7 @@
     <t xml:space="preserve">32.7753028869629</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2072715759277</t>
+    <t xml:space="preserve">33.2072677612305</t>
   </si>
   <si>
     <t xml:space="preserve">33.3165054321289</t>
@@ -5087,25 +5087,25 @@
     <t xml:space="preserve">37.0354385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8616638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.095027923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1893653869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5865783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7007751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4803123474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2350234985352</t>
+    <t xml:space="preserve">36.8616600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0950241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1893615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5865745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7007789611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4803161621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2350273132324</t>
   </si>
   <si>
     <t xml:space="preserve">37.7603607177734</t>
@@ -5120,7 +5120,7 @@
     <t xml:space="preserve">38.8328437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1605529785156</t>
+    <t xml:space="preserve">39.1605491638184</t>
   </si>
   <si>
     <t xml:space="preserve">42.3730316162109</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">43.2915954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8099670410156</t>
+    <t xml:space="preserve">42.8099746704102</t>
   </si>
   <si>
     <t xml:space="preserve">43.8973541259766</t>
@@ -5147,10 +5147,10 @@
     <t xml:space="preserve">44.7960548400879</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9549369812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9003219604492</t>
+    <t xml:space="preserve">44.9549407958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.900318145752</t>
   </si>
   <si>
     <t xml:space="preserve">45.8387451171875</t>
@@ -5159,13 +5159,13 @@
     <t xml:space="preserve">44.6123390197754</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0343780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2925720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8586044311523</t>
+    <t xml:space="preserve">45.0343818664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2925758361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8586082458496</t>
   </si>
   <si>
     <t xml:space="preserve">46.1763801574707</t>
@@ -5183,22 +5183,22 @@
     <t xml:space="preserve">44.2896003723145</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9201850891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3044967651367</t>
+    <t xml:space="preserve">44.9201812744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.304500579834</t>
   </si>
   <si>
     <t xml:space="preserve">45.2429237365723</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3769760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9072761535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9996223449707</t>
+    <t xml:space="preserve">45.3769836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9072799682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.999626159668</t>
   </si>
   <si>
     <t xml:space="preserve">45.4862174987793</t>
@@ -5210,22 +5210,22 @@
     <t xml:space="preserve">46.6977233886719</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9281234741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0810661315918</t>
+    <t xml:space="preserve">45.9281158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0810623168945</t>
   </si>
   <si>
     <t xml:space="preserve">45.5557289123535</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7980422973633</t>
+    <t xml:space="preserve">43.7980461120605</t>
   </si>
   <si>
     <t xml:space="preserve">44.959903717041</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1287231445312</t>
+    <t xml:space="preserve">45.128719329834</t>
   </si>
   <si>
     <t xml:space="preserve">45.6557273864746</t>
@@ -5234,7 +5234,7 @@
     <t xml:space="preserve">46.1330223083496</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9284973144531</t>
+    <t xml:space="preserve">46.9285011291504</t>
   </si>
   <si>
     <t xml:space="preserve">45.1535835266113</t>
@@ -5258,13 +5258,13 @@
     <t xml:space="preserve">48.0720100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2964096069336</t>
+    <t xml:space="preserve">47.2964134216309</t>
   </si>
   <si>
     <t xml:space="preserve">45.4170837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6905326843262</t>
+    <t xml:space="preserve">45.6905288696289</t>
   </si>
   <si>
     <t xml:space="preserve">46.192684173584</t>
@@ -5276,13 +5276,13 @@
     <t xml:space="preserve">46.0882720947266</t>
   </si>
   <si>
-    <t xml:space="preserve">45.869514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.486686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7800216674805</t>
+    <t xml:space="preserve">45.8695182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4866905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7800254821777</t>
   </si>
   <si>
     <t xml:space="preserve">44.8154983520508</t>
@@ -5297,7 +5297,7 @@
     <t xml:space="preserve">42.1804656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6435165405273</t>
+    <t xml:space="preserve">41.6435127258301</t>
   </si>
   <si>
     <t xml:space="preserve">42.0611419677734</t>
@@ -5312,25 +5312,25 @@
     <t xml:space="preserve">38.9189872741699</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2477989196777</t>
+    <t xml:space="preserve">38.2477951049805</t>
   </si>
   <si>
     <t xml:space="preserve">37.3628196716309</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3422660827637</t>
+    <t xml:space="preserve">38.3422622680664</t>
   </si>
   <si>
     <t xml:space="preserve">38.4914131164551</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4019203186035</t>
+    <t xml:space="preserve">38.4019241333008</t>
   </si>
   <si>
     <t xml:space="preserve">38.9438438415527</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0489311218262</t>
+    <t xml:space="preserve">38.0489273071289</t>
   </si>
   <si>
     <t xml:space="preserve">38.7250900268555</t>
@@ -5342,34 +5342,34 @@
     <t xml:space="preserve">39.2620391845703</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5205688476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9176406860352</t>
+    <t xml:space="preserve">39.5205726623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9176368713379</t>
   </si>
   <si>
     <t xml:space="preserve">41.3054351806641</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5689392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2855453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0482521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9388732910156</t>
+    <t xml:space="preserve">41.5689430236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2855491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0482559204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9388694763184</t>
   </si>
   <si>
     <t xml:space="preserve">40.455265045166</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9282569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4453201293945</t>
+    <t xml:space="preserve">39.9282531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4453239440918</t>
   </si>
   <si>
     <t xml:space="preserve">40.3409118652344</t>
@@ -5378,10 +5378,10 @@
     <t xml:space="preserve">41.5142517089844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7628326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.335262298584</t>
+    <t xml:space="preserve">41.7628364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3352661132812</t>
   </si>
   <si>
     <t xml:space="preserve">41.5192222595215</t>
@@ -5393,16 +5393,16 @@
     <t xml:space="preserve">43.3189964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8310966491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.173469543457</t>
+    <t xml:space="preserve">43.8310928344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1734657287598</t>
   </si>
   <si>
     <t xml:space="preserve">45.3822784423828</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9092864990234</t>
+    <t xml:space="preserve">45.9092903137207</t>
   </si>
   <si>
     <t xml:space="preserve">45.228157043457</t>
@@ -5414,7 +5414,7 @@
     <t xml:space="preserve">44.7260093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3083839416504</t>
+    <t xml:space="preserve">44.3083801269531</t>
   </si>
   <si>
     <t xml:space="preserve">43.3090591430664</t>
@@ -5423,7 +5423,7 @@
     <t xml:space="preserve">43.4631805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4041938781738</t>
+    <t xml:space="preserve">42.4041976928711</t>
   </si>
   <si>
     <t xml:space="preserve">43.3302459716797</t>
@@ -5432,16 +5432,16 @@
     <t xml:space="preserve">42.9070510864258</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1467628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4156188964844</t>
+    <t xml:space="preserve">44.1467666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4156150817871</t>
   </si>
   <si>
     <t xml:space="preserve">45.3665657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5806541442871</t>
+    <t xml:space="preserve">45.5806503295898</t>
   </si>
   <si>
     <t xml:space="preserve">45.3516235351562</t>
@@ -5453,10 +5453,10 @@
     <t xml:space="preserve">42.8423271179199</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6190147399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9077835083008</t>
+    <t xml:space="preserve">43.619010925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.907787322998</t>
   </si>
   <si>
     <t xml:space="preserve">44.186595916748</t>
@@ -5465,7 +5465,7 @@
     <t xml:space="preserve">46.3025741577148</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9448318481445</t>
+    <t xml:space="preserve">46.9448356628418</t>
   </si>
   <si>
     <t xml:space="preserve">47.1240692138672</t>
@@ -5483,13 +5483,13 @@
     <t xml:space="preserve">46.0337181091309</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5358428955078</t>
+    <t xml:space="preserve">45.5358390808105</t>
   </si>
   <si>
     <t xml:space="preserve">45.4412422180176</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5664482116699</t>
+    <t xml:space="preserve">46.5664443969727</t>
   </si>
   <si>
     <t xml:space="preserve">46.1183547973633</t>
@@ -5501,16 +5501,16 @@
     <t xml:space="preserve">48.2044639587402</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4334869384766</t>
+    <t xml:space="preserve">48.4334831237793</t>
   </si>
   <si>
     <t xml:space="preserve">48.3339080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6966285705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3822326660156</t>
+    <t xml:space="preserve">47.6966323852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3822364807129</t>
   </si>
   <si>
     <t xml:space="preserve">45.2271575927734</t>
@@ -5525,13 +5525,13 @@
     <t xml:space="preserve">43.9675254821777</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2961273193359</t>
+    <t xml:space="preserve">44.2961311340332</t>
   </si>
   <si>
     <t xml:space="preserve">42.9468803405762</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3651008605957</t>
+    <t xml:space="preserve">43.3650970458984</t>
   </si>
   <si>
     <t xml:space="preserve">42.9120292663574</t>
@@ -5540,13 +5540,13 @@
     <t xml:space="preserve">42.1204032897949</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9511260986328</t>
+    <t xml:space="preserve">41.9511299133301</t>
   </si>
   <si>
     <t xml:space="preserve">42.38427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4298248291016</t>
+    <t xml:space="preserve">43.4298210144043</t>
   </si>
   <si>
     <t xml:space="preserve">43.4148826599121</t>
@@ -5555,7 +5555,7 @@
     <t xml:space="preserve">42.3046188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2498512268066</t>
+    <t xml:space="preserve">42.2498550415039</t>
   </si>
   <si>
     <t xml:space="preserve">42.9966659545898</t>
@@ -5564,16 +5564,16 @@
     <t xml:space="preserve">43.9177398681641</t>
   </si>
   <si>
-    <t xml:space="preserve">43.469654083252</t>
+    <t xml:space="preserve">43.4696502685547</t>
   </si>
   <si>
     <t xml:space="preserve">43.4796104431152</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3402061462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3053512573242</t>
+    <t xml:space="preserve">43.340202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3053550720215</t>
   </si>
   <si>
     <t xml:space="preserve">43.2854385375977</t>
@@ -5588,40 +5588,40 @@
     <t xml:space="preserve">41.2192497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9105644226074</t>
+    <t xml:space="preserve">40.9105606079102</t>
   </si>
   <si>
     <t xml:space="preserve">41.1047325134277</t>
   </si>
   <si>
-    <t xml:space="preserve">41.159496307373</t>
+    <t xml:space="preserve">41.1595001220703</t>
   </si>
   <si>
     <t xml:space="preserve">41.5777206420898</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1545219421387</t>
+    <t xml:space="preserve">41.1545257568359</t>
   </si>
   <si>
     <t xml:space="preserve">40.5312728881836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3218574523926</t>
+    <t xml:space="preserve">40.3218612670898</t>
   </si>
   <si>
     <t xml:space="preserve">40.5861206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2570381164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1423645019531</t>
+    <t xml:space="preserve">40.2570419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1423606872559</t>
   </si>
   <si>
     <t xml:space="preserve">40.2321128845215</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6138458251953</t>
+    <t xml:space="preserve">39.613842010498</t>
   </si>
   <si>
     <t xml:space="preserve">39.6986083984375</t>
@@ -5648,7 +5648,7 @@
     <t xml:space="preserve">41.9472961425781</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4536819458008</t>
+    <t xml:space="preserve">41.453685760498</t>
   </si>
   <si>
     <t xml:space="preserve">42.555591583252</t>
@@ -5669,7 +5669,7 @@
     <t xml:space="preserve">40.5362586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7634239196777</t>
+    <t xml:space="preserve">39.763427734375</t>
   </si>
   <si>
     <t xml:space="preserve">38.8410148620605</t>
@@ -5678,10 +5678,10 @@
     <t xml:space="preserve">37.6244277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7141723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3302574157715</t>
+    <t xml:space="preserve">37.7141761779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3302536010742</t>
   </si>
   <si>
     <t xml:space="preserve">37.0211181640625</t>
@@ -5690,10 +5690,10 @@
     <t xml:space="preserve">38.8609619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.410026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1563529968262</t>
+    <t xml:space="preserve">37.4100303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1563568115234</t>
   </si>
   <si>
     <t xml:space="preserve">35.8693542480469</t>
@@ -5702,22 +5702,22 @@
     <t xml:space="preserve">36.0438652038574</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6344032287598</t>
+    <t xml:space="preserve">37.6343994140625</t>
   </si>
   <si>
     <t xml:space="preserve">38.3274574279785</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9834213256836</t>
+    <t xml:space="preserve">37.9834175109863</t>
   </si>
   <si>
     <t xml:space="preserve">38.2028045654297</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1878433227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4570922851562</t>
+    <t xml:space="preserve">38.1878471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.457088470459</t>
   </si>
   <si>
     <t xml:space="preserve">38.5219116210938</t>
@@ -5726,25 +5726,25 @@
     <t xml:space="preserve">38.5667839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0326728820801</t>
+    <t xml:space="preserve">40.0326690673828</t>
   </si>
   <si>
     <t xml:space="preserve">42.181640625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6630973815918</t>
+    <t xml:space="preserve">41.6630935668945</t>
   </si>
   <si>
     <t xml:space="preserve">41.7927322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0918884277344</t>
+    <t xml:space="preserve">42.0918922424316</t>
   </si>
   <si>
     <t xml:space="preserve">41.2891426086426</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6232109069824</t>
+    <t xml:space="preserve">41.6232070922852</t>
   </si>
   <si>
     <t xml:space="preserve">41.4786148071289</t>
@@ -5759,16 +5759,16 @@
     <t xml:space="preserve">41.7029838562012</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9295387268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6176109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2586212158203</t>
+    <t xml:space="preserve">42.9295425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3284225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6176147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.258617401123</t>
   </si>
   <si>
     <t xml:space="preserve">43.9367179870605</t>
@@ -6135,6 +6135,9 @@
   </si>
   <si>
     <t xml:space="preserve">39.0400009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2299995422363</t>
   </si>
 </sst>
 </file>
@@ -62194,7 +62197,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6525694444</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>3175301</v>
@@ -62215,6 +62218,32 @@
         <v>2040</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6525578704</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>3120717</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>40.2999992370605</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>39.2400016784668</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>39.5699996948242</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>40.2299995422363</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="2041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="2042">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,142 +44,142 @@
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38667106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25788879394531</t>
+    <t xml:space="preserve">5.3866720199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25788927078247</t>
   </si>
   <si>
     <t xml:space="preserve">5.1868371963501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9559154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0758171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09358024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02696800231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.907066822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65838241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73831701278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92927217483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87154054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00476264953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16907405853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20015859603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33338356018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56874513626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40887498855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33782196044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17351388931274</t>
+    <t xml:space="preserve">4.95591688156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07581758499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09358072280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02696704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90706634521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65838384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73831748962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92927169799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87154006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1690731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20015907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33338165283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40887641906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33782291412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17351341247559</t>
   </si>
   <si>
     <t xml:space="preserve">4.72055292129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76052188873291</t>
+    <t xml:space="preserve">4.76052093505859</t>
   </si>
   <si>
     <t xml:space="preserve">4.57844877243042</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28091716766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20098209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25960111618042</t>
+    <t xml:space="preserve">4.28091621398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20098161697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25960159301758</t>
   </si>
   <si>
     <t xml:space="preserve">4.14769315719604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21696996688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30578517913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26137590408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41946887969971</t>
+    <t xml:space="preserve">4.21696949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30578422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26137638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41946935653687</t>
   </si>
   <si>
     <t xml:space="preserve">4.64950227737427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61397504806519</t>
+    <t xml:space="preserve">4.61397552490234</t>
   </si>
   <si>
     <t xml:space="preserve">4.8138108253479</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69390869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46299028396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53848218917847</t>
+    <t xml:space="preserve">4.69390964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46298789978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53848266601562</t>
   </si>
   <si>
     <t xml:space="preserve">4.6539421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70723295211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79604768753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80492877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84045553207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76940202713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74719953536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67170715332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58289003372192</t>
+    <t xml:space="preserve">4.7072319984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79604721069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80493021011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8404541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76940250396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74719905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67170572280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58288860321045</t>
   </si>
   <si>
     <t xml:space="preserve">4.7516393661499</t>
@@ -191,115 +191,115 @@
     <t xml:space="preserve">4.66282415390015</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56068658828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54736280441284</t>
+    <t xml:space="preserve">4.56068754196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54736375808716</t>
   </si>
   <si>
     <t xml:space="preserve">4.51294231414795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43866205215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48214292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44047355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.429603099823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44228458404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4132981300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35169982910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44409704208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18683576583862</t>
+    <t xml:space="preserve">4.43866109848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48214244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44047212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42960262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44228363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41329765319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35170078277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44409608840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18683624267578</t>
   </si>
   <si>
     <t xml:space="preserve">4.1578483581543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33720588684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50388383865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35532474517822</t>
+    <t xml:space="preserve">4.33720636367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50388240814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35532283782959</t>
   </si>
   <si>
     <t xml:space="preserve">4.53830575942993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64700651168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56547927856445</t>
+    <t xml:space="preserve">4.64700746536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56548023223877</t>
   </si>
   <si>
     <t xml:space="preserve">4.71041584014893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66512250900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68776988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67871189117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5926570892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16334009170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09540176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86441040039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76929664611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56095314025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42235517501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37344026565552</t>
+    <t xml:space="preserve">4.665123462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68777084350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67871141433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59265661239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16334056854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09540271759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86440992355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76929759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56095170974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42235565185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37344074249268</t>
   </si>
   <si>
     <t xml:space="preserve">4.27017450332642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32452487945557</t>
+    <t xml:space="preserve">4.32452440261841</t>
   </si>
   <si>
     <t xml:space="preserve">4.27923250198364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20495319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23212909698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27742004394531</t>
+    <t xml:space="preserve">4.20495128631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23212814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27742099761963</t>
   </si>
   <si>
     <t xml:space="preserve">4.29372596740723</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">4.65153646469116</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6832423210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81006002426147</t>
+    <t xml:space="preserve">4.68324184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81006050109863</t>
   </si>
   <si>
     <t xml:space="preserve">4.85082244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90064525604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91423320770264</t>
+    <t xml:space="preserve">4.90064287185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91423225402832</t>
   </si>
   <si>
     <t xml:space="preserve">4.92329168319702</t>
@@ -329,193 +329,193 @@
     <t xml:space="preserve">4.8553524017334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82817602157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83270597457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80552911758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01387548446655</t>
+    <t xml:space="preserve">4.82817697525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83270645141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80552959442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01387596130371</t>
   </si>
   <si>
     <t xml:space="preserve">4.87799882888794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58812618255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50569248199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47127342224121</t>
+    <t xml:space="preserve">4.58812570571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50569343566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47127294540405</t>
   </si>
   <si>
     <t xml:space="preserve">4.45859003067017</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55189228057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7123327255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76733922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83609914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97820281982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66649150848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56931209564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68482971191406</t>
+    <t xml:space="preserve">4.55189275741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71233129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7673397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83609867095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97820234298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66649198532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56931114196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68482828140259</t>
   </si>
   <si>
     <t xml:space="preserve">4.80401086807251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83151531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73066854476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58398008346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43179225921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4941349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8911075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95528316497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93694734573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96903419494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06071472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08821773529053</t>
+    <t xml:space="preserve">4.83151388168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73066711425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58397960662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43179321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49413442611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89110708236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95528221130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93694972991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96903371810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06071424484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08821964263916</t>
   </si>
   <si>
     <t xml:space="preserve">5.19823455810547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23949003219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32200241088867</t>
+    <t xml:space="preserve">5.23490428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23948955535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3220009803772</t>
   </si>
   <si>
     <t xml:space="preserve">5.39076089859009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91333389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97751140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95917415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72997665405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78039979934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98667907714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09669303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11044692993164</t>
+    <t xml:space="preserve">5.95459127426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91333341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97751045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95917463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72997522354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78039932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9866795539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09669399261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11044645309448</t>
   </si>
   <si>
     <t xml:space="preserve">6.01876640319824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1241979598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07835721969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00501537322998</t>
+    <t xml:space="preserve">6.12419843673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07835960388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00501585006714</t>
   </si>
   <si>
     <t xml:space="preserve">6.1975417137146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17003870010376</t>
+    <t xml:space="preserve">6.17003917694092</t>
   </si>
   <si>
     <t xml:space="preserve">6.14253425598145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30755758285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24338245391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20212507247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23421239852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18379020690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26171684265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15170288085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13336658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96834325790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98209476470947</t>
+    <t xml:space="preserve">6.30755662918091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2433819770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20212554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23421335220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18378973007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26171731948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1517014503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13336563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96834182739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98209524154663</t>
   </si>
   <si>
     <t xml:space="preserve">6.06002235412598</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21129274368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22504568099976</t>
+    <t xml:space="preserve">6.21129417419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22504472732544</t>
   </si>
   <si>
     <t xml:space="preserve">6.3213095664978</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">6.48811340332031</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58060359954834</t>
+    <t xml:space="preserve">6.58060503005981</t>
   </si>
   <si>
     <t xml:space="preserve">6.64997053146362</t>
@@ -536,64 +536,64 @@
     <t xml:space="preserve">6.70546197891235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65459442138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59447622299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60834932327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69159030914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47423887252808</t>
+    <t xml:space="preserve">6.65459489822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5944766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60835027694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69158983230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47424077987671</t>
   </si>
   <si>
     <t xml:space="preserve">6.68234062194824</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68696594238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77483081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87194442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9459342956543</t>
+    <t xml:space="preserve">6.68696546554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77482843399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87194395065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94593620300293</t>
   </si>
   <si>
     <t xml:space="preserve">6.73783540725708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55748128890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69621324539185</t>
+    <t xml:space="preserve">6.55747938156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.696213722229</t>
   </si>
   <si>
     <t xml:space="preserve">6.79332780838013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90893888473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77020645141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84419584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86731815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38063478469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78758859634399</t>
+    <t xml:space="preserve">6.90893840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77020597457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84419679641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86731910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38063383102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78758478164673</t>
   </si>
   <si>
     <t xml:space="preserve">8.04655456542969</t>
@@ -605,103 +605,103 @@
     <t xml:space="preserve">7.5517373085022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50086879730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48237133026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82458066940308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93557119369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68584585189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6442289352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80608320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91244792938232</t>
+    <t xml:space="preserve">7.50086975097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48237037658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82457876205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93556833267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68584871292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64422845840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80608510971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91244745254517</t>
   </si>
   <si>
     <t xml:space="preserve">7.93094539642334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2037878036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31477451324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57836532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68010807037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64773750305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55524444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54599666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62923622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92520236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70322513580322</t>
+    <t xml:space="preserve">8.20378875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31477355957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57836723327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68010711669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64773654937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55524730682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54599761962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62923526763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92520141601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70322799682617</t>
   </si>
   <si>
     <t xml:space="preserve">8.60149097442627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83733558654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95295333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94370079040527</t>
+    <t xml:space="preserve">8.83733940124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9529504776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94370174407959</t>
   </si>
   <si>
     <t xml:space="preserve">9.36914920806885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23503875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13792705535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31366062164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29515933990479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45239448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6466178894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75824642181396</t>
+    <t xml:space="preserve">9.23504257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13792896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31365776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29516220092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45239353179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64661884307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7582483291626</t>
   </si>
   <si>
     <t xml:space="preserve">9.9163875579834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96290111541748</t>
+    <t xml:space="preserve">9.9629020690918</t>
   </si>
   <si>
     <t xml:space="preserve">9.88848114013672</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">10.0001106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0838317871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0652275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0466260910034</t>
+    <t xml:space="preserve">10.083833694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0652284622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0466222763062</t>
   </si>
   <si>
     <t xml:space="preserve">10.0559244155884</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">9.81406307220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70243453979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67452430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49777793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78615665435791</t>
+    <t xml:space="preserve">9.70243167877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67452621459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49777984619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78615570068359</t>
   </si>
   <si>
     <t xml:space="preserve">9.95359897613525</t>
@@ -746,118 +746,118 @@
     <t xml:space="preserve">9.89778423309326</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2140674591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1303472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0931348800659</t>
+    <t xml:space="preserve">10.2140665054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1303453445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0931329727173</t>
   </si>
   <si>
     <t xml:space="preserve">10.2698812484741</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4001150131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.246636390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6559419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6094274520874</t>
+    <t xml:space="preserve">10.4001131057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2466373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6559429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.609429359436</t>
   </si>
   <si>
     <t xml:space="preserve">11.3303594589233</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7210597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3071126937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3629245758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2419958114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4373464584351</t>
+    <t xml:space="preserve">11.7210626602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.307110786438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3629264831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2419939041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4373474121094</t>
   </si>
   <si>
     <t xml:space="preserve">12.1303663253784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9536199569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8512926101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0373401641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0745534896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2140846252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280443191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3722286224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.632698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7908401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1536359786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2745637893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1722393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4885187149048</t>
+    <t xml:space="preserve">11.9536228179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8512954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0373392105103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0745515823364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2140865325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280433654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3722305297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6326951980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7908391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1536331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2745676040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1722383499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4885196685791</t>
   </si>
   <si>
     <t xml:space="preserve">13.3861932754517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6652669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6838722229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7210817337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.414098739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5443363189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7582912445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2094459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2373552322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2838678359985</t>
+    <t xml:space="preserve">13.6652660369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6838703155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7210807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.414101600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.544337272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7582902908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2094507217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2373561859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2838659286499</t>
   </si>
   <si>
     <t xml:space="preserve">13.442008972168</t>
@@ -866,61 +866,61 @@
     <t xml:space="preserve">13.4699144363403</t>
   </si>
   <si>
-    <t xml:space="preserve">13.525731086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3949584960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.825156211853</t>
+    <t xml:space="preserve">13.5257301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3949556350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8251600265503</t>
   </si>
   <si>
     <t xml:space="preserve">13.0119771957397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2455015182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.815299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4136381149292</t>
+    <t xml:space="preserve">13.2455005645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8153009414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4136362075806</t>
   </si>
   <si>
     <t xml:space="preserve">13.497709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4883661270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4229793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3762722015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3575954437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2922039031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3669366836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7032108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1240682601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0306596755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9839515686035</t>
+    <t xml:space="preserve">13.4883651733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4229803085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3762741088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3575925827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2922077178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3669357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7032098770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6191396713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1240673065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0306587219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9839544296265</t>
   </si>
   <si>
     <t xml:space="preserve">12.610312461853</t>
@@ -929,100 +929,100 @@
     <t xml:space="preserve">12.7597703933716</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7691097259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1894550323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7592535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5257301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8620080947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1142110824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8339786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0488243103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1702566146851</t>
+    <t xml:space="preserve">12.7691106796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7592573165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5257291793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8620071411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1142101287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8339834213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0488252639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1702585220337</t>
   </si>
   <si>
     <t xml:space="preserve">14.3944416046143</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0675077438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3197135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3570795059204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6845254898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5537519454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.479024887085</t>
+    <t xml:space="preserve">14.0675067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3197107315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3570766448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6845264434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5537557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4790258407593</t>
   </si>
   <si>
     <t xml:space="preserve">13.572437286377</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7499151229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7312335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5350723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8246412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6097984313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.544412612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0581674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2169609069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3290538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1614351272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9559345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.628999710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6757011413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0586833953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7224063873291</t>
+    <t xml:space="preserve">13.7499160766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7312316894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5350704193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8246421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6097974777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5444107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0581684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2169637680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3290529251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.161434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9559316635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6289958953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6757030487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0586795806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7224073410034</t>
   </si>
   <si>
     <t xml:space="preserve">12.8344984054565</t>
@@ -1031,61 +1031,61 @@
     <t xml:space="preserve">12.56360912323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5169057846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1603546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0196075439453</t>
+    <t xml:space="preserve">12.5169067382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1603517532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019606590271</t>
   </si>
   <si>
     <t xml:space="preserve">11.7287349700928</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8037986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8882446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7475004196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0665216445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1885013580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3386268615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6013526916504</t>
+    <t xml:space="preserve">11.8037977218628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8882436752319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.747504234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0665197372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1884994506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3386297225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6013517379761</t>
   </si>
   <si>
     <t xml:space="preserve">12.5544366836548</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9672889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9860544204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0048217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7983951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1830978393555</t>
+    <t xml:space="preserve">12.9672870635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9860582351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0048208236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7983961105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1830959320068</t>
   </si>
   <si>
     <t xml:space="preserve">13.2769260406494</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3613739013672</t>
+    <t xml:space="preserve">13.3613758087158</t>
   </si>
   <si>
     <t xml:space="preserve">13.4458208084106</t>
@@ -1094,274 +1094,274 @@
     <t xml:space="preserve">13.7179279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6991624832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3519906997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5396509170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4833545684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6053323745728</t>
+    <t xml:space="preserve">13.6991653442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3519926071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5396518707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4833536148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6053304672241</t>
   </si>
   <si>
     <t xml:space="preserve">13.7648439407349</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6710138320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7554607391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9055891036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.473970413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0986480712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4176750183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5115003585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3144569396973</t>
+    <t xml:space="preserve">13.6710109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7554597854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9055833816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4739685058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0986490249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4176712036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5115041732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3144598007202</t>
   </si>
   <si>
     <t xml:space="preserve">13.2018623352051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5584173202515</t>
+    <t xml:space="preserve">13.5584182739258</t>
   </si>
   <si>
     <t xml:space="preserve">13.5490341186523</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4552049636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.520884513855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5021209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2300138473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3238401412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6803960800171</t>
+    <t xml:space="preserve">13.4552030563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5208873748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5021190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2300119400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3238439559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6803932189941</t>
   </si>
   <si>
     <t xml:space="preserve">13.8399066925049</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0181837081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0651006698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1495447158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5060987472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6186952590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8251218795776</t>
+    <t xml:space="preserve">14.0181818008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0650968551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.149543762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5060977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6186933517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8251209259033</t>
   </si>
   <si>
     <t xml:space="preserve">14.7688236236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.778205871582</t>
+    <t xml:space="preserve">14.7782049179077</t>
   </si>
   <si>
     <t xml:space="preserve">15.0878438949585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690793991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4646377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6059141159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3327884674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3610410690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4269647598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8242063522339</t>
+    <t xml:space="preserve">15.0690774917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4646425247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6059150695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3327894210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3610401153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4269676208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8242044448853</t>
   </si>
   <si>
     <t xml:space="preserve">14.8712959289551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.229190826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2668600082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3987169265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9449663162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0203113555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072942733765</t>
+    <t xml:space="preserve">15.2291851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2668609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3987150192261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9449701309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0203170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.907299041748</t>
   </si>
   <si>
     <t xml:space="preserve">15.8225317001343</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8036966323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8319482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6812629699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8602094650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8790445327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.92613697052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0297298431396</t>
+    <t xml:space="preserve">15.8036956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8319511413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6812562942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8602046966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.87903881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9261322021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0297317504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.1521663665771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7095136642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8978757858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5854015350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7926063537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6890029907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6856555938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7515811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1754035949707</t>
+    <t xml:space="preserve">15.709511756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8978796005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5854034423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7926044464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6890048980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6856594085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7515888214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1754016876221</t>
   </si>
   <si>
     <t xml:space="preserve">19.0435485839844</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4014377593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2507495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7404918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0136203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7593326568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9288597106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8457660675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2789993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9399509429932</t>
+    <t xml:space="preserve">19.401439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2507514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7404880523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0136184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7593307495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9288578033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8457698822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2790012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9399490356445</t>
   </si>
   <si>
     <t xml:space="preserve">19.3166751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">19.147144317627</t>
+    <t xml:space="preserve">19.1471500396729</t>
   </si>
   <si>
     <t xml:space="preserve">19.3731822967529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.749906539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2319145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3920192718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0341281890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0623836517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7626781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9510345458984</t>
+    <t xml:space="preserve">19.7499122619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.231912612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3920230865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0341262817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0623817443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7626667022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9510402679443</t>
   </si>
   <si>
     <t xml:space="preserve">17.3011856079102</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4141998291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6873321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.02805519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2540912628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2635097503662</t>
+    <t xml:space="preserve">17.4142036437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6873378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0280570983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.254093170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2635135650635</t>
   </si>
   <si>
     <t xml:space="preserve">17.536642074585</t>
@@ -1370,196 +1370,196 @@
     <t xml:space="preserve">17.4895496368408</t>
   </si>
   <si>
+    <t xml:space="preserve">17.2258434295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5471115112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6605014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3864784240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4998683929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4904193878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4526176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1974945068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4148235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9628734588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2180023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3597412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2841472625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6243190765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4920291900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8983402252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8794460296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6904678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5676250457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.276309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3141098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1062259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9550361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7644424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8967304229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0195713043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4447841644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4069881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1707572937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0101184844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4715175628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5990829467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0982723236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3297843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3328895568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2431240081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.507698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3990364074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8762226104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0557556152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0699329376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9990558624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4478912353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7313747406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4100952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6321506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6557769775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8305854797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7880687713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1030025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6919593811035</t>
+  </si>
+  <si>
     <t xml:space="preserve">17.2258396148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5471076965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6604995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3864765167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4998722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4904155731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4526195526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1974945068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4148216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9628734588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2180023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3597393035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2841510772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6243171691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4920291900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8983402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8794460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6904640197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5676212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.276309967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3141059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1062240600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.955041885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7644424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8967304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0195693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4447841644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4069862365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1707572937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0101127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4715156555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5990829467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0982704162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3297786712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.332893371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2431259155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5077037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3990325927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.876220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0557518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0699253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.999059677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4478950500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7313690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4100971221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6321563720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6557769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8305854797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7880611419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1030025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6919651031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2258358001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5849113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7738857269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6006946563721</t>
+    <t xml:space="preserve">17.5849094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7738971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6006927490234</t>
   </si>
   <si>
     <t xml:space="preserve">18.7093620300293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8699951171875</t>
+    <t xml:space="preserve">18.8699970245361</t>
   </si>
   <si>
     <t xml:space="preserve">18.3833637237549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3030471801758</t>
+    <t xml:space="preserve">18.3030490875244</t>
   </si>
   <si>
     <t xml:space="preserve">18.7046356201172</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7707786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.467493057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8702983856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2968006134033</t>
+    <t xml:space="preserve">18.7707748413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4674911499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8702964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2967948913574</t>
   </si>
   <si>
     <t xml:space="preserve">18.372709274292</t>
@@ -1568,148 +1568,148 @@
     <t xml:space="preserve">17.6239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6334438323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0788993835449</t>
+    <t xml:space="preserve">17.6334400177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0789012908936</t>
   </si>
   <si>
     <t xml:space="preserve">17.1169052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0458183288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5387649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1359558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5671939849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4250221252441</t>
+    <t xml:space="preserve">17.0458202362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5387554168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1359577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5671920776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4250183105469</t>
   </si>
   <si>
     <t xml:space="preserve">16.510326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9415664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7235774993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5481472015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.315938949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4723224639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7850875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4960079193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9083938598633</t>
+    <t xml:space="preserve">16.9415645599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.723575592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5481395721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3159427642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4723167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7850914001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4960155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9083957672119</t>
   </si>
   <si>
     <t xml:space="preserve">16.6572284698486</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8515205383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7283134460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2164287567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3917598724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1879844665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1832504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9793834686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9936027526855</t>
+    <t xml:space="preserve">16.851526260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.728307723999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2164249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3917560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.18798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1832466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9793815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9935989379883</t>
   </si>
   <si>
     <t xml:space="preserve">18.2258071899414</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8608226776123</t>
+    <t xml:space="preserve">18.8608169555664</t>
   </si>
   <si>
     <t xml:space="preserve">18.5670051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8418598175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8987293243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1641082763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3157539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.353666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1072368621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9840316772461</t>
+    <t xml:space="preserve">18.8418655395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8987312316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1641120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3157520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3536643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1072425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9840335845947</t>
   </si>
   <si>
     <t xml:space="preserve">19.1830635070801</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1167221069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8134269714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1451530456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4768772125244</t>
+    <t xml:space="preserve">19.1167163848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8134307861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1451511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4768753051758</t>
   </si>
   <si>
     <t xml:space="preserve">19.38210105896</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1925430297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3726196289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3062763214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.287317276001</t>
+    <t xml:space="preserve">19.1925392150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3726234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3062782287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2873191833496</t>
   </si>
   <si>
     <t xml:space="preserve">19.239933013916</t>
   </si>
   <si>
-    <t xml:space="preserve">20.073974609375</t>
+    <t xml:space="preserve">20.0739803314209</t>
   </si>
   <si>
     <t xml:space="preserve">20.3298778533936</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">20.1497993469238</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9128513336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1782302856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0596733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4956455230713</t>
+    <t xml:space="preserve">19.9128532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.254056930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1782341003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0596656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4956474304199</t>
   </si>
   <si>
     <t xml:space="preserve">21.2871341705322</t>
@@ -1739,211 +1739,211 @@
     <t xml:space="preserve">21.0590591430664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1657562255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9661903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4530200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1584186553955</t>
+    <t xml:space="preserve">20.1657581329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9661960601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4530220031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1584224700928</t>
   </si>
   <si>
     <t xml:space="preserve">18.2366123199463</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6404972076416</t>
+    <t xml:space="preserve">18.6404991149902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8495655059814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8897438049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1843433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8137226104736</t>
+    <t xml:space="preserve">17.8897457122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.18434715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8137187957764</t>
   </si>
   <si>
     <t xml:space="preserve">18.0322971343994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4953689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0180397033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0513038635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1890983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5692253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1415824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.445686340332</t>
+    <t xml:space="preserve">17.4953594207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0180358886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0513000488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1890964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5692291259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.141580581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4456844329834</t>
   </si>
   <si>
     <t xml:space="preserve">18.4884471893311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5312156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6880149841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2819633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2059345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.234447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8115558624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5860691070557</t>
+    <t xml:space="preserve">18.5312118530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6880130767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2819652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2059364318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2344455718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8115577697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5860633850098</t>
   </si>
   <si>
     <t xml:space="preserve">17.8564853668213</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1130619049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.231861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.732946395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6996841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6806755065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.823221206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0417976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0845584869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1178283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0275440216064</t>
+    <t xml:space="preserve">18.1130695343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2318630218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329425811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6996803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6806735992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8232231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0417957305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0845642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1178207397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0275421142578</t>
   </si>
   <si>
     <t xml:space="preserve">17.1152362823486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1770076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.015453338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4737682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0984001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1031455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.321720123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1649169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1459064483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5592937469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8253860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7873802185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9299240112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8111305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8158855438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8348979949951</t>
+    <t xml:space="preserve">17.1770057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0154571533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4737720489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0983924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1031475067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3217182159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1649188995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1459140777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5592994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8253936767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7873783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9299278259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8111381530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8158893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8348922729492</t>
   </si>
   <si>
     <t xml:space="preserve">16.4215068817139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6612510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4236688613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904075622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3856563568115</t>
+    <t xml:space="preserve">15.661244392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4236726760864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904066085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3856573104858</t>
   </si>
   <si>
     <t xml:space="preserve">15.1148157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5018615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.829719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1053142547607</t>
+    <t xml:space="preserve">14.5018625259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8297185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1053133010864</t>
   </si>
   <si>
     <t xml:space="preserve">14.8334465026855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9240674972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9622259140015</t>
+    <t xml:space="preserve">14.9240684509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9622249603271</t>
   </si>
   <si>
     <t xml:space="preserve">15.4868822097778</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5059576034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.396258354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6872024536133</t>
+    <t xml:space="preserve">15.5059614181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3962602615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6872043609619</t>
   </si>
   <si>
     <t xml:space="preserve">15.4296436309814</t>
@@ -1952,250 +1952,250 @@
     <t xml:space="preserve">15.1625490188599</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9526863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2865581512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.57750415802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6395092010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293214797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4804954528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2610940933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3040199279785</t>
+    <t xml:space="preserve">14.9526872634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2865591049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5775032043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6395082473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.229320526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4804983139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2610931396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3040208816528</t>
   </si>
   <si>
     <t xml:space="preserve">13.4788808822632</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7459783554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7221307754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1466245651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5504236221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3071737289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.35964012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.906530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5948915481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5233478546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6187372207642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2721729278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2912511825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7825202941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1974744796753</t>
+    <t xml:space="preserve">13.7459774017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.722128868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1466236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.55042552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3071746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3596410751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9065313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5948896408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5233469009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6187391281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2721719741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2912483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7825183868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1974754333496</t>
   </si>
   <si>
     <t xml:space="preserve">13.1736268997192</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6585111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206758499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6632814407349</t>
+    <t xml:space="preserve">12.6585102081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206748962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6632795333862</t>
   </si>
   <si>
     <t xml:space="preserve">12.5106506347656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.391411781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9669179916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8619871139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7809038162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5996580123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6330461502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4279537200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9716854095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7904434204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.871527671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.205397605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1386232376099</t>
+    <t xml:space="preserve">12.3914136886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9669189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8619890213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7809047698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5996627807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6330480575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4279556274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9716863632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7904424667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.871524810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2053985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1386241912842</t>
   </si>
   <si>
     <t xml:space="preserve">12.1004667282104</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3961791992188</t>
+    <t xml:space="preserve">12.3961811065674</t>
   </si>
   <si>
     <t xml:space="preserve">12.3532552719116</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0973110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.677586555481</t>
+    <t xml:space="preserve">13.0973129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6775884628296</t>
   </si>
   <si>
     <t xml:space="preserve">12.2674045562744</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5328826904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.408878326416</t>
+    <t xml:space="preserve">11.532883644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4088754653931</t>
   </si>
   <si>
     <t xml:space="preserve">11.0893125534058</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4470329284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6712036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6807441711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6759719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.608868598938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6136636734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5273866653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1870784759521</t>
+    <t xml:space="preserve">11.4470348358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6712026596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6807413101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.675971031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6088705062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6136617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5273847579956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1870775222778</t>
   </si>
   <si>
     <t xml:space="preserve">11.4746627807617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3835916519165</t>
+    <t xml:space="preserve">11.3835935592651</t>
   </si>
   <si>
     <t xml:space="preserve">11.7239036560059</t>
   </si>
   <si>
-    <t xml:space="preserve">11.632833480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2763900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4633188247681</t>
+    <t xml:space="preserve">11.6328344345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2763891220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4633207321167</t>
   </si>
   <si>
     <t xml:space="preserve">10.8707332611084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.918664932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5034217834473</t>
+    <t xml:space="preserve">10.9186658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5034236907959</t>
   </si>
   <si>
     <t xml:space="preserve">11.6520080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7766256332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6472148895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8053874969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0306587219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.800594329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3278350830078</t>
+    <t xml:space="preserve">11.7766275405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6472129821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8053865432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0306625366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8005933761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3278331756592</t>
   </si>
   <si>
     <t xml:space="preserve">12.380558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9587640762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9779405593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1953811645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7801399230957</t>
+    <t xml:space="preserve">11.9587669372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9779357910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1953840255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7801427841187</t>
   </si>
   <si>
     <t xml:space="preserve">13.4733839035034</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2624864578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3200044631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3008308410645</t>
+    <t xml:space="preserve">13.2624855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3200025558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3008298873901</t>
   </si>
   <si>
     <t xml:space="preserve">13.3343820571899</t>
@@ -2204,67 +2204,67 @@
     <t xml:space="preserve">13.3775205612183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2385225296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.909553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2720727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9796962738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3487606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0677242279053</t>
+    <t xml:space="preserve">13.2385215759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9095554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2720708847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9796943664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.348762512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0677261352539</t>
   </si>
   <si>
     <t xml:space="preserve">14.0150012969971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9814510345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1108636856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0102062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8664169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0821046829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0533456802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2211055755615</t>
+    <t xml:space="preserve">13.9814491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1108646392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0102081298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.866418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.082103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0533485412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2211036682129</t>
   </si>
   <si>
     <t xml:space="preserve">14.6285181045532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4080362319946</t>
+    <t xml:space="preserve">14.4080352783203</t>
   </si>
   <si>
     <t xml:space="preserve">14.0964841842651</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7897281646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2402753829956</t>
+    <t xml:space="preserve">13.7897262573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2402763366699</t>
   </si>
   <si>
     <t xml:space="preserve">14.1683807373047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6555194854736</t>
+    <t xml:space="preserve">13.6555185317993</t>
   </si>
   <si>
     <t xml:space="preserve">13.3679332733154</t>
@@ -2276,172 +2276,172 @@
     <t xml:space="preserve">13.5788316726685</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5165195465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.391902923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721417427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8658065795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.687726020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2893304824829</t>
+    <t xml:space="preserve">13.5165205001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823118209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3918991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7214193344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8658037185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6877307891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2893352508545</t>
   </si>
   <si>
     <t xml:space="preserve">13.9716844558716</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4326477050781</t>
+    <t xml:space="preserve">13.4326486587524</t>
   </si>
   <si>
     <t xml:space="preserve">13.6059103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7155361175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2679395675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6866598129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1968193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5577821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3422765731812</t>
+    <t xml:space="preserve">12.7155342102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2679405212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6866579055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1968202590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5577802658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3422756195068</t>
   </si>
   <si>
     <t xml:space="preserve">14.578104019165</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0016355514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0738277435303</t>
+    <t xml:space="preserve">15.001633644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.073826789856</t>
   </si>
   <si>
     <t xml:space="preserve">14.9438810348511</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0256996154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.107515335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4347896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2567157745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.612865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8631315231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9786434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4299802780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2096614837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9497652053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6273069381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5599250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7668724060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7716913223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7861299514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7417402267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9775705337524</t>
+    <t xml:space="preserve">15.0257005691528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.107518196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4347925186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2567138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6128664016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8631324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9786443710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4299783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9497623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6273031234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5599279403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7668781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.771692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7861280441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7417392730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9775695800781</t>
   </si>
   <si>
     <t xml:space="preserve">14.2219533920288</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3567123413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6251611709595</t>
+    <t xml:space="preserve">14.3567132949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6251621246338</t>
   </si>
   <si>
     <t xml:space="preserve">14.5347890853882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0160760879517</t>
+    <t xml:space="preserve">15.0160722732544</t>
   </si>
   <si>
     <t xml:space="preserve">15.1652698516846</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9920072555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6203489303589</t>
+    <t xml:space="preserve">14.9920091629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6203470230103</t>
   </si>
   <si>
     <t xml:space="preserve">14.2267665863037</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0053749084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2112579345703</t>
+    <t xml:space="preserve">14.0053768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2112560272217</t>
   </si>
   <si>
     <t xml:space="preserve">13.1486902236938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1871938705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0379962921143</t>
+    <t xml:space="preserve">13.1871929168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0379943847656</t>
   </si>
   <si>
     <t xml:space="preserve">13.0043048858643</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0764951705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1823797225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2593841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5962858200073</t>
+    <t xml:space="preserve">13.0764970779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1823768615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2593860626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5962839126587</t>
   </si>
   <si>
     <t xml:space="preserve">13.456711769104</t>
@@ -2450,28 +2450,28 @@
     <t xml:space="preserve">13.3075141906738</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9283723831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2556438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9957485198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0535049438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6009922027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0214948654175</t>
+    <t xml:space="preserve">13.9283714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2556447982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9957504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.053505897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6009950637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0214958190918</t>
   </si>
   <si>
     <t xml:space="preserve">14.330828666687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6836614608765</t>
+    <t xml:space="preserve">14.6836585998535</t>
   </si>
   <si>
     <t xml:space="preserve">14.4903259277344</t>
@@ -2480,43 +2480,43 @@
     <t xml:space="preserve">14.4709939956665</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3743267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6401615142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8818273544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0799951553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7131605148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5633268356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.471492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6019945144653</t>
+    <t xml:space="preserve">14.3743276596069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6401586532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8818292617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0799942016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7131643295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.563328742981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4714918136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6019954681396</t>
   </si>
   <si>
     <t xml:space="preserve">15.2249937057495</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1428251266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9881610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1814956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1331615447998</t>
+    <t xml:space="preserve">15.1428270339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9881601333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.181492805481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1331634521484</t>
   </si>
   <si>
     <t xml:space="preserve">15.3071603775024</t>
@@ -2525,358 +2525,358 @@
     <t xml:space="preserve">15.3699932098389</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3554925918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4183282852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7711610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0901641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4236602783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036582946777</t>
+    <t xml:space="preserve">15.3554954528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4183263778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7711591720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.090160369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.003662109375</t>
   </si>
   <si>
     <t xml:space="preserve">16.5203247070312</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8344917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1674919128418</t>
+    <t xml:space="preserve">16.834493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1674957275391</t>
   </si>
   <si>
     <t xml:space="preserve">16.1529922485352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3704929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2781610488892</t>
+    <t xml:space="preserve">16.3704967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2781600952148</t>
   </si>
   <si>
     <t xml:space="preserve">14.6208276748657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5144948959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5918273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1766624450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1573276519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6648283004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9639959335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.737325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7276601791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9113235473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7953290939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0896606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2104949951172</t>
+    <t xml:space="preserve">14.5144939422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5918292999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1766605377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1573266983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6648273468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9639930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7373294830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7276592254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9113254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7953271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0896615982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2104921340942</t>
   </si>
   <si>
     <t xml:space="preserve">15.2491598129272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5826616287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5729951858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5053291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3023262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7663269042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7426624298096</t>
+    <t xml:space="preserve">15.5826587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5729942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5053272247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3023290634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7663240432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7426605224609</t>
   </si>
   <si>
     <t xml:space="preserve">17.0616588592529</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8199920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4918251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5691547393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6561622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5106811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.268217086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5543251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6028175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1954803466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1033458709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9772644042969</t>
+    <t xml:space="preserve">16.819995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4918231964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5691604614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6561584472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5106830596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2682209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5543231964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6028213500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1954784393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1033420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9772624969482</t>
   </si>
   <si>
     <t xml:space="preserve">16.9627170562744</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0160579681396</t>
+    <t xml:space="preserve">17.0160598754883</t>
   </si>
   <si>
     <t xml:space="preserve">17.2536716461182</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2100315093994</t>
+    <t xml:space="preserve">17.2100238800049</t>
   </si>
   <si>
     <t xml:space="preserve">17.1566886901855</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6863079071045</t>
+    <t xml:space="preserve">16.6863021850586</t>
   </si>
   <si>
     <t xml:space="preserve">16.8075389862061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3458099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3603553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8802795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1178913116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3846015930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6211643218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4417419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.892728805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8199787139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4465885162354</t>
+    <t xml:space="preserve">17.3458118438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3603534698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8802833557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1178894042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3845996856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6211624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4417362213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8927211761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8199863433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.446590423584</t>
   </si>
   <si>
     <t xml:space="preserve">18.4271926879883</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6502571105957</t>
+    <t xml:space="preserve">18.6502590179443</t>
   </si>
   <si>
     <t xml:space="preserve">17.9228706359863</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4455394744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.600715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0371437072754</t>
+    <t xml:space="preserve">19.44553565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6007118225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0371475219727</t>
   </si>
   <si>
     <t xml:space="preserve">20.3378009796143</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0468444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7267951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1244297027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.376594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6675510406494</t>
+    <t xml:space="preserve">20.0468425750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7267932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1244335174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3765964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.667552947998</t>
   </si>
   <si>
     <t xml:space="preserve">20.5511684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9391059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9682025909424</t>
+    <t xml:space="preserve">20.9391078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9682102203369</t>
   </si>
   <si>
     <t xml:space="preserve">21.4143371582031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2009677886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0651893615723</t>
+    <t xml:space="preserve">21.2009696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.065185546875</t>
   </si>
   <si>
     <t xml:space="preserve">21.3367500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3755397796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2203674316406</t>
+    <t xml:space="preserve">21.3755435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.220365524292</t>
   </si>
   <si>
     <t xml:space="preserve">20.8130302429199</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0942859649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4919261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8410720825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8798694610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7828807830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6277046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1330795288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1233806610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083068847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6568069458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2968997955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.393892288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6848411560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9951972961426</t>
+    <t xml:space="preserve">21.0942897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4919281005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8410739898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8798713684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7828826904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6277027130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1330814361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1233863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.608304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6568012237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2969017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3938865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6848468780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9952011108398</t>
   </si>
   <si>
     <t xml:space="preserve">23.4607257843018</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8292713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7806549072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6542701721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2653827667236</t>
+    <t xml:space="preserve">23.8292694091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7806587219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6542720794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2653770446777</t>
   </si>
   <si>
     <t xml:space="preserve">23.4306583404541</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6737117767334</t>
+    <t xml:space="preserve">23.6737155914307</t>
   </si>
   <si>
     <t xml:space="preserve">23.5959358215332</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3042697906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0723266601562</t>
+    <t xml:space="preserve">23.3042678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0723285675049</t>
   </si>
   <si>
     <t xml:space="preserve">23.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3626003265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9556617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9362182617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5098266601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0237121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2278861999512</t>
+    <t xml:space="preserve">23.3625984191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9556579589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9362144470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5098285675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0237140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2278823852539</t>
   </si>
   <si>
     <t xml:space="preserve">24.3931617736816</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4514923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6362152099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4028854370117</t>
+    <t xml:space="preserve">24.4514942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6362171173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4028797149658</t>
   </si>
   <si>
     <t xml:space="preserve">26.2501106262207</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">25.4237194061279</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3084468841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.152889251709</t>
+    <t xml:space="preserve">26.3084449768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1528873443604</t>
   </si>
   <si>
     <t xml:space="preserve">25.7153911590576</t>
@@ -2900,88 +2900,88 @@
     <t xml:space="preserve">24.5778846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0445537567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9292812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6292819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4640026092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7848358154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4751167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7862300872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5348472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1459560394287</t>
+    <t xml:space="preserve">25.0445518493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9292774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6292839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4640007019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.784839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4751205444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5348415374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1459579467773</t>
   </si>
   <si>
     <t xml:space="preserve">27.3973407745361</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0667877197266</t>
+    <t xml:space="preserve">27.0667858123779</t>
   </si>
   <si>
     <t xml:space="preserve">28.3112335205078</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9029006958008</t>
+    <t xml:space="preserve">27.9028968811035</t>
   </si>
   <si>
     <t xml:space="preserve">27.5042877197266</t>
   </si>
   <si>
-    <t xml:space="preserve">25.55983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3653869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9487266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.169548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.702880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.634822845459</t>
+    <t xml:space="preserve">25.5598373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3653907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9487247467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1695461273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7028789520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6348247528076</t>
   </si>
   <si>
     <t xml:space="preserve">24.2862148284912</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7514915466309</t>
+    <t xml:space="preserve">23.7514896392822</t>
   </si>
   <si>
     <t xml:space="preserve">22.6431503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3486995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5139789581299</t>
+    <t xml:space="preserve">20.3487014770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5139770507812</t>
   </si>
   <si>
     <t xml:space="preserve">20.1056461334229</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8972930908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6410522460938</t>
+    <t xml:space="preserve">16.8972988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6410484313965</t>
   </si>
   <si>
     <t xml:space="preserve">16.0413055419922</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">13.6173076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7146911621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5194425582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6755132675171</t>
+    <t xml:space="preserve">14.714693069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5194416046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6755113601685</t>
   </si>
   <si>
     <t xml:space="preserve">17.9385623931885</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9627876281738</t>
+    <t xml:space="preserve">18.9627857208252</t>
   </si>
   <si>
     <t xml:space="preserve">18.7335529327393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0165977478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9286422729492</t>
+    <t xml:space="preserve">18.0165958404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9286479949951</t>
   </si>
   <si>
     <t xml:space="preserve">19.3871059417725</t>
@@ -3023,79 +3023,79 @@
     <t xml:space="preserve">18.4701824188232</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0312309265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4996089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.113977432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0943069458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6795825958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.625768661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5477352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8992195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1138191223145</t>
+    <t xml:space="preserve">18.031229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4996032714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1139793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0943088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6795806884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6257667541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5477333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8992176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1138172149658</t>
   </si>
   <si>
     <t xml:space="preserve">20.8649139404297</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5820369720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2212829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8258972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.811107635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0939865112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3133029937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6937274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3472805023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1279640197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8793869018555</t>
+    <t xml:space="preserve">20.5820350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2212791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8258991241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8111019134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0939826965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3133010864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6937255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.347282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1279678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8793888092041</t>
   </si>
   <si>
     <t xml:space="preserve">22.2207984924316</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3476028442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6304893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8255767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3183422088623</t>
+    <t xml:space="preserve">22.3476047515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6304874420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8255729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.318338394165</t>
   </si>
   <si>
     <t xml:space="preserve">23.1182117462158</t>
@@ -3104,19 +3104,19 @@
     <t xml:space="preserve">21.7233142852783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0892696380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6647891998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9476642608643</t>
+    <t xml:space="preserve">21.0892734527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6647853851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9476699829102</t>
   </si>
   <si>
     <t xml:space="preserve">21.342887878418</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3916645050049</t>
+    <t xml:space="preserve">21.3916625976562</t>
   </si>
   <si>
     <t xml:space="preserve">21.6842975616455</t>
@@ -3125,28 +3125,28 @@
     <t xml:space="preserve">22.3866214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6745414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7720851898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1915302276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0351390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6839790344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4350662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3913421630859</t>
+    <t xml:space="preserve">21.1965732574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.67453956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.772087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1915321350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.035135269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6839752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4350700378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3913345336914</t>
   </si>
   <si>
     <t xml:space="preserve">23.4596195220947</t>
@@ -3155,19 +3155,19 @@
     <t xml:space="preserve">22.4451484680176</t>
   </si>
   <si>
-    <t xml:space="preserve">22.367115020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2598171234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2450199127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4206047058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7327461242676</t>
+    <t xml:space="preserve">22.3671188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2598152160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2450218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4206008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7327480316162</t>
   </si>
   <si>
     <t xml:space="preserve">23.605936050415</t>
@@ -3176,37 +3176,37 @@
     <t xml:space="preserve">23.1486301422119</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8033237457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1877212524414</t>
+    <t xml:space="preserve">23.8033218383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1877155303955</t>
   </si>
   <si>
     <t xml:space="preserve">23.1681747436523</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9336547851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9727458953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6665172576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4710903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6762866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.106237411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9889755249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.295202255249</t>
+    <t xml:space="preserve">22.9336566925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9727478027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6665210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4710941314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6762924194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1062393188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9889793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2952041625977</t>
   </si>
   <si>
     <t xml:space="preserve">23.578577041626</t>
@@ -3215,34 +3215,34 @@
     <t xml:space="preserve">24.7706966400146</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2690372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2039566040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9368152618408</t>
+    <t xml:space="preserve">25.2690448760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.203950881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9368133544922</t>
   </si>
   <si>
     <t xml:space="preserve">24.9661235809326</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5621910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1680183410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8748722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0703048706055</t>
+    <t xml:space="preserve">25.5621852874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1680164337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8748741149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0703086853027</t>
   </si>
   <si>
     <t xml:space="preserve">25.9628162384033</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2983589172363</t>
+    <t xml:space="preserve">25.2983570098877</t>
   </si>
   <si>
     <t xml:space="preserve">25.5524158477783</t>
@@ -3251,10 +3251,10 @@
     <t xml:space="preserve">24.2137222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0182876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1193180084229</t>
+    <t xml:space="preserve">24.0182914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1193161010742</t>
   </si>
   <si>
     <t xml:space="preserve">23.2658882141113</t>
@@ -3266,19 +3266,19 @@
     <t xml:space="preserve">24.1257781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8424072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7837791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9303531646729</t>
+    <t xml:space="preserve">23.8424034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7837772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9303493499756</t>
   </si>
   <si>
     <t xml:space="preserve">23.6176624298096</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4482402801514</t>
+    <t xml:space="preserve">24.4482345581055</t>
   </si>
   <si>
     <t xml:space="preserve">24.89772605896</t>
@@ -3287,25 +3287,25 @@
     <t xml:space="preserve">24.7316112518311</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1355533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5264110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1746406555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1941795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7642345428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5166416168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7218379974365</t>
+    <t xml:space="preserve">24.1355476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5264091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1746349334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1941814422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.764232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.516637802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7218399047852</t>
   </si>
   <si>
     <t xml:space="preserve">25.4156131744385</t>
@@ -3314,25 +3314,25 @@
     <t xml:space="preserve">25.0149841308594</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6925258636475</t>
+    <t xml:space="preserve">24.6925239562988</t>
   </si>
   <si>
     <t xml:space="preserve">24.5654945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">24.927038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4058399200439</t>
+    <t xml:space="preserve">24.9270362854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4058418273926</t>
   </si>
   <si>
     <t xml:space="preserve">23.6469764709473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0802307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5883522033691</t>
+    <t xml:space="preserve">23.080228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.588342666626</t>
   </si>
   <si>
     <t xml:space="preserve">22.7773151397705</t>
@@ -3341,34 +3341,34 @@
     <t xml:space="preserve">24.3798389434814</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6338939666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8195552825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7478427886963</t>
+    <t xml:space="preserve">24.6338920593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8195533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7478446960449</t>
   </si>
   <si>
     <t xml:space="preserve">25.992130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1973342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5035572052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3472118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6934223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7815036773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9772548675537</t>
+    <t xml:space="preserve">26.1973323822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5035591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3472156524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.693416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7815093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9772529602051</t>
   </si>
   <si>
     <t xml:space="preserve">25.1240615844727</t>
@@ -3380,97 +3380,97 @@
     <t xml:space="preserve">25.202356338501</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6330032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6917266845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4828052520752</t>
+    <t xml:space="preserve">25.6330013275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6917247772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4828071594238</t>
   </si>
   <si>
     <t xml:space="preserve">27.1696128845215</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4632301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4338703155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6296195983887</t>
+    <t xml:space="preserve">27.4632339477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4338722229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6296157836914</t>
   </si>
   <si>
     <t xml:space="preserve">27.9036617279053</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6572875976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0487804412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2445259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8921852111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4811096191406</t>
+    <t xml:space="preserve">28.6572895050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0487785339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2445240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8921794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4811153411865</t>
   </si>
   <si>
     <t xml:space="preserve">28.6181373596191</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8236694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5202617645264</t>
+    <t xml:space="preserve">28.823673248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.520263671875</t>
   </si>
   <si>
     <t xml:space="preserve">28.3245162963867</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0504722595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0015392303467</t>
+    <t xml:space="preserve">28.0504741668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0015335083008</t>
   </si>
   <si>
     <t xml:space="preserve">27.3653583526611</t>
   </si>
   <si>
-    <t xml:space="preserve">26.621524810791</t>
+    <t xml:space="preserve">26.6215209960938</t>
   </si>
   <si>
     <t xml:space="preserve">25.3883209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">25.975564956665</t>
+    <t xml:space="preserve">25.9755611419678</t>
   </si>
   <si>
     <t xml:space="preserve">25.6134281158447</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1125812530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8662071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3457851409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2070693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3832454681396</t>
+    <t xml:space="preserve">26.112585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8662033081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3457870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2070713043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3832416534424</t>
   </si>
   <si>
     <t xml:space="preserve">29.8317642211914</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0406875610352</t>
+    <t xml:space="preserve">28.0406837463379</t>
   </si>
   <si>
     <t xml:space="preserve">28.5398368835449</t>
@@ -3482,22 +3482,22 @@
     <t xml:space="preserve">28.3440895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">29.146656036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0585689544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4794235229492</t>
+    <t xml:space="preserve">29.1466541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.058572769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.479419708252</t>
   </si>
   <si>
     <t xml:space="preserve">29.782829284668</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4483661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6539039611816</t>
+    <t xml:space="preserve">30.4483680725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6539001464844</t>
   </si>
   <si>
     <t xml:space="preserve">30.7615623474121</t>
@@ -3506,49 +3506,49 @@
     <t xml:space="preserve">31.2998638153076</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8479595184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5330657958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1317863464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5803070068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7092399597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9539222717285</t>
+    <t xml:space="preserve">31.8479518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5330619812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1317939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5803146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7092323303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9539108276367</t>
   </si>
   <si>
     <t xml:space="preserve">33.3747749328613</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6586036682129</t>
+    <t xml:space="preserve">33.6586112976074</t>
   </si>
   <si>
     <t xml:space="preserve">33.2573280334473</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3032512664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8138847351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3850593566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5906448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4044151306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0613651275635</t>
+    <t xml:space="preserve">29.3032531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8138809204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3850612640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5906429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4044132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0613594055176</t>
   </si>
   <si>
     <t xml:space="preserve">29.4142150878906</t>
@@ -3557,91 +3557,91 @@
     <t xml:space="preserve">28.5026798248291</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5808372497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7278614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8062744140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5416316986084</t>
+    <t xml:space="preserve">29.5808410644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7278633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8062725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5416355133057</t>
   </si>
   <si>
     <t xml:space="preserve">29.9434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0902690887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3745098114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4627227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7371692657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3448524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6781044006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9623527526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0015525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2468452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.44287109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0998077392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8251342773438</t>
+    <t xml:space="preserve">31.0902709960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3745059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.462718963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7371673583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3448600769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6781005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.962345123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0015487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2468414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4428672790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0998153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8251304626465</t>
   </si>
   <si>
     <t xml:space="preserve">32.7369155883789</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9528007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0018081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0508155822754</t>
+    <t xml:space="preserve">31.9527931213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0018043518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0508117675781</t>
   </si>
   <si>
     <t xml:space="preserve">31.051061630249</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3546524047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6094932556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2661895751953</t>
+    <t xml:space="preserve">32.3546600341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6095008850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2661819458008</t>
   </si>
   <si>
     <t xml:space="preserve">33.2563972473145</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0407524108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0505599975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6190376281738</t>
+    <t xml:space="preserve">33.0407638549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0505638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6190414428711</t>
   </si>
   <si>
     <t xml:space="preserve">33.8836822509766</t>
@@ -3650,241 +3650,241 @@
     <t xml:space="preserve">32.9819488525391</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1777305603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6580085754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8540306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4423713684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7170677185059</t>
+    <t xml:space="preserve">34.1777229309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6580047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8540420532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4423561096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7170600891113</t>
   </si>
   <si>
     <t xml:space="preserve">33.2759971618652</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9326934814453</t>
+    <t xml:space="preserve">33.9326972961426</t>
   </si>
   <si>
     <t xml:space="preserve">33.1583824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2664375305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0900192260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7861766815186</t>
+    <t xml:space="preserve">32.2664489746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0900115966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7861747741699</t>
   </si>
   <si>
     <t xml:space="preserve">31.3549060821533</t>
   </si>
   <si>
-    <t xml:space="preserve">30.806022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1395263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.757266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6889038085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9047889709473</t>
+    <t xml:space="preserve">30.8060207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1395244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7572689056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6889057159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9047870635986</t>
   </si>
   <si>
     <t xml:space="preserve">28.4928779602051</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3063983917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.561487197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6886577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0907688140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6298503875732</t>
+    <t xml:space="preserve">29.3063945770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5614891052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6886615753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0907707214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6298484802246</t>
   </si>
   <si>
     <t xml:space="preserve">30.1885318756104</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9630947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2081317901611</t>
+    <t xml:space="preserve">29.9631004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.208137512207</t>
   </si>
   <si>
     <t xml:space="preserve">31.4271373748779</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7891731262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6713943481445</t>
+    <t xml:space="preserve">30.7891750335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6713924407959</t>
   </si>
   <si>
     <t xml:space="preserve">30.8775062561035</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6725101470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3093605041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3388061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9178829193115</t>
+    <t xml:space="preserve">31.6725044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3093585968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3388042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9178905487061</t>
   </si>
   <si>
     <t xml:space="preserve">32.4724159240723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5362129211426</t>
+    <t xml:space="preserve">32.5362243652344</t>
   </si>
   <si>
     <t xml:space="preserve">32.5852890014648</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5018653869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6638069152832</t>
+    <t xml:space="preserve">32.5018730163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6638107299805</t>
   </si>
   <si>
     <t xml:space="preserve">32.2368621826172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1926956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9865856170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0651016235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3142681121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1217632293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4701919555664</t>
+    <t xml:space="preserve">32.192699432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9865875244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0650978088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3142700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1217613220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4701900482178</t>
   </si>
   <si>
     <t xml:space="preserve">31.1228771209717</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6038074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0111236572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1436195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4075088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.568338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1315784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4936141967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2199153900146</t>
+    <t xml:space="preserve">31.6038055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0111198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1436157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.407506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5683403015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1315803527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4936084747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2199115753174</t>
   </si>
   <si>
     <t xml:space="preserve">29.5475959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3720397949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5819454193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5857372283936</t>
+    <t xml:space="preserve">30.3720436096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5819492340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5857410430908</t>
   </si>
   <si>
     <t xml:space="preserve">28.0017566680908</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3796272277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6495361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4974040985107</t>
+    <t xml:space="preserve">28.3796253204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6495380401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4974060058594</t>
   </si>
   <si>
     <t xml:space="preserve">28.6544456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6446304321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0519428253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.130464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3807411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5132465362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4690761566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6899108886719</t>
+    <t xml:space="preserve">28.6446323394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.051944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1304683685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3807430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5132446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4690780639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6899127960205</t>
   </si>
   <si>
     <t xml:space="preserve">30.0628719329834</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0825004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9598159790039</t>
+    <t xml:space="preserve">30.0825023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9598178863525</t>
   </si>
   <si>
     <t xml:space="preserve">29.9549102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">29.557409286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0039844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5917663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6261119842529</t>
+    <t xml:space="preserve">29.5574111938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0039882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5917625427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6261157989502</t>
   </si>
   <si>
     <t xml:space="preserve">29.9941711425781</t>
@@ -3905,34 +3905,34 @@
     <t xml:space="preserve">30.9069519042969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2750072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8812980651855</t>
+    <t xml:space="preserve">31.2750091552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8813018798828</t>
   </si>
   <si>
     <t xml:space="preserve">29.6796989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0337295532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.259916305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2894172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4320163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6582050323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0976543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2402496337891</t>
+    <t xml:space="preserve">30.033727645874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2599182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.289421081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4320182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6582012176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0976524353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402515411377</t>
   </si>
   <si>
     <t xml:space="preserve">30.9089775085449</t>
@@ -3941,79 +3941,79 @@
     <t xml:space="preserve">31.2187576293945</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1007480621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3416862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4664363861084</t>
+    <t xml:space="preserve">31.1007423400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3416843414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4664344787598</t>
   </si>
   <si>
     <t xml:space="preserve">31.6072044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8579845428467</t>
+    <t xml:space="preserve">31.8579788208008</t>
   </si>
   <si>
     <t xml:space="preserve">31.8874835968018</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6791343688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9809131622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6367053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8204708099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5795307159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7940521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7842273712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7823944091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.644718170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4591369628906</t>
+    <t xml:space="preserve">32.6791305541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9809074401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6367073059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8204669952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5795288085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7940616607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7842197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7823905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6447105407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4591407775879</t>
   </si>
   <si>
     <t xml:space="preserve">33.9526672363281</t>
   </si>
   <si>
-    <t xml:space="preserve">34.483715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5279693603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.921329498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1868705749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3540420532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8998489379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7769165039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6293983459473</t>
+    <t xml:space="preserve">34.4837188720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5279808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9213371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1868667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3540496826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.899845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7769203186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6294021606445</t>
   </si>
   <si>
     <t xml:space="preserve">35.9932670593262</t>
@@ -4022,13 +4022,13 @@
     <t xml:space="preserve">35.8850975036621</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9146003723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.496654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8752632141113</t>
+    <t xml:space="preserve">35.9145965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4966430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8752517700195</t>
   </si>
   <si>
     <t xml:space="preserve">35.2458724975586</t>
@@ -4037,73 +4037,73 @@
     <t xml:space="preserve">35.7818298339844</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8801803588867</t>
+    <t xml:space="preserve">35.8801727294922</t>
   </si>
   <si>
     <t xml:space="preserve">36.0276870727539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1801300048828</t>
+    <t xml:space="preserve">36.1801223754883</t>
   </si>
   <si>
     <t xml:space="preserve">35.9096794128418</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6767463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2520484924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0553741455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3110618591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2913932800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2668075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5864219665527</t>
+    <t xml:space="preserve">36.6767501831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2520599365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0553665161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3110542297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2913856506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2668037414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5864105224609</t>
   </si>
   <si>
     <t xml:space="preserve">37.5765800476074</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9029388427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0307769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6208419799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4880752563477</t>
+    <t xml:space="preserve">36.9029350280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0307846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6208381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4880676269531</t>
   </si>
   <si>
     <t xml:space="preserve">38.8451919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9435424804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2975692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2207260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6543846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2010231018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5014381408691</t>
+    <t xml:space="preserve">38.9435348510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2975730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2207221984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6543807983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2010307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5014305114746</t>
   </si>
   <si>
     <t xml:space="preserve">39.0234527587891</t>
@@ -4112,88 +4112,88 @@
     <t xml:space="preserve">38.9003372192383</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9545097351074</t>
+    <t xml:space="preserve">38.9545059204102</t>
   </si>
   <si>
     <t xml:space="preserve">36.9993934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9206008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1963882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7482414245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4973526000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3838043212891</t>
+    <t xml:space="preserve">36.9206047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1963844299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7482376098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4973602294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3838081359863</t>
   </si>
   <si>
     <t xml:space="preserve">35.7780685424805</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3345565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4825859069824</t>
+    <t xml:space="preserve">36.3345603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4825820922852</t>
   </si>
   <si>
     <t xml:space="preserve">35.4136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8374481201172</t>
+    <t xml:space="preserve">34.8374443054199</t>
   </si>
   <si>
     <t xml:space="preserve">35.3249931335449</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8716278076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9849052429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1572608947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4872169494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8910484313965</t>
+    <t xml:space="preserve">35.8716354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9848976135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1572685241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4872245788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8910598754883</t>
   </si>
   <si>
     <t xml:space="preserve">37.3490447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6987113952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2502670288086</t>
+    <t xml:space="preserve">37.6987152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2502746582031</t>
   </si>
   <si>
     <t xml:space="preserve">38.255199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7077026367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2792625427246</t>
+    <t xml:space="preserve">40.7077140808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2792510986328</t>
   </si>
   <si>
     <t xml:space="preserve">40.5156402587891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1016883850098</t>
+    <t xml:space="preserve">41.1016845703125</t>
   </si>
   <si>
     <t xml:space="preserve">41.7616004943848</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7465400695801</t>
+    <t xml:space="preserve">42.7465362548828</t>
   </si>
   <si>
     <t xml:space="preserve">43.3966026306152</t>
@@ -4208,22 +4208,22 @@
     <t xml:space="preserve">42.7662353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5738983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1254539489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2141036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4603462219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0660858154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7262725830078</t>
+    <t xml:space="preserve">43.5738945007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1254615783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2141075134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4603385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0660820007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7262763977051</t>
   </si>
   <si>
     <t xml:space="preserve">45.1005554199219</t>
@@ -4232,94 +4232,94 @@
     <t xml:space="preserve">45.0217552185059</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2143821716309</t>
+    <t xml:space="preserve">43.2143859863281</t>
   </si>
   <si>
     <t xml:space="preserve">43.0321731567383</t>
   </si>
   <si>
-    <t xml:space="preserve">42.859806060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2838973999023</t>
+    <t xml:space="preserve">42.8598022460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2839012145996</t>
   </si>
   <si>
     <t xml:space="preserve">42.3525619506836</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4510612487793</t>
+    <t xml:space="preserve">42.4510536193848</t>
   </si>
   <si>
     <t xml:space="preserve">44.2682800292969</t>
   </si>
   <si>
-    <t xml:space="preserve">41.338077545166</t>
+    <t xml:space="preserve">41.3380737304688</t>
   </si>
   <si>
     <t xml:space="preserve">41.2543487548828</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3971710205078</t>
+    <t xml:space="preserve">41.3971672058105</t>
   </si>
   <si>
     <t xml:space="preserve">43.7955055236816</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5249252319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2392959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7960739135742</t>
+    <t xml:space="preserve">42.5249328613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2392883300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.796070098877</t>
   </si>
   <si>
     <t xml:space="preserve">41.8799057006836</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1302947998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0130577087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3571510314941</t>
+    <t xml:space="preserve">41.1302909851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.013069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3571472167969</t>
   </si>
   <si>
     <t xml:space="preserve">40.8245239257812</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8047943115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2881011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.919361114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3533477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3100929260254</t>
+    <t xml:space="preserve">40.804801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2881088256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9193649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3533554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3101005554199</t>
   </si>
   <si>
     <t xml:space="preserve">43.4038009643555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1966667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1621398925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6393852233887</t>
+    <t xml:space="preserve">43.1966705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1621475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6393890380859</t>
   </si>
   <si>
     <t xml:space="preserve">43.0240631103516</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2349853515625</t>
+    <t xml:space="preserve">42.234992980957</t>
   </si>
   <si>
     <t xml:space="preserve">43.7786064147949</t>
@@ -4328,73 +4328,73 @@
     <t xml:space="preserve">42.2793769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3002395629883</t>
+    <t xml:space="preserve">43.300235748291</t>
   </si>
   <si>
     <t xml:space="preserve">42.3780097961426</t>
   </si>
   <si>
-    <t xml:space="preserve">43.028995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0821113586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7702827453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8689155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0946350097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1663398742676</t>
+    <t xml:space="preserve">43.0289916992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0821075439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7702751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8689117431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0946426391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1663475036621</t>
   </si>
   <si>
     <t xml:space="preserve">38.1022338867188</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2956962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0551795959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4485816955566</t>
+    <t xml:space="preserve">39.2957000732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0551834106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4485855102539</t>
   </si>
   <si>
     <t xml:space="preserve">40.6864433288574</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8984985351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7900085449219</t>
+    <t xml:space="preserve">40.8985061645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7900047302246</t>
   </si>
   <si>
     <t xml:space="preserve">39.1280250549316</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3093643188477</t>
+    <t xml:space="preserve">38.3093719482422</t>
   </si>
   <si>
     <t xml:space="preserve">38.4030685424805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8074684143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3017654418945</t>
+    <t xml:space="preserve">38.8074645996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3017730712891</t>
   </si>
   <si>
     <t xml:space="preserve">40.1291618347168</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4535179138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5658073425293</t>
+    <t xml:space="preserve">39.4535102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5658149719238</t>
   </si>
   <si>
     <t xml:space="preserve">39.1970710754395</t>
@@ -4406,61 +4406,61 @@
     <t xml:space="preserve">38.5855369567871</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7175674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0517807006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1800079345703</t>
+    <t xml:space="preserve">37.7175636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0517768859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1800117492676</t>
   </si>
   <si>
     <t xml:space="preserve">36.9630165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1788787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7718086242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4413909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3860054016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3021659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0358581542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5305595397949</t>
+    <t xml:space="preserve">36.1788749694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7718124389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4413871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3860092163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3021697998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0358543395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5305519104004</t>
   </si>
   <si>
     <t xml:space="preserve">33.0965690612793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2433853149414</t>
+    <t xml:space="preserve">32.2433815002441</t>
   </si>
   <si>
     <t xml:space="preserve">35.5919990539551</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6500511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5119705200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1568794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6599197387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.258918762207</t>
+    <t xml:space="preserve">34.6500549316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.511962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1568832397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6599159240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2589111328125</t>
   </si>
   <si>
     <t xml:space="preserve">37.1208267211914</t>
@@ -4469,19 +4469,19 @@
     <t xml:space="preserve">38.2107353210449</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2996406555176</t>
+    <t xml:space="preserve">38.2996368408203</t>
   </si>
   <si>
     <t xml:space="preserve">38.704662322998</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6256294250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4208755493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.707347869873</t>
+    <t xml:space="preserve">38.6256332397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4208641052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7073516845703</t>
   </si>
   <si>
     <t xml:space="preserve">39.8357696533203</t>
@@ -4493,7 +4493,7 @@
     <t xml:space="preserve">40.2309188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.129451751709</t>
+    <t xml:space="preserve">39.1294479370117</t>
   </si>
   <si>
     <t xml:space="preserve">38.181095123291</t>
@@ -4502,61 +4502,61 @@
     <t xml:space="preserve">38.2304916381836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1905403137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.163158416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8174018859863</t>
+    <t xml:space="preserve">36.1905364990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1631546020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8173980712891</t>
   </si>
   <si>
     <t xml:space="preserve">34.6050109863281</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4469528198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3580474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2790184020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7752075195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1802291870117</t>
+    <t xml:space="preserve">34.446949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2790145874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.775203704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.180233001709</t>
   </si>
   <si>
     <t xml:space="preserve">35.2866401672363</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5484237670898</t>
+    <t xml:space="preserve">35.5484275817871</t>
   </si>
   <si>
     <t xml:space="preserve">34.8766746520996</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8569259643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4321327209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6000747680664</t>
+    <t xml:space="preserve">34.8569145202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4321365356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6000709533691</t>
   </si>
   <si>
     <t xml:space="preserve">35.168098449707</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3360404968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4420166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2619438171387</t>
+    <t xml:space="preserve">35.3360366821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4420127868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2619476318359</t>
   </si>
   <si>
     <t xml:space="preserve">34.5901947021484</t>
@@ -4565,22 +4565,22 @@
     <t xml:space="preserve">34.6889839172363</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3284149169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9898529052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0293655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9628982543945</t>
+    <t xml:space="preserve">34.3284034729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9898490905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0293579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9629020690918</t>
   </si>
   <si>
     <t xml:space="preserve">35.3162803649902</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4451332092285</t>
+    <t xml:space="preserve">37.4451370239258</t>
   </si>
   <si>
     <t xml:space="preserve">36.709171295166</t>
@@ -4592,22 +4592,22 @@
     <t xml:space="preserve">36.8672294616699</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4029312133789</t>
+    <t xml:space="preserve">36.8771057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2992057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4029350280762</t>
   </si>
   <si>
     <t xml:space="preserve">35.1433944702148</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3310890197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9682731628418</t>
+    <t xml:space="preserve">35.3310966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9682693481445</t>
   </si>
   <si>
     <t xml:space="preserve">36.8128967285156</t>
@@ -4619,52 +4619,52 @@
     <t xml:space="preserve">36.7338714599609</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5955581665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.24755859375</t>
+    <t xml:space="preserve">36.5955619812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2475624084473</t>
   </si>
   <si>
     <t xml:space="preserve">36.4276275634766</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5906257629395</t>
+    <t xml:space="preserve">36.5906295776367</t>
   </si>
   <si>
     <t xml:space="preserve">36.3485946655273</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5362930297852</t>
+    <t xml:space="preserve">36.536304473877</t>
   </si>
   <si>
     <t xml:space="preserve">35.568187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0567436218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.174861907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1304092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2960929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1968688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3252925872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1966228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.99831199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3549880981445</t>
+    <t xml:space="preserve">34.0567474365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1748580932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1304016113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2960891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.196870803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3252906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.196626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9983158111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3549842834473</t>
   </si>
   <si>
     <t xml:space="preserve">30.8056774139404</t>
@@ -4673,16 +4673,16 @@
     <t xml:space="preserve">31.4836483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5182876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1174488067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4741153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6773719787598</t>
+    <t xml:space="preserve">31.51828956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1174449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4741172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6773738861084</t>
   </si>
   <si>
     <t xml:space="preserve">28.8064002990723</t>
@@ -4697,10 +4697,10 @@
     <t xml:space="preserve">29.0637359619141</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8802700042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5087566375732</t>
+    <t xml:space="preserve">29.8802738189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5087547302246</t>
   </si>
   <si>
     <t xml:space="preserve">30.4493713378906</t>
@@ -4709,19 +4709,19 @@
     <t xml:space="preserve">30.7908306121826</t>
   </si>
   <si>
-    <t xml:space="preserve">30.825475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.924446105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.948823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3100776672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7158737182617</t>
+    <t xml:space="preserve">30.8254737854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9244499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9488258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3100891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7158851623535</t>
   </si>
   <si>
     <t xml:space="preserve">33.4482841491699</t>
@@ -4730,25 +4730,25 @@
     <t xml:space="preserve">33.7155113220215</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5819091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8045959472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5027198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6409187316895</t>
+    <t xml:space="preserve">33.5819053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8045921325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5027160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.640926361084</t>
   </si>
   <si>
     <t xml:space="preserve">35.8978958129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5560684204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8826866149902</t>
+    <t xml:space="preserve">36.5560722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.882682800293</t>
   </si>
   <si>
     <t xml:space="preserve">37.1895027160645</t>
@@ -4760,31 +4760,31 @@
     <t xml:space="preserve">38.2188377380371</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2587852478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0113487243652</t>
+    <t xml:space="preserve">37.2587890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0113525390625</t>
   </si>
   <si>
     <t xml:space="preserve">35.0566101074219</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2442970275879</t>
+    <t xml:space="preserve">36.2443046569824</t>
   </si>
   <si>
     <t xml:space="preserve">36.6204032897949</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7441177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1598091125488</t>
+    <t xml:space="preserve">36.7441253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1598167419434</t>
   </si>
   <si>
     <t xml:space="preserve">35.5712776184082</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7243309020996</t>
+    <t xml:space="preserve">36.7243270874023</t>
   </si>
   <si>
     <t xml:space="preserve">35.214973449707</t>
@@ -4802,34 +4802,34 @@
     <t xml:space="preserve">35.2100219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7052574157715</t>
+    <t xml:space="preserve">34.7052536010742</t>
   </si>
   <si>
     <t xml:space="preserve">34.9180488586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4330825805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9233627319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2248687744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.339054107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5666885375977</t>
+    <t xml:space="preserve">34.4330787658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9233589172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2248725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3390426635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5666923522949</t>
   </si>
   <si>
     <t xml:space="preserve">35.2941513061523</t>
   </si>
   <si>
-    <t xml:space="preserve">35.769229888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5610198974609</t>
+    <t xml:space="preserve">35.7692260742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5610160827637</t>
   </si>
   <si>
     <t xml:space="preserve">36.5412254333496</t>
@@ -4838,19 +4838,19 @@
     <t xml:space="preserve">35.3238410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4871520996094</t>
+    <t xml:space="preserve">35.4871482849121</t>
   </si>
   <si>
     <t xml:space="preserve">35.3980712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9477424621582</t>
+    <t xml:space="preserve">34.9477462768555</t>
   </si>
   <si>
     <t xml:space="preserve">35.4831161499023</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3988456726074</t>
+    <t xml:space="preserve">35.3988418579102</t>
   </si>
   <si>
     <t xml:space="preserve">36.5488967895508</t>
@@ -4865,49 +4865,49 @@
     <t xml:space="preserve">33.812557220459</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2190475463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3416328430176</t>
+    <t xml:space="preserve">34.2190437316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3416366577148</t>
   </si>
   <si>
     <t xml:space="preserve">31.5421981811523</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9734668731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4196014404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1744346618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6751022338867</t>
+    <t xml:space="preserve">31.9734687805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4196090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.174430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6750984191895</t>
   </si>
   <si>
     <t xml:space="preserve">35.2253379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3713798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7319030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7305698394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4827117919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2262802124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7206516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3006401062012</t>
+    <t xml:space="preserve">33.3713722229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7319107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7305679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4827098846436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2262840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7206535339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3006362915039</t>
   </si>
   <si>
     <t xml:space="preserve">32.5286674499512</t>
@@ -4919,22 +4919,22 @@
     <t xml:space="preserve">33.2672729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0640335083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7778625488281</t>
+    <t xml:space="preserve">33.0640296936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7778587341309</t>
   </si>
   <si>
     <t xml:space="preserve">34.8981742858887</t>
   </si>
   <si>
-    <t xml:space="preserve">34.630485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2213249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5223693847656</t>
+    <t xml:space="preserve">34.6304893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2213287353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.522367477417</t>
   </si>
   <si>
     <t xml:space="preserve">31.3290386199951</t>
@@ -4946,40 +4946,40 @@
     <t xml:space="preserve">31.1357116699219</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6400012969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6661262512207</t>
+    <t xml:space="preserve">30.6399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6661281585693</t>
   </si>
   <si>
     <t xml:space="preserve">31.8247509002686</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2127418518066</t>
+    <t xml:space="preserve">33.2127494812012</t>
   </si>
   <si>
     <t xml:space="preserve">32.8954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.562427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6777801513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3370780944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3605194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3803520202637</t>
+    <t xml:space="preserve">35.5624237060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6777763366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3370742797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3605270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3803482055664</t>
   </si>
   <si>
     <t xml:space="preserve">36.6629104614258</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6182899475098</t>
+    <t xml:space="preserve">36.618293762207</t>
   </si>
   <si>
     <t xml:space="preserve">36.6579475402832</t>
@@ -4994,25 +4994,25 @@
     <t xml:space="preserve">36.8562355041504</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0581398010254</t>
+    <t xml:space="preserve">36.0581359863281</t>
   </si>
   <si>
     <t xml:space="preserve">35.4384956359863</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7359199523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5637664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3853073120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3357429504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9094276428223</t>
+    <t xml:space="preserve">35.7359237670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5637626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3853034973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3357391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.909423828125</t>
   </si>
   <si>
     <t xml:space="preserve">35.3938827514648</t>
@@ -5021,10 +5021,10 @@
     <t xml:space="preserve">36.1077079772949</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5736770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2261161804199</t>
+    <t xml:space="preserve">36.5736808776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2261123657227</t>
   </si>
   <si>
     <t xml:space="preserve">37.4872741699219</t>
@@ -5036,91 +5036,91 @@
     <t xml:space="preserve">35.1436958312988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.686897277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3939552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2896881103516</t>
+    <t xml:space="preserve">34.6869049072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3939514160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">34.8904724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6392478942871</t>
+    <t xml:space="preserve">33.6392440795898</t>
   </si>
   <si>
     <t xml:space="preserve">33.3760871887207</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9987335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5915908813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2867126464844</t>
+    <t xml:space="preserve">32.9987297058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5915870666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2867164611816</t>
   </si>
   <si>
     <t xml:space="preserve">32.7753028869629</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2072677612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3165054321289</t>
+    <t xml:space="preserve">33.2072715759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3165016174316</t>
   </si>
   <si>
     <t xml:space="preserve">34.1705207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3393402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.198314666748</t>
+    <t xml:space="preserve">34.3393363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1983184814453</t>
   </si>
   <si>
     <t xml:space="preserve">37.0354423522949</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8616561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.095027923584</t>
+    <t xml:space="preserve">36.8616600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0950241088867</t>
   </si>
   <si>
     <t xml:space="preserve">37.1893653869629</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5865745544434</t>
+    <t xml:space="preserve">37.5865783691406</t>
   </si>
   <si>
     <t xml:space="preserve">37.7007789611816</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4803161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2350273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7603645324707</t>
+    <t xml:space="preserve">38.4803199768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2350234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7603607177734</t>
   </si>
   <si>
     <t xml:space="preserve">37.8000793457031</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7881546020508</t>
+    <t xml:space="preserve">38.788158416748</t>
   </si>
   <si>
     <t xml:space="preserve">38.8328437805176</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1605491638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3730354309082</t>
+    <t xml:space="preserve">39.1605529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3730316162109</t>
   </si>
   <si>
     <t xml:space="preserve">43.3561477661133</t>
@@ -5129,13 +5129,13 @@
     <t xml:space="preserve">43.2915954589844</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8099708557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8973503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2081642150879</t>
+    <t xml:space="preserve">42.8099746704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.897346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2081680297852</t>
   </si>
   <si>
     <t xml:space="preserve">45.7990226745605</t>
@@ -5144,22 +5144,22 @@
     <t xml:space="preserve">44.7960548400879</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9549407958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9003257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8387489318848</t>
+    <t xml:space="preserve">44.9549369812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9003219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8387451171875</t>
   </si>
   <si>
     <t xml:space="preserve">44.6123390197754</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0343818664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2925720214844</t>
+    <t xml:space="preserve">45.0343780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2925758361816</t>
   </si>
   <si>
     <t xml:space="preserve">45.8586120605469</t>
@@ -5168,16 +5168,16 @@
     <t xml:space="preserve">46.1763801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5954513549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.084041595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7116432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2896041870117</t>
+    <t xml:space="preserve">45.5954475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0840339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7116470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2896003723145</t>
   </si>
   <si>
     <t xml:space="preserve">44.9201812744141</t>
@@ -5186,10 +5186,10 @@
     <t xml:space="preserve">44.304500579834</t>
   </si>
   <si>
-    <t xml:space="preserve">45.242919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3769836425781</t>
+    <t xml:space="preserve">45.2429237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3769798278809</t>
   </si>
   <si>
     <t xml:space="preserve">43.9072799682617</t>
@@ -5201,28 +5201,28 @@
     <t xml:space="preserve">45.486213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">44.676887512207</t>
+    <t xml:space="preserve">44.6768836975098</t>
   </si>
   <si>
     <t xml:space="preserve">46.6977272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9281158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0810623168945</t>
+    <t xml:space="preserve">45.9281196594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0810661315918</t>
   </si>
   <si>
     <t xml:space="preserve">45.5557289123535</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7980499267578</t>
+    <t xml:space="preserve">43.7980461120605</t>
   </si>
   <si>
     <t xml:space="preserve">44.9599075317383</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1287231445312</t>
+    <t xml:space="preserve">45.128719329834</t>
   </si>
   <si>
     <t xml:space="preserve">45.6557312011719</t>
@@ -5234,22 +5234,22 @@
     <t xml:space="preserve">46.9284973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1535797119141</t>
+    <t xml:space="preserve">45.1535835266113</t>
   </si>
   <si>
     <t xml:space="preserve">45.5761795043945</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2785491943359</t>
+    <t xml:space="preserve">44.2785530090332</t>
   </si>
   <si>
     <t xml:space="preserve">47.0776519775391</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3156280517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6735916137695</t>
+    <t xml:space="preserve">48.3156242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6735877990723</t>
   </si>
   <si>
     <t xml:space="preserve">48.0720100402832</t>
@@ -5264,7 +5264,7 @@
     <t xml:space="preserve">45.6905326843262</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1926803588867</t>
+    <t xml:space="preserve">46.192684173584</t>
   </si>
   <si>
     <t xml:space="preserve">45.3872528076172</t>
@@ -5285,7 +5285,7 @@
     <t xml:space="preserve">44.8154983520508</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1400146484375</t>
+    <t xml:space="preserve">43.1400108337402</t>
   </si>
   <si>
     <t xml:space="preserve">42.9610366821289</t>
@@ -5306,7 +5306,7 @@
     <t xml:space="preserve">38.337287902832</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9189834594727</t>
+    <t xml:space="preserve">38.9189872741699</t>
   </si>
   <si>
     <t xml:space="preserve">38.2477989196777</t>
@@ -5315,19 +5315,19 @@
     <t xml:space="preserve">37.3628196716309</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3422622680664</t>
+    <t xml:space="preserve">38.3422660827637</t>
   </si>
   <si>
     <t xml:space="preserve">38.4914093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4019203186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.94384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0489234924316</t>
+    <t xml:space="preserve">38.4019241333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9438438415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0489273071289</t>
   </si>
   <si>
     <t xml:space="preserve">38.7250862121582</t>
@@ -5336,31 +5336,31 @@
     <t xml:space="preserve">38.5461006164551</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2620391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.520565032959</t>
+    <t xml:space="preserve">39.262035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5205688476562</t>
   </si>
   <si>
     <t xml:space="preserve">40.9176406860352</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3054351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5689353942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2855415344238</t>
+    <t xml:space="preserve">41.3054313659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5689430236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2855453491211</t>
   </si>
   <si>
     <t xml:space="preserve">39.0482521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9388771057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.455265045166</t>
+    <t xml:space="preserve">38.9388732910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4552612304688</t>
   </si>
   <si>
     <t xml:space="preserve">39.9282531738281</t>
@@ -5369,19 +5369,19 @@
     <t xml:space="preserve">40.4453201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3409080505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5142478942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7628402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.335262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5192184448242</t>
+    <t xml:space="preserve">40.3409118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5142517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7628364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3352661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5192222595215</t>
   </si>
   <si>
     <t xml:space="preserve">42.8566246032715</t>
@@ -5390,25 +5390,25 @@
     <t xml:space="preserve">43.3189964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8310928344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.173469543457</t>
+    <t xml:space="preserve">43.8310966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1734657287598</t>
   </si>
   <si>
     <t xml:space="preserve">45.3822822570801</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9092903137207</t>
+    <t xml:space="preserve">45.9092864990234</t>
   </si>
   <si>
     <t xml:space="preserve">45.228157043457</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3623962402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7260093688965</t>
+    <t xml:space="preserve">45.3623924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7260055541992</t>
   </si>
   <si>
     <t xml:space="preserve">44.3083801269531</t>
@@ -5417,7 +5417,7 @@
     <t xml:space="preserve">43.3090553283691</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4631805419922</t>
+    <t xml:space="preserve">43.4631843566895</t>
   </si>
   <si>
     <t xml:space="preserve">42.4041938781738</t>
@@ -5426,22 +5426,22 @@
     <t xml:space="preserve">43.3302459716797</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9070472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1467628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4156188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3665618896484</t>
+    <t xml:space="preserve">42.9070510864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1467666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4156150817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3665657043457</t>
   </si>
   <si>
     <t xml:space="preserve">45.5806503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3516273498535</t>
+    <t xml:space="preserve">45.3516235351562</t>
   </si>
   <si>
     <t xml:space="preserve">45.1823501586914</t>
@@ -5450,7 +5450,7 @@
     <t xml:space="preserve">42.8423271179199</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6190147399902</t>
+    <t xml:space="preserve">43.619010925293</t>
   </si>
   <si>
     <t xml:space="preserve">43.907787322998</t>
@@ -5459,7 +5459,7 @@
     <t xml:space="preserve">44.186595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3025703430176</t>
+    <t xml:space="preserve">46.3025741577148</t>
   </si>
   <si>
     <t xml:space="preserve">46.9448356628418</t>
@@ -5468,7 +5468,7 @@
     <t xml:space="preserve">47.1240692138672</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6062812805176</t>
+    <t xml:space="preserve">46.6062774658203</t>
   </si>
   <si>
     <t xml:space="preserve">46.5813827514648</t>
@@ -5480,16 +5480,16 @@
     <t xml:space="preserve">46.0337181091309</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5358428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4412460327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5664482116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1183586120605</t>
+    <t xml:space="preserve">45.5358390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4412422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5664443969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1183547973633</t>
   </si>
   <si>
     <t xml:space="preserve">50.2656745910645</t>
@@ -5498,19 +5498,19 @@
     <t xml:space="preserve">48.2044639587402</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4334869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.333911895752</t>
+    <t xml:space="preserve">48.4334831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3339080810547</t>
   </si>
   <si>
     <t xml:space="preserve">47.6966323852539</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3822326660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2271537780762</t>
+    <t xml:space="preserve">46.3822364807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2271575927734</t>
   </si>
   <si>
     <t xml:space="preserve">44.7740898132324</t>
@@ -5540,13 +5540,13 @@
     <t xml:space="preserve">41.9511299133301</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3842811584473</t>
+    <t xml:space="preserve">42.38427734375</t>
   </si>
   <si>
     <t xml:space="preserve">43.4298210144043</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4148864746094</t>
+    <t xml:space="preserve">43.4148826599121</t>
   </si>
   <si>
     <t xml:space="preserve">42.3046188354492</t>
@@ -5576,7 +5576,7 @@
     <t xml:space="preserve">43.2854385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6630897521973</t>
+    <t xml:space="preserve">42.6630935668945</t>
   </si>
   <si>
     <t xml:space="preserve">40.930477142334</t>
@@ -5594,7 +5594,7 @@
     <t xml:space="preserve">41.1595001220703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5777168273926</t>
+    <t xml:space="preserve">41.5777206420898</t>
   </si>
   <si>
     <t xml:space="preserve">41.1545257568359</t>
@@ -5603,22 +5603,22 @@
     <t xml:space="preserve">40.5312728881836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3218574523926</t>
+    <t xml:space="preserve">40.3218612670898</t>
   </si>
   <si>
     <t xml:space="preserve">40.5861206054688</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2570381164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1423645019531</t>
+    <t xml:space="preserve">40.2570419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1423606872559</t>
   </si>
   <si>
     <t xml:space="preserve">40.2321128845215</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6138458251953</t>
+    <t xml:space="preserve">39.613842010498</t>
   </si>
   <si>
     <t xml:space="preserve">39.6986083984375</t>
@@ -5645,7 +5645,7 @@
     <t xml:space="preserve">41.9472961425781</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4536819458008</t>
+    <t xml:space="preserve">41.453685760498</t>
   </si>
   <si>
     <t xml:space="preserve">42.555591583252</t>
@@ -5666,7 +5666,7 @@
     <t xml:space="preserve">40.5362586975098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7634239196777</t>
+    <t xml:space="preserve">39.763427734375</t>
   </si>
   <si>
     <t xml:space="preserve">38.8410148620605</t>
@@ -5675,10 +5675,10 @@
     <t xml:space="preserve">37.6244277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7141723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3302574157715</t>
+    <t xml:space="preserve">37.7141761779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3302536010742</t>
   </si>
   <si>
     <t xml:space="preserve">37.0211181640625</t>
@@ -5687,10 +5687,10 @@
     <t xml:space="preserve">38.8609619140625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.410026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1563529968262</t>
+    <t xml:space="preserve">37.4100303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1563568115234</t>
   </si>
   <si>
     <t xml:space="preserve">35.8693542480469</t>
@@ -5699,22 +5699,22 @@
     <t xml:space="preserve">36.0438652038574</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6344032287598</t>
+    <t xml:space="preserve">37.6343994140625</t>
   </si>
   <si>
     <t xml:space="preserve">38.3274574279785</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9834213256836</t>
+    <t xml:space="preserve">37.9834175109863</t>
   </si>
   <si>
     <t xml:space="preserve">38.2028045654297</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1878433227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4570922851562</t>
+    <t xml:space="preserve">38.1878471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.457088470459</t>
   </si>
   <si>
     <t xml:space="preserve">38.5219116210938</t>
@@ -5723,25 +5723,25 @@
     <t xml:space="preserve">38.5667839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0326728820801</t>
+    <t xml:space="preserve">40.0326690673828</t>
   </si>
   <si>
     <t xml:space="preserve">42.181640625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6630973815918</t>
+    <t xml:space="preserve">41.6630935668945</t>
   </si>
   <si>
     <t xml:space="preserve">41.7927322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0918884277344</t>
+    <t xml:space="preserve">42.0918922424316</t>
   </si>
   <si>
     <t xml:space="preserve">41.2891426086426</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6232109069824</t>
+    <t xml:space="preserve">41.6232070922852</t>
   </si>
   <si>
     <t xml:space="preserve">41.4786148071289</t>
@@ -5756,16 +5756,16 @@
     <t xml:space="preserve">41.7029838562012</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9295387268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6176109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2586212158203</t>
+    <t xml:space="preserve">42.9295425415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3284225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6176147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.258617401123</t>
   </si>
   <si>
     <t xml:space="preserve">43.9367179870605</t>
@@ -6135,6 +6135,9 @@
   </si>
   <si>
     <t xml:space="preserve">40.2299995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2099990844727</t>
   </si>
 </sst>
 </file>
@@ -62220,7 +62223,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6525578704</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>3120717</v>
@@ -62241,6 +62244,32 @@
         <v>2040</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6523032407</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>4372740</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>41.2299995422363</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>40.5550003051758</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>40.875</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>41.2099990844727</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="2058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="2059">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35176610946655</t>
+    <t xml:space="preserve">5.35176515579224</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391996383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2454400062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455625534058</t>
+    <t xml:space="preserve">5.3739185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24544143676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455720901489</t>
   </si>
   <si>
     <t xml:space="preserve">4.94418239593506</t>
@@ -59,31 +59,31 @@
     <t xml:space="preserve">5.06379985809326</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08152103424072</t>
+    <t xml:space="preserve">5.08152151107788</t>
   </si>
   <si>
     <t xml:space="preserve">5.01506662368774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89544916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64735412597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72709941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91760110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86000776290894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99291658401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683650970459</t>
+    <t xml:space="preserve">4.8954496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64735460281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72709894180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86000680923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99291753768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683507919312</t>
   </si>
   <si>
     <t xml:space="preserve">5.18784809112549</t>
@@ -95,64 +95,64 @@
     <t xml:space="preserve">5.55555868148804</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39607095718384</t>
+    <t xml:space="preserve">5.396071434021</t>
   </si>
   <si>
     <t xml:space="preserve">5.32518625259399</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16126489639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70937776565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74925184249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56760883331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951648712158</t>
+    <t xml:space="preserve">5.16126585006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70937871932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74924898147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56761121749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951601028442</t>
   </si>
   <si>
     <t xml:space="preserve">4.13787412643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20698595046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29559230804443</t>
+    <t xml:space="preserve">4.20698547363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29558992385864</t>
   </si>
   <si>
     <t xml:space="preserve">4.25128698348999</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40900564193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63849353790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60305166244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80241394042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279647827148</t>
+    <t xml:space="preserve">4.40900659561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63849449157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60305261611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.802414894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279600143433</t>
   </si>
   <si>
     <t xml:space="preserve">4.45242261886597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52773761749268</t>
+    <t xml:space="preserve">4.52773809432983</t>
   </si>
   <si>
     <t xml:space="preserve">4.64292478561401</t>
@@ -161,10 +161,10 @@
     <t xml:space="preserve">4.69608783721924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78469228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355335235596</t>
+    <t xml:space="preserve">4.78469276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7935528755188</t>
   </si>
   <si>
     <t xml:space="preserve">4.82899522781372</t>
@@ -173,166 +173,166 @@
     <t xml:space="preserve">4.75811052322388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73595857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57204103469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74038934707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62963104248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178442001343</t>
+    <t xml:space="preserve">4.73596000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064548492432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57204008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74039125442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6296329498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178537368774</t>
   </si>
   <si>
     <t xml:space="preserve">4.54988813400269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53659820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50225687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42815351486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47153186798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42995929718018</t>
+    <t xml:space="preserve">4.53659868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5022554397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42815208435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42996168136597</t>
   </si>
   <si>
     <t xml:space="preserve">4.41911649703979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43176698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4028491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139728546143</t>
+    <t xml:space="preserve">4.43176794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40285015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34139776229858</t>
   </si>
   <si>
     <t xml:space="preserve">4.43357515335083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17692518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14800453186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32693910598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49321985244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52755975723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63600587844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55467224121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926452636719</t>
+    <t xml:space="preserve">4.17692422866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14800596237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32693767547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49322032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501218795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52756118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63600444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55467176437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926500320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.65408086776733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667150497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66763496398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58178281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15111589431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08333730697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8528938293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75800514221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5501537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41188716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36308670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26006364822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3142876625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26910018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1949987411499</t>
+    <t xml:space="preserve">4.67667245864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66763591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58178329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1511173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08333969116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85289573669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7580041885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55015325546265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41188621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308622360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26006460189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31428623199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26910066604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19499588012695</t>
   </si>
   <si>
     <t xml:space="preserve">4.22210836410522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26729440689087</t>
+    <t xml:space="preserve">4.26729297637939</t>
   </si>
   <si>
     <t xml:space="preserve">4.28355979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6405234336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67215490341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79867362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8393383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88904237747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90259695053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9116358757019</t>
+    <t xml:space="preserve">4.64052391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67215156555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79867124557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83933973312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88904190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90259790420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91163492202759</t>
   </si>
   <si>
     <t xml:space="preserve">4.84385776519775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81674671173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82126426696777</t>
+    <t xml:space="preserve">4.81674480438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82126474380493</t>
   </si>
   <si>
     <t xml:space="preserve">4.79415321350098</t>
@@ -341,322 +341,322 @@
     <t xml:space="preserve">5.00200510025024</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86645030975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57726573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4950270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46068716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44803333282471</t>
+    <t xml:space="preserve">4.8664493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5772647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49502611160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46068477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44803476333618</t>
   </si>
   <si>
     <t xml:space="preserve">4.54111576080322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70117473602295</t>
+    <t xml:space="preserve">4.70117568969727</t>
   </si>
   <si>
     <t xml:space="preserve">4.75605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82465076446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96641635894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65544509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55849456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67373609542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79263830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82007598876953</t>
+    <t xml:space="preserve">4.82464838027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96641683578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65544414520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55849552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67373847961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82007646560669</t>
   </si>
   <si>
     <t xml:space="preserve">4.7194676399231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57312679290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42129945755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48349523544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87952756881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355058670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95727157592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04873323440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18592691421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22251319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708559036255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.309401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799787521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94049310684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89933681488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96335887908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94506597518921</t>
+    <t xml:space="preserve">4.57312822341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42129993438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48349475860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9435510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92525911331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95727109909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04873371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1859278678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22251224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708511352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30940103530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37799835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049263000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89933443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96336030960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94506645202637</t>
   </si>
   <si>
     <t xml:space="preserve">5.71640968322754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76671457290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97250509262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08225965499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09597873687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0045166015625</t>
+    <t xml:space="preserve">5.76671314239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97250604629517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08225917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0959792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00451803207397</t>
   </si>
   <si>
     <t xml:space="preserve">6.10969877243042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06396722793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99079751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18286943435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15542984008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29262447357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22860050201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1874418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21945476531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16915130615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689388275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13713884353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11884641647339</t>
+    <t xml:space="preserve">6.06396818161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99079847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18286848068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15543031692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12798976898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29262399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.228600025177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18744230270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21945381164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16914939880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689197540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13713693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11884593963623</t>
   </si>
   <si>
     <t xml:space="preserve">5.9542121887207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96793222427368</t>
+    <t xml:space="preserve">5.96793174743652</t>
   </si>
   <si>
     <t xml:space="preserve">6.04567623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19658851623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21030759811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30634307861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26975965499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47275304794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56502342224121</t>
+    <t xml:space="preserve">6.19658899307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21030712127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30634450912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2697582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275257110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56502246856689</t>
   </si>
   <si>
     <t xml:space="preserve">6.63422679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68958806991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63883972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59270429611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67574834823608</t>
+    <t xml:space="preserve">6.68958854675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63883829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886362075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59270334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574787139893</t>
   </si>
   <si>
     <t xml:space="preserve">6.45891284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66652154922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113542556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75879001617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85567378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92949151992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188234329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54195547103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68036222457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77724504470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89258289337158</t>
+    <t xml:space="preserve">6.66651916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75879096984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85567283630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92949104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54195594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68035936355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77724456787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8925838470459</t>
   </si>
   <si>
     <t xml:space="preserve">6.75417613983154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82799291610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106039047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36316013336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76914930343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02750682830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71378660202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.533860206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48311185836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46465873718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80605792999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91678237915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765213012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62612915039062</t>
+    <t xml:space="preserve">6.82799482345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106182098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36316061019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76915073394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02750396728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71378564834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53386211395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48310995101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46465682983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8060564994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765308380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613010406494</t>
   </si>
   <si>
     <t xml:space="preserve">7.7876033782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89371633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216564178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29508781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55805683135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65955448150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62726211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53499507904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52576637268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60880947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90407180786133</t>
+    <t xml:space="preserve">7.89371252059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216659545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436527252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55805969238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6595573425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62726306915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53499412536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52576732635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60880756378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90407276153564</t>
   </si>
   <si>
     <t xml:space="preserve">8.6826229095459</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">8.58112812042236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81641864776611</t>
+    <t xml:space="preserve">8.81641483306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.93175411224365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92252540588379</t>
+    <t xml:space="preserve">8.92252349853516</t>
   </si>
   <si>
     <t xml:space="preserve">9.34696865081787</t>
@@ -680,34 +680,34 @@
     <t xml:space="preserve">9.21317863464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11629295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29160690307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315235137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43001270294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62377834320068</t>
+    <t xml:space="preserve">9.11629390716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2916088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315521240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62378120422363</t>
   </si>
   <si>
     <t xml:space="preserve">9.73514461517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89291191101074</t>
+    <t xml:space="preserve">9.89291000366211</t>
   </si>
   <si>
     <t xml:space="preserve">9.93931484222412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86507129669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9764347076416</t>
+    <t xml:space="preserve">9.86507034301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97643280029297</t>
   </si>
   <si>
     <t xml:space="preserve">10.0599594116211</t>
@@ -716,199 +716,199 @@
     <t xml:space="preserve">10.0413970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0228366851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7908296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67946147918701</t>
+    <t xml:space="preserve">10.0228357315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321178436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7908239364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67946434020996</t>
   </si>
   <si>
     <t xml:space="preserve">9.65162086486816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4752893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76298522949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93003273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0042772293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87435150146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1898822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1063623428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692377090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2455673217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3754930496216</t>
+    <t xml:space="preserve">9.47529602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76298713684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93003463745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0042753219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87434959411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1898832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1063642501831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2455654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3754911422729</t>
   </si>
   <si>
     <t xml:space="preserve">11.220009803772</t>
   </si>
   <si>
-    <t xml:space="preserve">11.628345489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819454193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6933107376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2779741287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2130098342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1016473770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9253187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0088424682617</t>
+    <t xml:space="preserve">11.6283445358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819425582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035326004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6933097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.277979850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336582183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2130117416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079027175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1016492843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9253215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232355117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.008843421936</t>
   </si>
   <si>
     <t xml:space="preserve">12.0459642410278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1851720809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3986206054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3429384231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7605590820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224908828735</t>
+    <t xml:space="preserve">12.185170173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3986186981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3429365158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027860641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7605571746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224937438965</t>
   </si>
   <si>
     <t xml:space="preserve">13.2431383132935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1410522460938</t>
+    <t xml:space="preserve">13.1410551071167</t>
   </si>
   <si>
     <t xml:space="preserve">13.4565858840942</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3545036315918</t>
+    <t xml:space="preserve">13.3545007705688</t>
   </si>
   <si>
     <t xml:space="preserve">13.6329145431519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6514749526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823461532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5122690200806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7257175445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1781778335571</t>
+    <t xml:space="preserve">13.6514759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885957717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5122709274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7257204055786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1781740188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.2060146331787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2524166107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4101877212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4380292892456</t>
+    <t xml:space="preserve">13.2524175643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4101819992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4380235671997</t>
   </si>
   <si>
     <t xml:space="preserve">13.493706703186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.363245010376</t>
+    <t xml:space="preserve">13.3632440567017</t>
   </si>
   <si>
     <t xml:space="preserve">12.7947931289673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9811744689941</t>
+    <t xml:space="preserve">12.9811706542969</t>
   </si>
   <si>
     <t xml:space="preserve">13.2141427993774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7825927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3818788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657497406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564304351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3912000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446073532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259687423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2607345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3352918624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.67076587677</t>
+    <t xml:space="preserve">13.7825965881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3818817138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3912029266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446054458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259677886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2607355117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3352880477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6707668304443</t>
   </si>
   <si>
     <t xml:space="preserve">13.586895942688</t>
@@ -920,58 +920,58 @@
     <t xml:space="preserve">12.9998083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9532136917114</t>
+    <t xml:space="preserve">12.9532117843628</t>
   </si>
   <si>
     <t xml:space="preserve">12.5804605484009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7295608520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7266778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8291864395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807981491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8012313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155630111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1367120742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3603591918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0342016220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858114242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3230876922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6521291732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5216693878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.447114944458</t>
+    <t xml:space="preserve">12.7295598983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7388820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582298278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7266817092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8291835784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807933807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801230430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1367111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3603630065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0342054367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858095169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3230848312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6521272659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5216674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4471130371094</t>
   </si>
   <si>
     <t xml:space="preserve">13.5403022766113</t>
@@ -986,82 +986,82 @@
     <t xml:space="preserve">13.503026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7919111251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775785446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5123443603516</t>
+    <t xml:space="preserve">13.7919092178345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775775909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5123481750488</t>
   </si>
   <si>
     <t xml:space="preserve">14.0248832702637</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2951288223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1302728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9252576828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.599100112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6456909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0277681350708</t>
+    <t xml:space="preserve">14.1833086013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2951307296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1302719116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.925256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5990991592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6456918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0277652740479</t>
   </si>
   <si>
     <t xml:space="preserve">12.6922855377197</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8041124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338659286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4872732162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1315622329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.991153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.700966835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7758502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8601045608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.719687461853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.03795337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1596441268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3094158172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5247116088867</t>
+    <t xml:space="preserve">12.8041152954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4872703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1315631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9911508560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009658813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7758493423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8600997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7196865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379571914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1596450805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3094167709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715169906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.524715423584</t>
   </si>
   <si>
     <t xml:space="preserve">12.9365863800049</t>
@@ -1070,175 +1070,175 @@
     <t xml:space="preserve">12.9553098678589</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9740314483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7680969238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518869400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2454929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297395706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.413987159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.685450553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.666729927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203783035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5075969696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4514303207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5731191635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7322540283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6386470794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228946685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420671463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676374435425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3859052658081</t>
+    <t xml:space="preserve">12.9740304946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7680959701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518859863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.329740524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4139881134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6854486465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6667308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5075988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4514331817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5731220245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732253074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6386451721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228937149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420719146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3859071731567</t>
   </si>
   <si>
     <t xml:space="preserve">13.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2829351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706075668335</t>
+    <t xml:space="preserve">13.28293800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706085205078</t>
   </si>
   <si>
     <t xml:space="preserve">13.5263156890869</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5169544219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233493804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4888744354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1986904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2922983169556</t>
+    <t xml:space="preserve">13.51695728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233455657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4888734817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701557159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986923217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2922992706299</t>
   </si>
   <si>
     <t xml:space="preserve">13.648006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8071393966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.98499584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0317993164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160449981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4717569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840864181519</t>
+    <t xml:space="preserve">13.8071413040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9849939346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0318002700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.471755027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840845108032</t>
   </si>
   <si>
     <t xml:space="preserve">14.7900218963623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7338571548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7432193756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0521287918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0333995819092</t>
+    <t xml:space="preserve">14.7338581085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7432165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0521249771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334005355835</t>
   </si>
   <si>
     <t xml:space="preserve">15.4280290603638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5689640045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2964906692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3246717453003</t>
+    <t xml:space="preserve">15.5689668655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2964897155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3246726989746</t>
   </si>
   <si>
     <t xml:space="preserve">15.3904438018799</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7891092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8360910415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1931304931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2307157516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3622608184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072170257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9823884963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696308135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850694656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7662801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7944707870483</t>
+    <t xml:space="preserve">14.7891130447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.836088180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1931314468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3622550964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823846817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696327209473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850732803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.766282081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7944669723511</t>
   </si>
   <si>
     <t xml:space="preserve">15.6441335678101</t>
@@ -1247,88 +1247,88 @@
     <t xml:space="preserve">15.8226585388184</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8414459228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9917850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1139240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6723251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5461368560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528400421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6494922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6414222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071876525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1300086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9984607696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3555011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2051696777344</t>
+    <t xml:space="preserve">15.8414497375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.888427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9917783737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1139297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723222732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8602409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5461406707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6494979858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1300067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.998462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3555068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.205171585083</t>
   </si>
   <si>
     <t xml:space="preserve">19.693754196167</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9662380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8816738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8011455535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2333545684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8951091766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2709503173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1018123626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.327320098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7031478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1863822937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3461112976074</t>
+    <t xml:space="preserve">19.9662399291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7125492095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8816699981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8011493682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2333602905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8951072692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2709426879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1018218994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7031555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.186372756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3461093902588</t>
   </si>
   <si>
     <t xml:space="preserve">18.9890632629395</t>
@@ -1340,49 +1340,49 @@
     <t xml:space="preserve">17.7206249237061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9085388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2602272033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3729782104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6454563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9877452850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.213249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2226390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4951248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4481430053711</t>
+    <t xml:space="preserve">17.9085426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2602291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3729705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6454601287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9877471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2132434844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2226409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4951229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4481449127197</t>
   </si>
   <si>
     <t xml:space="preserve">17.1850566864014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5055675506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.618688583374</t>
+    <t xml:space="preserve">17.5055732727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6186923980713</t>
   </si>
   <si>
     <t xml:space="preserve">17.3453121185303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4584369659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.449010848999</t>
+    <t xml:space="preserve">17.4584293365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4490070343018</t>
   </si>
   <si>
     <t xml:space="preserve">17.4113006591797</t>
@@ -1391,127 +1391,127 @@
     <t xml:space="preserve">17.1567764282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.373592376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9203472137451</t>
+    <t xml:space="preserve">17.3735904693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.920352935791</t>
   </si>
   <si>
     <t xml:space="preserve">18.1748714447021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3162708282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2408561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8536033630371</t>
+    <t xml:space="preserve">18.3162803649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2408599853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5802230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8536052703857</t>
   </si>
   <si>
     <t xml:space="preserve">18.8347511291504</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6462154388428</t>
+    <t xml:space="preserve">18.6462116241455</t>
   </si>
   <si>
     <t xml:space="preserve">18.52366065979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.230676651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2683773040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0609893798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9101619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7223815917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8543643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9769058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3634052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1277332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674777984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.430154800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5574131011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0577945709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2887535095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.294225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2046718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4686222076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3602123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8362674713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0153713226318</t>
+    <t xml:space="preserve">19.2306728363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683792114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0609951019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9101600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7223854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.854362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9769115447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3634090423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1277313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674854278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4301528930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5574150085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0577964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2887573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2942237854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2046699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4686183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3602142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8362693786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0153694152832</t>
   </si>
   <si>
     <t xml:space="preserve">17.0295181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9588146209717</t>
+    <t xml:space="preserve">16.9588108062744</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065856933594</t>
   </si>
   <si>
-    <t xml:space="preserve">17.689395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5904159545898</t>
+    <t xml:space="preserve">17.6893882751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5904102325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.613977432251</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7883739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7459564208984</t>
+    <t xml:space="preserve">17.7883720397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7459545135498</t>
   </si>
   <si>
     <t xml:space="preserve">17.0625095367432</t>
@@ -1520,106 +1520,106 @@
     <t xml:space="preserve">16.6524448394775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5432758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5566539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.665060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8253173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.33984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2597141265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6603488922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7263374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4237689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8256206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2511157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3292140960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5822372436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0360984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.076379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0054626464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4996032714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0977554321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5279712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712333679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9014568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.683988571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5066013336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2749423980713</t>
+    <t xml:space="preserve">17.5432796478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5566596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6650638580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8253231048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3398380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2597179412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6603527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7263412475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4237747192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8256187438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2511177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.329216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.582239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5917015075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.036096572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0763759613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0054664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.499605178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0977516174316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5279693603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.386137008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712429046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9014549255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6839809417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5066032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2749404907227</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309558868408</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7429828643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4545936584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8683624267578</t>
+    <t xml:space="preserve">17.7429847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.45458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8683643341064</t>
   </si>
   <si>
     <t xml:space="preserve">16.6177959442139</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8116321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6887073516846</t>
+    <t xml:space="preserve">16.8116283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6887111663818</t>
   </si>
   <si>
     <t xml:space="preserve">17.1756591796875</t>
@@ -1628,91 +1628,91 @@
     <t xml:space="preserve">17.3505878448486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1472988128662</t>
+    <t xml:space="preserve">17.1472911834717</t>
   </si>
   <si>
     <t xml:space="preserve">17.1425666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9368133544922</t>
+    <t xml:space="preserve">17.9368209838867</t>
   </si>
   <si>
     <t xml:space="preserve">17.9510040283203</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1826515197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8161678314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5230464935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7972507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8539905548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2700233459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3078479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0620079040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9390850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1376514434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.071460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0998306274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4307651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3362121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1471004486084</t>
+    <t xml:space="preserve">18.1826610565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8161640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5230503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7972526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8539867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.27001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0620040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9390869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1376438140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0714626312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.768892288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0998268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4307594299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3362102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1471080780029</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267555236816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2605648040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2416572570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1943778991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0264530181885</t>
+    <t xml:space="preserve">19.2605686187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2416610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1943817138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0264568328857</t>
   </si>
   <si>
     <t xml:space="preserve">20.2817497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1020946502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8657188415527</t>
+    <t xml:space="preserve">20.1020965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8657112121582</t>
   </si>
   <si>
     <t xml:space="preserve">20.2061042785645</t>
@@ -1721,118 +1721,118 @@
     <t xml:space="preserve">20.130464553833</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0098114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4447555541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2367362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0091991424561</t>
+    <t xml:space="preserve">21.0098056793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4447574615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2367382049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0091972351074</t>
   </si>
   <si>
     <t xml:space="preserve">20.1180191040039</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9189262390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.40696144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1130638122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1934413909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5963668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8049449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412906646729</t>
+    <t xml:space="preserve">19.9189205169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1130599975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1934432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5963687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8049411773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.84739112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412963867188</t>
   </si>
   <si>
     <t xml:space="preserve">17.7715473175049</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9896011352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.975378036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0085620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.146032333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.525260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986270904541</t>
+    <t xml:space="preserve">17.9896087646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539489746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9753837585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0085678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1460342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986309051514</t>
   </si>
   <si>
     <t xml:space="preserve">18.4020118713379</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4446773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4873447418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437702178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1889114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7670211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.539701461792</t>
+    <t xml:space="preserve">18.4446754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4873390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604652404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1889095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.767017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396957397461</t>
   </si>
   <si>
     <t xml:space="preserve">17.814208984375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0701847076416</t>
+    <t xml:space="preserve">18.0701885223389</t>
   </si>
   <si>
     <t xml:space="preserve">18.1886959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6909637451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6577739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6388187408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810249328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9990844726562</t>
+    <t xml:space="preserve">17.6909580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6577777862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6388206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810325622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.999080657959</t>
   </si>
   <si>
     <t xml:space="preserve">18.0417442321777</t>
@@ -1841,100 +1841,100 @@
     <t xml:space="preserve">18.07493019104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9848575592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0747146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1363410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751682281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4347763061523</t>
+    <t xml:space="preserve">17.9848651885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0747108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1363468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9751720428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4347724914551</t>
   </si>
   <si>
     <t xml:space="preserve">16.06028175354</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0650310516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2830772399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266441345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1076850891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5200958251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7855548858643</t>
+    <t xml:space="preserve">16.0650234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.283073425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1076831817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5200977325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7855529785156</t>
   </si>
   <si>
     <t xml:space="preserve">16.747631072998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8898429870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7713375091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7760715484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.795036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3826293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6241731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3871517181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3539743423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.349232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0790309906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.467529296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7946100234985</t>
+    <t xml:space="preserve">16.8898448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.771333694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7760772705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7950344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3826274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6241703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3871536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3539752960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3492317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0790338516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4675302505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7946119308472</t>
   </si>
   <si>
     <t xml:space="preserve">15.0695524215698</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7983303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9268045425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4502124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4692468643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.359806060791</t>
+    <t xml:space="preserve">14.7983274459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9268035888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4502172470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4692478179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.359808921814</t>
   </si>
   <si>
     <t xml:space="preserve">15.6500625610352</t>
@@ -1946,70 +1946,70 @@
     <t xml:space="preserve">15.126651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9172878265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2503671646118</t>
+    <t xml:space="preserve">14.9172849655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2503662109375</t>
   </si>
   <si>
     <t xml:space="preserve">15.5406217575073</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6024789810181</t>
+    <t xml:space="preserve">15.6024827957153</t>
   </si>
   <si>
     <t xml:space="preserve">15.1932668685913</t>
   </si>
   <si>
-    <t xml:space="preserve">14.446213722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2273292541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2701568603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4469690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.713433265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6896419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1131324768066</t>
+    <t xml:space="preserve">14.4462118148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.227331161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2701549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4469699859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7134342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6896409988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.113133430481</t>
   </si>
   <si>
     <t xml:space="preserve">13.5183429718018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2756700515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328013420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8759708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.567437171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4960632324219</t>
+    <t xml:space="preserve">13.2756681442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3280124664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8759737014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5674390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4960641860962</t>
   </si>
   <si>
     <t xml:space="preserve">11.5912303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2431173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2621517181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7522554397583</t>
+    <t xml:space="preserve">12.2431192398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2621507644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.752254486084</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662311553955</t>
@@ -2021,145 +2021,145 @@
     <t xml:space="preserve">12.6285409927368</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7903203964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6332979202271</t>
+    <t xml:space="preserve">12.7903242111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.63330078125</t>
   </si>
   <si>
     <t xml:space="preserve">12.4810333251953</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3620758056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.938588142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8339042663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7530136108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5721969604492</t>
+    <t xml:space="preserve">12.3620767593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385871887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8339052200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7530117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5721950531006</t>
   </si>
   <si>
     <t xml:space="preserve">11.6055040359497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4008989334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9433469772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7625284194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8434219360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1765050888062</t>
+    <t xml:space="preserve">11.400897026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9433422088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7625293731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8434200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1765012741089</t>
   </si>
   <si>
     <t xml:space="preserve">12.1098861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0718183517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3668346405029</t>
+    <t xml:space="preserve">12.0718202590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3668327331543</t>
   </si>
   <si>
     <t xml:space="preserve">12.3240079879761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0663032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2383594512939</t>
+    <t xml:space="preserve">13.0663061141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6475744247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2383613586426</t>
   </si>
   <si>
     <t xml:space="preserve">11.5055818557739</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3818655014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0630578994751</t>
+    <t xml:space="preserve">11.3818674087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0630559921265</t>
   </si>
   <si>
     <t xml:space="preserve">11.4199314117432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6435708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6530876159668</t>
+    <t xml:space="preserve">11.643572807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6530895233154</t>
   </si>
   <si>
     <t xml:space="preserve">11.6483287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5813837051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5861682891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5000953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474945068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961479187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6052942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2520608901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4385471343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8928165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.476185798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6244192123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7487487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6196384429932</t>
+    <t xml:space="preserve">11.5813865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5861701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.500096321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.160590171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961469650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6052932739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2520599365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4385461807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449964523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8928127288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4761867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6244201660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7487459182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6196393966675</t>
   </si>
   <si>
     <t xml:space="preserve">11.777437210083</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0021810531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726573944092</t>
+    <t xml:space="preserve">12.002179145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726564407349</t>
   </si>
   <si>
     <t xml:space="preserve">12.2986478805542</t>
@@ -2168,34 +2168,34 @@
     <t xml:space="preserve">12.351245880127</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304533004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9495820999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1641445159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7475147247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4414834976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2310876846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2884702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2693424224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3028125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.345850944519</t>
+    <t xml:space="preserve">11.9304523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9495801925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1641407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7475156784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4414854049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2310857772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2884674072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2693405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3028144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458499908447</t>
   </si>
   <si>
     <t xml:space="preserve">13.2071800231934</t>
@@ -2204,67 +2204,67 @@
     <t xml:space="preserve">13.8766250610352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406511306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.31715965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0344209671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9818201065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9483499526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0774564743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9770402908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8335847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0487651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.020073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1874380111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5938844680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3739261627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0631122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7570791244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2065620422363</t>
+    <t xml:space="preserve">13.2406530380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3171606063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0344228744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.981822013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9483518600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0774574279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9770393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8335876464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0487642288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0200748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5938873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3739242553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0631113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7570810317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.206563949585</t>
   </si>
   <si>
     <t xml:space="preserve">14.1348371505737</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6231899261475</t>
+    <t xml:space="preserve">13.6231927871704</t>
   </si>
   <si>
     <t xml:space="preserve">13.3362855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3219432830811</t>
+    <t xml:space="preserve">13.3219385147095</t>
   </si>
   <si>
     <t xml:space="preserve">13.5466833114624</t>
@@ -2273,106 +2273,106 @@
     <t xml:space="preserve">13.4845209121704</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3506298065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3601932525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6889324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8329772949219</t>
+    <t xml:space="preserve">13.3506326675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3601951599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6889333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8329782485962</t>
   </si>
   <si>
     <t xml:space="preserve">13.6553230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2555046081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9386081695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4008474349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5736970901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6854314804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2388954162598</t>
+    <t xml:space="preserve">14.2555027008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9386072158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4008464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5736989974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6854295730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2388944625854</t>
   </si>
   <si>
     <t xml:space="preserve">12.6566200256348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1655740737915</t>
+    <t xml:space="preserve">13.1655750274658</t>
   </si>
   <si>
     <t xml:space="preserve">13.5256843566895</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3083181381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5435914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9661197662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0381393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.908501625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901247024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0717496871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.398250579834</t>
+    <t xml:space="preserve">14.3083219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5435934066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.966118812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0381412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9084987640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901266098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0717506408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3982486724854</t>
   </si>
   <si>
     <t xml:space="preserve">15.2205953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8255796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408130645752</t>
+    <t xml:space="preserve">15.5759038925171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8255758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408168792725</t>
   </si>
   <si>
     <t xml:space="preserve">15.3934497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1712875366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120025634766</t>
+    <t xml:space="preserve">16.1712837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120016098022</t>
   </si>
   <si>
     <t xml:space="preserve">15.5903043746948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5230875015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7295484542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7343549728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7487506866455</t>
+    <t xml:space="preserve">15.5230865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.729546546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7343492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7487564086914</t>
   </si>
   <si>
     <t xml:space="preserve">14.7068376541138</t>
@@ -2381,64 +2381,64 @@
     <t xml:space="preserve">14.9421129226685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1882829666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3227233886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5929040908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9805240631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1293678283691</t>
+    <t xml:space="preserve">14.1882820129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.59290599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003786087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9805221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1293659210205</t>
   </si>
   <si>
     <t xml:space="preserve">14.9565143585205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5880994796753</t>
+    <t xml:space="preserve">13.5881023406982</t>
   </si>
   <si>
     <t xml:space="preserve">14.1930847167969</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9722194671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1799783706665</t>
+    <t xml:space="preserve">13.9722185134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1799802780151</t>
   </si>
   <si>
     <t xml:space="preserve">13.1175594329834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1559705734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9735164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0455408096313</t>
+    <t xml:space="preserve">13.155969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071287155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.973518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0455389022827</t>
   </si>
   <si>
     <t xml:space="preserve">13.1511688232422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.227991104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5640954971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248542785645</t>
+    <t xml:space="preserve">13.2279920578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5640935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248523712158</t>
   </si>
   <si>
     <t xml:space="preserve">13.276008605957</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">13.895396232605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2218933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626178741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0202331542969</t>
+    <t xml:space="preserve">14.2218942642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9626150131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0202322006226</t>
   </si>
   <si>
     <t xml:space="preserve">13.5687942504883</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">13.988299369812</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2968969345093</t>
+    <t xml:space="preserve">14.2969017028809</t>
   </si>
   <si>
     <t xml:space="preserve">14.6488962173462</t>
@@ -2471,19 +2471,19 @@
     <t xml:space="preserve">14.4560222625732</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4367332458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3402938842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6055030822754</t>
+    <t xml:space="preserve">14.4367351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3402967453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6055011749268</t>
   </si>
   <si>
     <t xml:space="preserve">14.8465948104858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0442943572998</t>
+    <t xml:space="preserve">15.0442905426025</t>
   </si>
   <si>
     <t xml:space="preserve">15.6759567260742</t>
@@ -2492,109 +2492,109 @@
     <t xml:space="preserve">15.5264825820923</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4348640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.565055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1889486312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1069765090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9526777267456</t>
+    <t xml:space="preserve">15.4348621368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5650568008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1889495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1069784164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9526767730713</t>
   </si>
   <si>
     <t xml:space="preserve">15.1455516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0973329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2709226608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3336048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3191423416138</t>
+    <t xml:space="preserve">15.0973310470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2709197998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3336029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3191413879395</t>
   </si>
   <si>
     <t xml:space="preserve">15.3818244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7338218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520706176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3847732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9634037017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4812145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7946357727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1292152404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1147480010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3317356109619</t>
+    <t xml:space="preserve">15.7338228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520668029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.963399887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4812183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1292209625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1147499084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">15.2419910430908</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5862112045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4801330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5572824478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1407308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1214447021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.627742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9285669326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6904296875</t>
+    <t xml:space="preserve">14.5862131118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.480131149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5572805404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1407289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1214399337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.627739906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9285659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6904239654541</t>
   </si>
   <si>
     <t xml:space="preserve">15.8736543655396</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7579317092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539350509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1744823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2130556106567</t>
+    <t xml:space="preserve">15.7579298019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.053936958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1744832992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.213059425354</t>
   </si>
   <si>
     <t xml:space="preserve">15.5457706451416</t>
@@ -2603,121 +2603,121 @@
     <t xml:space="preserve">15.5361270904541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4686193466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7289981842041</t>
+    <t xml:space="preserve">15.468620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2660999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7290010452271</t>
   </si>
   <si>
     <t xml:space="preserve">16.7030220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0212650299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7801685333252</t>
+    <t xml:space="preserve">17.0212669372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7801742553711</t>
   </si>
   <si>
     <t xml:space="preserve">17.4504146575928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5275611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6143608093262</t>
+    <t xml:space="preserve">17.5275650024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6143589019775</t>
   </si>
   <si>
     <t xml:space="preserve">17.4692249298096</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2273349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5127696990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5611438751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0628566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.937068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9225578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9757747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1692848205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1160717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6468067169189</t>
+    <t xml:space="preserve">17.2273406982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5127658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5611400604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547698974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0628547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9370708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9225521087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9757709503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.169282913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1160697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6468029022217</t>
   </si>
   <si>
     <t xml:space="preserve">16.767749786377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3047409057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3192539215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8403148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0773639678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3434429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5770797729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.398078918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8479995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7754287719727</t>
+    <t xml:space="preserve">17.304744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3192520141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8403186798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0773658752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3434448242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5770816802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3980808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8479881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7754230499268</t>
   </si>
   <si>
     <t xml:space="preserve">18.4029178619385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3835697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061019897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8804359436035</t>
+    <t xml:space="preserve">18.3835678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6061038970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8804340362549</t>
   </si>
   <si>
     <t xml:space="preserve">19.3994998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5543060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897136688232</t>
+    <t xml:space="preserve">19.5543079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897117614746</t>
   </si>
   <si>
     <t xml:space="preserve">20.2896518707275</t>
@@ -2729,166 +2729,166 @@
     <t xml:space="preserve">19.6800899505615</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0767917633057</t>
+    <t xml:space="preserve">20.076789855957</t>
   </si>
   <si>
     <t xml:space="preserve">20.3283557891846</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6186199188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5025177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8895397186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9185676574707</t>
+    <t xml:space="preserve">20.6186237335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5025157928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.889533996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9185657501221</t>
   </si>
   <si>
     <t xml:space="preserve">21.3636360168457</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1507816314697</t>
+    <t xml:space="preserve">21.1507740020752</t>
   </si>
   <si>
     <t xml:space="preserve">21.0153160095215</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2862339019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3249378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1701278686523</t>
+    <t xml:space="preserve">21.2862358093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3249359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1701316833496</t>
   </si>
   <si>
     <t xml:space="preserve">20.7637519836426</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0443496704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4410381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7893657684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8280620574951</t>
+    <t xml:space="preserve">21.0443458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4410438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.789363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8280658721924</t>
   </si>
   <si>
     <t xml:space="preserve">21.7313117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5764980316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.073371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571537017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.605525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2441158294678</t>
+    <t xml:space="preserve">21.5765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0830478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0733737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5571479797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6055316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2441139221191</t>
   </si>
   <si>
     <t xml:space="preserve">22.3408718109131</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6311359405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9407558441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.772855758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7243537902832</t>
+    <t xml:space="preserve">22.631139755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9407520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4051856994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7728538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7243595123291</t>
   </si>
   <si>
     <t xml:space="preserve">23.5982685089111</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2103004455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3751850128174</t>
+    <t xml:space="preserve">23.2102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751831054688</t>
   </si>
   <si>
     <t xml:space="preserve">23.6176662445068</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5400733947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2490940093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0153312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8504486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3072891235352</t>
+    <t xml:space="preserve">23.5400695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.249095916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0153331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8504447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3072948455811</t>
   </si>
   <si>
     <t xml:space="preserve">23.8989429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8795471191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4517955780029</t>
+    <t xml:space="preserve">23.879545211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4518013000488</t>
   </si>
   <si>
     <t xml:space="preserve">23.9668369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1705207824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3354091644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3936061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778961181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3451118469238</t>
+    <t xml:space="preserve">24.170524597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3354110717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3936042785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3451099395752</t>
   </si>
   <si>
     <t xml:space="preserve">26.1879653930664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9154090881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3635272979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2461585998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.090970993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6545124053955</t>
+    <t xml:space="preserve">26.9154109954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3635311126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2461605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0909729003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6545104980469</t>
   </si>
   <si>
     <t xml:space="preserve">24.5196990966797</t>
@@ -2897,154 +2897,154 @@
     <t xml:space="preserve">24.9852638244629</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8678894042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5662326812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4013481140137</t>
+    <t xml:space="preserve">25.8678932189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5662384033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4013500213623</t>
   </si>
   <si>
     <t xml:space="preserve">26.7214221954346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4100723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7204418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4672889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0793209075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3324775695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0027046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2442035675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8368358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4391746520996</t>
+    <t xml:space="preserve">27.4100742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7204456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4672946929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3324794769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0027008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.244213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8368396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4391689300537</t>
   </si>
   <si>
     <t xml:space="preserve">25.4993228912354</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3053321838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8872890472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1123294830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6467609405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5788669586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2287158966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6952590942383</t>
+    <t xml:space="preserve">25.3053359985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8872871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1123275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6467628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5788707733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2287216186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6952610015869</t>
   </si>
   <si>
     <t xml:space="preserve">22.5895481109619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3005275726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4654140472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0580406188965</t>
+    <t xml:space="preserve">20.3005256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4654083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0580444335938</t>
   </si>
   <si>
     <t xml:space="preserve">16.8572902679443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5992851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0033226013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7551784515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5850696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6798553466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4826993942261</t>
+    <t xml:space="preserve">17.5992832183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0033302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7551755905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5850687026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798534393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4826984405518</t>
   </si>
   <si>
     <t xml:space="preserve">15.6383991241455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.896089553833</t>
+    <t xml:space="preserve">17.8960914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.9178943634033</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6892032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9739398956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838348388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3412113189697</t>
+    <t xml:space="preserve">18.6892070770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9739456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838291168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3412094116211</t>
   </si>
   <si>
     <t xml:space="preserve">18.4264545440674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.458179473877</t>
+    <t xml:space="preserve">17.9885425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581737518311</t>
   </si>
   <si>
     <t xml:space="preserve">19.0687274932861</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0467376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6306285858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5745754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8521099090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0662059783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8155212402344</t>
+    <t xml:space="preserve">20.0467395782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6306247711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5745716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4967193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8521060943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0662002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8155174255371</t>
   </si>
   <si>
     <t xml:space="preserve">20.5333080291748</t>
@@ -3053,64 +3053,64 @@
     <t xml:space="preserve">19.1757755279541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7765960693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7594680786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0416812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2581081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6376361846924</t>
+    <t xml:space="preserve">20.77659034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7594718933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0416793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2581100463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6376304626465</t>
   </si>
   <si>
     <t xml:space="preserve">24.2896366119385</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0732116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8275890350342</t>
+    <t xml:space="preserve">23.0732078552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8275852203369</t>
   </si>
   <si>
     <t xml:space="preserve">22.1681880950928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2946949005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5769119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7715339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2655010223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0634803771973</t>
+    <t xml:space="preserve">22.2946968078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5769081115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7715396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2654991149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0634784698486</t>
   </si>
   <si>
     <t xml:space="preserve">21.6718864440918</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0393447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6134967803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8957080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3410186767578</t>
+    <t xml:space="preserve">21.0393409729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6134986877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8957061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3410167694092</t>
   </si>
   <si>
     <t xml:space="preserve">21.6329612731934</t>
@@ -3119,13 +3119,13 @@
     <t xml:space="preserve">22.3336219787598</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1463851928711</t>
+    <t xml:space="preserve">21.1463871002197</t>
   </si>
   <si>
     <t xml:space="preserve">21.6232261657715</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7205390930176</t>
+    <t xml:space="preserve">21.7205371856689</t>
   </si>
   <si>
     <t xml:space="preserve">22.1389923095703</t>
@@ -3134,58 +3134,58 @@
     <t xml:space="preserve">23.9782295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6278972625732</t>
+    <t xml:space="preserve">23.6279010772705</t>
   </si>
   <si>
     <t xml:space="preserve">24.3772201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">23.335958480835</t>
+    <t xml:space="preserve">23.3359546661377</t>
   </si>
   <si>
     <t xml:space="preserve">23.4040794372559</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3920154571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3141613006592</t>
+    <t xml:space="preserve">22.3920078277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3141593933105</t>
   </si>
   <si>
     <t xml:space="preserve">22.2071113586426</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1899833679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3651561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6765594482422</t>
+    <t xml:space="preserve">23.1899852752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3651523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6765575408936</t>
   </si>
   <si>
     <t xml:space="preserve">23.5500507354736</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0938301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1328201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1133232116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8793640136719</t>
+    <t xml:space="preserve">23.0938262939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469692230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1328239440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1133213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8793601989746</t>
   </si>
   <si>
     <t xml:space="preserve">22.9183578491211</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6104869842529</t>
+    <t xml:space="preserve">23.6104888916016</t>
   </si>
   <si>
     <t xml:space="preserve">23.4155235290527</t>
@@ -3194,64 +3194,64 @@
     <t xml:space="preserve">23.6202392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">24.049165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9321804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2400493621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5227508544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2092170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1466522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8777751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9070167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5016708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1060619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8136138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0085792541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2384643554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4919204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1563949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9614276885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0645847320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2108058929443</t>
+    <t xml:space="preserve">24.0491676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9321842193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2400550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5227546691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7120552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2092208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1466503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8777713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.907018661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5016651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1060657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8136177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.008581161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9013481140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2384605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4919185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0645809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2108039855957</t>
   </si>
   <si>
     <t xml:space="preserve">23.951681137085</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">24.068660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7859592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7274703979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8736953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5617504119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.39035987854</t>
+    <t xml:space="preserve">23.785961151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7274723052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8736915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5617446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3903579711914</t>
   </si>
   <si>
     <t xml:space="preserve">24.8387813568115</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">24.673059463501</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0784111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4683437347412</t>
+    <t xml:space="preserve">24.0784091949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4683456420898</t>
   </si>
   <si>
     <t xml:space="preserve">24.1174030303955</t>
@@ -3293,79 +3293,79 @@
     <t xml:space="preserve">24.1368980407715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.707971572876</t>
+    <t xml:space="preserve">23.7079696655273</t>
   </si>
   <si>
     <t xml:space="preserve">24.4585952758789</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6633071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3554420471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9557571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6340637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5073337554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8680267333984</t>
+    <t xml:space="preserve">24.6633110046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3554458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9557628631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6340675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5073375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8680305480957</t>
   </si>
   <si>
     <t xml:space="preserve">25.3456916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5909938812256</t>
+    <t xml:space="preserve">23.590991973877</t>
   </si>
   <si>
     <t xml:space="preserve">23.0255908966064</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5325031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7233905792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3221187591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.575569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7607879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6868877410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9305953979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1353073120117</t>
+    <t xml:space="preserve">23.5324974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.723388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3221168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5755729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7607955932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.686882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9305934906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.135311126709</t>
   </si>
   <si>
     <t xml:space="preserve">25.4431781768799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.287202835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6349639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7228317260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9181213378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0645847320557</t>
+    <t xml:space="preserve">25.2872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6349563598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7228336334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9181156158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0645809173584</t>
   </si>
   <si>
     <t xml:space="preserve">24.4592018127441</t>
@@ -3374,97 +3374,97 @@
     <t xml:space="preserve">25.1426944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5723209381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6309051513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4177398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052894592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3982105255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3689193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5642051696777</t>
+    <t xml:space="preserve">25.5723171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6309032440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4177417755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052913665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.39821434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3689212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5642032623291</t>
   </si>
   <si>
     <t xml:space="preserve">27.8375988006592</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5894412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9800071716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1752872467041</t>
+    <t xml:space="preserve">28.5894393920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9800090789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1752891540527</t>
   </si>
   <si>
     <t xml:space="preserve">28.8237800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4136848449707</t>
+    <t xml:space="preserve">28.4136867523193</t>
   </si>
   <si>
     <t xml:space="preserve">28.5503807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7554321289062</t>
+    <t xml:space="preserve">28.7554264068604</t>
   </si>
   <si>
     <t xml:space="preserve">28.4527378082275</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2574596405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.984058380127</t>
+    <t xml:space="preserve">28.2574634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9840641021729</t>
   </si>
   <si>
     <t xml:space="preserve">27.9352416992188</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3005695343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5584983825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3282146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9140605926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5527877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.050760269165</t>
+    <t xml:space="preserve">27.300573348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.558500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3282127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5527896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0507583618164</t>
   </si>
   <si>
     <t xml:space="preserve">26.802604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2810440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.140287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.316047668457</t>
+    <t xml:space="preserve">27.2810401916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1402854919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3160438537598</t>
   </si>
   <si>
     <t xml:space="preserve">29.7611351013184</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9743003845215</t>
+    <t xml:space="preserve">27.9742965698242</t>
   </si>
   <si>
     <t xml:space="preserve">28.4722690582275</t>
@@ -3476,157 +3476,157 @@
     <t xml:space="preserve">28.2769870758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0776500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9897708892822</t>
+    <t xml:space="preserve">29.0776462554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.989767074585</t>
   </si>
   <si>
     <t xml:space="preserve">29.4096260070801</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7123241424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.376277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5813274383545</t>
+    <t xml:space="preserve">29.7123184204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762836456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5813312530518</t>
   </si>
   <si>
     <t xml:space="preserve">30.6887321472168</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2257633209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.772554397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4560508728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0557174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5008163452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6317977905273</t>
+    <t xml:space="preserve">31.2257614135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7725582122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4560470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0557289123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6318016052246</t>
   </si>
   <si>
     <t xml:space="preserve">32.8759002685547</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2957611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.578929901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1785850524902</t>
+    <t xml:space="preserve">33.2957649230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5789184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1785888671875</t>
   </si>
   <si>
     <t xml:space="preserve">29.2338733673096</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7456684112549</t>
+    <t xml:space="preserve">28.7456722259521</t>
   </si>
   <si>
     <t xml:space="preserve">28.3178596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5205860137939</t>
+    <t xml:space="preserve">29.5205841064453</t>
   </si>
   <si>
     <t xml:space="preserve">29.3347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9925594329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3445777893066</t>
+    <t xml:space="preserve">28.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.344575881958</t>
   </si>
   <si>
     <t xml:space="preserve">28.4351978302002</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5108051300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6574783325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7357063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4716949462891</t>
+    <t xml:space="preserve">29.5108070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6574802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7357082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4716968536377</t>
   </si>
   <si>
     <t xml:space="preserve">29.8726024627686</t>
   </si>
   <si>
-    <t xml:space="preserve">31.016658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3002300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3882369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6620273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2682800292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6007347106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8843078613281</t>
+    <t xml:space="preserve">31.0166568756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3002281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3882331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6620254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2682838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6007423400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8843154907227</t>
   </si>
   <si>
     <t xml:space="preserve">32.9234199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1705017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3660545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0238304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7474098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6594085693359</t>
+    <t xml:space="preserve">32.1704940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3660583496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0238189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7474136352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6594047546387</t>
   </si>
   <si>
     <t xml:space="preserve">31.8771438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9260425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9749374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9775524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2780570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5322875976562</t>
+    <t xml:space="preserve">31.9260368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9749279022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9775466918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2780494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5322952270508</t>
   </si>
   <si>
     <t xml:space="preserve">33.1874313354492</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1776580810547</t>
+    <t xml:space="preserve">33.1776542663574</t>
   </si>
   <si>
     <t xml:space="preserve">32.9625358581543</t>
@@ -3635,58 +3635,58 @@
     <t xml:space="preserve">32.9723167419434</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5394439697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.803466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.903865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0968132019043</t>
+    <t xml:space="preserve">33.5394592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8034706115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9038619995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.096809387207</t>
   </si>
   <si>
     <t xml:space="preserve">34.5759506225586</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7715187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3608245849609</t>
+    <t xml:space="preserve">34.7715148925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3608322143555</t>
   </si>
   <si>
     <t xml:space="preserve">33.6372375488281</t>
   </si>
   <si>
-    <t xml:space="preserve">33.197208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.852352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0798797607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1900444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0140495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7109146118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2806720733643</t>
+    <t xml:space="preserve">33.1972122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8523559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0798835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.190055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.014045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7109222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2806701660156</t>
   </si>
   <si>
     <t xml:space="preserve">30.7330894470215</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0681686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6868152618408</t>
+    <t xml:space="preserve">30.0681705474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6868171691895</t>
   </si>
   <si>
     <t xml:space="preserve">28.6209850311279</t>
@@ -3698,43 +3698,43 @@
     <t xml:space="preserve">28.4254188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2370128631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4938640594482</t>
+    <t xml:space="preserve">29.2370147705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4938659667969</t>
   </si>
   <si>
     <t xml:space="preserve">29.6183700561523</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0218944549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5596961975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170597076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8921585083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1366176605225</t>
+    <t xml:space="preserve">29.0218963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5596981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1170616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8921604156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1366195678711</t>
   </si>
   <si>
     <t xml:space="preserve">31.3527355194092</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7162818908691</t>
+    <t xml:space="preserve">30.7162780761719</t>
   </si>
   <si>
     <t xml:space="preserve">30.598783493042</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8043994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5975246429443</t>
+    <t xml:space="preserve">30.804407119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5975227355957</t>
   </si>
   <si>
     <t xml:space="preserve">31.2352352142334</t>
@@ -3743,31 +3743,31 @@
     <t xml:space="preserve">31.2646083831787</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8423194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3955459594727</t>
+    <t xml:space="preserve">31.8423137664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3955383300781</t>
   </si>
   <si>
     <t xml:space="preserve">32.4591865539551</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5081481933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4249153137207</t>
+    <t xml:space="preserve">32.5081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4249114990234</t>
   </si>
   <si>
     <t xml:space="preserve">32.5864753723145</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1605453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1164741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9108562469482</t>
+    <t xml:space="preserve">32.1605529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1164817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9108600616455</t>
   </si>
   <si>
     <t xml:space="preserve">31.9891891479492</t>
@@ -3776,157 +3776,157 @@
     <t xml:space="preserve">31.2401294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0504512786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3980522155762</t>
+    <t xml:space="preserve">30.0504474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3980541229248</t>
   </si>
   <si>
     <t xml:space="preserve">31.0491924285889</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5289840698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9353370666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0675239562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3331508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4959716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0602397918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4237861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1483688354492</t>
+    <t xml:space="preserve">31.5289859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9353332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0675201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3331489562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4959678649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0602436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4237842559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.148365020752</t>
   </si>
   <si>
     <t xml:space="preserve">29.4776420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3001346588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5119152069092</t>
+    <t xml:space="preserve">30.3001365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5119132995605</t>
   </si>
   <si>
     <t xml:space="preserve">28.5180644989014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9354667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3124389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5817089080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4299430847168</t>
+    <t xml:space="preserve">27.9354648590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3124446868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5817108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4299392700195</t>
   </si>
   <si>
     <t xml:space="preserve">28.5866050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5768146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9831638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0614967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3111820220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4433689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3993110656738</t>
+    <t xml:space="preserve">28.5768165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9831657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0615005493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3111782073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4433708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3993053436279</t>
   </si>
   <si>
     <t xml:space="preserve">29.6196193695068</t>
   </si>
   <si>
-    <t xml:space="preserve">29.99169921875</t>
+    <t xml:space="preserve">29.9917011260986</t>
   </si>
   <si>
     <t xml:space="preserve">30.0112838745117</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8888874053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8839931488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9329490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5217018127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5559730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9231605529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4421138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7554473876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9316997528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8925285339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8337783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2009620666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8105545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.609432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9626274108887</t>
+    <t xml:space="preserve">29.8888893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8839950561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4874324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9329509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5217037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5559711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9231567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.44211769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7554454803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9316959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8925304412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8337745666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2009658813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8105564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6094341278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.96262550354</t>
   </si>
   <si>
     <t xml:space="preserve">30.1882781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2177085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3599700927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5856246948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0263977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1686515808105</t>
+    <t xml:space="preserve">30.2177104949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3599662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5856189727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0263957977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1686553955078</t>
   </si>
   <si>
     <t xml:space="preserve">30.8358001708984</t>
@@ -3935,154 +3935,154 @@
     <t xml:space="preserve">31.1448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0271110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674808502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3943061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.532377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7825584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.811990737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6017684936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9051952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5618057250977</t>
+    <t xml:space="preserve">31.0271129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.39430809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5323734283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7825603485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8119888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6017723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9052028656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5618095397949</t>
   </si>
   <si>
     <t xml:space="preserve">30.7475032806396</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5071315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7187881469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7089767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5674324035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3775482177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8722877502441</t>
+    <t xml:space="preserve">30.5071353912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7187824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7089748382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047843933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5674362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.377555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8722915649414</t>
   </si>
   <si>
     <t xml:space="preserve">34.4020805358887</t>
   </si>
   <si>
-    <t xml:space="preserve">34.446231842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8386650085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1035499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2703437805176</t>
+    <t xml:space="preserve">34.4462280273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8386573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1035614013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2703475952148</t>
   </si>
   <si>
     <t xml:space="preserve">35.8148460388184</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6922149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5450553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9080543518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8001403808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8295707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4126091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7903327941895</t>
+    <t xml:space="preserve">35.692211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5450477600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9080657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8001441955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8295745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4126052856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7903251647949</t>
   </si>
   <si>
     <t xml:space="preserve">35.162425994873</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6971130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9423980712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0944671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.589916229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1638641357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9676475524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2227172851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2031021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1785774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.497428894043</t>
+    <t xml:space="preserve">35.6971206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7952270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9423904418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0944595336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5899200439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1638565063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9676399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2227249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2030982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.178581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4974365234375</t>
   </si>
   <si>
     <t xml:space="preserve">37.4876174926758</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8155784606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9431114196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5317687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3993186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.753231048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8513374328613</t>
+    <t xml:space="preserve">36.8155708312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.943115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5317726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3993148803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7532386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8513336181641</t>
   </si>
   <si>
     <t xml:space="preserve">39.204532623291</t>
@@ -4097,10 +4097,10 @@
     <t xml:space="preserve">38.1105842590332</t>
   </si>
   <si>
-    <t xml:space="preserve">38.410285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9310607910156</t>
+    <t xml:space="preserve">38.4102821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9310646057129</t>
   </si>
   <si>
     <t xml:space="preserve">38.8082427978516</t>
@@ -4109,16 +4109,16 @@
     <t xml:space="preserve">38.8622817993164</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9118003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8331985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1083221435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6612281799316</t>
+    <t xml:space="preserve">36.9117965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.108325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6612358093262</t>
   </si>
   <si>
     <t xml:space="preserve">35.4133186340332</t>
@@ -4127,13 +4127,13 @@
     <t xml:space="preserve">36.2976684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2485389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3985786437988</t>
+    <t xml:space="preserve">35.6933631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.24853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3985748291016</t>
   </si>
   <si>
     <t xml:space="preserve">35.3297996520996</t>
@@ -4151,52 +4151,52 @@
     <t xml:space="preserve">35.8997116088867</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0716590881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4008369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2606239318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6094512939453</t>
+    <t xml:space="preserve">36.0716667175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4008331298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8037147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2606201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6094551086426</t>
   </si>
   <si>
     <t xml:space="preserve">38.1597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1646308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6113357543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1838989257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4197158813477</t>
+    <t xml:space="preserve">38.1646347045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6113395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1838912963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4197196960449</t>
   </si>
   <si>
     <t xml:space="preserve">41.0043754577637</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6627349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6453399658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2938575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8932495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5198669433594</t>
+    <t xml:space="preserve">41.662727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6453437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2938652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.893253326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5198631286621</t>
   </si>
   <si>
     <t xml:space="preserve">42.664981842041</t>
@@ -4205,58 +4205,58 @@
     <t xml:space="preserve">43.4707298278809</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0209884643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1094245910645</t>
+    <t xml:space="preserve">44.0209922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1094284057617</t>
   </si>
   <si>
     <t xml:space="preserve">44.3550796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9593887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6203918457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9937705993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9151725769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1120758056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9303016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7583389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1861610412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2522888183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3505516052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1634674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2402000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1566848754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2991561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6918144226074</t>
+    <t xml:space="preserve">44.9593925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6203842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9937782287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9151611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1120834350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9302864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7583312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1861534118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2522926330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3505477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1634712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2402038574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1566772460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2991638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.691822052002</t>
   </si>
   <si>
     <t xml:space="preserve">42.4242515563965</t>
@@ -4265,37 +4265,37 @@
     <t xml:space="preserve">42.1392936706543</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7807579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0329132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9136009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2592391967773</t>
+    <t xml:space="preserve">41.6971206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7807540893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0329170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9135971069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2592353820801</t>
   </si>
   <si>
     <t xml:space="preserve">40.7278709411621</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7082023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1903610229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8201141357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2530822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2075614929199</t>
+    <t xml:space="preserve">40.708194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1903533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8201179504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2530784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2075653076172</t>
   </si>
   <si>
     <t xml:space="preserve">43.3010482788086</t>
@@ -4304,31 +4304,31 @@
     <t xml:space="preserve">43.0943984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599632263184</t>
+    <t xml:space="preserve">43.0599594116211</t>
   </si>
   <si>
     <t xml:space="preserve">42.5384407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9222030639648</t>
+    <t xml:space="preserve">42.9221992492676</t>
   </si>
   <si>
     <t xml:space="preserve">42.1350059509277</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6749572753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1977310180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2776718139648</t>
+    <t xml:space="preserve">43.6749610900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1792869567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1977195739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2776756286621</t>
   </si>
   <si>
     <t xml:space="preserve">42.9271202087402</t>
@@ -4337,10 +4337,10 @@
     <t xml:space="preserve">41.9824829101562</t>
   </si>
   <si>
-    <t xml:space="preserve">40.673755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7721557617188</t>
+    <t xml:space="preserve">40.6737518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.772159576416</t>
   </si>
   <si>
     <t xml:space="preserve">39.9997138977051</t>
@@ -4358,214 +4358,214 @@
     <t xml:space="preserve">39.9603538513184</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3551902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5901184082031</t>
+    <t xml:space="preserve">39.3551864624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5901107788086</t>
   </si>
   <si>
     <t xml:space="preserve">40.8016738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6934280395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0353889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2186698913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3121566772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7155876159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2063522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0341491699219</t>
+    <t xml:space="preserve">40.6934356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0353927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2186737060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3121452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7155914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.206356048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0341529846191</t>
   </si>
   <si>
     <t xml:space="preserve">39.3601112365723</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4745063781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1042709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2469520568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4941864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6282730102539</t>
+    <t xml:space="preserve">38.4745101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1042747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2469444274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4941902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6282691955566</t>
   </si>
   <si>
     <t xml:space="preserve">36.9640617370605</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0919914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8755035400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0932273864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6823806762695</t>
+    <t xml:space="preserve">37.0919761657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8754959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0932197570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6823883056641</t>
   </si>
   <si>
     <t xml:space="preserve">37.3527412414551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2998657226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2162208557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9505386352539</t>
+    <t xml:space="preserve">36.299861907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2162284851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9505424499512</t>
   </si>
   <si>
     <t xml:space="preserve">33.451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0182113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.167049407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5077362060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5680160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4302597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0760154724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5778541564941</t>
+    <t xml:space="preserve">33.0182151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1670455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5077438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5680198669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4302558898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0760192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5778617858887</t>
   </si>
   <si>
     <t xml:space="preserve">37.1707077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0329437255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1202659606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2089653015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.613037109375</t>
+    <t xml:space="preserve">37.0329513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1202697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6130294799805</t>
   </si>
   <si>
     <t xml:space="preserve">38.5341911315918</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3275413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6133460998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7414627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8206176757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.135669708252</t>
+    <t xml:space="preserve">39.3275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6133499145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7414703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.820613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1356735229492</t>
   </si>
   <si>
     <t xml:space="preserve">39.036808013916</t>
   </si>
   <si>
-    <t xml:space="preserve">38.090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1399803161621</t>
+    <t xml:space="preserve">38.0907020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1399765014648</t>
   </si>
   <si>
     <t xml:space="preserve">36.1048583984375</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0799102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7349739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5230865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3654022216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2767028808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1978569030762</t>
+    <t xml:space="preserve">35.079906463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.734977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5230827331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3653984069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2766990661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1978607177734</t>
   </si>
   <si>
     <t xml:space="preserve">33.695240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0993041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2031021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4642715454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7941131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7743911743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3506164550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5181617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.084831237793</t>
+    <t xml:space="preserve">34.099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2030982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4642639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7941055297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7743949890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3506126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5181579589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0848350524902</t>
   </si>
   <si>
     <t xml:space="preserve">35.2523765563965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3604736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1784591674805</t>
+    <t xml:space="preserve">34.3604774475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1784629821777</t>
   </si>
   <si>
     <t xml:space="preserve">34.50830078125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6068572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.247142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9117469787598</t>
+    <t xml:space="preserve">34.606861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2471389770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9117431640625</t>
   </si>
   <si>
     <t xml:space="preserve">32.951171875</t>
@@ -4577,151 +4577,151 @@
     <t xml:space="preserve">35.232666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3564758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6222648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5979385375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7799415588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7898025512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2132682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3167495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0602035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2474479675293</t>
+    <t xml:space="preserve">37.3564796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6222610473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5979347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7799491882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7898063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2132720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3167457580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0601959228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.247444152832</t>
   </si>
   <si>
     <t xml:space="preserve">35.8831214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7257423400879</t>
+    <t xml:space="preserve">36.7257385253906</t>
   </si>
   <si>
     <t xml:space="preserve">37.2825736999512</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6468963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5089225769043</t>
+    <t xml:space="preserve">36.6469039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5089302062988</t>
   </si>
   <si>
     <t xml:space="preserve">37.1593780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3413848876953</t>
+    <t xml:space="preserve">36.3413887023926</t>
   </si>
   <si>
     <t xml:space="preserve">36.5039978027344</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2625427246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4497985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4839744567871</t>
+    <t xml:space="preserve">36.2625389099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4497871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4839820861816</t>
   </si>
   <si>
     <t xml:space="preserve">33.9761161804199</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0986785888672</t>
+    <t xml:space="preserve">32.0986824035645</t>
   </si>
   <si>
     <t xml:space="preserve">32.0543327331543</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2172660827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230087280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2511291503906</t>
+    <t xml:space="preserve">33.2172584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230125427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2511253356934</t>
   </si>
   <si>
     <t xml:space="preserve">31.1227684020996</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9225578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2807521820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7327461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4091091156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4436683654785</t>
+    <t xml:space="preserve">31.9225597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2807502746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4091110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4436702728271</t>
   </si>
   <si>
     <t xml:space="preserve">31.0437774658203</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4019660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6071147918701</t>
+    <t xml:space="preserve">30.4019680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6071128845215</t>
   </si>
   <si>
     <t xml:space="preserve">28.7382030487061</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2000751495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.65700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9949245452881</t>
+    <t xml:space="preserve">28.2000694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9949264526367</t>
   </si>
   <si>
     <t xml:space="preserve">29.8095283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4365272521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3772792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7179355621338</t>
+    <t xml:space="preserve">30.4365253448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3772830963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7179374694824</t>
   </si>
   <si>
     <t xml:space="preserve">30.7524929046631</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8512363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8731899261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2335929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.638427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3690948486328</t>
+    <t xml:space="preserve">30.8512344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8731937408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2335891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6384201049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3690910339355</t>
   </si>
   <si>
     <t xml:space="preserve">33.6356925964355</t>
@@ -4730,19 +4730,19 @@
     <t xml:space="preserve">33.5023918151855</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7245559692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4234046936035</t>
+    <t xml:space="preserve">33.7245597839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4234008789062</t>
   </si>
   <si>
     <t xml:space="preserve">34.5589141845703</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8129043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4695320129395</t>
+    <t xml:space="preserve">35.8129119873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4695281982422</t>
   </si>
   <si>
     <t xml:space="preserve">36.7953643798828</t>
@@ -4751,19 +4751,19 @@
     <t xml:space="preserve">37.1014595031738</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9358100891113</t>
+    <t xml:space="preserve">37.9358062744141</t>
   </si>
   <si>
     <t xml:space="preserve">38.1283493041992</t>
   </si>
   <si>
-    <t xml:space="preserve">37.170581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9237289428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9736137390137</t>
+    <t xml:space="preserve">37.1705741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9237327575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9736213684082</t>
   </si>
   <si>
     <t xml:space="preserve">36.1584930419922</t>
@@ -4772,16 +4772,16 @@
     <t xml:space="preserve">36.5337066650391</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6571273803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.071834564209</t>
+    <t xml:space="preserve">36.6571311950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0718383789062</t>
   </si>
   <si>
     <t xml:space="preserve">35.487060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6373825073242</t>
+    <t xml:space="preserve">36.637378692627</t>
   </si>
   <si>
     <t xml:space="preserve">35.1316032409668</t>
@@ -4790,49 +4790,49 @@
     <t xml:space="preserve">35.3093299865723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4475746154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0301322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1266670227051</t>
+    <t xml:space="preserve">35.447566986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0301284790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1266632080078</t>
   </si>
   <si>
     <t xml:space="preserve">34.6230926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">34.835376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3515586853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8430442810059</t>
+    <t xml:space="preserve">34.8353843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8430480957031</t>
   </si>
   <si>
     <t xml:space="preserve">35.1414756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">34.257755279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4848518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2105941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6845436096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4744606018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4547080993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2402076721191</t>
+    <t xml:space="preserve">34.2577476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4848556518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2105903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6845397949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4744567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4547157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2402191162109</t>
   </si>
   <si>
     <t xml:space="preserve">35.403133392334</t>
@@ -4841,16 +4841,16 @@
     <t xml:space="preserve">35.314266204834</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8650093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3991088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3150367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4623641967773</t>
+    <t xml:space="preserve">34.8650016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3991050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3150329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4623718261719</t>
   </si>
   <si>
     <t xml:space="preserve">34.276496887207</t>
@@ -4859,40 +4859,40 @@
     <t xml:space="preserve">33.3912734985352</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7325057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1380310058594</t>
+    <t xml:space="preserve">33.7325096130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1380271911621</t>
   </si>
   <si>
     <t xml:space="preserve">33.2626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4675216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8977699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3428497314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0935173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930061340332</t>
+    <t xml:space="preserve">31.4675178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.897762298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3428535461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0935249328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930023193359</t>
   </si>
   <si>
     <t xml:space="preserve">35.1419410705566</t>
   </si>
   <si>
-    <t xml:space="preserve">33.292366027832</t>
+    <t xml:space="preserve">33.2923698425293</t>
   </si>
   <si>
     <t xml:space="preserve">32.654411315918</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6554470062256</t>
+    <t xml:space="preserve">31.655445098877</t>
   </si>
   <si>
     <t xml:space="preserve">31.4081745147705</t>
@@ -4901,16 +4901,16 @@
     <t xml:space="preserve">32.1499862670898</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6455516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2241668701172</t>
+    <t xml:space="preserve">31.6455535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2241630554199</t>
   </si>
   <si>
     <t xml:space="preserve">32.4516487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4467086791992</t>
+    <t xml:space="preserve">32.446704864502</t>
   </si>
   <si>
     <t xml:space="preserve">33.1885185241699</t>
@@ -4919,16 +4919,16 @@
     <t xml:space="preserve">32.9857521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6978874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8155517578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5485038757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1450424194336</t>
+    <t xml:space="preserve">33.6978912353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8155479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5485000610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1450386047363</t>
   </si>
   <si>
     <t xml:space="preserve">31.4477386474609</t>
@@ -4937,25 +4937,25 @@
     <t xml:space="preserve">31.2548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4625759124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0619983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5674610137939</t>
+    <t xml:space="preserve">31.462574005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0620021820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5674591064453</t>
   </si>
   <si>
     <t xml:space="preserve">31.5911540985107</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7494068145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1341133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8176116943359</t>
+    <t xml:space="preserve">31.7494029998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1341209411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8176155090332</t>
   </si>
   <si>
     <t xml:space="preserve">35.4782295227051</t>
@@ -4967,25 +4967,25 @@
     <t xml:space="preserve">37.2486839294434</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2744331359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2942199707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5761070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5315971374512</t>
+    <t xml:space="preserve">36.2744369506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2942237854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5761108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5316009521484</t>
   </si>
   <si>
     <t xml:space="preserve">36.5711631774902</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9766883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0162506103516</t>
+    <t xml:space="preserve">36.9766807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.016242980957</t>
   </si>
   <si>
     <t xml:space="preserve">36.7689781188965</t>
@@ -4994,73 +4994,73 @@
     <t xml:space="preserve">35.972770690918</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3545989990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6513175964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4772033691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2991714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2497100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8244132995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3100929260254</t>
+    <t xml:space="preserve">35.3545951843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6513214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4771957397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2991676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2497138977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.824405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3100891113281</t>
   </si>
   <si>
     <t xml:space="preserve">36.0222206115723</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4870948791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1403465270996</t>
+    <t xml:space="preserve">36.4870910644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1403503417969</t>
   </si>
   <si>
     <t xml:space="preserve">37.3985252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8883209228516</t>
+    <t xml:space="preserve">36.8883171081543</t>
   </si>
   <si>
     <t xml:space="preserve">35.0604934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6047782897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3125228881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.20849609375</t>
+    <t xml:space="preserve">34.6047821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3125267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2085037231445</t>
   </si>
   <si>
     <t xml:space="preserve">34.8078727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5596008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2970695495605</t>
+    <t xml:space="preserve">33.5596046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2970733642578</t>
   </si>
   <si>
     <t xml:space="preserve">32.9206085205078</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5144271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2079048156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6977081298828</t>
+    <t xml:space="preserve">32.5144233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2079086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6977005004883</t>
   </si>
   <si>
     <t xml:space="preserve">33.1286544799805</t>
@@ -5069,28 +5069,28 @@
     <t xml:space="preserve">33.2376289367676</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0896263122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2580375671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1149826049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9477615356445</t>
+    <t xml:space="preserve">34.0896186828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2580451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1149864196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.94775390625</t>
   </si>
   <si>
     <t xml:space="preserve">36.7743873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0072021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1013145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4975891113281</t>
+    <t xml:space="preserve">37.0071983337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.101318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4975852966309</t>
   </si>
   <si>
     <t xml:space="preserve">37.6115226745605</t>
@@ -5099,13 +5099,13 @@
     <t xml:space="preserve">38.3892135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1421394348145</t>
+    <t xml:space="preserve">39.1421356201172</t>
   </si>
   <si>
     <t xml:space="preserve">37.6709632873535</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7105941772461</t>
+    <t xml:space="preserve">37.7105903625488</t>
   </si>
   <si>
     <t xml:space="preserve">38.6963310241699</t>
@@ -5114,25 +5114,25 @@
     <t xml:space="preserve">38.740909576416</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0678329467773</t>
+    <t xml:space="preserve">39.0678367614746</t>
   </si>
   <si>
     <t xml:space="preserve">42.2727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2535018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1891059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.708625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7934303283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1011352539062</t>
+    <t xml:space="preserve">43.2534942626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1891021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7086219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7934226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.101131439209</t>
   </si>
   <si>
     <t xml:space="preserve">45.6905937194824</t>
@@ -5144,22 +5144,22 @@
     <t xml:space="preserve">44.8485069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7940216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7302207946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5067138671875</t>
+    <t xml:space="preserve">44.794017791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.730224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.506721496582</t>
   </si>
   <si>
     <t xml:space="preserve">44.9277648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1853408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7500419616699</t>
+    <t xml:space="preserve">45.1853446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7500305175781</t>
   </si>
   <si>
     <t xml:space="preserve">46.0670547485352</t>
@@ -5168,10 +5168,10 @@
     <t xml:space="preserve">45.4875030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">44.977294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6057968139648</t>
+    <t xml:space="preserve">44.9773025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6057891845703</t>
   </si>
   <si>
     <t xml:space="preserve">44.184741973877</t>
@@ -5180,19 +5180,19 @@
     <t xml:space="preserve">44.813835144043</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1996116638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1358070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2695465087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8033294677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8930931091309</t>
+    <t xml:space="preserve">44.1996078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1358108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2695541381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8033256530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8930892944336</t>
   </si>
   <si>
     <t xml:space="preserve">45.3785285949707</t>
@@ -5201,7 +5201,7 @@
     <t xml:space="preserve">44.571117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5871658325195</t>
+    <t xml:space="preserve">46.5871696472168</t>
   </si>
   <si>
     <t xml:space="preserve">45.8193855285645</t>
@@ -5213,10 +5213,10 @@
     <t xml:space="preserve">45.4478721618652</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6943511962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8534622192383</t>
+    <t xml:space="preserve">43.6943550109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.853458404541</t>
   </si>
   <si>
     <t xml:space="preserve">45.0218811035156</t>
@@ -5225,7 +5225,7 @@
     <t xml:space="preserve">45.0218772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5476379394531</t>
+    <t xml:space="preserve">45.5476417541504</t>
   </si>
   <si>
     <t xml:space="preserve">46.0237998962402</t>
@@ -5234,19 +5234,19 @@
     <t xml:space="preserve">46.8173980712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0466842651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4682769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1737174987793</t>
+    <t xml:space="preserve">45.0466804504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4682807922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1737213134766</t>
   </si>
   <si>
     <t xml:space="preserve">46.9661979675293</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2012405395508</t>
+    <t xml:space="preserve">48.2012367248535</t>
   </si>
   <si>
     <t xml:space="preserve">48.5583572387695</t>
@@ -5255,19 +5255,19 @@
     <t xml:space="preserve">47.9581985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1844329833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3095626831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5823631286621</t>
+    <t xml:space="preserve">47.184440612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3095550537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5823593139648</t>
   </si>
   <si>
     <t xml:space="preserve">46.0833206176758</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2797966003418</t>
+    <t xml:space="preserve">45.2798004150391</t>
   </si>
   <si>
     <t xml:space="preserve">45.9791603088379</t>
@@ -5279,10 +5279,10 @@
     <t xml:space="preserve">45.3789978027344</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6716423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.709400177002</t>
+    <t xml:space="preserve">45.6716384887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7094039916992</t>
   </si>
   <si>
     <t xml:space="preserve">43.0378799438477</t>
@@ -5291,7 +5291,7 @@
     <t xml:space="preserve">42.8593254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0805969238281</t>
+    <t xml:space="preserve">42.0806045532227</t>
   </si>
   <si>
     <t xml:space="preserve">41.544921875</t>
@@ -5300,7 +5300,7 @@
     <t xml:space="preserve">41.9615631103516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3010902404785</t>
+    <t xml:space="preserve">38.3010864257812</t>
   </si>
   <si>
     <t xml:space="preserve">38.2465286254883</t>
@@ -5324,16 +5324,16 @@
     <t xml:space="preserve">38.3110046386719</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8516502380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9588470458984</t>
+    <t xml:space="preserve">38.8516464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9588432312012</t>
   </si>
   <si>
     <t xml:space="preserve">38.6334037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4548416137695</t>
+    <t xml:space="preserve">38.4548454284668</t>
   </si>
   <si>
     <t xml:space="preserve">39.1690864562988</t>
@@ -5345,31 +5345,31 @@
     <t xml:space="preserve">40.8207664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2076454162598</t>
+    <t xml:space="preserve">41.2076416015625</t>
   </si>
   <si>
     <t xml:space="preserve">41.4705238342285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1878051757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9558067321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8466911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3594818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8337249755859</t>
+    <t xml:space="preserve">41.187801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9558029174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8466835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3594856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8337211608887</t>
   </si>
   <si>
     <t xml:space="preserve">40.3495635986328</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2454071044922</t>
+    <t xml:space="preserve">40.2453994750977</t>
   </si>
   <si>
     <t xml:space="preserve">41.4159622192383</t>
@@ -5384,16 +5384,16 @@
     <t xml:space="preserve">41.4209251403809</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7551574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7273254394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0665168762207</t>
+    <t xml:space="preserve">42.7551536560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.216438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7273216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.066520690918</t>
   </si>
   <si>
     <t xml:space="preserve">45.2748413085938</t>
@@ -5405,49 +5405,49 @@
     <t xml:space="preserve">45.1210823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2550010681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6201248168945</t>
+    <t xml:space="preserve">45.254997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6201210021973</t>
   </si>
   <si>
     <t xml:space="preserve">44.203483581543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2065238952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3602828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3037986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2276611328125</t>
+    <t xml:space="preserve">43.2065200805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3602752685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3038024902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2276573181152</t>
   </si>
   <si>
     <t xml:space="preserve">42.8054656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0422439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3104667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2591552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4727439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2442588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.075382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7408981323242</t>
+    <t xml:space="preserve">44.0422477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3104629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.259162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4727401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.244255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0753784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7409019470215</t>
   </si>
   <si>
     <t xml:space="preserve">43.5157470703125</t>
@@ -5465,7 +5465,7 @@
     <t xml:space="preserve">46.8336906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0125045776367</t>
+    <t xml:space="preserve">47.012508392334</t>
   </si>
   <si>
     <t xml:space="preserve">46.4959411621094</t>
@@ -5483,7 +5483,7 @@
     <t xml:space="preserve">45.428035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3336639404297</t>
+    <t xml:space="preserve">45.3336601257324</t>
   </si>
   <si>
     <t xml:space="preserve">46.4562034606934</t>
@@ -5495,7 +5495,7 @@
     <t xml:space="preserve">50.1466674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0903396606445</t>
+    <t xml:space="preserve">48.0903358459473</t>
   </si>
   <si>
     <t xml:space="preserve">48.3188209533691</t>
@@ -5504,19 +5504,19 @@
     <t xml:space="preserve">48.219482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5837097167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2724227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1200790405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.668083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.106819152832</t>
+    <t xml:space="preserve">47.5837059020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2724266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1200828552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6680870056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1068153381348</t>
   </si>
   <si>
     <t xml:space="preserve">43.8634338378906</t>
@@ -5525,10 +5525,10 @@
     <t xml:space="preserve">44.1912574768066</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8452033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2624320983887</t>
+    <t xml:space="preserve">42.8452072143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2624282836914</t>
   </si>
   <si>
     <t xml:space="preserve">42.810432434082</t>
@@ -5537,31 +5537,31 @@
     <t xml:space="preserve">42.0206832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8518104553223</t>
+    <t xml:space="preserve">41.851806640625</t>
   </si>
   <si>
     <t xml:space="preserve">42.283935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3270034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3120994567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2044639587402</t>
+    <t xml:space="preserve">43.3269996643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3120956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.204460144043</t>
   </si>
   <si>
     <t xml:space="preserve">42.1498260498047</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8948707580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8137664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3667373657227</t>
+    <t xml:space="preserve">42.8948745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8137626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3667335510254</t>
   </si>
   <si>
     <t xml:space="preserve">43.3766708374023</t>
@@ -5573,7 +5573,7 @@
     <t xml:space="preserve">43.2028274536133</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1829605102539</t>
+    <t xml:space="preserve">43.1829566955566</t>
   </si>
   <si>
     <t xml:space="preserve">42.5620880126953</t>
@@ -5582,19 +5582,19 @@
     <t xml:space="preserve">40.8335762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1216583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8137092590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0074195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0620613098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4792823791504</t>
+    <t xml:space="preserve">41.1216621398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8137054443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0074157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0620574951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4792861938477</t>
   </si>
   <si>
     <t xml:space="preserve">41.0570907592773</t>
@@ -5603,7 +5603,7 @@
     <t xml:space="preserve">40.4353141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2263946533203</t>
+    <t xml:space="preserve">40.2263984680176</t>
   </si>
   <si>
     <t xml:space="preserve">40.4900321960449</t>
@@ -5615,22 +5615,22 @@
     <t xml:space="preserve">40.0473289489746</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1368637084961</t>
+    <t xml:space="preserve">40.1368675231934</t>
   </si>
   <si>
     <t xml:space="preserve">39.5200576782227</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6046257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3059844970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7735633850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8431968688965</t>
+    <t xml:space="preserve">39.604621887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.305980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7735595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8432006835938</t>
   </si>
   <si>
     <t xml:space="preserve">40.1667060852051</t>
@@ -5639,10 +5639,10 @@
     <t xml:space="preserve">40.9973983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">40.79345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8479843139648</t>
+    <t xml:space="preserve">40.7934608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8479881286621</t>
   </si>
   <si>
     <t xml:space="preserve">41.355541229248</t>
@@ -5672,19 +5672,19 @@
     <t xml:space="preserve">38.7490577697754</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5353546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.624885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2418785095215</t>
+    <t xml:space="preserve">37.5353507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6248893737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.241870880127</t>
   </si>
   <si>
     <t xml:space="preserve">36.9334716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7689552307129</t>
+    <t xml:space="preserve">38.7689590454102</t>
   </si>
   <si>
     <t xml:space="preserve">37.321460723877</t>
@@ -5693,25 +5693,25 @@
     <t xml:space="preserve">35.0731201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7844314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9585304260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5453033447266</t>
+    <t xml:space="preserve">35.7844352722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5452995300293</t>
   </si>
   <si>
     <t xml:space="preserve">38.2367172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">37.893497467041</t>
+    <t xml:space="preserve">37.8934936523438</t>
   </si>
   <si>
     <t xml:space="preserve">38.1123580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0974388122559</t>
+    <t xml:space="preserve">38.0974349975586</t>
   </si>
   <si>
     <t xml:space="preserve">38.3660430908203</t>
@@ -5723,28 +5723,28 @@
     <t xml:space="preserve">38.4754753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9378967285156</t>
+    <t xml:space="preserve">39.9378929138184</t>
   </si>
   <si>
     <t xml:space="preserve">42.0817756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5644607543945</t>
+    <t xml:space="preserve">41.5644569396973</t>
   </si>
   <si>
     <t xml:space="preserve">41.6937866210938</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9922370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1913909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5246696472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3804130554199</t>
+    <t xml:space="preserve">41.9922409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1913948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5246658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3804168701172</t>
   </si>
   <si>
     <t xml:space="preserve">41.5893287658691</t>
@@ -5753,22 +5753,22 @@
     <t xml:space="preserve">41.395336151123</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6042518615723</t>
+    <t xml:space="preserve">41.6042556762695</t>
   </si>
   <si>
     <t xml:space="preserve">42.8279037475586</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2258453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.514347076416</t>
+    <t xml:space="preserve">43.2258415222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5143508911133</t>
   </si>
   <si>
     <t xml:space="preserve">43.1562042236328</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8326988220215</t>
+    <t xml:space="preserve">43.8326950073242</t>
   </si>
   <si>
     <t xml:space="preserve">44.3400650024414</t>
@@ -5783,7 +5783,7 @@
     <t xml:space="preserve">44.3402976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3652076721191</t>
+    <t xml:space="preserve">44.3652038574219</t>
   </si>
   <si>
     <t xml:space="preserve">44.0862731933594</t>
@@ -5798,10 +5798,10 @@
     <t xml:space="preserve">45.3165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6403198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6801681518555</t>
+    <t xml:space="preserve">45.640323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6801719665527</t>
   </si>
   <si>
     <t xml:space="preserve">45.3564109802246</t>
@@ -5813,13 +5813,13 @@
     <t xml:space="preserve">45.5058403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0376281738281</t>
+    <t xml:space="preserve">45.0376319885254</t>
   </si>
   <si>
     <t xml:space="preserve">44.4000701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">42.846019744873</t>
+    <t xml:space="preserve">42.8460159301758</t>
   </si>
   <si>
     <t xml:space="preserve">41.1923446655273</t>
@@ -5837,10 +5837,10 @@
     <t xml:space="preserve">40.1463508605957</t>
   </si>
   <si>
-    <t xml:space="preserve">39.772777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5685615539551</t>
+    <t xml:space="preserve">39.7727813720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5685653686523</t>
   </si>
   <si>
     <t xml:space="preserve">39.4938468933105</t>
@@ -5858,7 +5858,7 @@
     <t xml:space="preserve">40.3655128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4065246582031</t>
+    <t xml:space="preserve">41.4065284729004</t>
   </si>
   <si>
     <t xml:space="preserve">42.1686134338379</t>
@@ -5867,13 +5867,13 @@
     <t xml:space="preserve">42.4525260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2483024597168</t>
+    <t xml:space="preserve">42.2483062744141</t>
   </si>
   <si>
     <t xml:space="preserve">41.122615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.788890838623</t>
+    <t xml:space="preserve">40.7888946533203</t>
   </si>
   <si>
     <t xml:space="preserve">40.9432983398438</t>
@@ -5885,7 +5885,7 @@
     <t xml:space="preserve">40.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0367660522461</t>
+    <t xml:space="preserve">40.0367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">41.0479011535645</t>
@@ -5897,19 +5897,19 @@
     <t xml:space="preserve">40.2708740234375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6954193115234</t>
+    <t xml:space="preserve">41.6954231262207</t>
   </si>
   <si>
     <t xml:space="preserve">42.5372009277344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0402793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4912033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5559539794922</t>
+    <t xml:space="preserve">43.0402755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4912071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5559577941895</t>
   </si>
   <si>
     <t xml:space="preserve">41.9992561340332</t>
@@ -5918,10 +5918,10 @@
     <t xml:space="preserve">42.3977355957031</t>
   </si>
   <si>
-    <t xml:space="preserve">41.56591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7789344787598</t>
+    <t xml:space="preserve">41.5659141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7789306640625</t>
   </si>
   <si>
     <t xml:space="preserve">40.8237571716309</t>
@@ -5930,25 +5930,25 @@
     <t xml:space="preserve">42.0789566040039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3716621398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1823883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8908500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5161094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5808639526367</t>
+    <t xml:space="preserve">41.3716583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1823844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8908462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5161056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5808601379395</t>
   </si>
   <si>
     <t xml:space="preserve">43.1149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7464027404785</t>
+    <t xml:space="preserve">42.7463989257812</t>
   </si>
   <si>
     <t xml:space="preserve">42.253288269043</t>
@@ -5963,7 +5963,7 @@
     <t xml:space="preserve">43.2843437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3989028930664</t>
+    <t xml:space="preserve">43.3988990783691</t>
   </si>
   <si>
     <t xml:space="preserve">44.1510238647461</t>
@@ -5975,7 +5975,7 @@
     <t xml:space="preserve">42.721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.262077331543</t>
+    <t xml:space="preserve">41.2620811462402</t>
   </si>
   <si>
     <t xml:space="preserve">41.137378692627</t>
@@ -6186,6 +6186,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.2249984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0699996948242</t>
   </si>
 </sst>
 </file>
@@ -62739,7 +62742,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.649375</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>2503521</v>
@@ -62760,6 +62763,32 @@
         <v>2057</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6525578704</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>2480479</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>37.0699996948242</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>36.0299987792969</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>36.2249984741211</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>37.0699996948242</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35176801681519</t>
+    <t xml:space="preserve">5.35176753997803</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2454400062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94418382644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0637993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08152198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01506614685059</t>
+    <t xml:space="preserve">5.37391901016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24544095993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455577850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9441819190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06380033493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08152103424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01506662368774</t>
   </si>
   <si>
     <t xml:space="preserve">4.89545011520386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64735412597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7270975112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91760158538818</t>
+    <t xml:space="preserve">4.64735460281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72709894180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91760206222534</t>
   </si>
   <si>
     <t xml:space="preserve">4.86000776290894</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99291467666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18784809112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32075500488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55556011199951</t>
+    <t xml:space="preserve">4.99291515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683603286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18784713745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32075452804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55555868148804</t>
   </si>
   <si>
     <t xml:space="preserve">5.39607048034668</t>
@@ -104,166 +104,166 @@
     <t xml:space="preserve">5.16126585006714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74925088882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56761026382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103670120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13787508010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20698499679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29558944702148</t>
+    <t xml:space="preserve">4.70937871932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74925231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56760835647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078151702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103813171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951791763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13787269592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20698642730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2955904006958</t>
   </si>
   <si>
     <t xml:space="preserve">4.25128793716431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40900564193726</t>
+    <t xml:space="preserve">4.40900611877441</t>
   </si>
   <si>
     <t xml:space="preserve">4.63849496841431</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60305261611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80241441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279647827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45242261886597</t>
+    <t xml:space="preserve">4.60305166244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80241250991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279600143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45242214202881</t>
   </si>
   <si>
     <t xml:space="preserve">4.52773809432983</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64292287826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69608736038208</t>
+    <t xml:space="preserve">4.64292478561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69608640670776</t>
   </si>
   <si>
     <t xml:space="preserve">4.78469324111938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79355192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82899522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75811195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73596000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57204008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74039030075073</t>
+    <t xml:space="preserve">4.79355335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899618148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73596048355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064596176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5720386505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74038887023926</t>
   </si>
   <si>
     <t xml:space="preserve">4.62963342666626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65178442001343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54988861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53659820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50225639343262</t>
+    <t xml:space="preserve">4.65178489685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54989051818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53659677505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50225687026978</t>
   </si>
   <si>
     <t xml:space="preserve">4.4281530380249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47153186798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42996072769165</t>
+    <t xml:space="preserve">4.47153091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42996120452881</t>
   </si>
   <si>
     <t xml:space="preserve">4.41911554336548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43176889419556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40285110473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43357467651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17692279815674</t>
+    <t xml:space="preserve">4.4317684173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4028491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34139585494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43357563018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17692422866821</t>
   </si>
   <si>
     <t xml:space="preserve">4.14800453186035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32693672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49322032928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501218795776</t>
+    <t xml:space="preserve">4.32693862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49321889877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501314163208</t>
   </si>
   <si>
     <t xml:space="preserve">4.52756071090698</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63600492477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5546727180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926404953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65407848358154</t>
+    <t xml:space="preserve">4.63600540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55467176437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926309585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65408039093018</t>
   </si>
   <si>
     <t xml:space="preserve">4.67667245864868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6676344871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58178234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15111637115479</t>
+    <t xml:space="preserve">4.66763544082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58178281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1511173248291</t>
   </si>
   <si>
     <t xml:space="preserve">5.08333873748779</t>
@@ -272,265 +272,265 @@
     <t xml:space="preserve">4.85289430618286</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75800561904907</t>
+    <t xml:space="preserve">4.75800514221191</t>
   </si>
   <si>
     <t xml:space="preserve">4.5501537322998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41188716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36308622360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26006364822388</t>
+    <t xml:space="preserve">4.41188669204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26006412506104</t>
   </si>
   <si>
     <t xml:space="preserve">4.31428623199463</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26910209655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19499778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22210741043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26729345321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28356075286865</t>
+    <t xml:space="preserve">4.26910018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1949987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22210788726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26729440689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28355932235718</t>
   </si>
   <si>
     <t xml:space="preserve">4.6405234336853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67215299606323</t>
+    <t xml:space="preserve">4.67215394973755</t>
   </si>
   <si>
     <t xml:space="preserve">4.79867172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83933877944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88904333114624</t>
+    <t xml:space="preserve">4.83933782577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88904285430908</t>
   </si>
   <si>
     <t xml:space="preserve">4.90259838104248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91163444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84385633468628</t>
+    <t xml:space="preserve">4.91163492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84385776519775</t>
   </si>
   <si>
     <t xml:space="preserve">4.81674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82126426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79415321350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00200462341309</t>
+    <t xml:space="preserve">4.82126379013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79415464401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00200653076172</t>
   </si>
   <si>
     <t xml:space="preserve">4.86645030975342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5772647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49502849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46068668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44803428649902</t>
+    <t xml:space="preserve">4.57726526260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4950270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46068620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44803524017334</t>
   </si>
   <si>
     <t xml:space="preserve">4.54111623764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70117473602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75605440139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82464981079102</t>
+    <t xml:space="preserve">4.70117568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75605154037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82465124130249</t>
   </si>
   <si>
     <t xml:space="preserve">4.96641826629639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65544557571411</t>
+    <t xml:space="preserve">4.65544414520264</t>
   </si>
   <si>
     <t xml:space="preserve">4.55849361419678</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67373657226562</t>
+    <t xml:space="preserve">4.67373704910278</t>
   </si>
   <si>
     <t xml:space="preserve">4.79263830184937</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82007884979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71946859359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57312774658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42130041122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834942817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87952852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92525911331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95727109909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04873418807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18592691421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22251319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30940055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799882888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9404935836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8993353843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96335935592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94506549835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71640825271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76671409606934</t>
+    <t xml:space="preserve">4.82007646560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71946716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57312822341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42129993438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48349523544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9435510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92525959014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95727014541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04873323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07617330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18592739105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22251176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708463668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.309401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37799835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049310684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89933490753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9633584022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94506645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71641063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76671504974365</t>
   </si>
   <si>
     <t xml:space="preserve">5.97250413894653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08226108551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0959792137146</t>
+    <t xml:space="preserve">6.08226203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09597969055176</t>
   </si>
   <si>
     <t xml:space="preserve">6.00451850891113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10969877243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06396818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99079847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18286848068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15542888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29262351989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22860193252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18744134902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21945476531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16914987564087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689197540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13713788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11884593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95421314239502</t>
+    <t xml:space="preserve">6.10969829559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06396770477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.990797996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18286752700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15543031692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12799119949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29262399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22859907150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18744325637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21945381164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16915035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13713693618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11884450912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95421266555786</t>
   </si>
   <si>
     <t xml:space="preserve">5.96793270111084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04567527770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19658899307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21030712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30634450912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26975774765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4727520942688</t>
+    <t xml:space="preserve">6.04567623138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19658756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21030807495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30634307861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2697582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275352478027</t>
   </si>
   <si>
     <t xml:space="preserve">6.56502199172974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63422584533691</t>
+    <t xml:space="preserve">6.63422632217407</t>
   </si>
   <si>
     <t xml:space="preserve">6.68958806991577</t>
@@ -539,151 +539,151 @@
     <t xml:space="preserve">6.63884019851685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57886409759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5927038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67574882507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45891189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66652059555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113447189331</t>
+    <t xml:space="preserve">6.57886362075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59270429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574834823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45891380310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6665210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113351821899</t>
   </si>
   <si>
     <t xml:space="preserve">6.75879001617432</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85567378997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92949104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54195642471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68035936355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77724504470825</t>
+    <t xml:space="preserve">6.85567474365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92949056625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188329696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54195547103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68035984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77724409103394</t>
   </si>
   <si>
     <t xml:space="preserve">6.89258241653442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75417804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799196243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106182098389</t>
+    <t xml:space="preserve">6.75417709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799434661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106134414673</t>
   </si>
   <si>
     <t xml:space="preserve">7.36316013336182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76914834976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02750492095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71378612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53386068344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48311281204224</t>
+    <t xml:space="preserve">7.76915264129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02750587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71378755569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53386163711548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48311185836792</t>
   </si>
   <si>
     <t xml:space="preserve">7.46465826034546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80605792999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91678333282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765308380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6261305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78760242462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89371347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216564178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436622619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29508972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55805969238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6595573425293</t>
+    <t xml:space="preserve">7.80605554580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91678285598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765213012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613201141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78760194778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89371585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216611862183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508876800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55806159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65955543518066</t>
   </si>
   <si>
     <t xml:space="preserve">8.6272611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53499126434326</t>
+    <t xml:space="preserve">8.53499031066895</t>
   </si>
   <si>
     <t xml:space="preserve">8.52576446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60880756378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90407085418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68262195587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58112716674805</t>
+    <t xml:space="preserve">8.60880565643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90407276153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68262481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58112525939941</t>
   </si>
   <si>
     <t xml:space="preserve">8.81641674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9317569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92252445220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34697151184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21317958831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11629867553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29160308837891</t>
+    <t xml:space="preserve">8.93175506591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92252540588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3469705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21317672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11629295349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29160594940186</t>
   </si>
   <si>
     <t xml:space="preserve">9.27315330505371</t>
@@ -698,208 +698,208 @@
     <t xml:space="preserve">9.73514175415039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89291000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86507225036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9764347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599613189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0413970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0228366851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321168899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79082584381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67946147918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6516227722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47529125213623</t>
+    <t xml:space="preserve">9.89291191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93931198120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86506843566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97643566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599575042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0413980484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0228385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79082775115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67946338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65161800384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47529220581055</t>
   </si>
   <si>
     <t xml:space="preserve">9.76298522949219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93003082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0042772293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87435054779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1898832321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1063594818115</t>
+    <t xml:space="preserve">9.93003177642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0042753219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87434768676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.189884185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1063604354858</t>
   </si>
   <si>
     <t xml:space="preserve">10.069239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2455654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3754920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.220009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6283464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6933097839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2779731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336553573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2130107879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4079027175903</t>
+    <t xml:space="preserve">10.245566368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3754968643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2200117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6283473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819463729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035326004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2779760360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336563110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2130136489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4078989028931</t>
   </si>
   <si>
     <t xml:space="preserve">12.1016454696655</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9253196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.008843421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0459651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.185170173645</t>
+    <t xml:space="preserve">11.9253177642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232355117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0088443756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0459642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.185173034668</t>
   </si>
   <si>
     <t xml:space="preserve">12.3986196517944</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3429393768311</t>
+    <t xml:space="preserve">12.3429412841797</t>
   </si>
   <si>
     <t xml:space="preserve">12.6027898788452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.760555267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224918365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2431354522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1410522460938</t>
+    <t xml:space="preserve">12.7605571746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2431383132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1410512924194</t>
   </si>
   <si>
     <t xml:space="preserve">13.4565868377686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3545026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6329164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514768600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885967254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5122718811035</t>
+    <t xml:space="preserve">13.3545036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6329126358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823461532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5122699737549</t>
   </si>
   <si>
     <t xml:space="preserve">13.7257175445557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1781730651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.206015586853</t>
+    <t xml:space="preserve">13.1781759262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2060127258301</t>
   </si>
   <si>
     <t xml:space="preserve">13.2524156570435</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4101848602295</t>
+    <t xml:space="preserve">13.4101867675781</t>
   </si>
   <si>
     <t xml:space="preserve">13.4380235671997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4937105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3632459640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7947931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9811725616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3818807601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657497406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564304351807</t>
+    <t xml:space="preserve">13.4937086105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3632431030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.794792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9811735153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141418457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825937271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3818845748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564323425293</t>
   </si>
   <si>
     <t xml:space="preserve">13.3912000656128</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3446054458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259687423706</t>
+    <t xml:space="preserve">13.3446092605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259716033936</t>
   </si>
   <si>
     <t xml:space="preserve">13.2607364654541</t>
@@ -908,199 +908,199 @@
     <t xml:space="preserve">13.3352880477905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.67076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.586895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0930004119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9998064041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9532108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5804595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7295637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582288742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7266798019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4937076568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8291864395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807981491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8012323379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155658721924</t>
+    <t xml:space="preserve">13.6707677841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5868949890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0929985046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.999810218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9532136917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5804586410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7295618057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.738881111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582298278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7266817092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493706703186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8291912078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807991027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8012294769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155630111694</t>
   </si>
   <si>
     <t xml:space="preserve">14.1367101669312</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3603620529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0342035293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858104705811</t>
+    <t xml:space="preserve">14.3603658676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.034200668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858114242554</t>
   </si>
   <si>
     <t xml:space="preserve">14.3230876922607</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6521291732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5216665267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4471111297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.540301322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.717360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6987218856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5030279159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7919111251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775785446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5123472213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0248832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2951307296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1302709579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5990991592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6456928253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0277643203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041143417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338640213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4872703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1315603256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9911518096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.700966835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7758502960205</t>
+    <t xml:space="preserve">13.6521272659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5216646194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4471139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5403032302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7173614501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6987247467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5030269622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7919139862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775804519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5123443603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.024881362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833047866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2951326370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1302728652954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9252576828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5990962982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6456909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0277662277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922836303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4872732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1315622329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9911508560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009677886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7758522033691</t>
   </si>
   <si>
     <t xml:space="preserve">11.8601007461548</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7196893692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379524230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1596450805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3094186782837</t>
+    <t xml:space="preserve">11.719690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.037956237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1596441268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3094148635864</t>
   </si>
   <si>
     <t xml:space="preserve">12.5715188980103</t>
   </si>
   <si>
-    <t xml:space="preserve">12.524715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9365901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9553098678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9740304946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7680950164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2454957962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297424316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.413987159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6854486465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6667289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5075941085815</t>
+    <t xml:space="preserve">12.5247144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9365892410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9553089141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9740314483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7680931091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518878936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.329740524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.413990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.685450553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6667308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5075960159302</t>
   </si>
   <si>
     <t xml:space="preserve">13.4514303207397</t>
@@ -1109,82 +1109,82 @@
     <t xml:space="preserve">13.5731191635132</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7322540283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6386461257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228937149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726663589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676412582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3859081268311</t>
+    <t xml:space="preserve">13.7322568893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6386489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228956222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726682662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420719146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3859090805054</t>
   </si>
   <si>
     <t xml:space="preserve">13.4795150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2829351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5263175964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.51695728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233503341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4888734817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1986894607544</t>
+    <t xml:space="preserve">13.28293800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5263185501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5169563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233484268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4888753890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986904144287</t>
   </si>
   <si>
     <t xml:space="preserve">13.2922983169556</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6480073928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8071413040161</t>
+    <t xml:space="preserve">13.6480054855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8071432113647</t>
   </si>
   <si>
     <t xml:space="preserve">13.9849948883057</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0318012237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160469055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4717559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840854644775</t>
+    <t xml:space="preserve">14.0317974090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160449981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.471755027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840835571289</t>
   </si>
   <si>
     <t xml:space="preserve">14.790020942688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7338619232178</t>
+    <t xml:space="preserve">14.7338562011719</t>
   </si>
   <si>
     <t xml:space="preserve">14.7432165145874</t>
@@ -1193,82 +1193,82 @@
     <t xml:space="preserve">15.0521240234375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4280319213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5689678192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2964859008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3246736526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904428482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7891101837158</t>
+    <t xml:space="preserve">15.0333995819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4280290603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5689697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2964897155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3246755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7891082763672</t>
   </si>
   <si>
     <t xml:space="preserve">14.8360872268677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1931352615356</t>
+    <t xml:space="preserve">15.1931304931641</t>
   </si>
   <si>
     <t xml:space="preserve">15.2307138442993</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3622579574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072160720825</t>
+    <t xml:space="preserve">15.3622598648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072198867798</t>
   </si>
   <si>
     <t xml:space="preserve">15.9823846817017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8696355819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850732803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.766282081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7944641113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6441307067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8226537704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8414468765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884248733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9917821884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1139297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.672324180603</t>
+    <t xml:space="preserve">15.8696336746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850751876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7662792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7944688796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8226594924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8414459228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8884286880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9917802810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1139259338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723184585571</t>
   </si>
   <si>
     <t xml:space="preserve">15.860239982605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5461387634277</t>
+    <t xml:space="preserve">16.5461444854736</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528495788574</t>
@@ -1277,31 +1277,31 @@
     <t xml:space="preserve">16.6494922637939</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6414165496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071933746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1300048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9984607696533</t>
+    <t xml:space="preserve">18.6414260864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071895599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1300010681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.998462677002</t>
   </si>
   <si>
     <t xml:space="preserve">19.3555068969727</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2051620483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6937599182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9662380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7125511169434</t>
+    <t xml:space="preserve">19.2051677703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6937618255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9662303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7125415802002</t>
   </si>
   <si>
     <t xml:space="preserve">19.8816757202148</t>
@@ -1310,16 +1310,16 @@
     <t xml:space="preserve">18.8011417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2333602905273</t>
+    <t xml:space="preserve">19.2333564758301</t>
   </si>
   <si>
     <t xml:space="preserve">18.8951091766357</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2709445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1018142700195</t>
+    <t xml:space="preserve">19.2709465026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1018180847168</t>
   </si>
   <si>
     <t xml:space="preserve">19.3273162841797</t>
@@ -1331,31 +1331,31 @@
     <t xml:space="preserve">19.1863822937012</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3461074829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9890689849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0172519683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7206211090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9085388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2602252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3729820251465</t>
+    <t xml:space="preserve">19.3461112976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9890632629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0172500610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7206192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9085369110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2602272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.372974395752</t>
   </si>
   <si>
     <t xml:space="preserve">17.6454563140869</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9877414703369</t>
+    <t xml:space="preserve">16.9877433776855</t>
   </si>
   <si>
     <t xml:space="preserve">17.2132453918457</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">17.2226409912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4951267242432</t>
+    <t xml:space="preserve">17.4951286315918</t>
   </si>
   <si>
     <t xml:space="preserve">17.4481372833252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.18505859375</t>
+    <t xml:space="preserve">17.1850566864014</t>
   </si>
   <si>
     <t xml:space="preserve">17.5055656433105</t>
@@ -1379,88 +1379,88 @@
     <t xml:space="preserve">17.6186866760254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3453140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4584331512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4490051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4113006591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1567783355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3735942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.920352935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1748714447021</t>
+    <t xml:space="preserve">17.345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4584350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.449010848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4113025665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1567802429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.373592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9203472137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.174877166748</t>
   </si>
   <si>
     <t xml:space="preserve">18.316276550293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2408599853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8536014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8347434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6462135314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.52366065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2306728363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2683715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0609893798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9101657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7223834991455</t>
+    <t xml:space="preserve">18.2408580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5802249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482440948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8535957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8347511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6462116241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5236682891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2306747436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683773040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0609874725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9101619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7223854064941</t>
   </si>
   <si>
     <t xml:space="preserve">17.8543605804443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9769058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011154174805</t>
+    <t xml:space="preserve">17.9769077301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011135101318</t>
   </si>
   <si>
     <t xml:space="preserve">18.3634071350098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1277408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674797058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4301605224609</t>
+    <t xml:space="preserve">18.1277351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674777984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.430154800415</t>
   </si>
   <si>
     <t xml:space="preserve">17.5574131011963</t>
@@ -1472,43 +1472,43 @@
     <t xml:space="preserve">17.2887554168701</t>
   </si>
   <si>
-    <t xml:space="preserve">16.294225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2046718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4686222076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3602104187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8362731933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0153751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0295162200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9588146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.406587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688812255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5904159545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6139717102051</t>
+    <t xml:space="preserve">16.2942199707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2046699523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4686183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3602180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8362674713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0153732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.02952003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.958812713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893920898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5904064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6139736175537</t>
   </si>
   <si>
     <t xml:space="preserve">17.7883720397949</t>
@@ -1517,25 +1517,25 @@
     <t xml:space="preserve">17.7459526062012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0625095367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6524429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1850605010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318115234375</t>
+    <t xml:space="preserve">17.0625114440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6524467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1850528717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5432777404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318058013916</t>
   </si>
   <si>
     <t xml:space="preserve">18.5566577911377</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6650638580322</t>
+    <t xml:space="preserve">18.6650657653809</t>
   </si>
   <si>
     <t xml:space="preserve">18.8253192901611</t>
@@ -1544,304 +1544,304 @@
     <t xml:space="preserve">18.3398418426514</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2597122192383</t>
+    <t xml:space="preserve">18.2597141265869</t>
   </si>
   <si>
     <t xml:space="preserve">18.6603507995605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.72633934021</t>
+    <t xml:space="preserve">18.7263431549072</t>
   </si>
   <si>
     <t xml:space="preserve">18.4237651824951</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8256206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2511138916016</t>
+    <t xml:space="preserve">18.8256225585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2511119842529</t>
   </si>
   <si>
     <t xml:space="preserve">18.329216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.582239151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0360984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0763835906982</t>
+    <t xml:space="preserve">17.5822429656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5916996002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0361022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.076379776001</t>
   </si>
   <si>
     <t xml:space="preserve">17.0054664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4996032714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0977554321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5279712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.386137008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712333679199</t>
+    <t xml:space="preserve">16.4996013641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.097749710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5279655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712371826172</t>
   </si>
   <si>
     <t xml:space="preserve">16.9014549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065994262695</t>
+    <t xml:space="preserve">16.6839809417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5066013336182</t>
   </si>
   <si>
     <t xml:space="preserve">17.2749443054199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309520721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7429847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4545974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8683586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6177978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8116340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6887035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3505821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1473007202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9368133544922</t>
+    <t xml:space="preserve">17.4309577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7429809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4545955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8683547973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6177940368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8116302490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6887130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3505897521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1472949981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9368152618408</t>
   </si>
   <si>
     <t xml:space="preserve">17.951000213623</t>
   </si>
   <si>
-    <t xml:space="preserve">18.182653427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8161659240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5230541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7972507476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8539848327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2700233459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0620040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9390850067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1376514434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.071460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688941955566</t>
+    <t xml:space="preserve">18.1826515197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8161640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5230445861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7972545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8539905548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2700271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3078479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0620098114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9390869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1376476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0714626312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688903808594</t>
   </si>
   <si>
     <t xml:space="preserve">19.0998268127441</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4307670593262</t>
+    <t xml:space="preserve">19.430757522583</t>
   </si>
   <si>
     <t xml:space="preserve">19.3362102508545</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1471004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267593383789</t>
+    <t xml:space="preserve">19.1471042633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267555236816</t>
   </si>
   <si>
     <t xml:space="preserve">19.2605667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2416591644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1943817138672</t>
+    <t xml:space="preserve">19.2416572570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1943759918213</t>
   </si>
   <si>
     <t xml:space="preserve">20.0264549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2817497253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1020927429199</t>
+    <t xml:space="preserve">20.2817535400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1020984649658</t>
   </si>
   <si>
     <t xml:space="preserve">19.8657131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2061023712158</t>
+    <t xml:space="preserve">20.2061042785645</t>
   </si>
   <si>
     <t xml:space="preserve">20.1304607391357</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0098056793213</t>
+    <t xml:space="preserve">21.0098094940186</t>
   </si>
   <si>
     <t xml:space="preserve">21.4447555541992</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2367362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.009204864502</t>
+    <t xml:space="preserve">21.2367420196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0092029571533</t>
   </si>
   <si>
     <t xml:space="preserve">20.1180152893066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9189205169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4069652557373</t>
+    <t xml:space="preserve">19.9189224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069671630859</t>
   </si>
   <si>
     <t xml:space="preserve">19.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1934375762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5963611602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8049411773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412906646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9753818511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0085601806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1460361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.525260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4020118713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4446811676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4873390197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1889114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.767017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8142108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0701847076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1886920928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6909656524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6577816009521</t>
+    <t xml:space="preserve">18.193431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5963687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8049392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412944793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715530395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9896068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539394378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9753799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.00856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1460342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986289978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.402006149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4446792602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.487340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437664031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363128662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.188907623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7670192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396976470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8142070770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0701904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1887016296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6909618377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">17.6388168334961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7810287475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9990825653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.041748046875</t>
+    <t xml:space="preserve">17.7810306549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9990863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0417499542236</t>
   </si>
   <si>
     <t xml:space="preserve">18.07493019104</t>
@@ -1853,94 +1853,94 @@
     <t xml:space="preserve">17.0747165679932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.136344909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751682281494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4347686767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.06028175354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0650253295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2830848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266498565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.10768699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5200977325439</t>
+    <t xml:space="preserve">17.1363410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9751739501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4347705841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0602836608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0650234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2830810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1076908111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5200958251953</t>
   </si>
   <si>
     <t xml:space="preserve">16.7855567932129</t>
   </si>
   <si>
-    <t xml:space="preserve">16.747631072998</t>
+    <t xml:space="preserve">16.7476367950439</t>
   </si>
   <si>
     <t xml:space="preserve">16.8898429870605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.771333694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7760734558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7950401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.382625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6241703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3871564865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3539714813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.349232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0790328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4675273895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7946100234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0695505142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7983283996582</t>
+    <t xml:space="preserve">16.7713317871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7760715484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.795036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3826293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.624171257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.387152671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3539695739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3492317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0790309906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.467529296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7946128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0695514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7983303070068</t>
   </si>
   <si>
     <t xml:space="preserve">14.8887376785278</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9268035888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4502172470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4692468643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3598098754883</t>
+    <t xml:space="preserve">14.9268016815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4502153396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4692497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3598070144653</t>
   </si>
   <si>
     <t xml:space="preserve">15.6500663757324</t>
@@ -1949,619 +1949,619 @@
     <t xml:space="preserve">15.3931159973145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.126651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9172849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2503662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5406227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6024827957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1932678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4462156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2273321151733</t>
+    <t xml:space="preserve">15.1266508102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9172859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2503652572632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.540623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6024866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.193265914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4462118148804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2273330688477</t>
   </si>
   <si>
     <t xml:space="preserve">14.2701559066772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4469709396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7134342193604</t>
+    <t xml:space="preserve">13.446967124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.713433265686</t>
   </si>
   <si>
     <t xml:space="preserve">13.689642906189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1131324768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5183429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2756700515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328010559082</t>
+    <t xml:space="preserve">14.113130569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5183448791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.275671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328013420105</t>
   </si>
   <si>
     <t xml:space="preserve">12.8759717941284</t>
   </si>
   <si>
-    <t xml:space="preserve">11.567440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4960632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5912342071533</t>
+    <t xml:space="preserve">11.567437171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4960660934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5912322998047</t>
   </si>
   <si>
     <t xml:space="preserve">12.2431192398071</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2621507644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7522592544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1424417495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6285419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7903232574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6332998275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.481032371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3620738983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.938588142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8339042663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7530117034912</t>
+    <t xml:space="preserve">12.2621545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7522573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662302017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1424407958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6285409927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.790322303772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6332988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4810333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3620767593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385871887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8339052200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7530155181885</t>
   </si>
   <si>
     <t xml:space="preserve">11.5721969604492</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6055059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.400897026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9433450698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7625293731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8434200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1764993667603</t>
+    <t xml:space="preserve">11.6055040359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4008989334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9433460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7625284194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8434190750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1765031814575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1098852157593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0718202590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3668336868286</t>
+    <t xml:space="preserve">12.0718193054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3668346405029</t>
   </si>
   <si>
     <t xml:space="preserve">12.3240098953247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0663051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.647572517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2383556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5055799484253</t>
+    <t xml:space="preserve">13.0663032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6475744247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2383604049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5055809020996</t>
   </si>
   <si>
     <t xml:space="preserve">11.3818664550781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0630598068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4199304580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6435708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6530876159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6483306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813856124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5861654281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.500096321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961488723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6052923202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2520599365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4385480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449964523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8928146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4761867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6244220733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7487449645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6196365356445</t>
+    <t xml:space="preserve">11.063060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4199333190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6435747146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6530885696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6483316421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813846588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5861682891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5000972747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1605920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566417694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961469650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6052951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2520608901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.438549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8928155899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4761877059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6244192123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7487468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6196393966675</t>
   </si>
   <si>
     <t xml:space="preserve">11.7774381637573</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0021781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2986507415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3512477874756</t>
+    <t xml:space="preserve">12.002179145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726545333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2986459732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3512439727783</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304542541504</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9495792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1641445159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7475137710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4414844512939</t>
+    <t xml:space="preserve">11.9495811462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1641426086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7475166320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4414863586426</t>
   </si>
   <si>
     <t xml:space="preserve">13.2310876846313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2884683609009</t>
+    <t xml:space="preserve">13.2884693145752</t>
   </si>
   <si>
     <t xml:space="preserve">13.2693405151367</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3028154373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458490371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.207179069519</t>
+    <t xml:space="preserve">13.3028135299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458480834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2071800231934</t>
   </si>
   <si>
     <t xml:space="preserve">13.8766241073608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2406492233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3171577453613</t>
+    <t xml:space="preserve">13.2406520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489660263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.31715965271</t>
   </si>
   <si>
     <t xml:space="preserve">14.0344219207764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.981822013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9483480453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0774574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9770374298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8335876464844</t>
+    <t xml:space="preserve">13.9818210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9483470916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0774545669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9770402908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8335866928101</t>
   </si>
   <si>
     <t xml:space="preserve">14.0487642288208</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0200757980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1874361038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5938844680786</t>
+    <t xml:space="preserve">14.0200777053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1874370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5938854217529</t>
   </si>
   <si>
     <t xml:space="preserve">14.3739242553711</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0631103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7570772171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.206563949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1348371505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6231880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3362846374512</t>
+    <t xml:space="preserve">14.0631113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.757080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2065629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.134838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6231908798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3362836837769</t>
   </si>
   <si>
     <t xml:space="preserve">13.3219404220581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5466823577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4845199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3506317138672</t>
+    <t xml:space="preserve">13.546685218811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4845218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3506288528442</t>
   </si>
   <si>
     <t xml:space="preserve">13.3601951599121</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6889314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8329763412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6553230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2555046081543</t>
+    <t xml:space="preserve">13.6889324188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8329744338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6553239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2555027008057</t>
   </si>
   <si>
     <t xml:space="preserve">13.93860912323</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4008455276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5736980438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6854295730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2388916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6566200256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655750274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5256824493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3083181381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5435934066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9661178588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0381393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9085006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0717515945435</t>
+    <t xml:space="preserve">13.4008464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5736989974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6854286193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2388944625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6566209793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5256853103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3083190917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5435924530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9661159515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.038140296936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9084997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901247024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0717487335205</t>
   </si>
   <si>
     <t xml:space="preserve">15.398250579834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2205953598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759038925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8255739212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3934488296509</t>
+    <t xml:space="preserve">15.2205972671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8255805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408121109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3934497833252</t>
   </si>
   <si>
     <t xml:space="preserve">16.1712799072266</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120016098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903043746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5230903625488</t>
+    <t xml:space="preserve">15.9120082855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903072357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5230884552002</t>
   </si>
   <si>
     <t xml:space="preserve">15.7295484542847</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7343511581421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7487554550171</t>
+    <t xml:space="preserve">15.7343502044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7487497329712</t>
   </si>
   <si>
     <t xml:space="preserve">14.706841468811</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9421119689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1882858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3227243423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.592903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003786087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9805250167847</t>
+    <t xml:space="preserve">14.9421129226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1882839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5929040908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003795623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.980523109436</t>
   </si>
   <si>
     <t xml:space="preserve">15.1293687820435</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9565153121948</t>
+    <t xml:space="preserve">14.9565162658691</t>
   </si>
   <si>
     <t xml:space="preserve">13.5881023406982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1930875778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9722194671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1799802780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1175584793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1559705734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071277618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9735174179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.045539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1511707305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2279920578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5640954971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2760066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.895396232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2218961715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626169204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0202350616455</t>
+    <t xml:space="preserve">14.1930856704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9722185134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1799793243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1175622940063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559734344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071268081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9735193252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0455408096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1511716842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2279949188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.564094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248523712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2760057449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8953943252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2218952178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9626150131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0202322006226</t>
   </si>
   <si>
     <t xml:space="preserve">13.5687942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9883003234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2969017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6488952636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4560222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3402996063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6055011749268</t>
+    <t xml:space="preserve">13.988299369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2968997955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6488971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4560203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4367341995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.340295791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6055021286011</t>
   </si>
   <si>
     <t xml:space="preserve">14.8465957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0442943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6759595870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.526478767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4348640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5650587081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1889495849609</t>
+    <t xml:space="preserve">15.0442924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6759624481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.526481628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4348621368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5650548934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1889486312866</t>
   </si>
   <si>
     <t xml:space="preserve">15.1069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9526777267456</t>
+    <t xml:space="preserve">14.9526748657227</t>
   </si>
   <si>
     <t xml:space="preserve">15.1455516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0973339080811</t>
+    <t xml:space="preserve">15.0973320007324</t>
   </si>
   <si>
     <t xml:space="preserve">15.270920753479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3336057662964</t>
+    <t xml:space="preserve">15.3336048126221</t>
   </si>
   <si>
     <t xml:space="preserve">15.3191404342651</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3818235397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7338228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520687103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3847770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9634037017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4812145233154</t>
+    <t xml:space="preserve">15.3818244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7338218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520725250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3847827911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9634075164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4812126159668</t>
   </si>
   <si>
     <t xml:space="preserve">16.7946395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1292152404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1147480010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3317375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2419891357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5862140655518</t>
+    <t xml:space="preserve">16.1292171478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1147518157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.331729888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2419900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5862121582031</t>
   </si>
   <si>
     <t xml:space="preserve">14.480131149292</t>
@@ -2570,154 +2570,154 @@
     <t xml:space="preserve">14.5572814941406</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1407308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1214427947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277408599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9285669326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6904239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8736553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7579364776611</t>
+    <t xml:space="preserve">15.1407318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1214437484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277418136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9285678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6904220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8736524581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7579345703125</t>
   </si>
   <si>
     <t xml:space="preserve">15.0539360046387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1744823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.213059425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5457715988159</t>
+    <t xml:space="preserve">15.174485206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2130584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5457696914673</t>
   </si>
   <si>
     <t xml:space="preserve">15.5361251831055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4686193466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7290010452271</t>
+    <t xml:space="preserve">15.4686183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2660999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7289991378784</t>
   </si>
   <si>
     <t xml:space="preserve">16.7030220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0212669372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7801723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4504127502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5275650024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6143627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4692249298096</t>
+    <t xml:space="preserve">17.0212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7801780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4504165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5275630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6143589019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4692268371582</t>
   </si>
   <si>
     <t xml:space="preserve">17.2273368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.512767791748</t>
+    <t xml:space="preserve">17.5127620697021</t>
   </si>
   <si>
     <t xml:space="preserve">17.5611419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1547737121582</t>
+    <t xml:space="preserve">17.1547660827637</t>
   </si>
   <si>
     <t xml:space="preserve">17.0628509521484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9370651245117</t>
+    <t xml:space="preserve">16.9370670318604</t>
   </si>
   <si>
     <t xml:space="preserve">16.9225559234619</t>
   </si>
   <si>
-    <t xml:space="preserve">16.975772857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128219604492</t>
+    <t xml:space="preserve">16.9757766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128238677979</t>
   </si>
   <si>
     <t xml:space="preserve">17.1692867279053</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1160736083984</t>
+    <t xml:space="preserve">17.1160678863525</t>
   </si>
   <si>
     <t xml:space="preserve">16.6468029022217</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7677421569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3047428131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3192577362061</t>
+    <t xml:space="preserve">16.7677459716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3047389984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3192558288574</t>
   </si>
   <si>
     <t xml:space="preserve">16.8403167724609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0773677825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3434371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5770816802979</t>
+    <t xml:space="preserve">17.0773696899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3434429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5770797729492</t>
   </si>
   <si>
     <t xml:space="preserve">18.3980808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8479919433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7754306793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4029159545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3835639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061019897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8804359436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3995018005371</t>
+    <t xml:space="preserve">18.8479900360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.775426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4029235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3835620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6061038970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8804378509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3994998931885</t>
   </si>
   <si>
     <t xml:space="preserve">19.5543079376221</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">20.2896537780762</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9993896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6800880432129</t>
+    <t xml:space="preserve">19.9993839263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6800918579102</t>
   </si>
   <si>
     <t xml:space="preserve">20.0767936706543</t>
@@ -2741,214 +2741,214 @@
     <t xml:space="preserve">20.3283538818359</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6186180114746</t>
+    <t xml:space="preserve">20.6186199188232</t>
   </si>
   <si>
     <t xml:space="preserve">20.502513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8895378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9185657501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3636379241943</t>
+    <t xml:space="preserve">20.8895359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9185638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3636360168457</t>
   </si>
   <si>
     <t xml:space="preserve">21.1507778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0153217315674</t>
+    <t xml:space="preserve">21.0153160095215</t>
   </si>
   <si>
     <t xml:space="preserve">21.2862358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3249359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1701278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7637500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0443420410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4410457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7893619537354</t>
+    <t xml:space="preserve">21.3249340057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1701240539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7637519836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0443458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4410438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7893657684326</t>
   </si>
   <si>
     <t xml:space="preserve">21.8280658721924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7313079833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5765018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571537017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6055316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2441139221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3408737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.631139755249</t>
+    <t xml:space="preserve">21.7313098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5765056610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0830478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0733699798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5571479797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6055278778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2441158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3408718109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6311416625977</t>
   </si>
   <si>
     <t xml:space="preserve">22.9407558441162</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4051856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7728538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7243595123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5982723236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.210298538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.375186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6176681518555</t>
+    <t xml:space="preserve">23.4051818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7728500366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7243576049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5982666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2103004455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6176624298096</t>
   </si>
   <si>
     <t xml:space="preserve">23.5400714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">23.249095916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0153369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8504486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3072929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8989410400391</t>
+    <t xml:space="preserve">23.2490921020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0153350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8504467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3072910308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8989429473877</t>
   </si>
   <si>
     <t xml:space="preserve">23.8795471191406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4517974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9668407440186</t>
+    <t xml:space="preserve">24.4518013000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9668369293213</t>
   </si>
   <si>
     <t xml:space="preserve">24.1705188751221</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3354110717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3936023712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778884887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1879653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9154109954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3635292053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2461624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0909729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6545085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5196971893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.985258102417</t>
+    <t xml:space="preserve">24.335412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3936061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3451099395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1879711151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9154090881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3635272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2461605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0909748077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6545066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5196952819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9852542877197</t>
   </si>
   <si>
     <t xml:space="preserve">25.8678932189941</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5662384033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4013500213623</t>
+    <t xml:space="preserve">26.5662364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4013519287109</t>
   </si>
   <si>
     <t xml:space="preserve">26.7214241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4100742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7204456329346</t>
+    <t xml:space="preserve">27.4100704193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7204494476318</t>
   </si>
   <si>
     <t xml:space="preserve">28.4672889709473</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0793190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3324794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0027084350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2442073822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8368358612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4993228912354</t>
+    <t xml:space="preserve">28.0793170928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3324775695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0027027130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.244213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8368377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4391689300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.499324798584</t>
   </si>
   <si>
     <t xml:space="preserve">25.3053359985352</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8872909545898</t>
+    <t xml:space="preserve">25.8872871398926</t>
   </si>
   <si>
     <t xml:space="preserve">24.1123294830322</t>
@@ -2960,160 +2960,160 @@
     <t xml:space="preserve">23.5788669586182</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2287216186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6952610015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5895462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3005218505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4654121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0580444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5992832183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0033283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7551765441895</t>
+    <t xml:space="preserve">24.2287158966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6952629089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.589542388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3005256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4654064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0580406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572902679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5992813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0033302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7551794052124</t>
   </si>
   <si>
     <t xml:space="preserve">13.5850696563721</t>
   </si>
   <si>
-    <t xml:space="preserve">14.679856300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4826984405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6384000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.896089553833</t>
+    <t xml:space="preserve">14.6798553466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4826965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6384038925171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8960914611816</t>
   </si>
   <si>
     <t xml:space="preserve">18.9178886413574</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6892032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9739456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838348388672</t>
+    <t xml:space="preserve">18.6892070770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9739437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838310241699</t>
   </si>
   <si>
     <t xml:space="preserve">19.3412094116211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4264583587646</t>
+    <t xml:space="preserve">18.4264507293701</t>
   </si>
   <si>
     <t xml:space="preserve">17.9885406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4581832885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0687274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0467338562012</t>
+    <t xml:space="preserve">17.4581775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0687255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0467376708984</t>
   </si>
   <si>
     <t xml:space="preserve">20.6306228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5745735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4967250823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8521099090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.066198348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8155212402344</t>
+    <t xml:space="preserve">21.5745697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4967193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.852108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0661964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8155193328857</t>
   </si>
   <si>
     <t xml:space="preserve">20.5333080291748</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1757736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7765960693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7594661712646</t>
+    <t xml:space="preserve">19.1757698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7765941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.759464263916</t>
   </si>
   <si>
     <t xml:space="preserve">22.0416774749756</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2581043243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.637638092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2896385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0732078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8275909423828</t>
+    <t xml:space="preserve">23.2581062316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6376323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2896366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0732097625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8275890350342</t>
   </si>
   <si>
     <t xml:space="preserve">22.1681880950928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2946929931641</t>
+    <t xml:space="preserve">22.2946949005127</t>
   </si>
   <si>
     <t xml:space="preserve">22.5769081115723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7715396881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2655029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0634803771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6718826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0393409729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6134967803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8957042694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923564910889</t>
+    <t xml:space="preserve">22.7715358734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2655010223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0634784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6718864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0393447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6135005950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8957080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923583984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.3410186767578</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">21.6329612731934</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3336219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1463871002197</t>
+    <t xml:space="preserve">22.3336200714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1463890075684</t>
   </si>
   <si>
     <t xml:space="preserve">21.6232280731201</t>
@@ -3134,55 +3134,55 @@
     <t xml:space="preserve">21.7205410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1389923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9782314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6279029846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.37721824646</t>
+    <t xml:space="preserve">22.1389942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9782333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6279010772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3772201538086</t>
   </si>
   <si>
     <t xml:space="preserve">23.3359603881836</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4040775299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3920059204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3141593933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2071151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1899871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3651523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6765613555908</t>
+    <t xml:space="preserve">23.4040794372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3920116424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3141574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2071113586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1899890899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3651542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6765594482422</t>
   </si>
   <si>
     <t xml:space="preserve">23.5500507354736</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0938282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469635009766</t>
+    <t xml:space="preserve">23.0938262939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469692230225</t>
   </si>
   <si>
     <t xml:space="preserve">23.1328201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1133193969727</t>
+    <t xml:space="preserve">23.1133213043213</t>
   </si>
   <si>
     <t xml:space="preserve">22.8793659210205</t>
@@ -3191,40 +3191,40 @@
     <t xml:space="preserve">22.9183597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6104888916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4155216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6202392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0491619110107</t>
+    <t xml:space="preserve">23.6104869842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4155197143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6202373504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0491638183594</t>
   </si>
   <si>
     <t xml:space="preserve">23.9321804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2400512695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5227546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7120532989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2092189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1466484069824</t>
+    <t xml:space="preserve">23.2400493621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5227527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7120552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2092170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1466522216797</t>
   </si>
   <si>
     <t xml:space="preserve">24.8777732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9070205688477</t>
+    <t xml:space="preserve">24.9070167541504</t>
   </si>
   <si>
     <t xml:space="preserve">25.5016689300537</t>
@@ -3233,10 +3233,10 @@
     <t xml:space="preserve">26.1060657501221</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8136138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0085830688477</t>
+    <t xml:space="preserve">25.8136119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0085849761963</t>
   </si>
   <si>
     <t xml:space="preserve">25.9013500213623</t>
@@ -3245,106 +3245,106 @@
     <t xml:space="preserve">25.2384624481201</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4919185638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1563949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9614276885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0645790100098</t>
+    <t xml:space="preserve">25.4919147491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1563968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0645809173584</t>
   </si>
   <si>
     <t xml:space="preserve">23.2108039855957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.951681137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0686588287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.785961151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7274646759033</t>
+    <t xml:space="preserve">23.9516792297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0686626434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7859592437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7274684906006</t>
   </si>
   <si>
     <t xml:space="preserve">23.8736953735352</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5617485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3903617858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8387756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.673059463501</t>
+    <t xml:space="preserve">23.56174659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.39035987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8387794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6730575561523</t>
   </si>
   <si>
     <t xml:space="preserve">24.0784130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4683437347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1174011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1368980407715</t>
+    <t xml:space="preserve">24.4683418273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1174049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1368999481201</t>
   </si>
   <si>
     <t xml:space="preserve">23.707971572876</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4585971832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6633110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3554401397705</t>
+    <t xml:space="preserve">24.4585952758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6633071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3554420471191</t>
   </si>
   <si>
     <t xml:space="preserve">24.9557609558105</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6340637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5073356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8680229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3456897735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5909938812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0255908966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5325031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7233867645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3221206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5755710601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7607917785645</t>
+    <t xml:space="preserve">24.6340618133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5073318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8680286407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3456935882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5909900665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0255870819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5325050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.723388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3221187591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5755748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7607975006104</t>
   </si>
   <si>
     <t xml:space="preserve">25.6868858337402</t>
@@ -3353,64 +3353,64 @@
     <t xml:space="preserve">25.9305953979492</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1353130340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431781768799</t>
+    <t xml:space="preserve">26.135311126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431743621826</t>
   </si>
   <si>
     <t xml:space="preserve">25.287202835083</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6349563598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7228317260742</t>
+    <t xml:space="preserve">24.6349582672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7228374481201</t>
   </si>
   <si>
     <t xml:space="preserve">24.918119430542</t>
   </si>
   <si>
-    <t xml:space="preserve">25.064582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4591999053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.142692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5723209381104</t>
+    <t xml:space="preserve">25.0645847320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4592018127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1426944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5723152160645</t>
   </si>
   <si>
     <t xml:space="preserve">25.6308994293213</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4177379608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052913665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3982086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3689250946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5642070770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8375988006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5894432067871</t>
+    <t xml:space="preserve">27.4177417755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052875518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3982124328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3689231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5642032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8375968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5894393920898</t>
   </si>
   <si>
     <t xml:space="preserve">28.9800052642822</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1752948760986</t>
+    <t xml:space="preserve">29.1752891540527</t>
   </si>
   <si>
     <t xml:space="preserve">28.8237800598145</t>
@@ -3419,61 +3419,61 @@
     <t xml:space="preserve">28.4136867523193</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5503845214844</t>
+    <t xml:space="preserve">28.5503826141357</t>
   </si>
   <si>
     <t xml:space="preserve">28.7554302215576</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4527416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.257453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9840602874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.935245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3005714416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5584945678711</t>
+    <t xml:space="preserve">28.4527435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2574577331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9840621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9352436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.300573348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5584964752197</t>
   </si>
   <si>
     <t xml:space="preserve">25.3282127380371</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9140586853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5527896881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0507621765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8026027679443</t>
+    <t xml:space="preserve">25.9140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5527877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0507564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8026008605957</t>
   </si>
   <si>
     <t xml:space="preserve">27.2810459136963</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1402912139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3160457611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7611351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9742965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4722690582275</t>
+    <t xml:space="preserve">28.140287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3160419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7611408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9742984771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4722709655762</t>
   </si>
   <si>
     <t xml:space="preserve">28.0426425933838</t>
@@ -3482,103 +3482,103 @@
     <t xml:space="preserve">28.2769832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0776500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9897708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4096279144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7123184204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3762817382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5813293457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6887321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2257652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7725582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4560356140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0557136535645</t>
+    <t xml:space="preserve">29.0776443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9897727966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.409631729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7123203277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762798309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5813255310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6887359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2257595062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7725448608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4560470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0557174682617</t>
   </si>
   <si>
     <t xml:space="preserve">33.500804901123</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6317977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8758964538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.295768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.578929901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2338733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7456665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3178539276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5205841064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3348007202148</t>
+    <t xml:space="preserve">32.6317939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.875904083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2957611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5789222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1785926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2338771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7456684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3178577423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5205860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3347988128662</t>
   </si>
   <si>
     <t xml:space="preserve">28.992561340332</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3445796966553</t>
+    <t xml:space="preserve">29.3445816040039</t>
   </si>
   <si>
     <t xml:space="preserve">28.4351978302002</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5108089447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6574802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7357044219971</t>
+    <t xml:space="preserve">29.5108108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6574764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7357063293457</t>
   </si>
   <si>
     <t xml:space="preserve">29.4716968536377</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8726005554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.016658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3002281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3882312774658</t>
+    <t xml:space="preserve">29.8725986480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166645050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3002243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3882369995117</t>
   </si>
   <si>
     <t xml:space="preserve">31.6620254516602</t>
@@ -3587,70 +3587,70 @@
     <t xml:space="preserve">32.2682762145996</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6007461547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8843078613281</t>
+    <t xml:space="preserve">32.6007385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8843116760254</t>
   </si>
   <si>
     <t xml:space="preserve">32.9234237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1705017089844</t>
+    <t xml:space="preserve">32.1705055236816</t>
   </si>
   <si>
     <t xml:space="preserve">32.3660621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0238227844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7474136352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6594047546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8771514892578</t>
+    <t xml:space="preserve">32.0238265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7474098205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6594161987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8771476745605</t>
   </si>
   <si>
     <t xml:space="preserve">31.9260444641113</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9749336242676</t>
+    <t xml:space="preserve">31.9749298095703</t>
   </si>
   <si>
     <t xml:space="preserve">30.9775485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2780494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5322914123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1874351501465</t>
+    <t xml:space="preserve">32.2780532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.532283782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.187427520752</t>
   </si>
   <si>
     <t xml:space="preserve">33.1776580810547</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9625358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9723167419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5394592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8034591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.903865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0968132019043</t>
+    <t xml:space="preserve">32.9625244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9723205566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5394554138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.803466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9038696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0968170166016</t>
   </si>
   <si>
     <t xml:space="preserve">34.5759506225586</t>
@@ -3659,46 +3659,46 @@
     <t xml:space="preserve">34.7715187072754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3608322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6372375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1972160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.852352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0798683166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1900520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0140495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7109203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2806758880615</t>
+    <t xml:space="preserve">34.3608283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6372337341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1972198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8523559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0798835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1900444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.014045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7109146118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2806739807129</t>
   </si>
   <si>
     <t xml:space="preserve">30.7330913543701</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0681686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6868190765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6209888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8387260437012</t>
+    <t xml:space="preserve">30.0681667327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6868152618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6209850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8387241363525</t>
   </si>
   <si>
     <t xml:space="preserve">28.4254188537598</t>
@@ -3707,196 +3707,196 @@
     <t xml:space="preserve">29.2370166778564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4938697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.618371963501</t>
+    <t xml:space="preserve">28.4938640594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6183700561523</t>
   </si>
   <si>
     <t xml:space="preserve">29.0218944549561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.559700012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170616149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8921604156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1366138458252</t>
+    <t xml:space="preserve">29.5596981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1170597076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8921566009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1366157531738</t>
   </si>
   <si>
     <t xml:space="preserve">31.3527336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7162780761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.598783493042</t>
+    <t xml:space="preserve">30.7162799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5987815856934</t>
   </si>
   <si>
     <t xml:space="preserve">30.8044052124023</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5975284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2352352142334</t>
+    <t xml:space="preserve">31.5975227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2352333068848</t>
   </si>
   <si>
     <t xml:space="preserve">31.2646102905273</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8423194885254</t>
+    <t xml:space="preserve">31.8423156738281</t>
   </si>
   <si>
     <t xml:space="preserve">32.3955383300781</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4591789245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5081481933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4249114990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5864677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1605415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1164817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9108543395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9891872406006</t>
+    <t xml:space="preserve">32.4591751098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5081443786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4249153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5864791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1605377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1164779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9108638763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9891948699951</t>
   </si>
   <si>
     <t xml:space="preserve">31.2401313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0504550933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3980503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0491943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5289821624756</t>
+    <t xml:space="preserve">30.0504531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3980560302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0491905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5289859771729</t>
   </si>
   <si>
     <t xml:space="preserve">31.9353370666504</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0675239562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3331527709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4959697723389</t>
+    <t xml:space="preserve">32.0675277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3331546783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4959678649902</t>
   </si>
   <si>
     <t xml:space="preserve">30.0602436065674</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4237880706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1483688354492</t>
+    <t xml:space="preserve">29.4237861633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1483669281006</t>
   </si>
   <si>
     <t xml:space="preserve">29.4776401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3001327514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5119113922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5180644989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9354648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3124408721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5817089080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4299392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5866069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5768146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9831638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0614948272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3111801147461</t>
+    <t xml:space="preserve">30.3001384735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5119132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.51806640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9354629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3124389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5817070007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4299373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5866088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5768165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9831676483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0614967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3111839294434</t>
   </si>
   <si>
     <t xml:space="preserve">29.4433708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3993091583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6196193695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9916973114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0112819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8888854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8839874267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4874362945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9329509735107</t>
+    <t xml:space="preserve">29.3993072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6196212768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.99169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0112781524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8888874053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8839912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9329490661621</t>
   </si>
   <si>
     <t xml:space="preserve">29.5217037200928</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5559749603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9231586456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4421157836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7554492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9316959381104</t>
+    <t xml:space="preserve">29.5559768676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9231624603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4421138763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.755443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9316997528076</t>
   </si>
   <si>
     <t xml:space="preserve">30.8925266265869</t>
@@ -3908,52 +3908,52 @@
     <t xml:space="preserve">31.2009658813477</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8105564117432</t>
+    <t xml:space="preserve">29.8105545043945</t>
   </si>
   <si>
     <t xml:space="preserve">29.609432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.96262550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1882762908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2177124023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3599662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0263957977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1686553955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8358020782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1448440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0271129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674827575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3943061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.532377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7825584411621</t>
+    <t xml:space="preserve">29.9626274108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1882781982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2177066802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3599700927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5856189727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0263977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1686534881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8358001708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1448459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0271110534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674808502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.39430809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5323791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7825603485107</t>
   </si>
   <si>
     <t xml:space="preserve">31.8119869232178</t>
@@ -3962,28 +3962,28 @@
     <t xml:space="preserve">32.6017684936523</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9051971435547</t>
+    <t xml:space="preserve">31.9051952362061</t>
   </si>
   <si>
     <t xml:space="preserve">31.5618076324463</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7474975585938</t>
+    <t xml:space="preserve">30.7474994659424</t>
   </si>
   <si>
     <t xml:space="preserve">30.5071334838867</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7187919616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7089748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5674285888672</t>
+    <t xml:space="preserve">31.7187881469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7089672088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5674362182617</t>
   </si>
   <si>
     <t xml:space="preserve">34.3775520324707</t>
@@ -3992,40 +3992,40 @@
     <t xml:space="preserve">33.8722877502441</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4020729064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4462280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8386650085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1035575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2703475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8148536682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6922187805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5450439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9080581665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8001365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8295707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4126167297363</t>
+    <t xml:space="preserve">34.4020767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.446231842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8386611938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1035537719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2703437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8148574829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6922149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.545051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9080543518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8001403808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8295669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4126091003418</t>
   </si>
   <si>
     <t xml:space="preserve">35.7903251647949</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">35.162425994873</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6971168518066</t>
+    <t xml:space="preserve">35.6971206665039</t>
   </si>
   <si>
     <t xml:space="preserve">35.7952346801758</t>
@@ -4043,10 +4043,10 @@
     <t xml:space="preserve">35.9423904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0944709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246688842773</t>
+    <t xml:space="preserve">36.0944633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246650695801</t>
   </si>
   <si>
     <t xml:space="preserve">36.5899200439453</t>
@@ -4058,16 +4058,16 @@
     <t xml:space="preserve">36.9676361083984</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2227210998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2031059265137</t>
+    <t xml:space="preserve">37.2227249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2030982971191</t>
   </si>
   <si>
     <t xml:space="preserve">37.1785736083984</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4974327087402</t>
+    <t xml:space="preserve">37.4974250793457</t>
   </si>
   <si>
     <t xml:space="preserve">37.487621307373</t>
@@ -4076,31 +4076,31 @@
     <t xml:space="preserve">36.8155746459961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9431114196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5317687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3993186950684</t>
+    <t xml:space="preserve">36.9431037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5317726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3993225097656</t>
   </si>
   <si>
     <t xml:space="preserve">38.7532386779785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8513374328613</t>
+    <t xml:space="preserve">38.8513336181641</t>
   </si>
   <si>
     <t xml:space="preserve">39.2045364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1302375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5652389526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1105842590332</t>
+    <t xml:space="preserve">38.130241394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5652351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1105880737305</t>
   </si>
   <si>
     <t xml:space="preserve">38.4102821350098</t>
@@ -4112,175 +4112,175 @@
     <t xml:space="preserve">38.808235168457</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8622817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9118003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.833194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1083183288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6612358093262</t>
+    <t xml:space="preserve">38.8622779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9117965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.108325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6612396240234</t>
   </si>
   <si>
     <t xml:space="preserve">35.4133186340332</t>
   </si>
   <si>
-    <t xml:space="preserve">36.297664642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6933670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2485313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3985862731934</t>
+    <t xml:space="preserve">36.2976608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6933555603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.24853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3985786437988</t>
   </si>
   <si>
     <t xml:space="preserve">35.3297958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7549629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2413673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7867088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8997077941895</t>
+    <t xml:space="preserve">34.7549667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2413597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7867126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.899715423584</t>
   </si>
   <si>
     <t xml:space="preserve">36.071662902832</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4008407592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8037147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.260627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6094627380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1597175598145</t>
+    <t xml:space="preserve">36.4008369445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2606163024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6094512939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1597137451172</t>
   </si>
   <si>
     <t xml:space="preserve">38.1646308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6113319396973</t>
+    <t xml:space="preserve">40.611328125</t>
   </si>
   <si>
     <t xml:space="preserve">40.183895111084</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4197158813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0043754577637</t>
+    <t xml:space="preserve">40.4197235107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0043716430664</t>
   </si>
   <si>
     <t xml:space="preserve">41.662727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6453323364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2938575744629</t>
+    <t xml:space="preserve">42.6453399658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2938690185547</t>
   </si>
   <si>
     <t xml:space="preserve">43.893253326416</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5198593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6649932861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4707374572754</t>
+    <t xml:space="preserve">43.5198631286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.664981842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4707336425781</t>
   </si>
   <si>
     <t xml:space="preserve">44.0209922790527</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1094245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3550796508789</t>
+    <t xml:space="preserve">44.1094284057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3550872802734</t>
   </si>
   <si>
     <t xml:space="preserve">44.9593925476074</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6203880310059</t>
+    <t xml:space="preserve">44.6203842163086</t>
   </si>
   <si>
     <t xml:space="preserve">44.993782043457</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9151725769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1120681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9302978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7583389282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1861572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2522926330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3505516052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1634788513184</t>
+    <t xml:space="preserve">44.9151649475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1120719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9302940368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7583351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1861610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2523002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3505554199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1634712219238</t>
   </si>
   <si>
     <t xml:space="preserve">41.2402076721191</t>
   </si>
   <si>
-    <t xml:space="preserve">41.156681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2991561889648</t>
+    <t xml:space="preserve">41.1566734313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2991600036621</t>
   </si>
   <si>
     <t xml:space="preserve">43.6918144226074</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4242477416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1392936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7807540893555</t>
+    <t xml:space="preserve">42.4242515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.139289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7807579040527</t>
   </si>
   <si>
     <t xml:space="preserve">41.0329132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9136047363281</t>
+    <t xml:space="preserve">41.9136009216309</t>
   </si>
   <si>
     <t xml:space="preserve">41.2592353820801</t>
@@ -4289,70 +4289,70 @@
     <t xml:space="preserve">40.7278747558594</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7081985473633</t>
+    <t xml:space="preserve">40.708194732666</t>
   </si>
   <si>
     <t xml:space="preserve">41.190357208252</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8201179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2530746459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2075614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3010368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0943946838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0599594116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.538444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9222030639648</t>
+    <t xml:space="preserve">41.8201141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2530784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2075691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3010406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0943984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0599632263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5384368896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9221992492676</t>
   </si>
   <si>
     <t xml:space="preserve">42.1349983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6749687194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971244812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792793273926</t>
+    <t xml:space="preserve">43.6749649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1792755126953</t>
   </si>
   <si>
     <t xml:space="preserve">43.1977272033691</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2776756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9271240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9824752807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6737594604492</t>
+    <t xml:space="preserve">42.2776794433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.927116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.982479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6737480163574</t>
   </si>
   <si>
     <t xml:space="preserve">40.7721557617188</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9997138977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0759811401367</t>
+    <t xml:space="preserve">39.9997100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0759887695312</t>
   </si>
   <si>
     <t xml:space="preserve">38.0120277404785</t>
@@ -4361,22 +4361,22 @@
     <t xml:space="preserve">39.2026710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9603538513184</t>
+    <t xml:space="preserve">39.9603462219238</t>
   </si>
   <si>
     <t xml:space="preserve">39.3551864624023</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5901107788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8016815185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6934356689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0353927612305</t>
+    <t xml:space="preserve">40.5901145935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8016777038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0353889465332</t>
   </si>
   <si>
     <t xml:space="preserve">38.2186698913574</t>
@@ -4388,34 +4388,34 @@
     <t xml:space="preserve">38.7155876159668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2063522338867</t>
+    <t xml:space="preserve">40.2063674926758</t>
   </si>
   <si>
     <t xml:space="preserve">40.0341567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">39.360107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4745101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1042747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2469482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4941825866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6282691955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9640655517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.091983795166</t>
+    <t xml:space="preserve">39.3601112365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4745063781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1042709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.246955871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4941902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6282615661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9640617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0919876098633</t>
   </si>
   <si>
     <t xml:space="preserve">36.8754997253418</t>
@@ -4427,22 +4427,22 @@
     <t xml:space="preserve">37.6823883056641</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3527450561523</t>
+    <t xml:space="preserve">37.3527412414551</t>
   </si>
   <si>
     <t xml:space="preserve">36.299861907959</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2162170410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9505424499512</t>
+    <t xml:space="preserve">36.2162208557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9505500793457</t>
   </si>
   <si>
     <t xml:space="preserve">33.451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0182113647461</t>
+    <t xml:space="preserve">33.0182151794434</t>
   </si>
   <si>
     <t xml:space="preserve">32.1670532226562</t>
@@ -4454,61 +4454,61 @@
     <t xml:space="preserve">34.5680198669434</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4302635192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0760116577148</t>
+    <t xml:space="preserve">34.4302558898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0760154724121</t>
   </si>
   <si>
     <t xml:space="preserve">34.5778579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1707077026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0329360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1202697753906</t>
+    <t xml:space="preserve">37.1707038879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0329437255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1202735900879</t>
   </si>
   <si>
     <t xml:space="preserve">38.2089653015137</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6130294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5341911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3275375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6133499145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7414665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8206176757812</t>
+    <t xml:space="preserve">38.6130332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5341835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3275413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6133422851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7414703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8206100463867</t>
   </si>
   <si>
     <t xml:space="preserve">40.1356735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">39.036808013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1399765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1048545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.079906463623</t>
+    <t xml:space="preserve">39.0368041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0907020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1399841308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1048583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0799140930176</t>
   </si>
   <si>
     <t xml:space="preserve">34.7349739074707</t>
@@ -4520,130 +4520,130 @@
     <t xml:space="preserve">34.3654022216797</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2766990661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1978645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.695240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.099308013916</t>
+    <t xml:space="preserve">34.2767028808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1978607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6952362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0993041992188</t>
   </si>
   <si>
     <t xml:space="preserve">35.2031059265137</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4642677307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7941131591797</t>
+    <t xml:space="preserve">35.4642601013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7941055297852</t>
   </si>
   <si>
     <t xml:space="preserve">34.7743988037109</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3506126403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5181617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0848388671875</t>
+    <t xml:space="preserve">34.3506164550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5181655883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0848426818848</t>
   </si>
   <si>
     <t xml:space="preserve">35.2523803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.360481262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.178466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.50830078125</t>
+    <t xml:space="preserve">34.3604736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1784629821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5082969665527</t>
   </si>
   <si>
     <t xml:space="preserve">34.6068572998047</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2471351623535</t>
+    <t xml:space="preserve">34.2471389770508</t>
   </si>
   <si>
     <t xml:space="preserve">32.9117469787598</t>
   </si>
   <si>
-    <t xml:space="preserve">32.951171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8824920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.232666015625</t>
+    <t xml:space="preserve">32.9511680603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.882495880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2326698303223</t>
   </si>
   <si>
     <t xml:space="preserve">37.3564834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6222610473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5979385375977</t>
+    <t xml:space="preserve">36.622257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5979347229004</t>
   </si>
   <si>
     <t xml:space="preserve">36.7799491882324</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7898025512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2132682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3167457580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0601959228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2474479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.883113861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7257385253906</t>
+    <t xml:space="preserve">36.7898063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.213264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3167495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0601997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8831100463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7257423400879</t>
   </si>
   <si>
     <t xml:space="preserve">37.2825698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.646900177002</t>
+    <t xml:space="preserve">36.6469039916992</t>
   </si>
   <si>
     <t xml:space="preserve">36.5089302062988</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1593780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3413848876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5040016174316</t>
+    <t xml:space="preserve">37.1593742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3413887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5040054321289</t>
   </si>
   <si>
     <t xml:space="preserve">36.2625427246094</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4497947692871</t>
+    <t xml:space="preserve">36.4497909545898</t>
   </si>
   <si>
     <t xml:space="preserve">35.4839782714844</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9761161804199</t>
+    <t xml:space="preserve">33.9761123657227</t>
   </si>
   <si>
     <t xml:space="preserve">32.0986824035645</t>
@@ -4652,28 +4652,28 @@
     <t xml:space="preserve">32.0543365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2172622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.123010635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2511291503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9225635528564</t>
+    <t xml:space="preserve">33.2172660827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230087280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2511253356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1227626800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9225673675537</t>
   </si>
   <si>
     <t xml:space="preserve">31.2807521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4091091156006</t>
+    <t xml:space="preserve">30.7327461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4091129302979</t>
   </si>
   <si>
     <t xml:space="preserve">31.4436702728271</t>
@@ -4682,64 +4682,64 @@
     <t xml:space="preserve">31.0437755584717</t>
   </si>
   <si>
-    <t xml:space="preserve">30.401969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6071166992188</t>
+    <t xml:space="preserve">30.4019680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6071147918701</t>
   </si>
   <si>
     <t xml:space="preserve">28.7382030487061</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2000713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.65700340271</t>
+    <t xml:space="preserve">28.2000694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6569995880127</t>
   </si>
   <si>
     <t xml:space="preserve">28.9949245452881</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8095283508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4365253448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3772811889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7179355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7524948120117</t>
+    <t xml:space="preserve">29.8095302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4365291595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3772792816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7179374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7524929046631</t>
   </si>
   <si>
     <t xml:space="preserve">30.8512325286865</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8731880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2335929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6384201049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3690948486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6356887817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5023994445801</t>
+    <t xml:space="preserve">31.8731861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2335891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.638427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3690986633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6356925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5023956298828</t>
   </si>
   <si>
     <t xml:space="preserve">33.7245559692383</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4234046936035</t>
+    <t xml:space="preserve">33.4234008789062</t>
   </si>
   <si>
     <t xml:space="preserve">34.558910369873</t>
@@ -4748,10 +4748,10 @@
     <t xml:space="preserve">35.8129043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4695205688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7953643798828</t>
+    <t xml:space="preserve">36.4695243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7953605651855</t>
   </si>
   <si>
     <t xml:space="preserve">37.1014633178711</t>
@@ -4772,76 +4772,76 @@
     <t xml:space="preserve">34.9736137390137</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1584854125977</t>
+    <t xml:space="preserve">36.1584892272949</t>
   </si>
   <si>
     <t xml:space="preserve">36.5337028503418</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6571273803711</t>
+    <t xml:space="preserve">36.6571235656738</t>
   </si>
   <si>
     <t xml:space="preserve">37.071834564209</t>
   </si>
   <si>
-    <t xml:space="preserve">35.487060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.637378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1315994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3093299865723</t>
+    <t xml:space="preserve">35.4870567321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6373825073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1316032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.309326171875</t>
   </si>
   <si>
     <t xml:space="preserve">35.447566986084</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0301284790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1266593933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6230888366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8353805541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3515548706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8430442810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1414794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.257755279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4848556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2105903625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6845436096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4744606018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.454719543457</t>
+    <t xml:space="preserve">36.0301322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1266670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6230926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8353843688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8430480957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.141471862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2577476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4848480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2105941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6845397949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4744567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4547157287598</t>
   </si>
   <si>
     <t xml:space="preserve">35.2402076721191</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4031295776367</t>
+    <t xml:space="preserve">35.4031372070312</t>
   </si>
   <si>
     <t xml:space="preserve">35.314266204834</t>
@@ -4859,13 +4859,13 @@
     <t xml:space="preserve">36.4623680114746</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2765045166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3912734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7325096130371</t>
+    <t xml:space="preserve">34.2765007019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3912773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7325019836426</t>
   </si>
   <si>
     <t xml:space="preserve">34.1380310058594</t>
@@ -4874,10 +4874,10 @@
     <t xml:space="preserve">33.2626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4675178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8977699279785</t>
+    <t xml:space="preserve">31.4675197601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8977680206299</t>
   </si>
   <si>
     <t xml:space="preserve">32.3428573608398</t>
@@ -4886,34 +4886,34 @@
     <t xml:space="preserve">34.0935211181641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5930061340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1419448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2923736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.654411315918</t>
+    <t xml:space="preserve">34.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1419410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.292366027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6544151306152</t>
   </si>
   <si>
     <t xml:space="preserve">31.655445098877</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4081764221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1499862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6455535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2241668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4516525268555</t>
+    <t xml:space="preserve">31.4081745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1499824523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6455554962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2241706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4516487121582</t>
   </si>
   <si>
     <t xml:space="preserve">32.4467086791992</t>
@@ -4931,7 +4931,7 @@
     <t xml:space="preserve">34.8155517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5485000610352</t>
+    <t xml:space="preserve">34.5484962463379</t>
   </si>
   <si>
     <t xml:space="preserve">32.1450347900391</t>
@@ -4943,19 +4943,19 @@
     <t xml:space="preserve">31.2548675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4625720977783</t>
+    <t xml:space="preserve">31.462574005127</t>
   </si>
   <si>
     <t xml:space="preserve">31.0620002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5674591064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5911560058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7494049072266</t>
+    <t xml:space="preserve">30.5674610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5911540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7494068145752</t>
   </si>
   <si>
     <t xml:space="preserve">33.1341171264648</t>
@@ -4964,13 +4964,13 @@
     <t xml:space="preserve">32.8176116943359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4782371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5909461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2486839294434</t>
+    <t xml:space="preserve">35.4782333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5909423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2486801147461</t>
   </si>
   <si>
     <t xml:space="preserve">36.2744369506836</t>
@@ -4979,25 +4979,25 @@
     <t xml:space="preserve">36.2942237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5761070251465</t>
+    <t xml:space="preserve">36.5761108398438</t>
   </si>
   <si>
     <t xml:space="preserve">36.5315971374512</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5711631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9766883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0162467956543</t>
+    <t xml:space="preserve">36.571159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9766845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0162506103516</t>
   </si>
   <si>
     <t xml:space="preserve">36.7689781188965</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9727630615234</t>
+    <t xml:space="preserve">35.9727668762207</t>
   </si>
   <si>
     <t xml:space="preserve">35.3545989990234</t>
@@ -5009,19 +5009,19 @@
     <t xml:space="preserve">36.4772033691406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2991676330566</t>
+    <t xml:space="preserve">36.2991714477539</t>
   </si>
   <si>
     <t xml:space="preserve">36.2497138977051</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8244132995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3100891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0222206115723</t>
+    <t xml:space="preserve">35.8244094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3100929260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0222244262695</t>
   </si>
   <si>
     <t xml:space="preserve">36.4870910644531</t>
@@ -5036,37 +5036,37 @@
     <t xml:space="preserve">36.8883209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0604972839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6047821044922</t>
+    <t xml:space="preserve">35.0605010986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6047859191895</t>
   </si>
   <si>
     <t xml:space="preserve">34.3125267028809</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2085037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8078689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5596046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2970695495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9206085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5144271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2079048156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6977005004883</t>
+    <t xml:space="preserve">34.2085075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8078651428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5595970153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2970733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9206047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5144233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2079124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6977043151855</t>
   </si>
   <si>
     <t xml:space="preserve">33.1286506652832</t>
@@ -5075,7 +5075,7 @@
     <t xml:space="preserve">33.2376289367676</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0896148681641</t>
+    <t xml:space="preserve">34.0896186828613</t>
   </si>
   <si>
     <t xml:space="preserve">34.2580413818359</t>
@@ -5090,28 +5090,28 @@
     <t xml:space="preserve">36.7743873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0072021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4975891113281</t>
+    <t xml:space="preserve">37.0072059631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4975929260254</t>
   </si>
   <si>
     <t xml:space="preserve">37.6115226745605</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3892097473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1421356201172</t>
+    <t xml:space="preserve">38.3892135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">37.6709632873535</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7105865478516</t>
+    <t xml:space="preserve">37.7105903625488</t>
   </si>
   <si>
     <t xml:space="preserve">38.6963272094727</t>
@@ -5120,25 +5120,25 @@
     <t xml:space="preserve">38.7409057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0678329467773</t>
+    <t xml:space="preserve">39.0678405761719</t>
   </si>
   <si>
     <t xml:space="preserve">42.2727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2534942626953</t>
+    <t xml:space="preserve">43.2535018920898</t>
   </si>
   <si>
     <t xml:space="preserve">43.1891059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7086219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7934265136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.101131439209</t>
+    <t xml:space="preserve">42.7086181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7934303283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1011352539062</t>
   </si>
   <si>
     <t xml:space="preserve">45.6905937194824</t>
@@ -5147,52 +5147,52 @@
     <t xml:space="preserve">44.689998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8485107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7940216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7302207946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5067176818848</t>
+    <t xml:space="preserve">44.8485069274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7940139770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7302169799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.506721496582</t>
   </si>
   <si>
     <t xml:space="preserve">44.9277610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1853408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7500419616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0670585632324</t>
+    <t xml:space="preserve">45.1853370666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7500381469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0670547485352</t>
   </si>
   <si>
     <t xml:space="preserve">45.4875068664551</t>
   </si>
   <si>
-    <t xml:space="preserve">44.977294921875</t>
+    <t xml:space="preserve">44.9772987365723</t>
   </si>
   <si>
     <t xml:space="preserve">44.6057891845703</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1847457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8138389587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1996040344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1358070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2695541381836</t>
+    <t xml:space="preserve">44.184741973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.813835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1996116638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1358108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2695503234863</t>
   </si>
   <si>
     <t xml:space="preserve">43.8033332824707</t>
@@ -5207,25 +5207,25 @@
     <t xml:space="preserve">44.571117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5871734619141</t>
+    <t xml:space="preserve">46.5871658325195</t>
   </si>
   <si>
     <t xml:space="preserve">45.8193817138672</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9766998291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4478721618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6943550109863</t>
+    <t xml:space="preserve">43.9767036437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4478759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6943511962891</t>
   </si>
   <si>
     <t xml:space="preserve">44.8534660339355</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0218811035156</t>
+    <t xml:space="preserve">45.0218772888184</t>
   </si>
   <si>
     <t xml:space="preserve">45.5476417541504</t>
@@ -5237,13 +5237,13 @@
     <t xml:space="preserve">46.8173980712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0466842651367</t>
+    <t xml:space="preserve">45.0466804504395</t>
   </si>
   <si>
     <t xml:space="preserve">45.4682807922363</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1737174987793</t>
+    <t xml:space="preserve">44.1737213134766</t>
   </si>
   <si>
     <t xml:space="preserve">46.9661979675293</t>
@@ -5267,28 +5267,28 @@
     <t xml:space="preserve">45.5823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0833206176758</t>
+    <t xml:space="preserve">46.083324432373</t>
   </si>
   <si>
     <t xml:space="preserve">45.2798004150391</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9791603088379</t>
+    <t xml:space="preserve">45.9791564941406</t>
   </si>
   <si>
     <t xml:space="preserve">45.7609214782715</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3789978027344</t>
+    <t xml:space="preserve">45.3790016174316</t>
   </si>
   <si>
     <t xml:space="preserve">45.6716384887695</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7094039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0378799438477</t>
+    <t xml:space="preserve">44.709400177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0378837585449</t>
   </si>
   <si>
     <t xml:space="preserve">42.8593292236328</t>
@@ -5300,28 +5300,28 @@
     <t xml:space="preserve">41.5449256896973</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9615592956543</t>
+    <t xml:space="preserve">41.9615631103516</t>
   </si>
   <si>
     <t xml:space="preserve">38.3010864257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.246524810791</t>
+    <t xml:space="preserve">38.2465286254883</t>
   </si>
   <si>
     <t xml:space="preserve">38.8268432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1572456359863</t>
+    <t xml:space="preserve">38.1572494506836</t>
   </si>
   <si>
     <t xml:space="preserve">37.2743682861328</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2514839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4002838134766</t>
+    <t xml:space="preserve">38.2514877319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4002876281738</t>
   </si>
   <si>
     <t xml:space="preserve">38.3110046386719</t>
@@ -5333,22 +5333,22 @@
     <t xml:space="preserve">37.9588470458984</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6334075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4548416137695</t>
+    <t xml:space="preserve">38.6334037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4548454284668</t>
   </si>
   <si>
     <t xml:space="preserve">39.1690864562988</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4270057678223</t>
+    <t xml:space="preserve">39.427001953125</t>
   </si>
   <si>
     <t xml:space="preserve">40.8207664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">41.207649230957</t>
+    <t xml:space="preserve">41.2076454162598</t>
   </si>
   <si>
     <t xml:space="preserve">41.4705200195312</t>
@@ -5360,25 +5360,25 @@
     <t xml:space="preserve">38.9558029174805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8466911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3594818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8337249755859</t>
+    <t xml:space="preserve">38.8466835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3594856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8337287902832</t>
   </si>
   <si>
     <t xml:space="preserve">40.3495635986328</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2454071044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4159622192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6639595031738</t>
+    <t xml:space="preserve">40.2454032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4159660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6639633178711</t>
   </si>
   <si>
     <t xml:space="preserve">41.2374038696289</t>
@@ -5390,16 +5390,16 @@
     <t xml:space="preserve">42.7551612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2164459228516</t>
+    <t xml:space="preserve">43.2164421081543</t>
   </si>
   <si>
     <t xml:space="preserve">43.7273216247559</t>
   </si>
   <si>
-    <t xml:space="preserve">45.066520690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.274845123291</t>
+    <t xml:space="preserve">45.0665168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2748413085938</t>
   </si>
   <si>
     <t xml:space="preserve">45.8005981445312</t>
@@ -5411,7 +5411,7 @@
     <t xml:space="preserve">45.2550010681152</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6201248168945</t>
+    <t xml:space="preserve">44.6201210021973</t>
   </si>
   <si>
     <t xml:space="preserve">44.203483581543</t>
@@ -5420,10 +5420,10 @@
     <t xml:space="preserve">43.2065200805664</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3602867126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3038024902344</t>
+    <t xml:space="preserve">43.360279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3037986755371</t>
   </si>
   <si>
     <t xml:space="preserve">43.2276611328125</t>
@@ -63003,7 +63003,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6502430556</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>1800841</v>
@@ -63024,6 +63024,32 @@
         <v>2067</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6503935185</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>1703157</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>39.2649993896484</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>38.5750007629395</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>39.1100006103516</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>38.9249992370605</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="2071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="2072">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,100 +47,100 @@
     <t xml:space="preserve">5.37391948699951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24544143676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455720901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94418144226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06380033493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08152151107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01506757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89545011520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6473536491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72709989547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91760206222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86000680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99291658401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683460235596</t>
+    <t xml:space="preserve">5.2454400062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9441819190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06379985809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08152008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01506614685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89545059204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64735460281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72709941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91759967803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86000728607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99291515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683507919312</t>
   </si>
   <si>
     <t xml:space="preserve">5.18784713745117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32075595855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55555963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39606952667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32518482208252</t>
+    <t xml:space="preserve">5.32075643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55556011199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39607000350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32518625259399</t>
   </si>
   <si>
     <t xml:space="preserve">5.16126585006714</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70937967300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7492504119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56761074066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078199386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103479385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951505661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13787364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20698547363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29558944702148</t>
+    <t xml:space="preserve">4.70937776565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74924993515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56761026382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078056335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13787412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2069845199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29559135437012</t>
   </si>
   <si>
     <t xml:space="preserve">4.25128841400146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40900564193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63849544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60305118560791</t>
+    <t xml:space="preserve">4.40900611877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63849401473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60305213928223</t>
   </si>
   <si>
     <t xml:space="preserve">4.80241394042969</t>
@@ -149,46 +149,46 @@
     <t xml:space="preserve">4.68279695510864</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45242309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52773714065552</t>
+    <t xml:space="preserve">4.45242357254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52773761749268</t>
   </si>
   <si>
     <t xml:space="preserve">4.64292335510254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69608783721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78469181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355430603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82899475097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75811195373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73595905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064548492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57203912734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74038887023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62963438034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178394317627</t>
+    <t xml:space="preserve">4.6960883140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78469228744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79355478286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899522781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73596000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064596176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57204103469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74038982391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6296329498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178442001343</t>
   </si>
   <si>
     <t xml:space="preserve">4.549889087677</t>
@@ -197,250 +197,250 @@
     <t xml:space="preserve">4.53659725189209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50225591659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42815351486206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4715313911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42996072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41911554336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43176794052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40284967422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139680862427</t>
+    <t xml:space="preserve">4.50225687026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42815208435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47153043746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42996120452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41911649703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43176746368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4028491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34139585494995</t>
   </si>
   <si>
     <t xml:space="preserve">4.43357610702515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17692375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14800643920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32693815231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49321985244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501314163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52756118774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63600444793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55467128753662</t>
+    <t xml:space="preserve">4.17692279815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14800453186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32693862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49322032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52756023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63600492477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55467176437378</t>
   </si>
   <si>
     <t xml:space="preserve">4.69926452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6540789604187</t>
+    <t xml:space="preserve">4.65408039093018</t>
   </si>
   <si>
     <t xml:space="preserve">4.67667245864868</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66763544082642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58178329467773</t>
+    <t xml:space="preserve">4.66763496398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58178281784058</t>
   </si>
   <si>
     <t xml:space="preserve">5.15111684799194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08333778381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85289478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75800561904907</t>
+    <t xml:space="preserve">5.08333826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8528938293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75800657272339</t>
   </si>
   <si>
     <t xml:space="preserve">4.55015325546265</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41188716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36308670043945</t>
+    <t xml:space="preserve">4.4118857383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308526992798</t>
   </si>
   <si>
     <t xml:space="preserve">4.26006460189819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3142876625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26910018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19499778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22210884094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26729488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28355932235718</t>
+    <t xml:space="preserve">4.31428575515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2691011428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19499683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22210836410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26729393005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28356075286865</t>
   </si>
   <si>
     <t xml:space="preserve">4.64052391052246</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67215442657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79867267608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83933877944946</t>
+    <t xml:space="preserve">4.67215347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79867124557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83933734893799</t>
   </si>
   <si>
     <t xml:space="preserve">4.88904285430908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90259599685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91163444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84385681152344</t>
+    <t xml:space="preserve">4.90259838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91163492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84385824203491</t>
   </si>
   <si>
     <t xml:space="preserve">4.81674575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82126426696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79415369033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0020055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86645030975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5772647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49502801895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46068525314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44803428649902</t>
+    <t xml:space="preserve">4.82126331329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79415321350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00200510025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8664493560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57726430892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49502611160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46068668365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44803333282471</t>
   </si>
   <si>
     <t xml:space="preserve">4.54111623764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70117473602295</t>
+    <t xml:space="preserve">4.70117521286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.75605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82464933395386</t>
+    <t xml:space="preserve">4.82465219497681</t>
   </si>
   <si>
     <t xml:space="preserve">4.96641731262207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65544319152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55849409103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79263830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82007694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71946907043457</t>
+    <t xml:space="preserve">4.65544366836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55849456787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67373704910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82007741928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7194676399231</t>
   </si>
   <si>
     <t xml:space="preserve">4.57312822341919</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42130136489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834942817688</t>
+    <t xml:space="preserve">4.42130041122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48349475860596</t>
   </si>
   <si>
     <t xml:space="preserve">4.87952661514282</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94355010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92525959014893</t>
+    <t xml:space="preserve">4.94355058670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92525863647461</t>
   </si>
   <si>
     <t xml:space="preserve">4.95727062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04873275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1859278678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2225136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30940198898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799692153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94049310684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89933395385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96335983276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94506502151489</t>
+    <t xml:space="preserve">5.04873323440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18592739105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22251129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708511352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30940103530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3779993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049263000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89933586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9633584022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94506549835205</t>
   </si>
   <si>
     <t xml:space="preserve">5.7164101600647</t>
@@ -452,79 +452,79 @@
     <t xml:space="preserve">5.97250604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08226108551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09597873687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00451612472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1096978187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06396818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99079751968384</t>
+    <t xml:space="preserve">6.08225870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09598064422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00451755523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10969924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06396722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99079656600952</t>
   </si>
   <si>
     <t xml:space="preserve">6.18286895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15543127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799167633057</t>
+    <t xml:space="preserve">6.15542936325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12798976898193</t>
   </si>
   <si>
     <t xml:space="preserve">6.29262447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22860145568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18744134902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21945428848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16914892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13713836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11884546279907</t>
+    <t xml:space="preserve">6.22859954833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18744230270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21945476531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16915035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13713788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11884450912476</t>
   </si>
   <si>
     <t xml:space="preserve">5.95421266555786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96793270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04567575454712</t>
+    <t xml:space="preserve">5.96793127059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04567718505859</t>
   </si>
   <si>
     <t xml:space="preserve">6.19658803939819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2103066444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30634212493896</t>
+    <t xml:space="preserve">6.21030712127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30634260177612</t>
   </si>
   <si>
     <t xml:space="preserve">6.2697582244873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47275257110596</t>
+    <t xml:space="preserve">6.47275304794312</t>
   </si>
   <si>
     <t xml:space="preserve">6.56502389907837</t>
@@ -533,67 +533,67 @@
     <t xml:space="preserve">6.63422679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6895866394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63883972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886362075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5927038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67574691772461</t>
+    <t xml:space="preserve">6.68958806991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63883924484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886505126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59270429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574834823608</t>
   </si>
   <si>
     <t xml:space="preserve">6.45891237258911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66651964187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113351821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75879049301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85567617416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9294900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54195690155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6803617477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77724456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89258098602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75417852401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799339294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106134414673</t>
+    <t xml:space="preserve">6.66651916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75879001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85567378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92949104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188234329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54195547103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68036079406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77724504470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89258146286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75417804718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799386978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106039047241</t>
   </si>
   <si>
     <t xml:space="preserve">7.36316013336182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7691502571106</t>
+    <t xml:space="preserve">7.76914834976196</t>
   </si>
   <si>
     <t xml:space="preserve">8.02750492095947</t>
@@ -602,76 +602,76 @@
     <t xml:space="preserve">7.71378660202026</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385877609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48311233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4646577835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80605888366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91678285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765165328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6261305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78760385513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89371585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216897964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.295090675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5580587387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65955829620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62726020812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53499221801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52576637268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60880851745605</t>
+    <t xml:space="preserve">7.533860206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4831109046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46465635299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80605506896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91678190231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765356063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613105773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7876033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89371347427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216993331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508876800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55806064605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65955543518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62726211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53499126434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52576541900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60880947113037</t>
   </si>
   <si>
     <t xml:space="preserve">8.90407180786133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6826229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58112907409668</t>
+    <t xml:space="preserve">8.68262672424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58112812042236</t>
   </si>
   <si>
     <t xml:space="preserve">8.8164176940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93175029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92252826690674</t>
+    <t xml:space="preserve">8.93175220489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92252635955811</t>
   </si>
   <si>
     <t xml:space="preserve">9.34696865081787</t>
@@ -680,166 +680,166 @@
     <t xml:space="preserve">9.21317672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11629295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2916088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315425872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43001461029053</t>
+    <t xml:space="preserve">9.11629486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29160690307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315521240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001174926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.62378120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73514366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89291191101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931579589844</t>
+    <t xml:space="preserve">9.73514556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89291095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93931293487549</t>
   </si>
   <si>
     <t xml:space="preserve">9.86506938934326</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97643756866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599575042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0413970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0228385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321168899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79082775115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67946434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65161800384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47529315948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7629861831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93003177642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0042734146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87434864044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1898794174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1063632965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2455673217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3754920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.220009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6283464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035335540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6933116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2779741287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336563110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2130117416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4078998565674</t>
+    <t xml:space="preserve">9.97643566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599565505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0413990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0228366851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79082870483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67946243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65161895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47529411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76298713684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93003368377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0042753219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87434959411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1898851394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1063604354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692415237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.245569229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3754930496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2200078964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6283473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819463729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6933097839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2779760360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336572647095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2130146026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079008102417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1016464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9253187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232355117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0088424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0459642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.185170173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3986215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3429384231567</t>
+    <t xml:space="preserve">11.9253206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232364654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.008843421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0459651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1851711273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3986196517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3429365158081</t>
   </si>
   <si>
     <t xml:space="preserve">12.6027889251709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7605562210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224918365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2431392669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1410541534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4565877914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545045852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6329164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514720916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885995864868</t>
+    <t xml:space="preserve">12.7605533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224937438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2431383132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1410522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4565839767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6329135894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885948181152</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823432922363</t>
@@ -848,223 +848,223 @@
     <t xml:space="preserve">13.5122680664062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.72571849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1781749725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.206015586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524185180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4101848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4380235671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4937086105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3632440567017</t>
+    <t xml:space="preserve">13.7257175445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1781740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.206018447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524194717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4101858139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.438024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493709564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.363245010376</t>
   </si>
   <si>
     <t xml:space="preserve">12.7947931289673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9811697006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141418457031</t>
+    <t xml:space="preserve">12.9811735153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141427993774</t>
   </si>
   <si>
     <t xml:space="preserve">13.7825927734375</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3818845748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657526016235</t>
+    <t xml:space="preserve">13.3818836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657506942749</t>
   </si>
   <si>
     <t xml:space="preserve">13.4564323425293</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3912000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446073532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2607364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3352861404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6707668304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.586895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0929975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9998083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9532155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5804586410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7295637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388820648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582288742065</t>
+    <t xml:space="preserve">13.3912019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446054458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2607393264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3352851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6707677841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.586893081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.09299659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9998064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9532127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5804595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7295618057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7388801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582307815552</t>
   </si>
   <si>
     <t xml:space="preserve">13.7266798019409</t>
   </si>
   <si>
-    <t xml:space="preserve">13.493706703186</t>
+    <t xml:space="preserve">13.4937076568604</t>
   </si>
   <si>
     <t xml:space="preserve">13.8291864395142</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0807952880859</t>
+    <t xml:space="preserve">14.0807943344116</t>
   </si>
   <si>
     <t xml:space="preserve">13.8012313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0155639648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1367120742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3603601455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0342044830322</t>
+    <t xml:space="preserve">14.0155649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1367101669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3603630065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0342035293579</t>
   </si>
   <si>
     <t xml:space="preserve">14.285813331604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3230867385864</t>
+    <t xml:space="preserve">14.3230857849121</t>
   </si>
   <si>
     <t xml:space="preserve">13.6521282196045</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5216646194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.447114944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5403060913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7173643112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6987228393555</t>
+    <t xml:space="preserve">13.5216636657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4471130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5403032302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7173624038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6987257003784</t>
   </si>
   <si>
     <t xml:space="preserve">13.5030279159546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7919130325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775775909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5123481750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0248851776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2951335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1302728652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.925256729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.599100112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6456918716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0277643203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.692286491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041114807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4872722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1315641403198</t>
+    <t xml:space="preserve">13.7919111251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775785446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5123443603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0248804092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833047866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.295129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1302738189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9252576828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5990982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6456909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0277633666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922845840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4872703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1315622329712</t>
   </si>
   <si>
     <t xml:space="preserve">11.9911499023438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.700966835022</t>
+    <t xml:space="preserve">11.7009658813477</t>
   </si>
   <si>
     <t xml:space="preserve">11.7758541107178</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8601007461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7196893692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.03795337677</t>
+    <t xml:space="preserve">11.8600997924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.719690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379514694214</t>
   </si>
   <si>
     <t xml:space="preserve">12.1596450805664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3094158172607</t>
+    <t xml:space="preserve">12.3094177246094</t>
   </si>
   <si>
     <t xml:space="preserve">12.5715198516846</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5247135162354</t>
+    <t xml:space="preserve">12.5247163772583</t>
   </si>
   <si>
     <t xml:space="preserve">12.9365892410278</t>
@@ -1076,55 +1076,55 @@
     <t xml:space="preserve">12.9740324020386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7680940628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518869400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2454919815063</t>
+    <t xml:space="preserve">12.7680959701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518850326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454957962036</t>
   </si>
   <si>
     <t xml:space="preserve">13.3297414779663</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4139862060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6854524612427</t>
+    <t xml:space="preserve">13.4139881134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6854496002197</t>
   </si>
   <si>
     <t xml:space="preserve">13.666729927063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3203792572021</t>
+    <t xml:space="preserve">13.3203821182251</t>
   </si>
   <si>
     <t xml:space="preserve">13.5075969696045</t>
   </si>
   <si>
-    <t xml:space="preserve">13.451434135437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5731191635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6386451721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228956222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726654052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676422119141</t>
+    <t xml:space="preserve">13.4514331817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5731201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7322549819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6386470794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228918075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420709609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676393508911</t>
   </si>
   <si>
     <t xml:space="preserve">13.3859081268311</t>
@@ -1133,163 +1133,163 @@
     <t xml:space="preserve">13.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.28293800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5263175964355</t>
+    <t xml:space="preserve">13.2829351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5263166427612</t>
   </si>
   <si>
     <t xml:space="preserve">13.5169563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4233474731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4888782501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1986885070801</t>
+    <t xml:space="preserve">13.4233503341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4888763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701509475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986904144287</t>
   </si>
   <si>
     <t xml:space="preserve">13.2922964096069</t>
   </si>
   <si>
-    <t xml:space="preserve">13.648006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8071413040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.98499584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0317983627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160488128662</t>
+    <t xml:space="preserve">13.6480045318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8071403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0317993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160449981689</t>
   </si>
   <si>
     <t xml:space="preserve">14.4717559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5840845108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7900257110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7338571548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7432165145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0521211624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4280281066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5689659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2964849472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3246717453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904457092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7891092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.836088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.230712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3622608184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.982382774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696384429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850751876831</t>
+    <t xml:space="preserve">14.5840864181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.790020942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7338562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.743218421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0521230697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334005355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4280290603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5689697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2964859008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3246746063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7891101837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8360900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.19313621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3622589111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072198867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850732803345</t>
   </si>
   <si>
     <t xml:space="preserve">15.7662830352783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.794469833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6441326141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8226509094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8414459228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884229660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9917860031128</t>
+    <t xml:space="preserve">15.7944631576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8226537704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8414487838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8884239196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9917802810669</t>
   </si>
   <si>
     <t xml:space="preserve">16.1139259338379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6723203659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8602380752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.546142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6494941711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6414241790771</t>
+    <t xml:space="preserve">15.6723194122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.860239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5461368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6494960784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6414203643799</t>
   </si>
   <si>
     <t xml:space="preserve">18.7071914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1300067901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9984588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.355504989624</t>
+    <t xml:space="preserve">19.1300048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9984645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3555088043213</t>
   </si>
   <si>
     <t xml:space="preserve">19.2051734924316</t>
@@ -1298,67 +1298,67 @@
     <t xml:space="preserve">19.6937580108643</t>
   </si>
   <si>
-    <t xml:space="preserve">19.966236114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7125434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8816738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8011455535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2333564758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.895112991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2709445953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1018161773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3273162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7031497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1863746643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3461132049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.989070892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0172519683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7206249237061</t>
+    <t xml:space="preserve">19.9662380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7125415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8816814422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8011474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2333583831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8951091766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2709465026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1018199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273143768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7031517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1863803863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3461112976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9890689849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0172500610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7206230163574</t>
   </si>
   <si>
     <t xml:space="preserve">17.9085369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2602252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3729763031006</t>
+    <t xml:space="preserve">17.2602272033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.372974395752</t>
   </si>
   <si>
     <t xml:space="preserve">17.6454582214355</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9877433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2132358551025</t>
+    <t xml:space="preserve">16.9877490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2132472991943</t>
   </si>
   <si>
     <t xml:space="preserve">17.2226409912109</t>
@@ -1367,19 +1367,19 @@
     <t xml:space="preserve">17.4951210021973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4481430053711</t>
+    <t xml:space="preserve">17.4481410980225</t>
   </si>
   <si>
     <t xml:space="preserve">17.18505859375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5055694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.618688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3453140258789</t>
+    <t xml:space="preserve">17.5055637359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6186923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3453159332275</t>
   </si>
   <si>
     <t xml:space="preserve">17.4584369659424</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">17.4113006591797</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1567821502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3735866546631</t>
+    <t xml:space="preserve">17.1567783355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.373592376709</t>
   </si>
   <si>
     <t xml:space="preserve">17.9203510284424</t>
@@ -1403,79 +1403,79 @@
     <t xml:space="preserve">18.1748733520508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3162784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2408542633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802211761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8536033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.834753036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6462135314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.52366065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.230676651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2683792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0609874725342</t>
+    <t xml:space="preserve">18.3162708282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2408580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.580228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8536052703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8347492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6462097167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5236663818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2306728363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0609912872314</t>
   </si>
   <si>
     <t xml:space="preserve">18.9101581573486</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7223815917969</t>
+    <t xml:space="preserve">17.7223796844482</t>
   </si>
   <si>
     <t xml:space="preserve">17.854362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9769077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011173248291</t>
+    <t xml:space="preserve">17.9769096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011135101318</t>
   </si>
   <si>
     <t xml:space="preserve">18.3634090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1277351379395</t>
+    <t xml:space="preserve">18.1277389526367</t>
   </si>
   <si>
     <t xml:space="preserve">17.9674777984619</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4301586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5574169158936</t>
+    <t xml:space="preserve">17.4301509857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5574188232422</t>
   </si>
   <si>
     <t xml:space="preserve">17.0577926635742</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2887496948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2942295074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2046737670898</t>
+    <t xml:space="preserve">17.2887516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2942276000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2046718597412</t>
   </si>
   <si>
     <t xml:space="preserve">16.4686241149902</t>
@@ -1487,193 +1487,193 @@
     <t xml:space="preserve">16.8362674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0153732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0295104980469</t>
+    <t xml:space="preserve">17.0153751373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0295181274414</t>
   </si>
   <si>
     <t xml:space="preserve">16.958812713623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4065895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688831329346</t>
+    <t xml:space="preserve">17.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893901824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688793182373</t>
   </si>
   <si>
     <t xml:space="preserve">17.5904121398926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6139736175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7883682250977</t>
+    <t xml:space="preserve">17.6139755249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7883739471436</t>
   </si>
   <si>
     <t xml:space="preserve">17.7459545135498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0625076293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6524448394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1850547790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5566539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6650638580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8253192901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.33984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2597122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6603507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.72633934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4237689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8256225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2511138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3292140960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5822353363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.036096572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0763778686523</t>
+    <t xml:space="preserve">17.0625133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6524486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1850566864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5432777404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5566520690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6650619506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8253231048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3398456573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2597160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6603527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7263450622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4237670898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8256206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2511119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.329216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5822410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5916976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0360984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0763835906982</t>
   </si>
   <si>
     <t xml:space="preserve">17.0054683685303</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4996032714844</t>
+    <t xml:space="preserve">16.4996013641357</t>
   </si>
   <si>
     <t xml:space="preserve">16.097749710083</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5279655456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861331939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712371826172</t>
+    <t xml:space="preserve">16.5279731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712352752686</t>
   </si>
   <si>
     <t xml:space="preserve">16.9014587402344</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065975189209</t>
+    <t xml:space="preserve">16.6839847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5066032409668</t>
   </si>
   <si>
     <t xml:space="preserve">17.2749404907227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4309577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7429866790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4545917510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8683605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6177978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8116321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6887149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3505878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1472949981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9368152618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9509944915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.182653427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.816162109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5230541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7972526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8539848327637</t>
+    <t xml:space="preserve">17.4309539794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7429809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4545955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8683624267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6177921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8116283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6887073516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1472911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9368133544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9510021209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1826572418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8161659240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5230560302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7972564697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8539905548096</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187381744385</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2700214385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3078384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0620040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9390907287598</t>
+    <t xml:space="preserve">19.27001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3078422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0620059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9390830993652</t>
   </si>
   <si>
     <t xml:space="preserve">19.1376476287842</t>
@@ -1682,40 +1682,40 @@
     <t xml:space="preserve">19.0714645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7688903808594</t>
+    <t xml:space="preserve">18.7688865661621</t>
   </si>
   <si>
     <t xml:space="preserve">19.0998306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4307651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3362083435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1471004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.326753616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2605686187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2416572570801</t>
+    <t xml:space="preserve">19.4307613372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3362102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1471042633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267631530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.260570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2416553497314</t>
   </si>
   <si>
     <t xml:space="preserve">19.1943778991699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0264492034912</t>
+    <t xml:space="preserve">20.0264549255371</t>
   </si>
   <si>
     <t xml:space="preserve">20.2817478179932</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1020965576172</t>
+    <t xml:space="preserve">20.1020927429199</t>
   </si>
   <si>
     <t xml:space="preserve">19.8657093048096</t>
@@ -1724,79 +1724,79 @@
     <t xml:space="preserve">20.2061061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1304607391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0098133087158</t>
+    <t xml:space="preserve">20.1304569244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0098114013672</t>
   </si>
   <si>
     <t xml:space="preserve">21.4447574615479</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2367401123047</t>
+    <t xml:space="preserve">21.2367343902588</t>
   </si>
   <si>
     <t xml:space="preserve">21.0092010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1180171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.918924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4069671630859</t>
+    <t xml:space="preserve">20.1180152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9189224243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069652557373</t>
   </si>
   <si>
     <t xml:space="preserve">19.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1934337615967</t>
+    <t xml:space="preserve">18.1934375762939</t>
   </si>
   <si>
     <t xml:space="preserve">18.5963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8049392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412925720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539451599121</t>
+    <t xml:space="preserve">18.8049430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473873138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412944793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9896011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539413452148</t>
   </si>
   <si>
     <t xml:space="preserve">17.9753799438477</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0085678100586</t>
+    <t xml:space="preserve">18.00856590271</t>
   </si>
   <si>
     <t xml:space="preserve">18.1460380554199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4020099639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4446773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.487340927124</t>
+    <t xml:space="preserve">18.5252590179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986289978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4020137786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444673538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4873390197754</t>
   </si>
   <si>
     <t xml:space="preserve">18.6437702178955</t>
@@ -1811,106 +1811,106 @@
     <t xml:space="preserve">19.1889095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7670211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8142127990723</t>
+    <t xml:space="preserve">18.767017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396995544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8142070770264</t>
   </si>
   <si>
     <t xml:space="preserve">18.0701866149902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1887016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6909599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6577777862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6388168334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.78102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9990844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0417499542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0749282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9848594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0747165679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1363410949707</t>
+    <t xml:space="preserve">18.1886978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6909637451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6577854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6388149261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810230255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.999080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.041748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0749320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9848613739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0747184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1363430023193</t>
   </si>
   <si>
     <t xml:space="preserve">16.975170135498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4347648620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0602836608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0650272369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.283073425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266498565674</t>
+    <t xml:space="preserve">16.4347705841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0602855682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0650253295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2830829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1266479492188</t>
   </si>
   <si>
     <t xml:space="preserve">16.1076831817627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5200996398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7855529785156</t>
+    <t xml:space="preserve">16.5200958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7855548858643</t>
   </si>
   <si>
     <t xml:space="preserve">16.747631072998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8898448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.771333694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7760734558105</t>
+    <t xml:space="preserve">16.8898468017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7713298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7760753631592</t>
   </si>
   <si>
     <t xml:space="preserve">16.7950382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3826293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6241683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3871555328369</t>
+    <t xml:space="preserve">16.3826274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.624171257019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.387152671814</t>
   </si>
   <si>
     <t xml:space="preserve">15.3539724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3492317199707</t>
+    <t xml:space="preserve">15.3492288589478</t>
   </si>
   <si>
     <t xml:space="preserve">15.0790319442749</t>
@@ -1925,121 +1925,121 @@
     <t xml:space="preserve">15.0695533752441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7983264923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9268045425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4502143859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4692487716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3598051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6500606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3931198120117</t>
+    <t xml:space="preserve">14.7983283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887386322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9268026351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4502172470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4692478179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.359806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6500654220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3931179046631</t>
   </si>
   <si>
     <t xml:space="preserve">15.1266527175903</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9172859191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2503662109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5406246185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6024827957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1932687759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4462118148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.227331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2701559066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4469690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7134370803833</t>
+    <t xml:space="preserve">14.9172849655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2503671646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.540620803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1932706832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4462146759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2273283004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2701578140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4469680786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.713433265686</t>
   </si>
   <si>
     <t xml:space="preserve">13.6896438598633</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1131315231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5183429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2756690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328010559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8759727478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5674381256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4960641860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5912303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2431182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2621545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.752254486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1424388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6285400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7903242111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6332988739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.481032371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3620758056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385862350464</t>
+    <t xml:space="preserve">14.1131324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5183420181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.275671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3280143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8759717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.567437171936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4960670471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5912275314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2431192398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.262152671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7522535324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662302017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1424369812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6285438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7903232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6332998275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4810342788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3620748519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385890960693</t>
   </si>
   <si>
     <t xml:space="preserve">11.8339042663574</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">11.7530136108398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5721988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6055040359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4008979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9433460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7625312805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8434219360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1765022277832</t>
+    <t xml:space="preserve">11.5721960067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.605504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.400899887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9433441162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7625303268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8434200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1765031814575</t>
   </si>
   <si>
     <t xml:space="preserve">12.1098861694336</t>
@@ -2075,19 +2075,19 @@
     <t xml:space="preserve">12.0718193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3668327331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3240098953247</t>
+    <t xml:space="preserve">12.3668346405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3240089416504</t>
   </si>
   <si>
     <t xml:space="preserve">13.0663032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6475744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2383575439453</t>
+    <t xml:space="preserve">12.6475734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2383613586426</t>
   </si>
   <si>
     <t xml:space="preserve">11.5055809020996</t>
@@ -2096,13 +2096,13 @@
     <t xml:space="preserve">11.3818645477295</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0630588531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4199304580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6435708999634</t>
+    <t xml:space="preserve">11.0630578994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4199323654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6435737609863</t>
   </si>
   <si>
     <t xml:space="preserve">11.6530876159668</t>
@@ -2111,79 +2111,79 @@
     <t xml:space="preserve">11.6483306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5813865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5861654281616</t>
+    <t xml:space="preserve">11.5813856124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5861663818359</t>
   </si>
   <si>
     <t xml:space="preserve">11.5000944137573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1605911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961488723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6052951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2520580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.438549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449964523315</t>
+    <t xml:space="preserve">11.1605949401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474954605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566455841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6052961349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2520608901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4385499954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449945449829</t>
   </si>
   <si>
     <t xml:space="preserve">10.8928155899048</t>
   </si>
   <si>
-    <t xml:space="preserve">11.476185798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6244192123413</t>
+    <t xml:space="preserve">11.4761848449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6244201660156</t>
   </si>
   <si>
     <t xml:space="preserve">11.7487459182739</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6196384429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.777437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0021800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726535797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2986450195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3512468338013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304552078247</t>
+    <t xml:space="preserve">11.6196422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7774362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0021810531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726564407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2986478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3512439727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304513931274</t>
   </si>
   <si>
     <t xml:space="preserve">11.9495792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1641454696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7475137710571</t>
+    <t xml:space="preserve">13.1641445159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7475175857544</t>
   </si>
   <si>
     <t xml:space="preserve">13.4414854049683</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">13.2310876846313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2884683609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2693424224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3028135299683</t>
+    <t xml:space="preserve">13.2884693145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2693395614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3028125762939</t>
   </si>
   <si>
     <t xml:space="preserve">13.3458499908447</t>
@@ -2210,118 +2210,118 @@
     <t xml:space="preserve">13.8766212463379</t>
   </si>
   <si>
-    <t xml:space="preserve">13.240650177002</t>
+    <t xml:space="preserve">13.2406511306763</t>
   </si>
   <si>
     <t xml:space="preserve">12.9489641189575</t>
   </si>
   <si>
-    <t xml:space="preserve">13.31715965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0344209671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.981822013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9483480453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0774574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9770393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.833589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0487661361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.020076751709</t>
+    <t xml:space="preserve">13.3171586990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0344219207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9818201065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9483489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0774555206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9770383834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8335857391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0487651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0200757980347</t>
   </si>
   <si>
     <t xml:space="preserve">14.1874370574951</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5938854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3739242553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0631113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7570810317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.206563949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1348371505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6231889724731</t>
+    <t xml:space="preserve">14.59388256073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.373927116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0631122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7570781707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.206561088562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1348390579224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6231908798218</t>
   </si>
   <si>
     <t xml:space="preserve">13.3362865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3219413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466823577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4845209121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3506317138672</t>
+    <t xml:space="preserve">13.3219404220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466833114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4845218658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3506298065186</t>
   </si>
   <si>
     <t xml:space="preserve">13.3601951599121</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6889333724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8329753875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6553249359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.25550365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9386100769043</t>
+    <t xml:space="preserve">13.6889352798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8329734802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6553230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2555017471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9386081695557</t>
   </si>
   <si>
     <t xml:space="preserve">13.4008464813232</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5736999511719</t>
+    <t xml:space="preserve">13.5736980438232</t>
   </si>
   <si>
     <t xml:space="preserve">12.6854295730591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2388935089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6566209793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655740737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5256824493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3083200454712</t>
+    <t xml:space="preserve">12.2388954162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6566181182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655759811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5256834030151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3083209991455</t>
   </si>
   <si>
     <t xml:space="preserve">14.5435914993286</t>
@@ -2330,73 +2330,73 @@
     <t xml:space="preserve">14.966118812561</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0381412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9084997177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0717496871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.398247718811</t>
+    <t xml:space="preserve">15.0381383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9085006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901247024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0717487335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3982467651367</t>
   </si>
   <si>
     <t xml:space="preserve">15.2205953598022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8255739212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3934478759766</t>
+    <t xml:space="preserve">15.5759019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408121109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3934488296509</t>
   </si>
   <si>
     <t xml:space="preserve">16.1712837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9120006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903053283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5230875015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7295446395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7343463897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7487554550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.706841468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421129226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1882848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3227233886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.592903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.500376701355</t>
+    <t xml:space="preserve">15.9120054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903072357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5230865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7295484542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7343482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7487545013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7068405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421110153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1882810592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5929021835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003776550293</t>
   </si>
   <si>
     <t xml:space="preserve">14.980523109436</t>
@@ -2405,28 +2405,28 @@
     <t xml:space="preserve">15.1293687820435</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9565143585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5881032943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1930847167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9722185134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1799783706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1175603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1559734344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071277618408</t>
+    <t xml:space="preserve">14.9565172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5881013870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1930837631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9722194671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1799774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1175594329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559715270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071287155151</t>
   </si>
   <si>
     <t xml:space="preserve">12.9735174179077</t>
@@ -2435,19 +2435,19 @@
     <t xml:space="preserve">13.0455389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1511688232422</t>
+    <t xml:space="preserve">13.1511707305908</t>
   </si>
   <si>
     <t xml:space="preserve">13.2279930114746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248514175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2760066986084</t>
+    <t xml:space="preserve">13.56409740448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2760076522827</t>
   </si>
   <si>
     <t xml:space="preserve">13.895396232605</t>
@@ -2459,25 +2459,25 @@
     <t xml:space="preserve">13.9626150131226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0202369689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5687942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9883012771606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2968997955322</t>
+    <t xml:space="preserve">14.0202341079712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5687923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.988299369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2968988418579</t>
   </si>
   <si>
     <t xml:space="preserve">14.6488981246948</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560194015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4367361068726</t>
+    <t xml:space="preserve">14.4560222625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4367341995239</t>
   </si>
   <si>
     <t xml:space="preserve">14.340295791626</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">14.6055011749268</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8465948104858</t>
+    <t xml:space="preserve">14.8465957641602</t>
   </si>
   <si>
     <t xml:space="preserve">15.0442914962769</t>
@@ -2495,274 +2495,274 @@
     <t xml:space="preserve">15.6759595870972</t>
   </si>
   <si>
-    <t xml:space="preserve">15.526478767395</t>
+    <t xml:space="preserve">15.526481628418</t>
   </si>
   <si>
     <t xml:space="preserve">15.4348649978638</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5650539398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1889486312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1069784164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9526767730713</t>
+    <t xml:space="preserve">15.5650568008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1889476776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1069755554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9526748657227</t>
   </si>
   <si>
     <t xml:space="preserve">15.1455516815186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0973329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2709217071533</t>
+    <t xml:space="preserve">15.0973320007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2709188461304</t>
   </si>
   <si>
     <t xml:space="preserve">15.3336057662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3191404342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3818244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7338228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3847789764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9634017944336</t>
+    <t xml:space="preserve">15.3191394805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3818225860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7338237762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520687103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9634037017822</t>
   </si>
   <si>
     <t xml:space="preserve">16.4812145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">16.794641494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1292152404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1147480010986</t>
+    <t xml:space="preserve">16.7946338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1292171478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1147499084473</t>
   </si>
   <si>
     <t xml:space="preserve">16.3317375183105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2419900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5862112045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.480131149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.557279586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1407299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1214447021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277446746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9285688400269</t>
+    <t xml:space="preserve">15.2419919967651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5862131118774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4801340103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5572814941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1407279968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1214427947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277379989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9285669326782</t>
   </si>
   <si>
     <t xml:space="preserve">15.7000694274902</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6904268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8736553192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7579326629639</t>
+    <t xml:space="preserve">15.6904239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8736572265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7579355239868</t>
   </si>
   <si>
     <t xml:space="preserve">15.0539360046387</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1744813919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2130584716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5457677841187</t>
+    <t xml:space="preserve">15.1744823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2130575180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.545768737793</t>
   </si>
   <si>
     <t xml:space="preserve">15.5361261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4686193466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7289953231812</t>
+    <t xml:space="preserve">15.4686183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2660999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7290019989014</t>
   </si>
   <si>
     <t xml:space="preserve">16.7030220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0212669372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7801704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4504165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5275650024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6143550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4692287445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2273349761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5127696990967</t>
+    <t xml:space="preserve">17.0212688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7801723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4504127502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5275611877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6143589019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4692268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2273387908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5127658843994</t>
   </si>
   <si>
     <t xml:space="preserve">17.5611438751221</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1547737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0628566741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.937068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9225578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9757747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128295898438</t>
+    <t xml:space="preserve">17.1547718048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0628509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9370670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9225540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.975772857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128257751465</t>
   </si>
   <si>
     <t xml:space="preserve">17.1692848205566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1160621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6468048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7677440643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3047389984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3192577362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8403129577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0773639678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3434410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5770797729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3980827331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8479957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.775426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4029140472412</t>
+    <t xml:space="preserve">17.1160659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6468067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7677459716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3047409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3192539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8403091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0773658752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3434448242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5770778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.398078918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8479881286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7754325866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4029178619385</t>
   </si>
   <si>
     <t xml:space="preserve">18.38356590271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8804397583008</t>
+    <t xml:space="preserve">18.6061019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8804378509521</t>
   </si>
   <si>
     <t xml:space="preserve">19.3994998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">19.554313659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.989709854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2896518707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.999382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6800918579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0767860412598</t>
+    <t xml:space="preserve">19.5543098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2896499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9993839263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6800937652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.076789855957</t>
   </si>
   <si>
     <t xml:space="preserve">20.3283538818359</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6186199188232</t>
+    <t xml:space="preserve">20.6186180114746</t>
   </si>
   <si>
     <t xml:space="preserve">20.5025157928467</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8895397186279</t>
+    <t xml:space="preserve">20.8895359039307</t>
   </si>
   <si>
     <t xml:space="preserve">20.9185638427734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3636417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1507797241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0153198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2862319946289</t>
+    <t xml:space="preserve">21.363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1507759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0153179168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2862339019775</t>
   </si>
   <si>
     <t xml:space="preserve">21.3249378204346</t>
@@ -2774,163 +2774,163 @@
     <t xml:space="preserve">20.7637538909912</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0443439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.441047668457</t>
+    <t xml:space="preserve">21.0443420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4410438537598</t>
   </si>
   <si>
     <t xml:space="preserve">21.7893695831299</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8280658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7313117980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0830459594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0733757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.605525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2441177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6311378479004</t>
+    <t xml:space="preserve">21.8280620574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7313079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0830478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.073371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.557149887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6055278778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2441139221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3408737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6311359405518</t>
   </si>
   <si>
     <t xml:space="preserve">22.9407539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4051818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7728538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7243595123291</t>
+    <t xml:space="preserve">23.4051876068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7728519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7243537902832</t>
   </si>
   <si>
     <t xml:space="preserve">23.5982685089111</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2102947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.375186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6176662445068</t>
+    <t xml:space="preserve">23.2103004455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6176643371582</t>
   </si>
   <si>
     <t xml:space="preserve">23.5400733947754</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2490882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0153369903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8504467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3072872161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8989410400391</t>
+    <t xml:space="preserve">23.249095916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0153350830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8504486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3072891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8989429473877</t>
   </si>
   <si>
     <t xml:space="preserve">23.8795471191406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4517993927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9668350219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1705265045166</t>
+    <t xml:space="preserve">24.4518032073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9668388366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1705226898193</t>
   </si>
   <si>
     <t xml:space="preserve">24.3354072570801</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3936061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778884887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3451118469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1879653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9154109954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3635311126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2461585998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0909748077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6545085906982</t>
+    <t xml:space="preserve">24.3936023712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778903961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3451137542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.187967300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9154071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3635272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2461547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.090970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6545028686523</t>
   </si>
   <si>
     <t xml:space="preserve">24.5196971893311</t>
   </si>
   <si>
-    <t xml:space="preserve">24.985258102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8678932189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.566234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.401346206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7214298248291</t>
+    <t xml:space="preserve">24.9852600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8678913116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5662364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4013481140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7214241027832</t>
   </si>
   <si>
     <t xml:space="preserve">27.4100723266602</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7204456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4672908782959</t>
+    <t xml:space="preserve">27.7204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4672870635986</t>
   </si>
   <si>
     <t xml:space="preserve">28.0793209075928</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3324737548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0027027130127</t>
+    <t xml:space="preserve">27.3324794769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0027046203613</t>
   </si>
   <si>
     <t xml:space="preserve">28.2442092895508</t>
@@ -2939,37 +2939,37 @@
     <t xml:space="preserve">27.8368396759033</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4993171691895</t>
+    <t xml:space="preserve">27.4391689300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4993190765381</t>
   </si>
   <si>
     <t xml:space="preserve">25.3053359985352</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8872928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.112325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6467609405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5788650512695</t>
+    <t xml:space="preserve">25.8872871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1123237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6467685699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5788707733154</t>
   </si>
   <si>
     <t xml:space="preserve">24.2287158966064</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6952648162842</t>
+    <t xml:space="preserve">23.6952610015869</t>
   </si>
   <si>
     <t xml:space="preserve">22.5895462036133</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3005218505859</t>
+    <t xml:space="preserve">20.3005256652832</t>
   </si>
   <si>
     <t xml:space="preserve">20.4654121398926</t>
@@ -2978,64 +2978,64 @@
     <t xml:space="preserve">20.0580425262451</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8572902679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5992832183838</t>
+    <t xml:space="preserve">16.8572883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5992794036865</t>
   </si>
   <si>
     <t xml:space="preserve">16.0033283233643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7551774978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5850696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.679856300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4826965332031</t>
+    <t xml:space="preserve">15.7551784515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5850715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798553466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4826984405518</t>
   </si>
   <si>
     <t xml:space="preserve">15.6383991241455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8960952758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9178924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6892051696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9739437103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838310241699</t>
+    <t xml:space="preserve">17.8960914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.917896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6892013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9739379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838348388672</t>
   </si>
   <si>
     <t xml:space="preserve">19.3412075042725</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4264583587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0687236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0467338562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6306209564209</t>
+    <t xml:space="preserve">18.4264545440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0687255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0467376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6306228637695</t>
   </si>
   <si>
     <t xml:space="preserve">21.5745697021484</t>
@@ -3044,226 +3044,226 @@
     <t xml:space="preserve">21.4967193603516</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8521060943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0662021636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8155155181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5333080291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757698059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7765922546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7594718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0416793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2581062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6376323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2896347045898</t>
+    <t xml:space="preserve">19.852108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0662002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8155193328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5333099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757717132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7765941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7594680786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0416812896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6376342773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2896404266357</t>
   </si>
   <si>
     <t xml:space="preserve">23.0732097625732</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8275890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1681861877441</t>
+    <t xml:space="preserve">21.8275871276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1681900024414</t>
   </si>
   <si>
     <t xml:space="preserve">22.29469871521</t>
   </si>
   <si>
-    <t xml:space="preserve">22.576904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7715358734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2654991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0634803771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6718864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0393466949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6134986877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8957023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3410129547119</t>
+    <t xml:space="preserve">22.5769062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7715377807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2655010223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0634784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6718883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039342880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6134967803955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8957061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3410186767578</t>
   </si>
   <si>
     <t xml:space="preserve">21.6329593658447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.333625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1463851928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6232299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7205429077148</t>
+    <t xml:space="preserve">22.3336200714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1463832855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6232242584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7205410003662</t>
   </si>
   <si>
     <t xml:space="preserve">22.1389923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9782314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6279048919678</t>
+    <t xml:space="preserve">23.978235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6278972625732</t>
   </si>
   <si>
     <t xml:space="preserve">24.3772201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3359603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4040794372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3920116424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3141593933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2071113586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1899909973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3651561737061</t>
+    <t xml:space="preserve">23.335958480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4040775299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3920097351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2071094512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1899890899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3651542663574</t>
   </si>
   <si>
     <t xml:space="preserve">23.6765594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5500545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0938320159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1328201293945</t>
+    <t xml:space="preserve">23.550048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0938282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469692230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1328220367432</t>
   </si>
   <si>
     <t xml:space="preserve">23.1133213043213</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8793640136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9183597564697</t>
+    <t xml:space="preserve">22.8793621063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9183540344238</t>
   </si>
   <si>
     <t xml:space="preserve">23.6104907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4155254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6202373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0491619110107</t>
+    <t xml:space="preserve">23.4155216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6202335357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0491638183594</t>
   </si>
   <si>
     <t xml:space="preserve">23.9321823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2400512695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5227546691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7120552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2092170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1466464996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8777732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9070205688477</t>
+    <t xml:space="preserve">23.2400531768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5227527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7120532989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2092189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1466484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8777751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9070167541504</t>
   </si>
   <si>
     <t xml:space="preserve">25.5016708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1060676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8136138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0085792541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9013481140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2384624481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4919204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1563968658447</t>
+    <t xml:space="preserve">26.1060619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8136119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.008581161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.901346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2384605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4919185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1563987731934</t>
   </si>
   <si>
     <t xml:space="preserve">23.9614295959473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0645809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.210807800293</t>
+    <t xml:space="preserve">23.0645847320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2108058929443</t>
   </si>
   <si>
     <t xml:space="preserve">23.9516792297363</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0686550140381</t>
+    <t xml:space="preserve">24.0686645507812</t>
   </si>
   <si>
     <t xml:space="preserve">23.7859592437744</t>
@@ -3272,238 +3272,238 @@
     <t xml:space="preserve">23.7274684906006</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8736915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.56174659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.39035987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8387851715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6730537414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0784111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4683437347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1174011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1368980407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7079734802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4585914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6633110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3554458618164</t>
+    <t xml:space="preserve">23.8736934661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5617446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3903579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8387813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6730575561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0784091949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4683456420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1174030303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7079658508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4585952758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.66330909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3554382324219</t>
   </si>
   <si>
     <t xml:space="preserve">24.9557609558105</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6340637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5073375701904</t>
+    <t xml:space="preserve">24.6340656280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5073337554932</t>
   </si>
   <si>
     <t xml:space="preserve">24.8680248260498</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3456935882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5909957885742</t>
+    <t xml:space="preserve">25.3456974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.590991973877</t>
   </si>
   <si>
     <t xml:space="preserve">23.0255889892578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5325031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7233924865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3221168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5755767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7607936859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6868896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9305934906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1353130340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431781768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.287202835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6349563598633</t>
+    <t xml:space="preserve">23.5325050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.723388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3221206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5755729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7607898712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6868839263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9305953979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1353092193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431743621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6349582672119</t>
   </si>
   <si>
     <t xml:space="preserve">24.7228374481201</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9181175231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0645809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4592018127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.142692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5723171234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6309032440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4177417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.39821434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3689231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5642013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8376026153564</t>
+    <t xml:space="preserve">24.918119430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.064582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4592037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1426963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5723152160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6309051513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4177398681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3982124328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3689212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5642051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8376007080078</t>
   </si>
   <si>
     <t xml:space="preserve">28.5894393920898</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9800090789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1752872467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8237819671631</t>
+    <t xml:space="preserve">28.9800071716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1752910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8237762451172</t>
   </si>
   <si>
     <t xml:space="preserve">28.4136848449707</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5503845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7554302215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4527454376221</t>
+    <t xml:space="preserve">28.5503807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7554321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4527435302734</t>
   </si>
   <si>
     <t xml:space="preserve">28.2574596405029</t>
   </si>
   <si>
-    <t xml:space="preserve">27.984058380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9352416992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.300573348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5584983825684</t>
+    <t xml:space="preserve">27.9840602874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9352378845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3005714416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.558500289917</t>
   </si>
   <si>
     <t xml:space="preserve">25.3282127380371</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5527896881104</t>
+    <t xml:space="preserve">25.9140644073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.552791595459</t>
   </si>
   <si>
     <t xml:space="preserve">26.050760269165</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8026008605957</t>
+    <t xml:space="preserve">26.8026027679443</t>
   </si>
   <si>
     <t xml:space="preserve">27.2810459136963</t>
   </si>
   <si>
-    <t xml:space="preserve">28.140287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3160438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7611389160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9742984771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4722728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0426464080811</t>
+    <t xml:space="preserve">28.1402893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3160457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7611408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9743003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4722690582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0426445007324</t>
   </si>
   <si>
     <t xml:space="preserve">28.276985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0776462554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9897708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4096279144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7123165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3762798309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5813274383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6887340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.225757598877</t>
+    <t xml:space="preserve">29.0776519775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9897689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4096298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7123203277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762817382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5813312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6887378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2257633209229</t>
   </si>
   <si>
     <t xml:space="preserve">31.7725582122803</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">32.4560394287109</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0557174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5008201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6317901611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.875904083252</t>
+    <t xml:space="preserve">32.0557136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5008163452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6318054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8758964538574</t>
   </si>
   <si>
     <t xml:space="preserve">33.2957534790039</t>
@@ -3530,121 +3530,121 @@
     <t xml:space="preserve">33.5789260864258</t>
   </si>
   <si>
-    <t xml:space="preserve">33.178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2338752746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7456684112549</t>
+    <t xml:space="preserve">33.1785888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2338733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7456665039062</t>
   </si>
   <si>
     <t xml:space="preserve">28.3178577423096</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5205860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3347988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.992561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3445720672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4351978302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5108108520508</t>
+    <t xml:space="preserve">29.5205879211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3347969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9925594329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.344575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4351997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5108051300049</t>
   </si>
   <si>
     <t xml:space="preserve">29.6574821472168</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7357044219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4716949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8726024627686</t>
+    <t xml:space="preserve">29.7357063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4716930389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8726005554199</t>
   </si>
   <si>
     <t xml:space="preserve">31.0166606903076</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3002281188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3882312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6620254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2682762145996</t>
+    <t xml:space="preserve">31.3002300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3882331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6620273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2682800292969</t>
   </si>
   <si>
     <t xml:space="preserve">32.6007423400879</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8843078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9234199523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1705017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3660621643066</t>
+    <t xml:space="preserve">32.8843040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9234161376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1705055236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3660545349121</t>
   </si>
   <si>
     <t xml:space="preserve">32.0238227844238</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7474098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6594123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8771476745605</t>
+    <t xml:space="preserve">32.7474250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6594161987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8771419525146</t>
   </si>
   <si>
     <t xml:space="preserve">31.9260406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9749298095703</t>
+    <t xml:space="preserve">31.9749355316162</t>
   </si>
   <si>
     <t xml:space="preserve">30.9775485992432</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2780570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5322952270508</t>
+    <t xml:space="preserve">32.2780647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5323028564453</t>
   </si>
   <si>
     <t xml:space="preserve">33.1874351501465</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1776657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.962532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9723091125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5394554138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.803466796875</t>
+    <t xml:space="preserve">33.177661895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9625282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9723205566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5394477844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8034706115723</t>
   </si>
   <si>
     <t xml:space="preserve">32.9038696289062</t>
@@ -3653,52 +3653,52 @@
     <t xml:space="preserve">34.0968170166016</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5759468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7715187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3608322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6372413635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1972160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8523483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0798759460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1900482177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0140495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.710916519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2806758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7330913543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0681667327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6868133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6209907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8387241363525</t>
+    <t xml:space="preserve">34.5759582519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7715148925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3608283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6372375488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1972198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8523597717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0798797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1900520324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0140419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7109146118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2806777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7330951690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0681686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6868171691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6209850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8387260437012</t>
   </si>
   <si>
     <t xml:space="preserve">28.425422668457</t>
@@ -3710,100 +3710,100 @@
     <t xml:space="preserve">28.4938697814941</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6183681488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0218963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5596981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170616149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8921566009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1366176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3527355194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7162818908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5987815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8044052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5975227355957</t>
+    <t xml:space="preserve">29.618371963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0218944549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5596961975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1170597076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8921604156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1366195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3527374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7162780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5987796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8044033050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5975303649902</t>
   </si>
   <si>
     <t xml:space="preserve">31.2352333068848</t>
   </si>
   <si>
-    <t xml:space="preserve">31.264612197876</t>
+    <t xml:space="preserve">31.2646083831787</t>
   </si>
   <si>
     <t xml:space="preserve">31.842321395874</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3955421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4591865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5081481933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4249229431152</t>
+    <t xml:space="preserve">32.3955345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4591903686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5081405639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.424919128418</t>
   </si>
   <si>
     <t xml:space="preserve">32.5864791870117</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1605453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1164779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9108562469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9891891479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2401332855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0504512786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3980503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0491905212402</t>
+    <t xml:space="preserve">32.1605491638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1164817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9108600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9891834259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2401294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0504550933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3980541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0491924285889</t>
   </si>
   <si>
     <t xml:space="preserve">31.5289840698242</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9353351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0675239562988</t>
+    <t xml:space="preserve">31.9353332519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0675277709961</t>
   </si>
   <si>
     <t xml:space="preserve">31.3331508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4959697723389</t>
+    <t xml:space="preserve">30.4959678649902</t>
   </si>
   <si>
     <t xml:space="preserve">30.0602416992188</t>
@@ -3812,7 +3812,7 @@
     <t xml:space="preserve">29.4237880706787</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1483688354492</t>
+    <t xml:space="preserve">30.1483669281006</t>
   </si>
   <si>
     <t xml:space="preserve">29.4776401519775</t>
@@ -3827,13 +3827,13 @@
     <t xml:space="preserve">28.5180625915527</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9354648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3124389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5817089080811</t>
+    <t xml:space="preserve">27.9354610443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3124408721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5817108154297</t>
   </si>
   <si>
     <t xml:space="preserve">28.4299373626709</t>
@@ -3845,40 +3845,40 @@
     <t xml:space="preserve">28.5768127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9831657409668</t>
+    <t xml:space="preserve">28.9831638336182</t>
   </si>
   <si>
     <t xml:space="preserve">29.0614986419678</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3111839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4433708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3993072509766</t>
+    <t xml:space="preserve">29.311185836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4433727264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3993110656738</t>
   </si>
   <si>
     <t xml:space="preserve">29.6196174621582</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9916973114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0112800598145</t>
+    <t xml:space="preserve">29.9917011260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0112838745117</t>
   </si>
   <si>
     <t xml:space="preserve">29.8888874053955</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8839931488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4874324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9329471588135</t>
+    <t xml:space="preserve">29.8839950561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4874305725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">29.5216999053955</t>
@@ -3887,64 +3887,64 @@
     <t xml:space="preserve">29.5559730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9231586456299</t>
+    <t xml:space="preserve">29.9231624603271</t>
   </si>
   <si>
     <t xml:space="preserve">30.44211769104</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7554473876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.931697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8925266265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8337783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2009677886963</t>
+    <t xml:space="preserve">30.7554454803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9316959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8925285339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8337821960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.200963973999</t>
   </si>
   <si>
     <t xml:space="preserve">29.8105545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6094341278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9626293182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1882781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2177085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3599643707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0263996124268</t>
+    <t xml:space="preserve">29.609432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.96262550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1882762908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2177124023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3599662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.585620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0263957977295</t>
   </si>
   <si>
     <t xml:space="preserve">30.1686553955078</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8357982635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1448459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0271148681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674808502197</t>
+    <t xml:space="preserve">30.8358001708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1448440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0271129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674827575684</t>
   </si>
   <si>
     <t xml:space="preserve">30.39430809021</t>
@@ -3953,55 +3953,55 @@
     <t xml:space="preserve">31.5323753356934</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7825565338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8119869232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6017646789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9051895141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5618095397949</t>
+    <t xml:space="preserve">31.7825584411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8119888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6017723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9051990509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5618057250977</t>
   </si>
   <si>
     <t xml:space="preserve">30.7475032806396</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5071334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7187900543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7089729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5674324035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3775444030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8722877502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4020767211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.446231842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8386688232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1035614013672</t>
+    <t xml:space="preserve">30.5071315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7187843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5674285888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3775482177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8722801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4020729064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4462280273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8386573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1035652160645</t>
   </si>
   <si>
     <t xml:space="preserve">35.2703437805176</t>
@@ -4013,88 +4013,88 @@
     <t xml:space="preserve">35.6922187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5450477600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9080657958984</t>
+    <t xml:space="preserve">35.545051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9080543518066</t>
   </si>
   <si>
     <t xml:space="preserve">35.8001403808594</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8295745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4126129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7903289794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1624221801758</t>
+    <t xml:space="preserve">35.8295669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4126014709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7903251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.162425994873</t>
   </si>
   <si>
     <t xml:space="preserve">35.6971206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7952346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9423980712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0944595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5899238586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1638603210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.967643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.222728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2031059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1785774230957</t>
+    <t xml:space="preserve">35.7952308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0944709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.589916229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1638641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9676399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2227172851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2030982971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1785736083984</t>
   </si>
   <si>
     <t xml:space="preserve">37.4974327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">37.487621307373</t>
+    <t xml:space="preserve">37.4876174926758</t>
   </si>
   <si>
     <t xml:space="preserve">36.8155708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9431114196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5317687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3993148803711</t>
+    <t xml:space="preserve">36.9431076049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5317726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3993301391602</t>
   </si>
   <si>
     <t xml:space="preserve">38.753231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8513412475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.204532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1302452087402</t>
+    <t xml:space="preserve">38.8513374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2045364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1302375793457</t>
   </si>
   <si>
     <t xml:space="preserve">37.5652351379395</t>
@@ -4106,91 +4106,91 @@
     <t xml:space="preserve">38.4102821350098</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9310646057129</t>
+    <t xml:space="preserve">38.9310684204102</t>
   </si>
   <si>
     <t xml:space="preserve">38.8082427978516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8622779846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9118003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.833194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.108325958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6612319946289</t>
+    <t xml:space="preserve">38.8622856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.911792755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1083183288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6612358093262</t>
   </si>
   <si>
     <t xml:space="preserve">35.4133148193359</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2976570129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6933555603027</t>
+    <t xml:space="preserve">36.2976684570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6933670043945</t>
   </si>
   <si>
     <t xml:space="preserve">36.24853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3985748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3297920227051</t>
+    <t xml:space="preserve">35.3985824584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3297958374023</t>
   </si>
   <si>
     <t xml:space="preserve">34.7549667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2413597106934</t>
+    <t xml:space="preserve">35.2413635253906</t>
   </si>
   <si>
     <t xml:space="preserve">35.7867088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">35.899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.071662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4008483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8037261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2606315612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6094512939453</t>
+    <t xml:space="preserve">35.8997116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0716590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4008331298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8037071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2606239318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6094589233398</t>
   </si>
   <si>
     <t xml:space="preserve">38.1597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1646308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6113395690918</t>
+    <t xml:space="preserve">38.1646347045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6113319396973</t>
   </si>
   <si>
     <t xml:space="preserve">40.1838912963867</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4197196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0043716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6627235412598</t>
+    <t xml:space="preserve">40.4197273254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0043754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.662727355957</t>
   </si>
   <si>
     <t xml:space="preserve">42.6453399658203</t>
@@ -4208,46 +4208,46 @@
     <t xml:space="preserve">42.6649894714355</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4707374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0209999084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1094245910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3550758361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9593963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6203880310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9937782287598</t>
+    <t xml:space="preserve">43.4707298278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0209884643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.109432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3550872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9593925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6203765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9937858581543</t>
   </si>
   <si>
     <t xml:space="preserve">44.915168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1120719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9302864074707</t>
+    <t xml:space="preserve">43.1120796203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9302940368652</t>
   </si>
   <si>
     <t xml:space="preserve">42.7583351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.186149597168</t>
+    <t xml:space="preserve">41.1861610412598</t>
   </si>
   <si>
     <t xml:space="preserve">42.2522964477539</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3505554199219</t>
+    <t xml:space="preserve">42.3505516052246</t>
   </si>
   <si>
     <t xml:space="preserve">44.1634750366211</t>
@@ -4256,88 +4256,88 @@
     <t xml:space="preserve">41.2402038574219</t>
   </si>
   <si>
-    <t xml:space="preserve">41.156681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2991638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6918144226074</t>
+    <t xml:space="preserve">41.1566772460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2991561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.691822052002</t>
   </si>
   <si>
     <t xml:space="preserve">42.4242477416992</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1392974853516</t>
+    <t xml:space="preserve">42.139289855957</t>
   </si>
   <si>
     <t xml:space="preserve">41.6971206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7807579040527</t>
+    <t xml:space="preserve">41.7807540893555</t>
   </si>
   <si>
     <t xml:space="preserve">41.0329170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9136047363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2592391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7278747558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7081985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1903610229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.820125579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2530860900879</t>
+    <t xml:space="preserve">41.9135971069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2592353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7278709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7081871032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.190357208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8201141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2530746459961</t>
   </si>
   <si>
     <t xml:space="preserve">43.2075653076172</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3010482788086</t>
+    <t xml:space="preserve">43.3010368347168</t>
   </si>
   <si>
     <t xml:space="preserve">43.0944023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599594116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5384407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9221992492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1349945068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6749572753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792869567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1977233886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2776756286621</t>
+    <t xml:space="preserve">43.0599555969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5384330749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9222030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1350021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6749610900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1792793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1977195739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2776832580566</t>
   </si>
   <si>
     <t xml:space="preserve">42.9271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">41.982479095459</t>
+    <t xml:space="preserve">41.9824714660645</t>
   </si>
   <si>
     <t xml:space="preserve">40.6737518310547</t>
@@ -4346,19 +4346,19 @@
     <t xml:space="preserve">40.772159576416</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9997177124023</t>
+    <t xml:space="preserve">39.9997215270996</t>
   </si>
   <si>
     <t xml:space="preserve">38.075984954834</t>
   </si>
   <si>
-    <t xml:space="preserve">38.012035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2026710510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9603500366211</t>
+    <t xml:space="preserve">38.0120239257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2026672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9603538513184</t>
   </si>
   <si>
     <t xml:space="preserve">39.3551864624023</t>
@@ -4370,13 +4370,13 @@
     <t xml:space="preserve">40.8016815185547</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6934394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0353889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2186622619629</t>
+    <t xml:space="preserve">40.693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0353927612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2186698913574</t>
   </si>
   <si>
     <t xml:space="preserve">38.3121490478516</t>
@@ -4385,73 +4385,73 @@
     <t xml:space="preserve">38.7155914306641</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2063522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0341606140137</t>
+    <t xml:space="preserve">40.2063484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0341567993164</t>
   </si>
   <si>
     <t xml:space="preserve">39.3601150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4745063781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1042709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2469482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4941902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6282730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9640579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.091983795166</t>
+    <t xml:space="preserve">38.4745178222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1042747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2469520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4941864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6282653808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9640617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0919876098633</t>
   </si>
   <si>
     <t xml:space="preserve">36.8755035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0932197570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6823883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3527412414551</t>
+    <t xml:space="preserve">36.0932273864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6823806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3527450561523</t>
   </si>
   <si>
     <t xml:space="preserve">36.299861907959</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2162208557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9505348205566</t>
+    <t xml:space="preserve">36.2162246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9505386352539</t>
   </si>
   <si>
     <t xml:space="preserve">33.451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0182189941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1670532226562</t>
+    <t xml:space="preserve">33.0182113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1670455932617</t>
   </si>
   <si>
     <t xml:space="preserve">35.507740020752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5680236816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4302635192871</t>
+    <t xml:space="preserve">34.5680160522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4302558898926</t>
   </si>
   <si>
     <t xml:space="preserve">34.0760192871094</t>
@@ -4460,7 +4460,7 @@
     <t xml:space="preserve">34.5778579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1707077026367</t>
+    <t xml:space="preserve">37.1707038879395</t>
   </si>
   <si>
     <t xml:space="preserve">37.0329437255859</t>
@@ -4469,31 +4469,31 @@
     <t xml:space="preserve">38.1202697753906</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2089653015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6130256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5341873168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3275337219238</t>
+    <t xml:space="preserve">38.2089614868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6130332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5341949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3275375366211</t>
   </si>
   <si>
     <t xml:space="preserve">39.6133422851562</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7414665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.820613861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1356773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.036808013916</t>
+    <t xml:space="preserve">39.7414588928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8206176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1356735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0368041992188</t>
   </si>
   <si>
     <t xml:space="preserve">38.0907020568848</t>
@@ -4502,58 +4502,58 @@
     <t xml:space="preserve">38.1399765014648</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1048622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0799102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.734977722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5230865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3653984069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2766952514648</t>
+    <t xml:space="preserve">36.1048545837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0799140930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7349700927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5230903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.365406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2767028808594</t>
   </si>
   <si>
     <t xml:space="preserve">34.1978607177734</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6952438354492</t>
+    <t xml:space="preserve">33.695240020752</t>
   </si>
   <si>
     <t xml:space="preserve">34.0993041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2031021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4642639160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7941055297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7743988037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3506202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5181579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.084831237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2523803710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3604736328125</t>
+    <t xml:space="preserve">35.2030906677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4642715454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7941093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7743911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3506164550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5181617736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0848388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2523765563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3604774475098</t>
   </si>
   <si>
     <t xml:space="preserve">35.1784629821777</t>
@@ -4562,34 +4562,34 @@
     <t xml:space="preserve">34.5083045959473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6068534851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2471389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9117431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.951171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.882495880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3564834594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6222610473633</t>
+    <t xml:space="preserve">34.6068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2471313476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9117469787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9511642456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8824882507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.232666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3564796447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6222686767578</t>
   </si>
   <si>
     <t xml:space="preserve">37.5979385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7799415588379</t>
+    <t xml:space="preserve">36.7799491882324</t>
   </si>
   <si>
     <t xml:space="preserve">36.7898063659668</t>
@@ -4598,7 +4598,7 @@
     <t xml:space="preserve">36.2132682800293</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3167533874512</t>
+    <t xml:space="preserve">36.3167495727539</t>
   </si>
   <si>
     <t xml:space="preserve">35.0601997375488</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">35.883113861084</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7257423400879</t>
+    <t xml:space="preserve">36.7257347106934</t>
   </si>
   <si>
     <t xml:space="preserve">37.2825698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6469039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5089263916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1593704223633</t>
+    <t xml:space="preserve">36.6468963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5089302062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1593742370605</t>
   </si>
   <si>
     <t xml:space="preserve">36.3413848876953</t>
@@ -4631,25 +4631,25 @@
     <t xml:space="preserve">36.5040016174316</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2625389099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4497909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4839782714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9761161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0986785888672</t>
+    <t xml:space="preserve">36.2625427246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4497947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4839744567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9761199951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0986862182617</t>
   </si>
   <si>
     <t xml:space="preserve">32.0543365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2172584533691</t>
+    <t xml:space="preserve">33.2172622680664</t>
   </si>
   <si>
     <t xml:space="preserve">31.123010635376</t>
@@ -4658,43 +4658,43 @@
     <t xml:space="preserve">31.2511253356934</t>
   </si>
   <si>
-    <t xml:space="preserve">31.122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9225635528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2807521820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7327461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4091110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4436702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0437755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4019680023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6071109771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7382049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2000713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9949264526367</t>
+    <t xml:space="preserve">31.1227703094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9225559234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2807540893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7327442169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4091129302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4436664581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0437774658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4019660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6071147918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7382011413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2000694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.65700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9949245452881</t>
   </si>
   <si>
     <t xml:space="preserve">29.8095302581787</t>
@@ -4703,28 +4703,28 @@
     <t xml:space="preserve">30.4365253448486</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3772792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7179355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7524948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8512344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8731842041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2335891723633</t>
+    <t xml:space="preserve">30.3772830963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7179336547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7524909973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8512325286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8731880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2335929870605</t>
   </si>
   <si>
     <t xml:space="preserve">32.6384201049805</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3690948486328</t>
+    <t xml:space="preserve">33.3690986633301</t>
   </si>
   <si>
     <t xml:space="preserve">33.6356925964355</t>
@@ -4733,61 +4733,61 @@
     <t xml:space="preserve">33.5023956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7245559692383</t>
+    <t xml:space="preserve">33.7245635986328</t>
   </si>
   <si>
     <t xml:space="preserve">33.4234046936035</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5589141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8129005432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4695167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7953681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1014671325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9358024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1283531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1705780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9237251281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9736175537109</t>
+    <t xml:space="preserve">34.558910369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8129043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4695243835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7953643798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1014595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9358100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1283569335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.170581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9237289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9736137390137</t>
   </si>
   <si>
     <t xml:space="preserve">36.1584930419922</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5337028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6571311950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0718307495117</t>
+    <t xml:space="preserve">36.5337066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6571235656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.071834564209</t>
   </si>
   <si>
     <t xml:space="preserve">35.4870643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6373825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1315994262695</t>
+    <t xml:space="preserve">36.637378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1316070556641</t>
   </si>
   <si>
     <t xml:space="preserve">35.3093299865723</t>
@@ -4799,37 +4799,37 @@
     <t xml:space="preserve">36.0301322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1266632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6230964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.835376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8430557250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1414794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2577514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4848556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2105979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6845397949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4744529724121</t>
+    <t xml:space="preserve">35.1266670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6230888366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8353805541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3515548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8430519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1414756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2577476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4848518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2106018066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6845474243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4744567871094</t>
   </si>
   <si>
     <t xml:space="preserve">36.4547157287598</t>
@@ -4844,25 +4844,25 @@
     <t xml:space="preserve">35.314266204834</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8650016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3991050720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3150367736816</t>
+    <t xml:space="preserve">34.8650054931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.399112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3150405883789</t>
   </si>
   <si>
     <t xml:space="preserve">36.4623680114746</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2765007019043</t>
+    <t xml:space="preserve">34.276496887207</t>
   </si>
   <si>
     <t xml:space="preserve">33.3912734985352</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7325057983398</t>
+    <t xml:space="preserve">33.7325096130371</t>
   </si>
   <si>
     <t xml:space="preserve">34.1380310058594</t>
@@ -4874,25 +4874,25 @@
     <t xml:space="preserve">31.4675216674805</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8977661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3428535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0935249328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5929985046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1419410705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2923736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.654411315918</t>
+    <t xml:space="preserve">31.8977680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3428573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0935211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1419448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6544075012207</t>
   </si>
   <si>
     <t xml:space="preserve">31.6554470062256</t>
@@ -4901,40 +4901,40 @@
     <t xml:space="preserve">31.4081726074219</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1499824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6455535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2241592407227</t>
+    <t xml:space="preserve">32.1499862670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6455554962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2241668701172</t>
   </si>
   <si>
     <t xml:space="preserve">32.4516487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4467086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1885147094727</t>
+    <t xml:space="preserve">32.446704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1885108947754</t>
   </si>
   <si>
     <t xml:space="preserve">32.9857559204102</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6978912353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8155479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5484962463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1450347900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4477405548096</t>
+    <t xml:space="preserve">33.6978874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8155517578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5485038757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1450386047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4477348327637</t>
   </si>
   <si>
     <t xml:space="preserve">31.2548675537109</t>
@@ -4943,10 +4943,10 @@
     <t xml:space="preserve">31.462574005127</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0619983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5674610137939</t>
+    <t xml:space="preserve">31.0620002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5674591064453</t>
   </si>
   <si>
     <t xml:space="preserve">31.5911540985107</t>
@@ -4958,28 +4958,28 @@
     <t xml:space="preserve">33.1341171264648</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8176078796387</t>
+    <t xml:space="preserve">32.8176155090332</t>
   </si>
   <si>
     <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5909461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2486763000488</t>
+    <t xml:space="preserve">36.5909423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2486801147461</t>
   </si>
   <si>
     <t xml:space="preserve">36.2744369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2942237854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5761070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5316009521484</t>
+    <t xml:space="preserve">36.2942199707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5761032104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5315971374512</t>
   </si>
   <si>
     <t xml:space="preserve">36.571159362793</t>
@@ -4988,52 +4988,52 @@
     <t xml:space="preserve">36.9766807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0162506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7689743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.972770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3545951843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6513175964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4771995544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2991676330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2497100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8244018554688</t>
+    <t xml:space="preserve">37.016242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7689781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9727668762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3546028137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6513137817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4771957397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2991638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2497138977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8244094848633</t>
   </si>
   <si>
     <t xml:space="preserve">35.3100929260254</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0222206115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4870910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1403465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3985252380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0604934692383</t>
+    <t xml:space="preserve">36.0222244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4870872497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1403503417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3985214233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8883171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0604972839355</t>
   </si>
   <si>
     <t xml:space="preserve">34.6047821044922</t>
@@ -5054,31 +5054,31 @@
     <t xml:space="preserve">33.2970733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9206047058105</t>
+    <t xml:space="preserve">32.9206085205078</t>
   </si>
   <si>
     <t xml:space="preserve">32.5144233703613</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2079048156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6977005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1286544799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2376327514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0896224975586</t>
+    <t xml:space="preserve">33.2079086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6977043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1286506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2376251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0896186828613</t>
   </si>
   <si>
     <t xml:space="preserve">34.2580413818359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1149787902832</t>
+    <t xml:space="preserve">35.1149864196777</t>
   </si>
   <si>
     <t xml:space="preserve">36.9477577209473</t>
@@ -5087,91 +5087,91 @@
     <t xml:space="preserve">36.7743873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0071983337402</t>
+    <t xml:space="preserve">37.0072021484375</t>
   </si>
   <si>
     <t xml:space="preserve">37.1013221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4975929260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6115188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.389217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1421356201172</t>
+    <t xml:space="preserve">37.4975891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6115226745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3892097473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">37.6709671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7105865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6963310241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7409019470215</t>
+    <t xml:space="preserve">37.7105941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6963272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7409057617188</t>
   </si>
   <si>
     <t xml:space="preserve">39.0678367614746</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2727165222168</t>
+    <t xml:space="preserve">42.2727127075195</t>
   </si>
   <si>
     <t xml:space="preserve">43.2534980773926</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1891021728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7086219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7934226989746</t>
+    <t xml:space="preserve">43.1891059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7086181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7934303283691</t>
   </si>
   <si>
     <t xml:space="preserve">45.1011352539062</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6905975341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.689998626709</t>
+    <t xml:space="preserve">45.6905937194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6900024414062</t>
   </si>
   <si>
     <t xml:space="preserve">44.8485069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7940139770508</t>
+    <t xml:space="preserve">44.794017791748</t>
   </si>
   <si>
     <t xml:space="preserve">45.730224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">44.506721496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9277648925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1853446960449</t>
+    <t xml:space="preserve">44.5067176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9277610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1853408813477</t>
   </si>
   <si>
     <t xml:space="preserve">45.7500381469727</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0670547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4874954223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9772987365723</t>
+    <t xml:space="preserve">46.0670509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4875068664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9773025512695</t>
   </si>
   <si>
     <t xml:space="preserve">44.6057929992676</t>
@@ -5180,25 +5180,25 @@
     <t xml:space="preserve">44.1847457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8138313293457</t>
+    <t xml:space="preserve">44.813835144043</t>
   </si>
   <si>
     <t xml:space="preserve">44.1996078491211</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1358108520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2695503234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8033332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8930892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3785247802734</t>
+    <t xml:space="preserve">45.1358070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2695541381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8033294677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8930854797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3785209655762</t>
   </si>
   <si>
     <t xml:space="preserve">44.571117401123</t>
@@ -5207,37 +5207,37 @@
     <t xml:space="preserve">46.5871696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8193855285645</t>
+    <t xml:space="preserve">45.8193817138672</t>
   </si>
   <si>
     <t xml:space="preserve">43.9766998291016</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4478759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6943588256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8534622192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0218772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5476379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.023796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8173980712891</t>
+    <t xml:space="preserve">45.4478797912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6943511962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8534660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0218811035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5476417541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0237998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8174018859863</t>
   </si>
   <si>
     <t xml:space="preserve">45.0466766357422</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4682769775391</t>
+    <t xml:space="preserve">45.4682807922363</t>
   </si>
   <si>
     <t xml:space="preserve">44.1737213134766</t>
@@ -5255,19 +5255,19 @@
     <t xml:space="preserve">47.9581985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1844367980957</t>
+    <t xml:space="preserve">47.184440612793</t>
   </si>
   <si>
     <t xml:space="preserve">45.3095588684082</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5823554992676</t>
+    <t xml:space="preserve">45.5823593139648</t>
   </si>
   <si>
     <t xml:space="preserve">46.0833168029785</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2798004150391</t>
+    <t xml:space="preserve">45.2798042297363</t>
   </si>
   <si>
     <t xml:space="preserve">45.9791564941406</t>
@@ -5279,22 +5279,22 @@
     <t xml:space="preserve">45.3789978027344</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6716423034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.709400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0378799438477</t>
+    <t xml:space="preserve">45.6716346740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7093963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0378761291504</t>
   </si>
   <si>
     <t xml:space="preserve">42.8593254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0806045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5449256896973</t>
+    <t xml:space="preserve">42.0806007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5449180603027</t>
   </si>
   <si>
     <t xml:space="preserve">41.9615631103516</t>
@@ -5303,37 +5303,37 @@
     <t xml:space="preserve">38.3010864257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2465209960938</t>
+    <t xml:space="preserve">38.2465286254883</t>
   </si>
   <si>
     <t xml:space="preserve">38.8268432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2743644714355</t>
+    <t xml:space="preserve">38.1572456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2743682861328</t>
   </si>
   <si>
     <t xml:space="preserve">38.2514877319336</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4002876281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3110046386719</t>
+    <t xml:space="preserve">38.4002838134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3110008239746</t>
   </si>
   <si>
     <t xml:space="preserve">38.8516464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9588470458984</t>
+    <t xml:space="preserve">37.9588508605957</t>
   </si>
   <si>
     <t xml:space="preserve">38.6334037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4548492431641</t>
+    <t xml:space="preserve">38.4548416137695</t>
   </si>
   <si>
     <t xml:space="preserve">39.1690864562988</t>
@@ -5345,16 +5345,16 @@
     <t xml:space="preserve">40.8207664489746</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2076454162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4705238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.187801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.955810546875</t>
+    <t xml:space="preserve">41.2076416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4705276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1878051757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9558029174805</t>
   </si>
   <si>
     <t xml:space="preserve">38.8466873168945</t>
@@ -5366,10 +5366,10 @@
     <t xml:space="preserve">39.8337249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3495597839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2454032897949</t>
+    <t xml:space="preserve">40.3495635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2454071044922</t>
   </si>
   <si>
     <t xml:space="preserve">41.4159622192383</t>
@@ -5378,13 +5378,13 @@
     <t xml:space="preserve">41.6639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2374000549316</t>
+    <t xml:space="preserve">41.2374076843262</t>
   </si>
   <si>
     <t xml:space="preserve">41.4209213256836</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7551612854004</t>
+    <t xml:space="preserve">42.7551574707031</t>
   </si>
   <si>
     <t xml:space="preserve">43.216438293457</t>
@@ -5399,16 +5399,16 @@
     <t xml:space="preserve">45.2748413085938</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8006019592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1210861206055</t>
+    <t xml:space="preserve">45.8005981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1210823059082</t>
   </si>
   <si>
     <t xml:space="preserve">45.254997253418</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6201248168945</t>
+    <t xml:space="preserve">44.6201210021973</t>
   </si>
   <si>
     <t xml:space="preserve">44.203483581543</t>
@@ -5417,55 +5417,55 @@
     <t xml:space="preserve">43.2065238952637</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3602828979492</t>
+    <t xml:space="preserve">43.3602752685547</t>
   </si>
   <si>
     <t xml:space="preserve">42.3038024902344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2276611328125</t>
+    <t xml:space="preserve">43.2276649475098</t>
   </si>
   <si>
     <t xml:space="preserve">42.8054656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0422439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3104667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2591552734375</t>
+    <t xml:space="preserve">44.0422477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3104629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2591590881348</t>
   </si>
   <si>
     <t xml:space="preserve">45.4727401733398</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2442588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.075382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7408981323242</t>
+    <t xml:space="preserve">45.244255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0753784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7409019470215</t>
   </si>
   <si>
     <t xml:space="preserve">43.5157470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8038368225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0819854736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1929473876953</t>
+    <t xml:space="preserve">43.8038330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0819816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1929512023926</t>
   </si>
   <si>
     <t xml:space="preserve">46.8336944580078</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0125045776367</t>
+    <t xml:space="preserve">47.012508392334</t>
   </si>
   <si>
     <t xml:space="preserve">46.4959411621094</t>
@@ -5474,31 +5474,31 @@
     <t xml:space="preserve">46.4710998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6201133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.924732208252</t>
+    <t xml:space="preserve">46.6201095581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9247360229492</t>
   </si>
   <si>
     <t xml:space="preserve">45.428035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3336639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4562034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0091743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.146671295166</t>
+    <t xml:space="preserve">45.3336601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4561996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0091705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1466674804688</t>
   </si>
   <si>
     <t xml:space="preserve">48.0903396606445</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3188209533691</t>
+    <t xml:space="preserve">48.3188171386719</t>
   </si>
   <si>
     <t xml:space="preserve">48.219482421875</t>
@@ -5513,7 +5513,7 @@
     <t xml:space="preserve">45.1200790405273</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6680870056152</t>
+    <t xml:space="preserve">44.6680908203125</t>
   </si>
   <si>
     <t xml:space="preserve">44.106819152832</t>
@@ -5522,7 +5522,7 @@
     <t xml:space="preserve">43.8634338378906</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1912612915039</t>
+    <t xml:space="preserve">44.1912574768066</t>
   </si>
   <si>
     <t xml:space="preserve">42.8452033996582</t>
@@ -5534,13 +5534,13 @@
     <t xml:space="preserve">42.8104362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0206832885742</t>
+    <t xml:space="preserve">42.0206871032715</t>
   </si>
   <si>
     <t xml:space="preserve">41.8518104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">42.283935546875</t>
+    <t xml:space="preserve">42.2839317321777</t>
   </si>
   <si>
     <t xml:space="preserve">43.3269996643066</t>
@@ -5552,13 +5552,13 @@
     <t xml:space="preserve">42.2044639587402</t>
   </si>
   <si>
-    <t xml:space="preserve">42.149829864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8948707580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8137664794922</t>
+    <t xml:space="preserve">42.1498260498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8948745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8137626647949</t>
   </si>
   <si>
     <t xml:space="preserve">43.3667373657227</t>
@@ -5570,13 +5570,13 @@
     <t xml:space="preserve">43.2375946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2028312683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1829605102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.562084197998</t>
+    <t xml:space="preserve">43.202823638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1829566955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5620880126953</t>
   </si>
   <si>
     <t xml:space="preserve">40.8335762023926</t>
@@ -5585,25 +5585,25 @@
     <t xml:space="preserve">41.1216621398926</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8137054443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0074157714844</t>
+    <t xml:space="preserve">40.8137092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0074195861816</t>
   </si>
   <si>
     <t xml:space="preserve">41.0620536804199</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4792823791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0570907592773</t>
+    <t xml:space="preserve">41.4792861938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0570945739746</t>
   </si>
   <si>
     <t xml:space="preserve">40.4353141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2263946533203</t>
+    <t xml:space="preserve">40.2263984680176</t>
   </si>
   <si>
     <t xml:space="preserve">40.4900321960449</t>
@@ -5621,16 +5621,16 @@
     <t xml:space="preserve">39.5200614929199</t>
   </si>
   <si>
-    <t xml:space="preserve">39.604621887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3059844970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7735633850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8432006835938</t>
+    <t xml:space="preserve">39.6046257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.305980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7735595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8431968688965</t>
   </si>
   <si>
     <t xml:space="preserve">40.1667060852051</t>
@@ -5645,7 +5645,7 @@
     <t xml:space="preserve">41.8479843139648</t>
   </si>
   <si>
-    <t xml:space="preserve">41.355541229248</t>
+    <t xml:space="preserve">41.3555450439453</t>
   </si>
   <si>
     <t xml:space="preserve">42.4548416137695</t>
@@ -5654,7 +5654,7 @@
     <t xml:space="preserve">42.1663360595703</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2310028076172</t>
+    <t xml:space="preserve">42.2309989929199</t>
   </si>
   <si>
     <t xml:space="preserve">40.9377098083496</t>
@@ -5666,34 +5666,34 @@
     <t xml:space="preserve">40.4402885437012</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6692848205566</t>
+    <t xml:space="preserve">39.6692886352539</t>
   </si>
   <si>
     <t xml:space="preserve">38.7490577697754</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5353507995605</t>
+    <t xml:space="preserve">37.5353546142578</t>
   </si>
   <si>
     <t xml:space="preserve">37.624885559082</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2418785095215</t>
+    <t xml:space="preserve">37.2418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">36.9334716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7689590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3214569091797</t>
+    <t xml:space="preserve">38.7689552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.321460723877</t>
   </si>
   <si>
     <t xml:space="preserve">35.0731201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7844352722168</t>
+    <t xml:space="preserve">35.7844314575195</t>
   </si>
   <si>
     <t xml:space="preserve">35.9585304260254</t>
@@ -5702,19 +5702,19 @@
     <t xml:space="preserve">37.5453033447266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.893497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1123580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0974349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3660469055176</t>
+    <t xml:space="preserve">38.2367134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8934936523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.112361907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0974388122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3660430908203</t>
   </si>
   <si>
     <t xml:space="preserve">38.4307098388672</t>
@@ -5729,10 +5729,10 @@
     <t xml:space="preserve">42.0817756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5644607543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6937866210938</t>
+    <t xml:space="preserve">41.5644569396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.693790435791</t>
   </si>
   <si>
     <t xml:space="preserve">41.9922370910645</t>
@@ -5741,19 +5741,19 @@
     <t xml:space="preserve">41.1913909912109</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5246696472168</t>
+    <t xml:space="preserve">41.5246658325195</t>
   </si>
   <si>
     <t xml:space="preserve">41.3804130554199</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5893287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.395336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6042518615723</t>
+    <t xml:space="preserve">41.5893325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3953399658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.604248046875</t>
   </si>
   <si>
     <t xml:space="preserve">42.8279037475586</t>
@@ -5762,10 +5762,10 @@
     <t xml:space="preserve">43.2258453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">43.514347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1562080383301</t>
+    <t xml:space="preserve">43.5143508911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1562042236328</t>
   </si>
   <si>
     <t xml:space="preserve">43.8326988220215</t>
@@ -5774,16 +5774,16 @@
     <t xml:space="preserve">44.3400650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6138305664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1659660339355</t>
+    <t xml:space="preserve">43.6138343811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1659698486328</t>
   </si>
   <si>
     <t xml:space="preserve">44.3402976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3652076721191</t>
+    <t xml:space="preserve">44.3652038574219</t>
   </si>
   <si>
     <t xml:space="preserve">44.0862731933594</t>
@@ -5798,10 +5798,10 @@
     <t xml:space="preserve">45.3165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6403198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6801681518555</t>
+    <t xml:space="preserve">45.640323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6801719665527</t>
   </si>
   <si>
     <t xml:space="preserve">45.3564109802246</t>
@@ -5813,13 +5813,13 @@
     <t xml:space="preserve">45.5058403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0376281738281</t>
+    <t xml:space="preserve">45.0376319885254</t>
   </si>
   <si>
     <t xml:space="preserve">44.4000701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">42.846019744873</t>
+    <t xml:space="preserve">42.8460159301758</t>
   </si>
   <si>
     <t xml:space="preserve">41.1923446655273</t>
@@ -5837,10 +5837,10 @@
     <t xml:space="preserve">40.1463508605957</t>
   </si>
   <si>
-    <t xml:space="preserve">39.772777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5685615539551</t>
+    <t xml:space="preserve">39.7727813720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5685653686523</t>
   </si>
   <si>
     <t xml:space="preserve">39.4938468933105</t>
@@ -5858,7 +5858,7 @@
     <t xml:space="preserve">40.3655128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4065246582031</t>
+    <t xml:space="preserve">41.4065284729004</t>
   </si>
   <si>
     <t xml:space="preserve">42.1686134338379</t>
@@ -5867,13 +5867,13 @@
     <t xml:space="preserve">42.4525260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2483024597168</t>
+    <t xml:space="preserve">42.2483062744141</t>
   </si>
   <si>
     <t xml:space="preserve">41.122615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.788890838623</t>
+    <t xml:space="preserve">40.7888946533203</t>
   </si>
   <si>
     <t xml:space="preserve">40.9432983398438</t>
@@ -5885,7 +5885,7 @@
     <t xml:space="preserve">40.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0367660522461</t>
+    <t xml:space="preserve">40.0367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">41.0479011535645</t>
@@ -5897,19 +5897,19 @@
     <t xml:space="preserve">40.2708740234375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6954193115234</t>
+    <t xml:space="preserve">41.6954231262207</t>
   </si>
   <si>
     <t xml:space="preserve">42.5372009277344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0402793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4912033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5559539794922</t>
+    <t xml:space="preserve">43.0402755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4912071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5559577941895</t>
   </si>
   <si>
     <t xml:space="preserve">41.9992561340332</t>
@@ -5918,10 +5918,10 @@
     <t xml:space="preserve">42.3977355957031</t>
   </si>
   <si>
-    <t xml:space="preserve">41.56591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7789344787598</t>
+    <t xml:space="preserve">41.5659141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7789306640625</t>
   </si>
   <si>
     <t xml:space="preserve">40.8237571716309</t>
@@ -5930,25 +5930,25 @@
     <t xml:space="preserve">42.0789566040039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3716621398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1823883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8908500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5161094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5808639526367</t>
+    <t xml:space="preserve">41.3716583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1823844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8908462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5161056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5808601379395</t>
   </si>
   <si>
     <t xml:space="preserve">43.1149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7464027404785</t>
+    <t xml:space="preserve">42.7463989257812</t>
   </si>
   <si>
     <t xml:space="preserve">42.253288269043</t>
@@ -5963,7 +5963,7 @@
     <t xml:space="preserve">43.2843437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3989028930664</t>
+    <t xml:space="preserve">43.3988990783691</t>
   </si>
   <si>
     <t xml:space="preserve">44.1510238647461</t>
@@ -5975,7 +5975,7 @@
     <t xml:space="preserve">42.721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.262077331543</t>
+    <t xml:space="preserve">41.2620811462402</t>
   </si>
   <si>
     <t xml:space="preserve">41.137378692627</t>
@@ -6225,6 +6225,9 @@
   </si>
   <si>
     <t xml:space="preserve">36.7750015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8400001525879</t>
   </si>
 </sst>
 </file>
@@ -63142,7 +63145,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6521412037</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>3525499</v>
@@ -63163,6 +63166,32 @@
         <v>2070</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6496643518</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>2443508</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>38.0250015258789</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>36.8050003051758</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>36.8300018310547</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>37.8400001525879</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="2075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="2076">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,61 +38,61 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35176801681519</t>
+    <t xml:space="preserve">5.35176706314087</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391948699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24543952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94418287277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06379985809326</t>
+    <t xml:space="preserve">5.37391901016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24544048309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455720901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94418239593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0637993812561</t>
   </si>
   <si>
     <t xml:space="preserve">5.08152008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01506805419922</t>
+    <t xml:space="preserve">5.01506567001343</t>
   </si>
   <si>
     <t xml:space="preserve">4.8954496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64735555648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72710084915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91760110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86000823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99291658401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683555603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18784809112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32075500488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5555591583252</t>
+    <t xml:space="preserve">4.64735412597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72710037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91760206222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86000680923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99291610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683364868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18784713745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3207540512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55556058883667</t>
   </si>
   <si>
     <t xml:space="preserve">5.39607000350952</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">5.32518577575684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16126489639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70937776565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74925136566162</t>
+    <t xml:space="preserve">5.16126680374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70937824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74924945831299</t>
   </si>
   <si>
     <t xml:space="preserve">4.56761026382446</t>
@@ -116,175 +116,175 @@
     <t xml:space="preserve">4.27078151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19103527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951601028442</t>
+    <t xml:space="preserve">4.19103574752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951696395874</t>
   </si>
   <si>
     <t xml:space="preserve">4.13787412643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20698547363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29559183120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25128841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40900611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63849401473999</t>
+    <t xml:space="preserve">4.2069845199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2955904006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25128793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40900468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63849306106567</t>
   </si>
   <si>
     <t xml:space="preserve">4.60305118560791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80241441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279600143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45242166519165</t>
+    <t xml:space="preserve">4.80241346359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279695510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45242309570312</t>
   </si>
   <si>
     <t xml:space="preserve">4.52773761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64292478561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69608736038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78469324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355192184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8289966583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75811052322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73596048355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57203960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74039030075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62963438034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178537368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54988861083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53659725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50225687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42815160751343</t>
+    <t xml:space="preserve">4.6429238319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69608688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78469228744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79355382919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899522781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73595857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064357757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57203912734985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74038982391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62963247299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54988813400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53659772872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42815208435059</t>
   </si>
   <si>
     <t xml:space="preserve">4.47153043746948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42996025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41911554336548</t>
+    <t xml:space="preserve">4.42996072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41911697387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.43176746368408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40284872055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139728546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43357563018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17692422866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14800500869751</t>
+    <t xml:space="preserve">4.40285015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34139585494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43357610702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17692232131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14800453186035</t>
   </si>
   <si>
     <t xml:space="preserve">4.32693862915039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49321937561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501218795776</t>
+    <t xml:space="preserve">4.49322032928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501075744629</t>
   </si>
   <si>
     <t xml:space="preserve">4.52756118774414</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63600444793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55467128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926261901855</t>
+    <t xml:space="preserve">4.63600587844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5546703338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926500320435</t>
   </si>
   <si>
     <t xml:space="preserve">4.65407943725586</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667245864868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66763496398926</t>
+    <t xml:space="preserve">4.67667198181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6676344871521</t>
   </si>
   <si>
     <t xml:space="preserve">4.58178234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15111446380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08333778381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85289478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7580041885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55015420913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41188716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36308574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26006555557251</t>
+    <t xml:space="preserve">5.15111541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08333873748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85289335250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75800514221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55015230178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41188669204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308622360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26006460189819</t>
   </si>
   <si>
     <t xml:space="preserve">4.31428670883179</t>
@@ -293,46 +293,46 @@
     <t xml:space="preserve">4.26910018920898</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19499731063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22210788726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26729393005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28355932235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64052391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67215299606323</t>
+    <t xml:space="preserve">4.19499683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22210741043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26729297637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28356075286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6405234336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67215251922607</t>
   </si>
   <si>
     <t xml:space="preserve">4.79867124557495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83933877944946</t>
+    <t xml:space="preserve">4.83933973312378</t>
   </si>
   <si>
     <t xml:space="preserve">4.88904190063477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90259981155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91163682937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84385824203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81674528121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82126474380493</t>
+    <t xml:space="preserve">4.90259885787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91163539886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84385633468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81674575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82126522064209</t>
   </si>
   <si>
     <t xml:space="preserve">4.79415321350098</t>
@@ -341,205 +341,205 @@
     <t xml:space="preserve">5.0020055770874</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8664493560791</t>
+    <t xml:space="preserve">4.86645078659058</t>
   </si>
   <si>
     <t xml:space="preserve">4.57726430892944</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49502611160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46068620681763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44803428649902</t>
+    <t xml:space="preserve">4.49502801895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44803476333618</t>
   </si>
   <si>
     <t xml:space="preserve">4.54111623764038</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70117712020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75605201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82465076446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96641683578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65544557571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55849456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67373704910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82007694244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71946907043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57312870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42130041122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4834942817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8795280456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9435510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92525863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95727205276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04873275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617282867432</t>
+    <t xml:space="preserve">4.70117521286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75605344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82465028762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96641778945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65544462203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55849599838257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67373609542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79263830184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82007741928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7194676399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57312822341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42129945755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48349523544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87952756881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92525959014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95727109909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04873418807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07617425918579</t>
   </si>
   <si>
     <t xml:space="preserve">5.18592739105225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22251224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708559036255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30940103530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799692153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94049406051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89933443069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96336030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94506597518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71641063690186</t>
+    <t xml:space="preserve">5.22251272201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708511352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.309401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3779993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049310684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8993353843689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96335935592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94506645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71640920639038</t>
   </si>
   <si>
     <t xml:space="preserve">5.76671361923218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97250652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08225870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09597873687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00451707839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10969877243042</t>
+    <t xml:space="preserve">5.97250461578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08225965499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0959792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0045166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10970020294189</t>
   </si>
   <si>
     <t xml:space="preserve">6.06396913528442</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99079704284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18286991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15543127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799119949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29262399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22860145568848</t>
+    <t xml:space="preserve">5.990797996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18286848068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15543031692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12799167633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29262447357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22860050201416</t>
   </si>
   <si>
     <t xml:space="preserve">6.18744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21945381164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16915082931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689292907715</t>
+    <t xml:space="preserve">6.21945524215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16914892196655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689197540283</t>
   </si>
   <si>
     <t xml:space="preserve">6.1371374130249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11884498596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95421314239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96793127059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04567432403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19658851623535</t>
+    <t xml:space="preserve">6.11884593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95421361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96793413162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04567670822144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19658899307251</t>
   </si>
   <si>
     <t xml:space="preserve">6.21030759811401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30634307861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26975774765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47275400161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56502389907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63422584533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68958759307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63883924484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886362075806</t>
+    <t xml:space="preserve">6.30634450912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26975870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56502246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63422536849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68958806991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63884019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886457443237</t>
   </si>
   <si>
     <t xml:space="preserve">6.5927038192749</t>
@@ -548,190 +548,190 @@
     <t xml:space="preserve">6.67574787139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45891046524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66652154922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75879049301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85567426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92949151992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188234329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54195690155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68036079406738</t>
+    <t xml:space="preserve">6.45891189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66652011871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75879096984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85567474365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9294900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54195547103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68035840988159</t>
   </si>
   <si>
     <t xml:space="preserve">6.77724504470825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89258289337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75417804718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799339294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106134414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36315965652466</t>
+    <t xml:space="preserve">6.89258241653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75417757034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36316061019897</t>
   </si>
   <si>
     <t xml:space="preserve">7.76914834976196</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02750778198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71378660202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53386068344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48310995101929</t>
+    <t xml:space="preserve">8.02750587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71378612518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385972976685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48311042785645</t>
   </si>
   <si>
     <t xml:space="preserve">7.46465682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80605697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91678094863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6261305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78760242462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89371347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9121675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.295090675354</t>
+    <t xml:space="preserve">7.80605792999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91678142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765069961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613344192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78760385513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89371156692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216850280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508972167969</t>
   </si>
   <si>
     <t xml:space="preserve">8.5580587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65955448150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62726211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53498840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52576446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60880756378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90407180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6826229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58112812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81641387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93175506591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92252540588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3469705581665</t>
+    <t xml:space="preserve">8.65955829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6272611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53498935699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52576541900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60880947113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90407085418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68262577056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58112716674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81641578674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93175315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92252635955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34696960449219</t>
   </si>
   <si>
     <t xml:space="preserve">9.21317577362061</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11629390716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29160690307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315139770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43001365661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62378025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73514652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89290809631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86506748199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9764347076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599594116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0413990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0228357315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321168899536</t>
+    <t xml:space="preserve">9.11629486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29160594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315235137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001079559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62378120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73514366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89291191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93931579589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86506938934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97643566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599584579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0413961410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0228366851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321178436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.79082679748535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67946243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6516170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47529315948486</t>
+    <t xml:space="preserve">9.67946434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65162086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47529220581055</t>
   </si>
   <si>
     <t xml:space="preserve">9.7629861831665</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">9.93003273010254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0042762756348</t>
+    <t xml:space="preserve">10.0042753219604</t>
   </si>
   <si>
     <t xml:space="preserve">9.87435054779053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1898832321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1063613891602</t>
+    <t xml:space="preserve">10.1898822784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1063632965088</t>
   </si>
   <si>
     <t xml:space="preserve">10.069239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.245566368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3754901885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2200088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6283464431763</t>
+    <t xml:space="preserve">10.2455682754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3754911422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.220009803772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6283483505249</t>
   </si>
   <si>
     <t xml:space="preserve">11.5819425582886</t>
@@ -776,130 +776,130 @@
     <t xml:space="preserve">11.6933116912842</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2779750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336572647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2130107879639</t>
+    <t xml:space="preserve">12.2779769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336582183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2130117416382</t>
   </si>
   <si>
     <t xml:space="preserve">12.407901763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1016521453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9253215789795</t>
+    <t xml:space="preserve">12.1016473770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9253187179565</t>
   </si>
   <si>
     <t xml:space="preserve">11.8232364654541</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0088396072388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0459651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1851711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3986186981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3429355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027908325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7605571746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224927902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2431364059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1410551071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4565849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6329154968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514739990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885957717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823442459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5122690200806</t>
+    <t xml:space="preserve">12.0088453292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0459642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.185170173645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3986206054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3429374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7605581283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224918365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2431383132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1410531997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4565868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545045852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6329145431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885995864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5122680664062</t>
   </si>
   <si>
     <t xml:space="preserve">13.7257175445557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1781730651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2060165405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.252420425415</t>
+    <t xml:space="preserve">13.1781759262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2060146331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524185180664</t>
   </si>
   <si>
     <t xml:space="preserve">13.4101829528809</t>
   </si>
   <si>
-    <t xml:space="preserve">13.438027381897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4937086105347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.363245010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.794792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9811716079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825908660889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3818826675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657535552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564352035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259687423706</t>
+    <t xml:space="preserve">13.4380226135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4937105178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3632440567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7947940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9811706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141408920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825918197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3818788528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3912019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259696960449</t>
   </si>
   <si>
     <t xml:space="preserve">13.2607374191284</t>
@@ -908,64 +908,64 @@
     <t xml:space="preserve">13.3352870941162</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6707668304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5868997573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0929985046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9998111724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9532155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5804595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7295627593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582307815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7266807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4937076568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8291883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807971954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801233291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1367120742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3603639602661</t>
+    <t xml:space="preserve">13.67076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5868968963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0929975509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9532165527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5804567337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7295618057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.738881111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582279205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7266817092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.493706703186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8291864395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807981491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801230430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1367101669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3603620529175</t>
   </si>
   <si>
     <t xml:space="preserve">14.034200668335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2858076095581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3230905532837</t>
+    <t xml:space="preserve">14.2858104705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3230848312378</t>
   </si>
   <si>
     <t xml:space="preserve">13.6521291732788</t>
@@ -974,58 +974,58 @@
     <t xml:space="preserve">13.5216674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4471130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5403003692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.717360496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6987228393555</t>
+    <t xml:space="preserve">13.4471139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5403022766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7173614501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6987237930298</t>
   </si>
   <si>
     <t xml:space="preserve">13.5030269622803</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7919139862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775766372681</t>
+    <t xml:space="preserve">13.7919101715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.577579498291</t>
   </si>
   <si>
     <t xml:space="preserve">13.5123453140259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.024881362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2951326370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1302719116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9252557754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5990972518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6456928253174</t>
+    <t xml:space="preserve">14.024884223938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833057403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2951288223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1302738189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9252576828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5990982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6456918716431</t>
   </si>
   <si>
     <t xml:space="preserve">13.0277643203735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.692289352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041124343872</t>
+    <t xml:space="preserve">12.6922855377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041133880615</t>
   </si>
   <si>
     <t xml:space="preserve">12.5338649749756</t>
@@ -1034,55 +1034,55 @@
     <t xml:space="preserve">12.4872713088989</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1315631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9911527633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009649276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7758522033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8600969314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7196846008301</t>
+    <t xml:space="preserve">12.1315603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.991153717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009630203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7758550643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8600978851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.719690322876</t>
   </si>
   <si>
     <t xml:space="preserve">12.0379552841187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1596441268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3094167709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715169906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5247163772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9365873336792</t>
+    <t xml:space="preserve">12.1596431732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3094186782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715188980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.524715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9365882873535</t>
   </si>
   <si>
     <t xml:space="preserve">12.9553108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9740324020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7680959701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.245493888855</t>
+    <t xml:space="preserve">12.9740295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7680940628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518869400024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454929351807</t>
   </si>
   <si>
     <t xml:space="preserve">13.3297395706177</t>
@@ -1091,196 +1091,196 @@
     <t xml:space="preserve">13.4139881134033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6854515075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6667318344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203802108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5075960159302</t>
+    <t xml:space="preserve">13.685450553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6667280197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203792572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5075941085815</t>
   </si>
   <si>
     <t xml:space="preserve">13.4514322280884</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5731201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7322549819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6386461257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228937149048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726663589478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420690536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676383972168</t>
+    <t xml:space="preserve">13.5731210708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732253074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6386480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228918075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726673126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420671463013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676393508911</t>
   </si>
   <si>
     <t xml:space="preserve">13.3859062194824</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4795141220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2829360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706094741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5263185501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5169582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233493804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4888763427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701519012451</t>
+    <t xml:space="preserve">13.4795122146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2829351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5263175964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5169553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233484268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4888753890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701547622681</t>
   </si>
   <si>
     <t xml:space="preserve">13.1986894607544</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2922973632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6480093002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8071403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9849967956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0317983627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160469055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4717559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840854644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7900247573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7338609695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7432155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0521221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334005355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4280300140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5689659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2964868545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3246717453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904418945312</t>
+    <t xml:space="preserve">13.2922992706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6480073928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8071422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.98499584198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0318002700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160459518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.471752166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840845108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7900218963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7338562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7432165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0521230697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4280261993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5689716339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2964897155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3246726989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904409408569</t>
   </si>
   <si>
     <t xml:space="preserve">14.7891111373901</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8360872268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2307138442993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3622589111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072160720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.982385635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696327209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7662801742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.794469833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6441316604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8226556777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8414478302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884286880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9917812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1139221191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6723222732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.860237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5461406707764</t>
+    <t xml:space="preserve">14.8360919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1931314468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307167053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3622598648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072170257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823865890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7662792205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7944641113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441326141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8226566314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8414506912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8884210586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9917774200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1139297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723232269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8602390289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5461330413818</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528476715088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6494922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6414260864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071876525879</t>
+    <t xml:space="preserve">16.6494941711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6414203643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071895599365</t>
   </si>
   <si>
     <t xml:space="preserve">19.1300048828125</t>
@@ -1289,46 +1289,46 @@
     <t xml:space="preserve">18.998462677002</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3555068969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2051734924316</t>
+    <t xml:space="preserve">19.355504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2051753997803</t>
   </si>
   <si>
     <t xml:space="preserve">19.693754196167</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9662380218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7125549316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8816738128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8011512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2333564758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8951072692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2709407806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1018180847168</t>
+    <t xml:space="preserve">19.9662342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7125492095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8816719055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8011436462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2333602905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8951110839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2709426879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1018123626709</t>
   </si>
   <si>
     <t xml:space="preserve">19.327320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7031517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1863803863525</t>
+    <t xml:space="preserve">19.7031497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1863746643066</t>
   </si>
   <si>
     <t xml:space="preserve">19.3461074829102</t>
@@ -1337,196 +1337,196 @@
     <t xml:space="preserve">18.9890632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0172557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7206287384033</t>
+    <t xml:space="preserve">19.0172519683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7206211090088</t>
   </si>
   <si>
     <t xml:space="preserve">17.908540725708</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2602233886719</t>
+    <t xml:space="preserve">17.2602272033691</t>
   </si>
   <si>
     <t xml:space="preserve">17.372974395752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6454582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9877452850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.213249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2226428985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4951267242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4481449127197</t>
+    <t xml:space="preserve">17.6454544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9877433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2132472991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2226390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4951229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4481391906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.18505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5055675506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6186943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4584350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4490089416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4113025665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1567726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3735942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9203453063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1748733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.316276550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2408618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5802230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8536014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8347473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6462078094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.52366065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.230676651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683811187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0609893798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9101600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7223873138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8543605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9769077301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3634128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1277351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674797058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4301528930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5574188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0577907562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2887516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2942199707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2046680450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4686164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3602104187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8362655639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0153770446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0295124053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9588184356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065856933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.689395904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688774108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5904140472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6139812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7883758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7459564208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0625171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6524486541748</t>
   </si>
   <si>
     <t xml:space="preserve">17.1850605010986</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5055675506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6186904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3453140258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4584350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.449010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.411304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.156774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3735961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9203510284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1748714447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3162784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2408657073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802192687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8536033630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8347492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6462135314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5236625671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2306709289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.268383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0609912872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9101600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7223854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.854362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9769096374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.363410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674835205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4301567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5574150085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0577945709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2887516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2942237854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2046737670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.468620300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3602123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8362674713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0153751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0295143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9588146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5904121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6139793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7883777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7459526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0625076293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6524448394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1850528717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432758331299</t>
+    <t xml:space="preserve">17.5432720184326</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318115234375</t>
@@ -1535,49 +1535,49 @@
     <t xml:space="preserve">18.5566558837891</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6650619506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8253192901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3398418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.259708404541</t>
+    <t xml:space="preserve">18.6650676727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.825325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.33984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2597122192383</t>
   </si>
   <si>
     <t xml:space="preserve">18.6603507995605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7263374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.423770904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8256149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2511100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3292140960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5822429656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0361042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0763778686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0054569244385</t>
+    <t xml:space="preserve">18.7263355255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4237651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8256206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2511119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3292083740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.582239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5916976928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.036096572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.076379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0054607391357</t>
   </si>
   <si>
     <t xml:space="preserve">16.499605178833</t>
@@ -1589,79 +1589,79 @@
     <t xml:space="preserve">16.5279674530029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861389160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712390899658</t>
+    <t xml:space="preserve">16.3861408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712333679199</t>
   </si>
   <si>
     <t xml:space="preserve">16.9014549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065956115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2749443054199</t>
+    <t xml:space="preserve">16.6839809417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5065994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.274938583374</t>
   </si>
   <si>
     <t xml:space="preserve">17.4309539794922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7429847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.45458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8683643341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.617790222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8116283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6887092590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3505878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1472949981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9368133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9510021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1826572418213</t>
+    <t xml:space="preserve">17.7429866790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4545936584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8683624267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6177940368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8116302490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6887073516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1472911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9368152618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.951000213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1826553344727</t>
   </si>
   <si>
     <t xml:space="preserve">18.8161659240723</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5230503082275</t>
+    <t xml:space="preserve">18.5230541229248</t>
   </si>
   <si>
     <t xml:space="preserve">18.7972545623779</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8539867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187400817871</t>
+    <t xml:space="preserve">18.8539848327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187362670898</t>
   </si>
   <si>
     <t xml:space="preserve">19.2700233459473</t>
@@ -1670,61 +1670,61 @@
     <t xml:space="preserve">19.3078441619873</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0619983673096</t>
+    <t xml:space="preserve">19.0620021820068</t>
   </si>
   <si>
     <t xml:space="preserve">18.9390850067139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1376533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0714569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0998268127441</t>
+    <t xml:space="preserve">19.1376476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0714626312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0998287200928</t>
   </si>
   <si>
     <t xml:space="preserve">19.4307651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3362102508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1470985412598</t>
+    <t xml:space="preserve">19.3362140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1471042633057</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267555236816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2605628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2416553497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1943855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0264511108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2817459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.102087020874</t>
+    <t xml:space="preserve">19.2605609893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2416572570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1943798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0264530181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2817420959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1020946502686</t>
   </si>
   <si>
     <t xml:space="preserve">19.8657112121582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2061004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1304626464844</t>
+    <t xml:space="preserve">20.2061061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1304569244385</t>
   </si>
   <si>
     <t xml:space="preserve">21.0098114013672</t>
@@ -1739,184 +1739,184 @@
     <t xml:space="preserve">21.0092010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1180191040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.918924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4069595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1130599975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1934375762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5963668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8049411773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.84739112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412925720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539470672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9753818511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0085601806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1460342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4020137786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4446754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4873352050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437721252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363166809082</t>
+    <t xml:space="preserve">20.1180114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9189205169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1130638122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1934394836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5963687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8049392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412944793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715473175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9896068572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539432525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.975378036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.00856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1460304260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986289978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4020080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4446773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4873390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363185882568</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604652404785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1889114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7670154571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396976470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8142147064209</t>
+    <t xml:space="preserve">19.188907623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7670192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396957397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8142108917236</t>
   </si>
   <si>
     <t xml:space="preserve">18.0701866149902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1886978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6909561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6577777862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6388149261475</t>
+    <t xml:space="preserve">18.1886920928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6909618377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6577816009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6388206481934</t>
   </si>
   <si>
     <t xml:space="preserve">17.7810287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.999080657959</t>
+    <t xml:space="preserve">17.9990825653076</t>
   </si>
   <si>
     <t xml:space="preserve">18.041748046875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0749244689941</t>
+    <t xml:space="preserve">18.0749282836914</t>
   </si>
   <si>
     <t xml:space="preserve">17.9848594665527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0747184753418</t>
+    <t xml:space="preserve">17.0747165679932</t>
   </si>
   <si>
     <t xml:space="preserve">17.1363430023193</t>
   </si>
   <si>
-    <t xml:space="preserve">16.975170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4347667694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0602855682373</t>
+    <t xml:space="preserve">16.9751720428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4347705841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0602874755859</t>
   </si>
   <si>
     <t xml:space="preserve">16.0650196075439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2830753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1266479492188</t>
+    <t xml:space="preserve">16.2830791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.126651763916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1076908111572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5200939178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.785551071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7476348876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8898448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7713356018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7760734558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.795036315918</t>
+    <t xml:space="preserve">16.5200977325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7855567932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7476329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8898429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7713375091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7760791778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7950382232666</t>
   </si>
   <si>
     <t xml:space="preserve">16.382625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.624171257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.387152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3539733886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3492336273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0790300369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4675264358521</t>
+    <t xml:space="preserve">15.6241731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3871564865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.353967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3492307662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0790328979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4675283432007</t>
   </si>
   <si>
     <t xml:space="preserve">14.7946119308472</t>
@@ -1925,49 +1925,49 @@
     <t xml:space="preserve">15.0695514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7983274459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9268016815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4502153396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4692478179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.359808921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6500635147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3931169509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1266498565674</t>
+    <t xml:space="preserve">14.7983293533325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887348175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9268026351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4502182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4692487716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3598070144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6500625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3931112289429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1266508102417</t>
   </si>
   <si>
     <t xml:space="preserve">14.9172859191895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2503681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.540623664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6024799346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1932687759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4462127685547</t>
+    <t xml:space="preserve">15.2503671646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.540620803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6024837493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1932668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4462156295776</t>
   </si>
   <si>
     <t xml:space="preserve">14.2273302078247</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">13.4469709396362</t>
   </si>
   <si>
-    <t xml:space="preserve">13.713433265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.689642906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1131315231323</t>
+    <t xml:space="preserve">13.7134351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6896438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.113133430481</t>
   </si>
   <si>
     <t xml:space="preserve">13.5183429718018</t>
@@ -2000,61 +2000,61 @@
     <t xml:space="preserve">12.8759727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">11.567440032959</t>
+    <t xml:space="preserve">11.567437171936</t>
   </si>
   <si>
     <t xml:space="preserve">11.4960632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5912303924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2431182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.262152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7522573471069</t>
+    <t xml:space="preserve">11.5912294387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2431173324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2621536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7522563934326</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662302017212</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1424379348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6285419464111</t>
+    <t xml:space="preserve">13.1424388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6285400390625</t>
   </si>
   <si>
     <t xml:space="preserve">12.7903213500977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6332998275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4810333251953</t>
+    <t xml:space="preserve">12.6332969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4810352325439</t>
   </si>
   <si>
     <t xml:space="preserve">12.3620748519897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9385871887207</t>
+    <t xml:space="preserve">11.9385862350464</t>
   </si>
   <si>
     <t xml:space="preserve">11.8339033126831</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7530117034912</t>
+    <t xml:space="preserve">11.7530126571655</t>
   </si>
   <si>
     <t xml:space="preserve">11.5721960067749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6055059432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.400897026062</t>
+    <t xml:space="preserve">11.605504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4008989334106</t>
   </si>
   <si>
     <t xml:space="preserve">11.9433441162109</t>
@@ -2063,52 +2063,52 @@
     <t xml:space="preserve">11.7625293731689</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8434228897095</t>
+    <t xml:space="preserve">11.8434181213379</t>
   </si>
   <si>
     <t xml:space="preserve">12.1765031814575</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0718193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3668355941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3240089416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0663061141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6475772857666</t>
+    <t xml:space="preserve">12.1098871231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0718202590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3668365478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.324010848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0663032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.647572517395</t>
   </si>
   <si>
     <t xml:space="preserve">12.2383613586426</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5055809020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3818655014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0630598068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4199304580688</t>
+    <t xml:space="preserve">11.5055799484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3818674087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0630569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4199314117432</t>
   </si>
   <si>
     <t xml:space="preserve">11.6435718536377</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6530876159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6483278274536</t>
+    <t xml:space="preserve">11.6530885696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6483316421509</t>
   </si>
   <si>
     <t xml:space="preserve">11.5813875198364</t>
@@ -2117,67 +2117,67 @@
     <t xml:space="preserve">11.5861673355103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5000944137573</t>
+    <t xml:space="preserve">11.5000953674316</t>
   </si>
   <si>
     <t xml:space="preserve">11.1605911254883</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4474983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961460113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6052942276001</t>
+    <t xml:space="preserve">11.4474964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961488723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6052932739258</t>
   </si>
   <si>
     <t xml:space="preserve">10.2520608901978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4385499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449954986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8928174972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4761877059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6244220733643</t>
+    <t xml:space="preserve">10.4385480880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8928146362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4761848449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6244211196899</t>
   </si>
   <si>
     <t xml:space="preserve">11.7487449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6196384429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7774343490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0021781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726554870605</t>
+    <t xml:space="preserve">11.6196374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7774381637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0021820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726564407349</t>
   </si>
   <si>
     <t xml:space="preserve">12.2986478805542</t>
   </si>
   <si>
-    <t xml:space="preserve">12.351243019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.930456161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9495801925659</t>
+    <t xml:space="preserve">12.3512487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9495811462402</t>
   </si>
   <si>
     <t xml:space="preserve">13.1641445159912</t>
@@ -2186,49 +2186,49 @@
     <t xml:space="preserve">13.7475156784058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4414854049683</t>
+    <t xml:space="preserve">13.4414863586426</t>
   </si>
   <si>
     <t xml:space="preserve">13.2310886383057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2884693145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.269341468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3028125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458480834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2071781158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8766231536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.240650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489660263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.31715965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0344200134277</t>
+    <t xml:space="preserve">13.2884674072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2693433761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3028144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458490371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.207179069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8766250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2406530380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489622116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3171586990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0344228744507</t>
   </si>
   <si>
     <t xml:space="preserve">13.981822013855</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9483480453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0774574279785</t>
+    <t xml:space="preserve">13.9483509063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0774555206299</t>
   </si>
   <si>
     <t xml:space="preserve">13.9770383834839</t>
@@ -2237,46 +2237,46 @@
     <t xml:space="preserve">13.8335876464844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0487670898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.020076751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1874389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5938863754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3739233016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0631113052368</t>
+    <t xml:space="preserve">14.0487661361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0200748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1874380111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5938844680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3739252090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0631093978882</t>
   </si>
   <si>
     <t xml:space="preserve">13.7570791244507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2065629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1348390579224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6231918334961</t>
+    <t xml:space="preserve">14.2065649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.134838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6231899261475</t>
   </si>
   <si>
     <t xml:space="preserve">13.3362855911255</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3219413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466823577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4845209121704</t>
+    <t xml:space="preserve">13.3219404220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466842651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4845237731934</t>
   </si>
   <si>
     <t xml:space="preserve">13.3506298065186</t>
@@ -2285,166 +2285,166 @@
     <t xml:space="preserve">13.3601932525635</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6889324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8329763412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6553249359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.25550365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9386081695557</t>
+    <t xml:space="preserve">13.6889314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8329753875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6553211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2555027008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9386072158813</t>
   </si>
   <si>
     <t xml:space="preserve">13.4008445739746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5736980438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6854276657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2388963699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.656623840332</t>
+    <t xml:space="preserve">13.5736970901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6854305267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2388916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6566219329834</t>
   </si>
   <si>
     <t xml:space="preserve">13.1655750274658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5256843566895</t>
+    <t xml:space="preserve">13.5256824493408</t>
   </si>
   <si>
     <t xml:space="preserve">14.3083200454712</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5435914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.966118812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0381383895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.908501625061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901256561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0717496871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3982467651367</t>
+    <t xml:space="preserve">14.5435934066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9661178588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0381412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9085025787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901266098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0717515945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.398250579834</t>
   </si>
   <si>
     <t xml:space="preserve">15.2205963134766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5759010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8255796432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3934478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1712818145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120035171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903072357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5230884552002</t>
+    <t xml:space="preserve">15.5759019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8255786895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408111572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3934516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1712837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120073318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903081893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5230846405029</t>
   </si>
   <si>
     <t xml:space="preserve">15.729546546936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7343454360962</t>
+    <t xml:space="preserve">15.7343521118164</t>
   </si>
   <si>
     <t xml:space="preserve">15.7487545013428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7068395614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421129226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1882829666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3227243423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5929050445557</t>
+    <t xml:space="preserve">14.7068424224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421100616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1882810592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3227262496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5929021835327</t>
   </si>
   <si>
     <t xml:space="preserve">14.5003786087036</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9805240631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1293678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9565134048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5881023406982</t>
+    <t xml:space="preserve">14.980523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1293659210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9565162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5881013870239</t>
   </si>
   <si>
     <t xml:space="preserve">14.1930856704712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9722194671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1799802780151</t>
+    <t xml:space="preserve">13.9722185134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1799793243408</t>
   </si>
   <si>
     <t xml:space="preserve">13.1175603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1559724807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071287155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.973518371582</t>
+    <t xml:space="preserve">13.1559743881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071277618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9735174179077</t>
   </si>
   <si>
     <t xml:space="preserve">13.0455389022827</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1511707305908</t>
+    <t xml:space="preserve">13.1511697769165</t>
   </si>
   <si>
     <t xml:space="preserve">13.2279939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">13.564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248523712158</t>
+    <t xml:space="preserve">13.5640935897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248542785645</t>
   </si>
   <si>
     <t xml:space="preserve">13.2760076522827</t>
@@ -2453,106 +2453,106 @@
     <t xml:space="preserve">13.8953952789307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2218942642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626169204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0202369689941</t>
+    <t xml:space="preserve">14.2218933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9626140594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0202331542969</t>
   </si>
   <si>
     <t xml:space="preserve">13.5687952041626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.988299369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2968988418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6488962173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4560222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4367341995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3402967453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6055002212524</t>
+    <t xml:space="preserve">13.9882965087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2968997955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6488971710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4560213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4367361068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3402948379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6055011749268</t>
   </si>
   <si>
     <t xml:space="preserve">14.8465957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0442943572998</t>
+    <t xml:space="preserve">15.0442924499512</t>
   </si>
   <si>
     <t xml:space="preserve">15.6759586334229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5264825820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4348640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.565052986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1889495849609</t>
+    <t xml:space="preserve">15.5264797210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4348649978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5650539398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.188946723938</t>
   </si>
   <si>
     <t xml:space="preserve">15.1069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9526739120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1455516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0973310470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2709197998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3336057662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3191413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3818264007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7338228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520668029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3847732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9634056091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4812126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7946395874023</t>
+    <t xml:space="preserve">14.9526767730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1455526351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0973329544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2709217071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.333607673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3818244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7338256835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520687103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3847789764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9634037017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4812164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946376800537</t>
   </si>
   <si>
     <t xml:space="preserve">16.1292190551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1147537231445</t>
+    <t xml:space="preserve">16.1147518157959</t>
   </si>
   <si>
     <t xml:space="preserve">16.3317375183105</t>
@@ -2564,154 +2564,154 @@
     <t xml:space="preserve">14.5862121582031</t>
   </si>
   <si>
-    <t xml:space="preserve">14.480131149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5572824478149</t>
+    <t xml:space="preserve">14.4801340103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5572786331177</t>
   </si>
   <si>
     <t xml:space="preserve">15.1407308578491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1214437484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.627739906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9285650253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6904277801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8736600875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7579364776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.053936958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1744823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2130584716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5457706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5361242294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4686193466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660989761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7290000915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7030200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0212669372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7801685333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4504146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5275611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6143608093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4692249298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2273368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5127639770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5611419677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0628490447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9370708465576</t>
+    <t xml:space="preserve">15.1214418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.627742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9285678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6904249191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8736591339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7579345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539379119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1744832992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2130575180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.545768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5361261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4686183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2661008834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7289991378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7030162811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7801723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4504165649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5275707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6143550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4692268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2273406982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5127658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5611476898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547718048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0628528594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">16.9225578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9757690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128238677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1692886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1160659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6467990875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7677478790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3047409057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3192539215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8403186798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0773658752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3434410095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5770797729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3980731964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.847993850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7754249572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4029216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.38356590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061038970947</t>
+    <t xml:space="preserve">16.9757709503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128200531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1692905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1160678863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.646800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7677459716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.304744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3192558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8403167724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0773620605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3434429168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.577075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3980770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8479976654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.775426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4029178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3835678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6061058044434</t>
   </si>
   <si>
     <t xml:space="preserve">17.8804378509521</t>
@@ -2720,13 +2720,13 @@
     <t xml:space="preserve">19.3995018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5543098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2896556854248</t>
+    <t xml:space="preserve">19.5543060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897117614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2896518707275</t>
   </si>
   <si>
     <t xml:space="preserve">19.9993877410889</t>
@@ -2735,109 +2735,109 @@
     <t xml:space="preserve">19.6800918579102</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0767917633057</t>
+    <t xml:space="preserve">20.0767936706543</t>
   </si>
   <si>
     <t xml:space="preserve">20.3283576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6186237335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5025157928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8895378112793</t>
+    <t xml:space="preserve">20.6186199188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5025119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.889533996582</t>
   </si>
   <si>
     <t xml:space="preserve">20.9185657501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3636436462402</t>
+    <t xml:space="preserve">21.3636379241943</t>
   </si>
   <si>
     <t xml:space="preserve">21.1507797241211</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0153198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2862319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3249397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1701240539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7637538909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0443420410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4410381317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7893657684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8280696868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7313079833984</t>
+    <t xml:space="preserve">21.0153179168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3249378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1701278686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7637500762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0443477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4410438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.789363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8280658721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7313098907471</t>
   </si>
   <si>
     <t xml:space="preserve">21.5765037536621</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0830516815186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6055278778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2441120147705</t>
+    <t xml:space="preserve">21.0830535888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.073371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5571479797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.605525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2441158294678</t>
   </si>
   <si>
     <t xml:space="preserve">22.3408679962158</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6311359405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9407596588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4051837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.772855758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7243595123291</t>
+    <t xml:space="preserve">22.631139755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9407520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4051856994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7728538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7243576049805</t>
   </si>
   <si>
     <t xml:space="preserve">23.5982685089111</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2103004455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.375186920166</t>
+    <t xml:space="preserve">23.2103023529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751907348633</t>
   </si>
   <si>
     <t xml:space="preserve">23.6176662445068</t>
   </si>
   <si>
-    <t xml:space="preserve">23.540075302124</t>
+    <t xml:space="preserve">23.5400714874268</t>
   </si>
   <si>
     <t xml:space="preserve">23.2490921020508</t>
@@ -2846,103 +2846,103 @@
     <t xml:space="preserve">24.0153369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8504486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3072929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8989448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8795490264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4518013000488</t>
+    <t xml:space="preserve">23.8504467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3072910308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.898946762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8795471191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4517974853516</t>
   </si>
   <si>
     <t xml:space="preserve">23.9668369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.170524597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.335412979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3936042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778903961182</t>
+    <t xml:space="preserve">24.1705265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3354091644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3936080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778980255127</t>
   </si>
   <si>
     <t xml:space="preserve">24.3451099395752</t>
   </si>
   <si>
-    <t xml:space="preserve">26.187967300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9154071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3635330200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2461643218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0909748077393</t>
+    <t xml:space="preserve">26.1879653930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9154090881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3635292053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2461605072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.090970993042</t>
   </si>
   <si>
     <t xml:space="preserve">25.6545085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5196990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9852561950684</t>
+    <t xml:space="preserve">24.5196971893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.985258102417</t>
   </si>
   <si>
     <t xml:space="preserve">25.8678913116455</t>
   </si>
   <si>
-    <t xml:space="preserve">26.566234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4013481140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7214279174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4100723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4672927856445</t>
+    <t xml:space="preserve">26.5662364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7214202880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4100742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7204513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4672908782959</t>
   </si>
   <si>
     <t xml:space="preserve">28.0793209075928</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3324775695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0027027130127</t>
+    <t xml:space="preserve">27.3324794769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0027046203613</t>
   </si>
   <si>
     <t xml:space="preserve">28.2442111968994</t>
   </si>
   <si>
-    <t xml:space="preserve">27.836841583252</t>
+    <t xml:space="preserve">27.8368396759033</t>
   </si>
   <si>
     <t xml:space="preserve">27.4391689300537</t>
   </si>
   <si>
-    <t xml:space="preserve">25.499324798584</t>
+    <t xml:space="preserve">25.4993209838867</t>
   </si>
   <si>
     <t xml:space="preserve">25.3053359985352</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">24.1123275756836</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6467628479004</t>
+    <t xml:space="preserve">23.6467590332031</t>
   </si>
   <si>
     <t xml:space="preserve">23.5788707733154</t>
@@ -2963,73 +2963,73 @@
     <t xml:space="preserve">24.2287178039551</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6952610015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5895462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3005218505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4654102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0580425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572883605957</t>
+    <t xml:space="preserve">23.6952648162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5895442962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3005199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4654083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0580406188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.857292175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.5992832183838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0033283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7551774978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5850706100464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6798534393311</t>
+    <t xml:space="preserve">16.003324508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7551803588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5850687026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798572540283</t>
   </si>
   <si>
     <t xml:space="preserve">15.4826993942261</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6384000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8960876464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9178943634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6892070770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9739475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838291168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3412113189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4264545440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0687274932861</t>
+    <t xml:space="preserve">15.6384019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8960914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9178905487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6892032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9739456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838348388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3412094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4264526367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.458179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0687313079834</t>
   </si>
   <si>
     <t xml:space="preserve">20.0467395782471</t>
@@ -3038,10 +3038,10 @@
     <t xml:space="preserve">20.6306228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5745677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4967155456543</t>
+    <t xml:space="preserve">21.5745697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4967231750488</t>
   </si>
   <si>
     <t xml:space="preserve">19.852108001709</t>
@@ -3053,46 +3053,46 @@
     <t xml:space="preserve">20.8155193328857</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5333080291748</t>
+    <t xml:space="preserve">20.5333099365234</t>
   </si>
   <si>
     <t xml:space="preserve">19.1757717132568</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7765941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7594680786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0416774749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2581043243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6376342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2896347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0732097625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8275833129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1681861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2946968078613</t>
+    <t xml:space="preserve">20.77659034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7594661712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0416793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2581062316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.637638092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2896385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.073205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8275909423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1681880950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.29469871521</t>
   </si>
   <si>
     <t xml:space="preserve">22.5769081115723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7715358734131</t>
+    <t xml:space="preserve">22.7715339660645</t>
   </si>
   <si>
     <t xml:space="preserve">22.2655010223389</t>
@@ -3101,118 +3101,118 @@
     <t xml:space="preserve">23.0634803771973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6718864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0393447875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6134929656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8957080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923564910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3410129547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6329574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3336181640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1463871002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6232280731201</t>
+    <t xml:space="preserve">21.6718883514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0393409729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6134948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8957061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3410148620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6329612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3336277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.146390914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6232261657715</t>
   </si>
   <si>
     <t xml:space="preserve">21.7205410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1389942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9782333374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6278991699219</t>
+    <t xml:space="preserve">22.1389923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.978235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6279029846191</t>
   </si>
   <si>
     <t xml:space="preserve">24.3772201538086</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3359603881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4040775299072</t>
+    <t xml:space="preserve">23.335958480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4040832519531</t>
   </si>
   <si>
     <t xml:space="preserve">22.3920059204102</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3141574859619</t>
+    <t xml:space="preserve">22.3141593933105</t>
   </si>
   <si>
     <t xml:space="preserve">22.2071132659912</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1899890899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3651523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6765594482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5500545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0938282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469692230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1328239440918</t>
+    <t xml:space="preserve">23.1899852752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3651561737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6765575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5500507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0938262939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469654083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1328201293945</t>
   </si>
   <si>
     <t xml:space="preserve">23.1133232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8793621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9183559417725</t>
+    <t xml:space="preserve">22.8793640136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9183597564697</t>
   </si>
   <si>
     <t xml:space="preserve">23.6104888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4155197143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6202354431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.049165725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9321842193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2400493621826</t>
+    <t xml:space="preserve">23.4155235290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6202373504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0491638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9321823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2400512695312</t>
   </si>
   <si>
     <t xml:space="preserve">23.5227546691895</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7120513916016</t>
+    <t xml:space="preserve">24.7120494842529</t>
   </si>
   <si>
     <t xml:space="preserve">25.2092189788818</t>
@@ -3221,127 +3221,127 @@
     <t xml:space="preserve">24.1466484069824</t>
   </si>
   <si>
-    <t xml:space="preserve">24.877779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9070167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5016689300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1060695648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8136157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0085792541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2384605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.49192237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1563949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9614315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0645790100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2108097076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9516830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0686645507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7859592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7274723052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8736953735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5617485046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.39035987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8387813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.673059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0784091949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4683418273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1174030303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1368999481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7079734802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4585971832275</t>
+    <t xml:space="preserve">24.8777732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9070205688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5016651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1060619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8136138916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.008581161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2384643554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4919185638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9614276885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.064582824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.210807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9516773223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.068660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7859573364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7274703979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8736915588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.56174659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3903579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8387832641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6730575561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0784111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4683437347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1174011230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1368961334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.707971572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4585933685303</t>
   </si>
   <si>
     <t xml:space="preserve">24.6633129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3554420471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9557571411133</t>
+    <t xml:space="preserve">25.3554401397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9557628631592</t>
   </si>
   <si>
     <t xml:space="preserve">24.6340656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5073356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8680267333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3456954956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5909957885742</t>
+    <t xml:space="preserve">24.5073375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8680229187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3456916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.590991973877</t>
   </si>
   <si>
     <t xml:space="preserve">23.0255870819092</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5325012207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7233905792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.322114944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5755748748779</t>
+    <t xml:space="preserve">23.532506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7233848571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3221187591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5755729675293</t>
   </si>
   <si>
     <t xml:space="preserve">24.7607936859131</t>
@@ -3353,16 +3353,16 @@
     <t xml:space="preserve">25.9305934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1353073120117</t>
+    <t xml:space="preserve">26.1353092193604</t>
   </si>
   <si>
     <t xml:space="preserve">25.4431762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2872066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6349582672119</t>
+    <t xml:space="preserve">25.2872047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6349563598633</t>
   </si>
   <si>
     <t xml:space="preserve">24.7228317260742</t>
@@ -3371,70 +3371,70 @@
     <t xml:space="preserve">24.918119430542</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0645847320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4592018127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1426906585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5723190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6309032440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4177417755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052856445312</t>
+    <t xml:space="preserve">25.0645809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4592037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1426944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5723171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6308994293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4177398681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052894592285</t>
   </si>
   <si>
     <t xml:space="preserve">27.39821434021</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3689193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5642013549805</t>
+    <t xml:space="preserve">27.3689250946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5642032623291</t>
   </si>
   <si>
     <t xml:space="preserve">27.8375988006592</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5894393920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9800052642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1752872467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8237800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.413688659668</t>
+    <t xml:space="preserve">28.5894451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9800109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1752853393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8237762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4136867523193</t>
   </si>
   <si>
     <t xml:space="preserve">28.5503807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7554302215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4527435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2574596405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9840602874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9352416992188</t>
+    <t xml:space="preserve">28.7554321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4527397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2574577331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9840621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.935245513916</t>
   </si>
   <si>
     <t xml:space="preserve">27.3005695343018</t>
@@ -3443,22 +3443,22 @@
     <t xml:space="preserve">26.5584964752197</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3282165527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9140605926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5527877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.050760269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.802604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2810459136963</t>
+    <t xml:space="preserve">25.3282146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.552791595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0507621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.281042098999</t>
   </si>
   <si>
     <t xml:space="preserve">28.1402893066406</t>
@@ -3467,169 +3467,169 @@
     <t xml:space="preserve">28.3160438537598</t>
   </si>
   <si>
-    <t xml:space="preserve">29.761137008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9742984771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4722747802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0426483154297</t>
+    <t xml:space="preserve">29.7611389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9742965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4722709655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0426445007324</t>
   </si>
   <si>
     <t xml:space="preserve">28.2769870758057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0776481628418</t>
+    <t xml:space="preserve">29.0776462554932</t>
   </si>
   <si>
     <t xml:space="preserve">28.9897708892822</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4096298217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7123241424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3762798309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5813274383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6887302398682</t>
+    <t xml:space="preserve">29.409631729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7123165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762836456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5813312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6887321472168</t>
   </si>
   <si>
     <t xml:space="preserve">31.2257614135742</t>
   </si>
   <si>
-    <t xml:space="preserve">31.772554397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4560432434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0557098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5008125305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6318054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8758926391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2957572937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5789222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1785850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2338733673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7456645965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3178596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5205860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3348026275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9925556182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3445796966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4351997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5108032226562</t>
+    <t xml:space="preserve">31.7725620269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4560470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.055721282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6318016052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8759078979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2957649230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.578914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1785926818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2338790893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7456665039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3178558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5205879211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3347988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9925575256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.344575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4351978302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5108070373535</t>
   </si>
   <si>
     <t xml:space="preserve">29.6574821472168</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7357120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4716911315918</t>
+    <t xml:space="preserve">29.7357063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4716949462891</t>
   </si>
   <si>
     <t xml:space="preserve">29.8726024627686</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0166606903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3002300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3882369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6620254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2682838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6007423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8843078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9234161376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1704940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3660659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0238227844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7474174499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6594123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8771495819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9260406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9749336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9775505065918</t>
+    <t xml:space="preserve">31.0166625976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3002262115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3882312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6620273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2682762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6007385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8843154907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9234237670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1705017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3660545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0238189697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7474136352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6594161987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8771457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9260444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9749317169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9775466918945</t>
   </si>
   <si>
     <t xml:space="preserve">32.2780570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5322914123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1874351501465</t>
+    <t xml:space="preserve">32.5322875976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1874313354492</t>
   </si>
   <si>
     <t xml:space="preserve">33.1776580810547</t>
@@ -3638,19 +3638,19 @@
     <t xml:space="preserve">32.9625396728516</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9723129272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5394554138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8034591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.096809387207</t>
+    <t xml:space="preserve">32.9723167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5394515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.803466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9038734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0968132019043</t>
   </si>
   <si>
     <t xml:space="preserve">34.5759468078613</t>
@@ -3662,79 +3662,79 @@
     <t xml:space="preserve">34.3608322143555</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6372337341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1972198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8523635864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0798797607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1900520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0140380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.710916519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2806701660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7330913543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0681705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6868171691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6209850311279</t>
+    <t xml:space="preserve">33.6372375488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1972236633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8523559570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0798721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.190055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.014045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7109184265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2806720733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7330894470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0681686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6868133544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6209888458252</t>
   </si>
   <si>
     <t xml:space="preserve">27.8387222290039</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4254207611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2370147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4938697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6183700561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0218925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.559700012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170597076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8921604156494</t>
+    <t xml:space="preserve">28.4254169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2370166778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4938659667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6183662414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0218982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5596981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1170616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8921642303467</t>
   </si>
   <si>
     <t xml:space="preserve">30.1366176605225</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3527355194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7162818908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5987777709961</t>
+    <t xml:space="preserve">31.3527317047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7162799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5987796783447</t>
   </si>
   <si>
     <t xml:space="preserve">30.8044052124023</t>
@@ -3743,31 +3743,31 @@
     <t xml:space="preserve">31.5975246429443</t>
   </si>
   <si>
-    <t xml:space="preserve">31.235237121582</t>
+    <t xml:space="preserve">31.2352333068848</t>
   </si>
   <si>
     <t xml:space="preserve">31.2646083831787</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8423156738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3955383300781</t>
+    <t xml:space="preserve">31.8423175811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3955421447754</t>
   </si>
   <si>
     <t xml:space="preserve">32.4591827392578</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5081443786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4249153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5864753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1605453491211</t>
+    <t xml:space="preserve">32.5081481933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4249114990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5864791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1605491638184</t>
   </si>
   <si>
     <t xml:space="preserve">32.1164817810059</t>
@@ -3776,64 +3776,64 @@
     <t xml:space="preserve">31.9108562469482</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9891891479492</t>
+    <t xml:space="preserve">31.9891929626465</t>
   </si>
   <si>
     <t xml:space="preserve">31.2401294708252</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0504512786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3980522155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0491905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5289878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9353370666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0675201416016</t>
+    <t xml:space="preserve">30.0504531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3980503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0491924285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5289783477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9353408813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0675163269043</t>
   </si>
   <si>
     <t xml:space="preserve">31.3331508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4959716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0602436065674</t>
+    <t xml:space="preserve">30.4959697723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0602416992188</t>
   </si>
   <si>
     <t xml:space="preserve">29.4237842559814</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1483669281006</t>
+    <t xml:space="preserve">30.1483688354492</t>
   </si>
   <si>
     <t xml:space="preserve">29.4776401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3001327514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5119113922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5180644989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9354610443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3124408721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5817089080811</t>
+    <t xml:space="preserve">30.300142288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5119094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5180606842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9354648590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3124351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5817127227783</t>
   </si>
   <si>
     <t xml:space="preserve">28.4299373626709</t>
@@ -3848,16 +3848,16 @@
     <t xml:space="preserve">28.9831657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0615005493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3111839294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4433689117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3993110656738</t>
+    <t xml:space="preserve">29.0614986419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.311185836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4433727264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3993091583252</t>
   </si>
   <si>
     <t xml:space="preserve">29.6196212768555</t>
@@ -3866,136 +3866,136 @@
     <t xml:space="preserve">29.99169921875</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0112838745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8888854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8839950561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9329490661621</t>
+    <t xml:space="preserve">30.0112819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8888874053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8839912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4874324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9329509735107</t>
   </si>
   <si>
     <t xml:space="preserve">29.5217037200928</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5559730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9231586456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4421138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7554492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9316940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8925285339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8337783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2009620666504</t>
+    <t xml:space="preserve">29.5559711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9231567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4421195983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.755443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.931697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8925304412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8337821960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.200963973999</t>
   </si>
   <si>
     <t xml:space="preserve">29.8105545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">29.609432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9626293182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1882781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2177085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3599643707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5856246948242</t>
+    <t xml:space="preserve">29.6094284057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9626235961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1882801055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2177124023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3599720001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5856227874756</t>
   </si>
   <si>
     <t xml:space="preserve">30.0263957977295</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1686534881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8358020782471</t>
+    <t xml:space="preserve">30.1686553955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8357982635498</t>
   </si>
   <si>
     <t xml:space="preserve">31.144847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0271110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674827575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3943061828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5323734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7825527191162</t>
+    <t xml:space="preserve">31.0271148681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674808502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.39430809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.532377243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7825584411621</t>
   </si>
   <si>
     <t xml:space="preserve">31.8119869232178</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6017723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9051933288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5618076324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7475032806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5071315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7187938690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7089748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047882080078</t>
+    <t xml:space="preserve">32.6017684936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9051952362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5618114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7474994659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7187919616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7089710235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047843933105</t>
   </si>
   <si>
     <t xml:space="preserve">32.5674362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3775520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8722801208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4020805358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4462242126465</t>
+    <t xml:space="preserve">34.377555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8722915649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4020767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4462280273438</t>
   </si>
   <si>
     <t xml:space="preserve">34.8386573791504</t>
@@ -4004,55 +4004,55 @@
     <t xml:space="preserve">35.1035614013672</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2703475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8148612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6922225952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5450477600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9080619812012</t>
+    <t xml:space="preserve">35.2703437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8148498535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.692211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.545051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9080581665039</t>
   </si>
   <si>
     <t xml:space="preserve">35.8001365661621</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8295669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4126052856445</t>
+    <t xml:space="preserve">35.8295745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.41259765625</t>
   </si>
   <si>
     <t xml:space="preserve">35.7903289794922</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1624221801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7952270507812</t>
+    <t xml:space="preserve">35.1624336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6971130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7952308654785</t>
   </si>
   <si>
     <t xml:space="preserve">35.9423980712891</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0944595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246688842773</t>
+    <t xml:space="preserve">36.0944671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246650695801</t>
   </si>
   <si>
     <t xml:space="preserve">36.5899200439453</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1638679504395</t>
+    <t xml:space="preserve">37.1638603210449</t>
   </si>
   <si>
     <t xml:space="preserve">36.967643737793</t>
@@ -4061,25 +4061,25 @@
     <t xml:space="preserve">37.2227249145508</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2030982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.178581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4974327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.487621307373</t>
+    <t xml:space="preserve">37.2030944824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1785736083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.497428894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4876174926758</t>
   </si>
   <si>
     <t xml:space="preserve">36.8155708312988</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9431114196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5317649841309</t>
+    <t xml:space="preserve">36.943115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5317726135254</t>
   </si>
   <si>
     <t xml:space="preserve">37.3993263244629</t>
@@ -4088,46 +4088,46 @@
     <t xml:space="preserve">38.753231048584</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8513488769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2045402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1302452087402</t>
+    <t xml:space="preserve">38.8513412475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2045364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1302375793457</t>
   </si>
   <si>
     <t xml:space="preserve">37.5652351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1105842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4102821350098</t>
+    <t xml:space="preserve">38.1105804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.410285949707</t>
   </si>
   <si>
     <t xml:space="preserve">38.9310684204102</t>
   </si>
   <si>
-    <t xml:space="preserve">38.808235168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8622856140137</t>
+    <t xml:space="preserve">38.8082389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8622817993164</t>
   </si>
   <si>
     <t xml:space="preserve">36.9118003845215</t>
   </si>
   <si>
-    <t xml:space="preserve">36.833194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.108325958252</t>
+    <t xml:space="preserve">36.8331871032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1083145141602</t>
   </si>
   <si>
     <t xml:space="preserve">36.6612358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4133110046387</t>
+    <t xml:space="preserve">35.4133148193359</t>
   </si>
   <si>
     <t xml:space="preserve">36.2976684570312</t>
@@ -4139,16 +4139,16 @@
     <t xml:space="preserve">36.24853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3985824584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3297958374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7549667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2413635253906</t>
+    <t xml:space="preserve">35.3985710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3297996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7549629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2413558959961</t>
   </si>
   <si>
     <t xml:space="preserve">35.7867050170898</t>
@@ -4166,64 +4166,64 @@
     <t xml:space="preserve">36.8037185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2606239318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6094589233398</t>
+    <t xml:space="preserve">37.2606201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6094627380371</t>
   </si>
   <si>
     <t xml:space="preserve">38.1597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1646270751953</t>
+    <t xml:space="preserve">38.1646308898926</t>
   </si>
   <si>
     <t xml:space="preserve">40.6113357543945</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1838912963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4197235107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0043830871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.662727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6453399658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2938690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8932571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5198669433594</t>
+    <t xml:space="preserve">40.183895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4197196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0043754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6627349853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6453437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2938613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8932495117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5198593139648</t>
   </si>
   <si>
     <t xml:space="preserve">42.6649894714355</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4707412719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.02099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1094245910645</t>
+    <t xml:space="preserve">43.4707374572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0209999084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.109432220459</t>
   </si>
   <si>
     <t xml:space="preserve">44.3550872802734</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9593849182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6203842163086</t>
+    <t xml:space="preserve">44.9593925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6203880310059</t>
   </si>
   <si>
     <t xml:space="preserve">44.993782043457</t>
@@ -4232,25 +4232,25 @@
     <t xml:space="preserve">44.9151649475098</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1120834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.930290222168</t>
+    <t xml:space="preserve">43.1120719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9302940368652</t>
   </si>
   <si>
     <t xml:space="preserve">42.7583389282227</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1861572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2522888183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3505592346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1634712219238</t>
+    <t xml:space="preserve">41.1861610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2522926330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3505516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1634674072266</t>
   </si>
   <si>
     <t xml:space="preserve">41.2402038574219</t>
@@ -4262,73 +4262,73 @@
     <t xml:space="preserve">41.2991561889648</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6918182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4242515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1392936706543</t>
+    <t xml:space="preserve">43.691822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.424259185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.139289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7807579040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0329208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9135971069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2592391967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7278709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7081909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.190357208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8201179504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2530784606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2075614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3010406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0943984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0599594116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5384330749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9221954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1350021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6749649047852</t>
   </si>
   <si>
     <t xml:space="preserve">41.6971206665039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7807579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0329208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9136009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2592391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7278747558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7081909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1903533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8201179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2530822753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2075614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3010406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0944061279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0599632263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5384368896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9222030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1349983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6749572753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792831420898</t>
+    <t xml:space="preserve">42.1792755126953</t>
   </si>
   <si>
     <t xml:space="preserve">43.1977233886719</t>
@@ -4337,31 +4337,31 @@
     <t xml:space="preserve">42.2776794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9271240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9824829101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6737518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7721519470215</t>
+    <t xml:space="preserve">42.9271125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.982479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.673755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.772159576416</t>
   </si>
   <si>
     <t xml:space="preserve">39.9997138977051</t>
   </si>
   <si>
-    <t xml:space="preserve">38.075984954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0120277404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2026710510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9603538513184</t>
+    <t xml:space="preserve">38.0759887695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0120315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2026748657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9603500366211</t>
   </si>
   <si>
     <t xml:space="preserve">39.3551902770996</t>
@@ -4373,7 +4373,7 @@
     <t xml:space="preserve">40.8016777038574</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6934356689453</t>
+    <t xml:space="preserve">40.6934394836426</t>
   </si>
   <si>
     <t xml:space="preserve">39.0353889465332</t>
@@ -4385,13 +4385,13 @@
     <t xml:space="preserve">38.3121490478516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7155838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2063522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0341567993164</t>
+    <t xml:space="preserve">38.7155914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2063484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0341529846191</t>
   </si>
   <si>
     <t xml:space="preserve">39.360107421875</t>
@@ -4400,13 +4400,13 @@
     <t xml:space="preserve">38.4745063781738</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1042709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.246955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4941902160645</t>
+    <t xml:space="preserve">39.1042747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2469444274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4941864013672</t>
   </si>
   <si>
     <t xml:space="preserve">37.6282653808594</t>
@@ -4418,25 +4418,25 @@
     <t xml:space="preserve">37.091983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8754997253418</t>
+    <t xml:space="preserve">36.8755035400391</t>
   </si>
   <si>
     <t xml:space="preserve">36.0932235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6823806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3527412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2998580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2162322998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9505424499512</t>
+    <t xml:space="preserve">37.6823844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3527488708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.299861907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2162246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9505462646484</t>
   </si>
   <si>
     <t xml:space="preserve">33.451171875</t>
@@ -4445,28 +4445,28 @@
     <t xml:space="preserve">33.0182151794434</t>
   </si>
   <si>
-    <t xml:space="preserve">32.167049407959</t>
+    <t xml:space="preserve">32.1670455932617</t>
   </si>
   <si>
     <t xml:space="preserve">35.507740020752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5680198669434</t>
+    <t xml:space="preserve">34.5680160522461</t>
   </si>
   <si>
     <t xml:space="preserve">34.4302597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0760154724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5778503417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.170711517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0329437255859</t>
+    <t xml:space="preserve">34.0760192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5778541564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1707077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0329399108887</t>
   </si>
   <si>
     <t xml:space="preserve">38.1202659606934</t>
@@ -4475,31 +4475,31 @@
     <t xml:space="preserve">38.2089691162109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6130256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5341835021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3275413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6133422851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7414627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.820613861084</t>
+    <t xml:space="preserve">38.613037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5341911315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3275337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6133499145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7414665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8206214904785</t>
   </si>
   <si>
     <t xml:space="preserve">40.135669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0368118286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0906982421875</t>
+    <t xml:space="preserve">39.036808013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.090705871582</t>
   </si>
   <si>
     <t xml:space="preserve">38.1399765014648</t>
@@ -4508,19 +4508,19 @@
     <t xml:space="preserve">36.1048583984375</t>
   </si>
   <si>
-    <t xml:space="preserve">35.079906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7349739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5230827331543</t>
+    <t xml:space="preserve">35.0799102783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.734977722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5230865478516</t>
   </si>
   <si>
     <t xml:space="preserve">34.3653984069824</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2767066955566</t>
+    <t xml:space="preserve">34.2767028808594</t>
   </si>
   <si>
     <t xml:space="preserve">34.1978607177734</t>
@@ -4529,13 +4529,13 @@
     <t xml:space="preserve">33.695240020752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0993041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2031059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4642677307129</t>
+    <t xml:space="preserve">34.099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2031021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4642601013184</t>
   </si>
   <si>
     <t xml:space="preserve">34.7941055297852</t>
@@ -4550,13 +4550,13 @@
     <t xml:space="preserve">34.5181617736816</t>
   </si>
   <si>
-    <t xml:space="preserve">35.084831237793</t>
+    <t xml:space="preserve">35.0848350524902</t>
   </si>
   <si>
     <t xml:space="preserve">35.2523803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3604774475098</t>
+    <t xml:space="preserve">34.3604736328125</t>
   </si>
   <si>
     <t xml:space="preserve">35.1784591674805</t>
@@ -4565,16 +4565,16 @@
     <t xml:space="preserve">34.50830078125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.606861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2471351623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9117431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9511680603027</t>
+    <t xml:space="preserve">34.6068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2471313476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9117469787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.951171875</t>
   </si>
   <si>
     <t xml:space="preserve">33.8824920654297</t>
@@ -4583,7 +4583,7 @@
     <t xml:space="preserve">35.232666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3564758300781</t>
+    <t xml:space="preserve">37.3564796447754</t>
   </si>
   <si>
     <t xml:space="preserve">36.6222610473633</t>
@@ -4598,40 +4598,40 @@
     <t xml:space="preserve">36.7898025512695</t>
   </si>
   <si>
-    <t xml:space="preserve">36.213264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3167495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0601997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.247444152832</t>
+    <t xml:space="preserve">36.2132720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3167419433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0601959228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2474479675293</t>
   </si>
   <si>
     <t xml:space="preserve">35.8831214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7257423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2825698852539</t>
+    <t xml:space="preserve">36.7257461547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2825660705566</t>
   </si>
   <si>
     <t xml:space="preserve">36.6469039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5089263916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1593704223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.341381072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5040016174316</t>
+    <t xml:space="preserve">36.5089225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1593818664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3413887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5040054321289</t>
   </si>
   <si>
     <t xml:space="preserve">36.2625465393066</t>
@@ -4640,88 +4640,88 @@
     <t xml:space="preserve">36.4497947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4839744567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9761238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0986824035645</t>
+    <t xml:space="preserve">35.4839782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9761161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0986862182617</t>
   </si>
   <si>
     <t xml:space="preserve">32.0543365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2172546386719</t>
+    <t xml:space="preserve">33.2172660827637</t>
   </si>
   <si>
     <t xml:space="preserve">31.1230125427246</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2511253356934</t>
+    <t xml:space="preserve">31.251127243042</t>
   </si>
   <si>
     <t xml:space="preserve">31.1227684020996</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9225597381592</t>
+    <t xml:space="preserve">31.9225635528564</t>
   </si>
   <si>
     <t xml:space="preserve">31.2807521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4091110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4436740875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0437755584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4019660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6071109771729</t>
+    <t xml:space="preserve">30.7327461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4091091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4436702728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0437774658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.401969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6071147918701</t>
   </si>
   <si>
     <t xml:space="preserve">28.7382030487061</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2000713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.65700340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9949245452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8095302581787</t>
+    <t xml:space="preserve">28.2000694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6570014953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9949264526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8095283508301</t>
   </si>
   <si>
     <t xml:space="preserve">30.4365272521973</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3772792816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7179336547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7524929046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8512325286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8731861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2335968017578</t>
+    <t xml:space="preserve">30.3772830963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7179374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7524948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8512344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8731918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.233585357666</t>
   </si>
   <si>
     <t xml:space="preserve">32.6384239196777</t>
@@ -4733,10 +4733,10 @@
     <t xml:space="preserve">33.6356925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5024032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7245597839355</t>
+    <t xml:space="preserve">33.5023994445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7245559692383</t>
   </si>
   <si>
     <t xml:space="preserve">33.4234008789062</t>
@@ -4745,7 +4745,7 @@
     <t xml:space="preserve">34.5589065551758</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8129043579102</t>
+    <t xml:space="preserve">35.8129081726074</t>
   </si>
   <si>
     <t xml:space="preserve">36.4695243835449</t>
@@ -4754,10 +4754,10 @@
     <t xml:space="preserve">36.7953681945801</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1014595031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9358062744141</t>
+    <t xml:space="preserve">37.1014671325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9358100891113</t>
   </si>
   <si>
     <t xml:space="preserve">38.1283531188965</t>
@@ -4766,25 +4766,25 @@
     <t xml:space="preserve">37.1705780029297</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9237213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9736137390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1584930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5337028503418</t>
+    <t xml:space="preserve">36.9237251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9736175537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1584892272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5337104797363</t>
   </si>
   <si>
     <t xml:space="preserve">36.6571311950684</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0718383789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.487060546875</t>
+    <t xml:space="preserve">37.0718307495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4870681762695</t>
   </si>
   <si>
     <t xml:space="preserve">36.6373825073242</t>
@@ -4805,88 +4805,88 @@
     <t xml:space="preserve">35.1266632080078</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6230926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8353805541992</t>
+    <t xml:space="preserve">34.6230888366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8353843688965</t>
   </si>
   <si>
     <t xml:space="preserve">34.3515548706055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8430557250977</t>
+    <t xml:space="preserve">33.8430480957031</t>
   </si>
   <si>
     <t xml:space="preserve">35.1414756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">34.257755279541</t>
+    <t xml:space="preserve">34.2577514648438</t>
   </si>
   <si>
     <t xml:space="preserve">34.4848556518555</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2105941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6845436096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4744606018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4547157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2402076721191</t>
+    <t xml:space="preserve">35.2105903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6845397949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4744567871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4547119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2402114868164</t>
   </si>
   <si>
     <t xml:space="preserve">35.4031372070312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.314266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8650054931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3991012573242</t>
+    <t xml:space="preserve">35.3142700195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8650016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3991050720215</t>
   </si>
   <si>
     <t xml:space="preserve">35.3150367736816</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4623680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.276496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3912734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7325096130371</t>
+    <t xml:space="preserve">36.4623603820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2765007019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3912773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7325057983398</t>
   </si>
   <si>
     <t xml:space="preserve">34.1380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2626953125</t>
+    <t xml:space="preserve">33.2626991271973</t>
   </si>
   <si>
     <t xml:space="preserve">31.4675216674805</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8977699279785</t>
+    <t xml:space="preserve">31.8977661132812</t>
   </si>
   <si>
     <t xml:space="preserve">32.3428535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0935287475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930023193359</t>
+    <t xml:space="preserve">34.0935249328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930061340332</t>
   </si>
   <si>
     <t xml:space="preserve">35.1419410705566</t>
@@ -4895,40 +4895,40 @@
     <t xml:space="preserve">33.2923698425293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.654411315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.655445098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4081745147705</t>
+    <t xml:space="preserve">32.6544151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6554470062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4081726074219</t>
   </si>
   <si>
     <t xml:space="preserve">32.1499786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6455574035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2241630554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4516525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4467124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1885108947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9857597351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6978874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8155479431152</t>
+    <t xml:space="preserve">31.6455554962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2241706848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4516487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4467086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1885185241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6978950500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8155517578125</t>
   </si>
   <si>
     <t xml:space="preserve">34.5485000610352</t>
@@ -4946,31 +4946,31 @@
     <t xml:space="preserve">31.4625720977783</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0619983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5674629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5911560058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7494087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1341171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8176078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4782295227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5909461975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2486839294434</t>
+    <t xml:space="preserve">31.0619964599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5674610137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5911540985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7494068145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1341209411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8176116943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4782257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5909423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2486763000488</t>
   </si>
   <si>
     <t xml:space="preserve">36.2744369506836</t>
@@ -4979,109 +4979,109 @@
     <t xml:space="preserve">36.2942237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5761070251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5316047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.571159362793</t>
+    <t xml:space="preserve">36.5761108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5315971374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5711631774902</t>
   </si>
   <si>
     <t xml:space="preserve">36.9766807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0162467956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7689743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9727745056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3545913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6513137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4771995544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2991714477539</t>
+    <t xml:space="preserve">37.0162506103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7689781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9727668762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3545951843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6513214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4772033691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2991676330566</t>
   </si>
   <si>
     <t xml:space="preserve">36.2497138977051</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8244094848633</t>
+    <t xml:space="preserve">35.8244132995605</t>
   </si>
   <si>
     <t xml:space="preserve">35.3100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">36.022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4870910644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1403427124023</t>
+    <t xml:space="preserve">36.0222244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4870872497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1403503417969</t>
   </si>
   <si>
     <t xml:space="preserve">37.3985252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0604934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6047821044922</t>
+    <t xml:space="preserve">36.8883171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0604972839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6047782897949</t>
   </si>
   <si>
     <t xml:space="preserve">34.3125267028809</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2085037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8078727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5596008300781</t>
+    <t xml:space="preserve">34.2085075378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8078689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5596046447754</t>
   </si>
   <si>
     <t xml:space="preserve">33.2970733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9206047058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5144195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2079086303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6977005004883</t>
+    <t xml:space="preserve">32.9206085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5144271850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2079124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6977043151855</t>
   </si>
   <si>
     <t xml:space="preserve">33.1286544799805</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2376289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0896224975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2580451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1149787902832</t>
+    <t xml:space="preserve">33.2376251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0896186828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2580413818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1149826049805</t>
   </si>
   <si>
     <t xml:space="preserve">36.9477577209473</t>
@@ -5090,49 +5090,49 @@
     <t xml:space="preserve">36.7743873596191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0071983337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4975929260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6115188598633</t>
+    <t xml:space="preserve">37.0072059631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4975891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6115264892578</t>
   </si>
   <si>
     <t xml:space="preserve">38.3892135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1421356201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6709632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7105865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6963310241699</t>
+    <t xml:space="preserve">39.1421394348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6709671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7105903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6963272094727</t>
   </si>
   <si>
     <t xml:space="preserve">38.7409019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0678367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2727165222168</t>
+    <t xml:space="preserve">39.0678405761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2727127075195</t>
   </si>
   <si>
     <t xml:space="preserve">43.2534980773926</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1890983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7086219787598</t>
+    <t xml:space="preserve">43.1891059875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7086181640625</t>
   </si>
   <si>
     <t xml:space="preserve">43.7934265136719</t>
@@ -5141,16 +5141,16 @@
     <t xml:space="preserve">45.1011352539062</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6905937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.689998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8485069274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7940139770508</t>
+    <t xml:space="preserve">45.6905975341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6900024414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8485107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7940216064453</t>
   </si>
   <si>
     <t xml:space="preserve">45.7302207946777</t>
@@ -5162,64 +5162,64 @@
     <t xml:space="preserve">44.9277610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1853446960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7500343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0670509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4874992370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.977294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6057929992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1847457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.813835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1996078491211</t>
+    <t xml:space="preserve">45.1853408813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7500419616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0670585632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4875030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9773025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6057891845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.184741973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8138389587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1996116638184</t>
   </si>
   <si>
     <t xml:space="preserve">45.1358108520508</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2695465087891</t>
+    <t xml:space="preserve">45.2695503234863</t>
   </si>
   <si>
     <t xml:space="preserve">43.8033294677734</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8930892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3785285949707</t>
+    <t xml:space="preserve">44.8930854797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3785247802734</t>
   </si>
   <si>
     <t xml:space="preserve">44.571117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5871696472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8193893432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9767036437988</t>
+    <t xml:space="preserve">46.5871734619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8193855285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.976692199707</t>
   </si>
   <si>
     <t xml:space="preserve">45.4478759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6943588256836</t>
+    <t xml:space="preserve">43.6943511962891</t>
   </si>
   <si>
     <t xml:space="preserve">44.8534660339355</t>
@@ -5228,58 +5228,58 @@
     <t xml:space="preserve">45.0218811035156</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5476379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.023796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8173942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0466804504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4682769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1737213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.966194152832</t>
+    <t xml:space="preserve">45.5476417541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0237998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8173980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0466766357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4682807922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1737174987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9661979675293</t>
   </si>
   <si>
     <t xml:space="preserve">48.2012367248535</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5583534240723</t>
+    <t xml:space="preserve">48.5583572387695</t>
   </si>
   <si>
     <t xml:space="preserve">47.9581985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1844367980957</t>
+    <t xml:space="preserve">47.1844329833984</t>
   </si>
   <si>
     <t xml:space="preserve">45.3095588684082</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5823554992676</t>
+    <t xml:space="preserve">45.5823593139648</t>
   </si>
   <si>
     <t xml:space="preserve">46.0833206176758</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2798004150391</t>
+    <t xml:space="preserve">45.2798042297363</t>
   </si>
   <si>
     <t xml:space="preserve">45.9791564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7609176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3789939880371</t>
+    <t xml:space="preserve">45.7609214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3790016174316</t>
   </si>
   <si>
     <t xml:space="preserve">45.6716384887695</t>
@@ -5288,40 +5288,40 @@
     <t xml:space="preserve">44.709400177002</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0378799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8593292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0806045532227</t>
+    <t xml:space="preserve">43.0378761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8593254089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0805969238281</t>
   </si>
   <si>
     <t xml:space="preserve">41.5449256896973</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9615631103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3010864257812</t>
+    <t xml:space="preserve">41.9615669250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3010902404785</t>
   </si>
   <si>
     <t xml:space="preserve">38.246524810791</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8268432617188</t>
+    <t xml:space="preserve">38.826847076416</t>
   </si>
   <si>
     <t xml:space="preserve">38.1572494506836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2743644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4002876281738</t>
+    <t xml:space="preserve">37.2743682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2514915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4002838134766</t>
   </si>
   <si>
     <t xml:space="preserve">38.3110046386719</t>
@@ -5333,10 +5333,10 @@
     <t xml:space="preserve">37.9588470458984</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6334037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4548492431641</t>
+    <t xml:space="preserve">38.6334075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4548416137695</t>
   </si>
   <si>
     <t xml:space="preserve">39.1690864562988</t>
@@ -5345,34 +5345,34 @@
     <t xml:space="preserve">39.427001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8207702636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2076454162598</t>
+    <t xml:space="preserve">40.8207626342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2076416015625</t>
   </si>
   <si>
     <t xml:space="preserve">41.4705238342285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.187801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.955810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8466911315918</t>
+    <t xml:space="preserve">41.1878089904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9558067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8466835021973</t>
   </si>
   <si>
     <t xml:space="preserve">40.3594856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8337287902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3495597839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2453994750977</t>
+    <t xml:space="preserve">39.8337249755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3495635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2454032897949</t>
   </si>
   <si>
     <t xml:space="preserve">41.4159660339355</t>
@@ -5381,7 +5381,7 @@
     <t xml:space="preserve">41.6639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2374000549316</t>
+    <t xml:space="preserve">41.2374038696289</t>
   </si>
   <si>
     <t xml:space="preserve">41.4209251403809</t>
@@ -5393,16 +5393,16 @@
     <t xml:space="preserve">43.216438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7273216247559</t>
+    <t xml:space="preserve">43.7273254394531</t>
   </si>
   <si>
     <t xml:space="preserve">45.0665245056152</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2748374938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8005981445312</t>
+    <t xml:space="preserve">45.274845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8006019592285</t>
   </si>
   <si>
     <t xml:space="preserve">45.1210823059082</t>
@@ -5411,19 +5411,19 @@
     <t xml:space="preserve">45.2550010681152</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6201248168945</t>
+    <t xml:space="preserve">44.6201210021973</t>
   </si>
   <si>
     <t xml:space="preserve">44.203483581543</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2065238952637</t>
+    <t xml:space="preserve">43.2065200805664</t>
   </si>
   <si>
     <t xml:space="preserve">43.3602828979492</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3037986755371</t>
+    <t xml:space="preserve">42.3038024902344</t>
   </si>
   <si>
     <t xml:space="preserve">43.2276611328125</t>
@@ -5432,28 +5432,28 @@
     <t xml:space="preserve">42.8054656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0422401428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3104667663574</t>
+    <t xml:space="preserve">44.0422439575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3104629516602</t>
   </si>
   <si>
     <t xml:space="preserve">45.2591590881348</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4727439880371</t>
+    <t xml:space="preserve">45.4727363586426</t>
   </si>
   <si>
     <t xml:space="preserve">45.244255065918</t>
   </si>
   <si>
-    <t xml:space="preserve">45.075382232666</t>
+    <t xml:space="preserve">45.0753784179688</t>
   </si>
   <si>
     <t xml:space="preserve">42.7408981323242</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5157508850098</t>
+    <t xml:space="preserve">43.5157470703125</t>
   </si>
   <si>
     <t xml:space="preserve">43.8038330078125</t>
@@ -5462,16 +5462,16 @@
     <t xml:space="preserve">44.0819816589355</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1929473876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8336906433105</t>
+    <t xml:space="preserve">46.1929550170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8336944580078</t>
   </si>
   <si>
     <t xml:space="preserve">47.0125045776367</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4959411621094</t>
+    <t xml:space="preserve">46.4959373474121</t>
   </si>
   <si>
     <t xml:space="preserve">46.4710998535156</t>
@@ -5480,19 +5480,19 @@
     <t xml:space="preserve">46.6201133728027</t>
   </si>
   <si>
-    <t xml:space="preserve">45.924732208252</t>
+    <t xml:space="preserve">45.9247360229492</t>
   </si>
   <si>
     <t xml:space="preserve">45.428035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3336601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4562034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0091743469238</t>
+    <t xml:space="preserve">45.3336639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4561958312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0091705322266</t>
   </si>
   <si>
     <t xml:space="preserve">50.146671295166</t>
@@ -5507,7 +5507,7 @@
     <t xml:space="preserve">48.219482421875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5837059020996</t>
+    <t xml:space="preserve">47.5837097167969</t>
   </si>
   <si>
     <t xml:space="preserve">46.2724227905273</t>
@@ -5522,7 +5522,7 @@
     <t xml:space="preserve">44.106819152832</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8634376525879</t>
+    <t xml:space="preserve">43.8634338378906</t>
   </si>
   <si>
     <t xml:space="preserve">44.1912574768066</t>
@@ -5531,25 +5531,25 @@
     <t xml:space="preserve">42.8452033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2624359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.810432434082</t>
+    <t xml:space="preserve">43.2624320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8104362487793</t>
   </si>
   <si>
     <t xml:space="preserve">42.0206832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">41.851806640625</t>
+    <t xml:space="preserve">41.8518028259277</t>
   </si>
   <si>
     <t xml:space="preserve">42.283935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3270034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3121032714844</t>
+    <t xml:space="preserve">43.3269996643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3120994567871</t>
   </si>
   <si>
     <t xml:space="preserve">42.2044639587402</t>
@@ -5561,22 +5561,22 @@
     <t xml:space="preserve">42.8948707580566</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8137702941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3667411804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3766708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2375984191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2028274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1829605102539</t>
+    <t xml:space="preserve">43.8137626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3667335510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3766670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2375946044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2028312683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1829566955566</t>
   </si>
   <si>
     <t xml:space="preserve">42.562084197998</t>
@@ -5600,19 +5600,19 @@
     <t xml:space="preserve">41.4792861938477</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0570907592773</t>
+    <t xml:space="preserve">41.0570945739746</t>
   </si>
   <si>
     <t xml:space="preserve">40.4353141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2263946533203</t>
+    <t xml:space="preserve">40.2263984680176</t>
   </si>
   <si>
     <t xml:space="preserve">40.4900321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1617279052734</t>
+    <t xml:space="preserve">40.1617317199707</t>
   </si>
   <si>
     <t xml:space="preserve">40.0473289489746</t>
@@ -5621,19 +5621,19 @@
     <t xml:space="preserve">40.1368637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5200614929199</t>
+    <t xml:space="preserve">39.5200576782227</t>
   </si>
   <si>
     <t xml:space="preserve">39.604621887207</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3059844970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7735633850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8432006835938</t>
+    <t xml:space="preserve">40.305980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7735595703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8431968688965</t>
   </si>
   <si>
     <t xml:space="preserve">40.1667060852051</t>
@@ -5657,16 +5657,16 @@
     <t xml:space="preserve">42.1663360595703</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2310028076172</t>
+    <t xml:space="preserve">42.2309989929199</t>
   </si>
   <si>
     <t xml:space="preserve">40.9377098083496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0371932983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4402885437012</t>
+    <t xml:space="preserve">41.0371894836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4402923583984</t>
   </si>
   <si>
     <t xml:space="preserve">39.6692848205566</t>
@@ -5675,22 +5675,22 @@
     <t xml:space="preserve">38.7490577697754</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5353507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.624885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2418785095215</t>
+    <t xml:space="preserve">37.5353546142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6248893737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">36.9334716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7689590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3214569091797</t>
+    <t xml:space="preserve">38.7689552307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.321460723877</t>
   </si>
   <si>
     <t xml:space="preserve">35.0731201171875</t>
@@ -5699,25 +5699,25 @@
     <t xml:space="preserve">35.7844352722168</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9585304260254</t>
+    <t xml:space="preserve">35.9585342407227</t>
   </si>
   <si>
     <t xml:space="preserve">37.5453033447266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.893497467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1123580932617</t>
+    <t xml:space="preserve">38.2367134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8934936523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.112361907959</t>
   </si>
   <si>
     <t xml:space="preserve">38.0974349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660469055176</t>
+    <t xml:space="preserve">38.3660430908203</t>
   </si>
   <si>
     <t xml:space="preserve">38.4307098388672</t>
@@ -5726,13 +5726,13 @@
     <t xml:space="preserve">38.4754753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9378967285156</t>
+    <t xml:space="preserve">39.9378929138184</t>
   </si>
   <si>
     <t xml:space="preserve">42.0817756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5644607543945</t>
+    <t xml:space="preserve">41.5644569396973</t>
   </si>
   <si>
     <t xml:space="preserve">41.6937866210938</t>
@@ -5741,13 +5741,13 @@
     <t xml:space="preserve">41.9922370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1913909912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5246696472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3804130554199</t>
+    <t xml:space="preserve">41.1913948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5246658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3804168701172</t>
   </si>
   <si>
     <t xml:space="preserve">41.5893287658691</t>
@@ -5768,10 +5768,10 @@
     <t xml:space="preserve">43.514347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1562080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8326988220215</t>
+    <t xml:space="preserve">43.1562042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8326950073242</t>
   </si>
   <si>
     <t xml:space="preserve">44.3400650024414</t>
@@ -5786,7 +5786,7 @@
     <t xml:space="preserve">44.3402976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3652076721191</t>
+    <t xml:space="preserve">44.3652038574219</t>
   </si>
   <si>
     <t xml:space="preserve">44.0862731933594</t>
@@ -5801,10 +5801,10 @@
     <t xml:space="preserve">45.3165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6403198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6801681518555</t>
+    <t xml:space="preserve">45.640323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6801719665527</t>
   </si>
   <si>
     <t xml:space="preserve">45.3564109802246</t>
@@ -5816,13 +5816,13 @@
     <t xml:space="preserve">45.5058403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0376281738281</t>
+    <t xml:space="preserve">45.0376319885254</t>
   </si>
   <si>
     <t xml:space="preserve">44.4000701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">42.846019744873</t>
+    <t xml:space="preserve">42.8460159301758</t>
   </si>
   <si>
     <t xml:space="preserve">41.1923446655273</t>
@@ -5840,10 +5840,10 @@
     <t xml:space="preserve">40.1463508605957</t>
   </si>
   <si>
-    <t xml:space="preserve">39.772777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5685615539551</t>
+    <t xml:space="preserve">39.7727813720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5685653686523</t>
   </si>
   <si>
     <t xml:space="preserve">39.4938468933105</t>
@@ -5861,7 +5861,7 @@
     <t xml:space="preserve">40.3655128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4065246582031</t>
+    <t xml:space="preserve">41.4065284729004</t>
   </si>
   <si>
     <t xml:space="preserve">42.1686134338379</t>
@@ -5870,13 +5870,13 @@
     <t xml:space="preserve">42.4525260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2483024597168</t>
+    <t xml:space="preserve">42.2483062744141</t>
   </si>
   <si>
     <t xml:space="preserve">41.122615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.788890838623</t>
+    <t xml:space="preserve">40.7888946533203</t>
   </si>
   <si>
     <t xml:space="preserve">40.9432983398438</t>
@@ -5888,7 +5888,7 @@
     <t xml:space="preserve">40.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0367660522461</t>
+    <t xml:space="preserve">40.0367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">41.0479011535645</t>
@@ -5900,19 +5900,19 @@
     <t xml:space="preserve">40.2708740234375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6954193115234</t>
+    <t xml:space="preserve">41.6954231262207</t>
   </si>
   <si>
     <t xml:space="preserve">42.5372009277344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0402793884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4912033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5559539794922</t>
+    <t xml:space="preserve">43.0402755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4912071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5559577941895</t>
   </si>
   <si>
     <t xml:space="preserve">41.9992561340332</t>
@@ -5921,10 +5921,10 @@
     <t xml:space="preserve">42.3977355957031</t>
   </si>
   <si>
-    <t xml:space="preserve">41.56591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7789344787598</t>
+    <t xml:space="preserve">41.5659141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7789306640625</t>
   </si>
   <si>
     <t xml:space="preserve">40.8237571716309</t>
@@ -5933,25 +5933,25 @@
     <t xml:space="preserve">42.0789566040039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3716621398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1823883056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8908500671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5161094665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5808639526367</t>
+    <t xml:space="preserve">41.3716583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1823844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8908462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5161056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5808601379395</t>
   </si>
   <si>
     <t xml:space="preserve">43.1149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7464027404785</t>
+    <t xml:space="preserve">42.7463989257812</t>
   </si>
   <si>
     <t xml:space="preserve">42.253288269043</t>
@@ -5966,7 +5966,7 @@
     <t xml:space="preserve">43.2843437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3989028930664</t>
+    <t xml:space="preserve">43.3988990783691</t>
   </si>
   <si>
     <t xml:space="preserve">44.1510238647461</t>
@@ -5978,7 +5978,7 @@
     <t xml:space="preserve">42.721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.262077331543</t>
+    <t xml:space="preserve">41.2620811462402</t>
   </si>
   <si>
     <t xml:space="preserve">41.137378692627</t>
@@ -6237,6 +6237,9 @@
   </si>
   <si>
     <t xml:space="preserve">37.0299987792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9400005340576</t>
   </si>
 </sst>
 </file>
@@ -63232,7 +63235,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6496296296</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>2042865</v>
@@ -63253,6 +63256,32 @@
         <v>2074</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.6525578704</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>13857962</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>31.4200000762939</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>34.0999984741211</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>31.9400005340576</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="2077">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35176706314087</t>
+    <t xml:space="preserve">5.35176801681519</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24544048309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455720901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94418239593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0637993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08152008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01506567001343</t>
+    <t xml:space="preserve">5.37391805648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24544095993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94418144226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06379985809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08152103424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01506757736206</t>
   </si>
   <si>
     <t xml:space="preserve">4.8954496383667</t>
@@ -71,211 +71,211 @@
     <t xml:space="preserve">4.64735412597656</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72710037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91760206222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86000680923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99291610717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18784713745117</t>
+    <t xml:space="preserve">4.72709846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91760110855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86000823974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99291706085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683460235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18784666061401</t>
   </si>
   <si>
     <t xml:space="preserve">5.3207540512085</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55556058883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39607000350952</t>
+    <t xml:space="preserve">5.55555963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39607095718384</t>
   </si>
   <si>
     <t xml:space="preserve">5.32518577575684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16126680374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74924945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56761026382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078151702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951696395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13787412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2069845199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2955904006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25128793716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40900468826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63849306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60305118560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80241346359253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279695510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45242309570312</t>
+    <t xml:space="preserve">5.16126537322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70937776565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74925088882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56760883331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078008651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13787221908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20698595046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29559278488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25128746032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40900611877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63849353790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60305166244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80241441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279647827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45242261886597</t>
   </si>
   <si>
     <t xml:space="preserve">4.52773761749268</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6429238319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69608688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78469228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355382919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82899522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75811100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73595857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064357757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57203912734985</t>
+    <t xml:space="preserve">4.64292478561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69608736038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78469371795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79355239868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899475097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811052322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73595905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57204055786133</t>
   </si>
   <si>
     <t xml:space="preserve">4.74038982391357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62963247299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54988813400269</t>
+    <t xml:space="preserve">4.62963199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54989099502563</t>
   </si>
   <si>
     <t xml:space="preserve">4.53659772872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50225734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42815208435059</t>
+    <t xml:space="preserve">4.50225687026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4281530380249</t>
   </si>
   <si>
     <t xml:space="preserve">4.47153043746948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42996072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41911697387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43176746368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40285015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139585494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43357610702515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17692232131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14800453186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32693862915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49322032928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501075744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52756118774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63600587844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5546703338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926500320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65407943725586</t>
+    <t xml:space="preserve">4.42996025085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41911602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43176794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40285110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34139728546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43357515335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17692279815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14800500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32693958282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49321985244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501171112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52756071090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63600492477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55467176437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926357269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65407991409302</t>
   </si>
   <si>
     <t xml:space="preserve">4.67667198181152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6676344871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58178234100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15111541748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08333873748779</t>
+    <t xml:space="preserve">4.66763591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58178424835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15111637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08333969116211</t>
   </si>
   <si>
     <t xml:space="preserve">4.85289335250854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75800514221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55015230178833</t>
+    <t xml:space="preserve">4.7580041885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5501537322998</t>
   </si>
   <si>
     <t xml:space="preserve">4.41188669204712</t>
@@ -284,100 +284,100 @@
     <t xml:space="preserve">4.36308622360229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26006460189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31428670883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26910018920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19499683380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22210741043091</t>
+    <t xml:space="preserve">4.26006412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31428718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2691011428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19499778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22210788726807</t>
   </si>
   <si>
     <t xml:space="preserve">4.26729297637939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28356075286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6405234336853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67215251922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79867124557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83933973312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88904190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90259885787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91163539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84385633468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81674575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82126522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79415321350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0020055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86645078659058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57726430892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49502801895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46068572998047</t>
+    <t xml:space="preserve">4.28355979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64052581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67215394973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79867267608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83933877944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88904142379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90259790420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91163492202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8438572883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81674528121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82126331329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79415273666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00200605392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86644887924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57726335525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49502658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46068716049194</t>
   </si>
   <si>
     <t xml:space="preserve">4.44803476333618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54111623764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70117521286011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75605344772339</t>
+    <t xml:space="preserve">4.54111671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70117664337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75605249404907</t>
   </si>
   <si>
     <t xml:space="preserve">4.82465028762817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96641778945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65544462203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55849599838257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67373609542847</t>
+    <t xml:space="preserve">4.96641683578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65544366836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55849361419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6737380027771</t>
   </si>
   <si>
     <t xml:space="preserve">4.79263830184937</t>
@@ -386,58 +386,58 @@
     <t xml:space="preserve">4.82007741928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7194676399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57312822341919</t>
+    <t xml:space="preserve">4.71946954727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57312726974487</t>
   </si>
   <si>
     <t xml:space="preserve">4.42129945755005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48349523544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87952756881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355201721191</t>
+    <t xml:space="preserve">4.48349475860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8795280456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355058670044</t>
   </si>
   <si>
     <t xml:space="preserve">4.92525959014893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95727109909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04873418807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617425918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18592739105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22251272201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708511352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.309401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3779993057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94049310684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8993353843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96335935592651</t>
+    <t xml:space="preserve">4.95727157592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0487322807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07617330551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18592596054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22251224517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708654403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30940055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37799882888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049263000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89933443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9633584022522</t>
   </si>
   <si>
     <t xml:space="preserve">5.94506645202637</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">5.71640920639038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76671361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97250461578369</t>
+    <t xml:space="preserve">5.76671552658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97250509262085</t>
   </si>
   <si>
     <t xml:space="preserve">6.08225965499878</t>
@@ -458,43 +458,43 @@
     <t xml:space="preserve">6.0959792137146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0045166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10970020294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06396913528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.990797996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18286848068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15543031692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799167633057</t>
+    <t xml:space="preserve">6.00451755523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10969924926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06396818161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99079751968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18287086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15542984008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12799263000488</t>
   </si>
   <si>
     <t xml:space="preserve">6.29262447357178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22860050201416</t>
+    <t xml:space="preserve">6.22859954833984</t>
   </si>
   <si>
     <t xml:space="preserve">6.18744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21945524215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16914892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689197540283</t>
+    <t xml:space="preserve">6.21945428848267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16914844512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689292907715</t>
   </si>
   <si>
     <t xml:space="preserve">6.1371374130249</t>
@@ -503,16 +503,16 @@
     <t xml:space="preserve">6.11884593963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95421361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96793413162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04567670822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19658899307251</t>
+    <t xml:space="preserve">5.9542121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96793174743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0456748008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19658946990967</t>
   </si>
   <si>
     <t xml:space="preserve">6.21030759811401</t>
@@ -521,148 +521,148 @@
     <t xml:space="preserve">6.30634450912476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26975870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47275352478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56502246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63422536849976</t>
+    <t xml:space="preserve">6.26975965499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275304794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56502294540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63422584533691</t>
   </si>
   <si>
     <t xml:space="preserve">6.68958806991577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63884019851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886457443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5927038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67574787139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45891189575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66652011871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113399505615</t>
+    <t xml:space="preserve">6.63883924484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886600494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59270429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574644088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45891237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6665210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113542556763</t>
   </si>
   <si>
     <t xml:space="preserve">6.75879096984863</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85567474365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9294900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188282012939</t>
+    <t xml:space="preserve">6.85567283630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92949104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188186645508</t>
   </si>
   <si>
     <t xml:space="preserve">6.54195547103882</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68035840988159</t>
+    <t xml:space="preserve">6.68036031723022</t>
   </si>
   <si>
     <t xml:space="preserve">6.77724504470825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89258241653442</t>
+    <t xml:space="preserve">6.89258050918579</t>
   </si>
   <si>
     <t xml:space="preserve">6.75417757034302</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82799243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36316061019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76914834976196</t>
+    <t xml:space="preserve">6.82799434661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36316108703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76914978027344</t>
   </si>
   <si>
     <t xml:space="preserve">8.02750587463379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71378612518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385972976685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48311042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46465682983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80605792999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91678142547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765069961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62613344192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78760385513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89371156692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29508972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5580587387085</t>
+    <t xml:space="preserve">7.71378469467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53386068344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48311138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46465921401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8060564994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91678047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765165328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7876033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89371347427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216564178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436527252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508781433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55805969238281</t>
   </si>
   <si>
     <t xml:space="preserve">8.65955829620361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6272611618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53498935699463</t>
+    <t xml:space="preserve">8.62726211547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53499221801758</t>
   </si>
   <si>
     <t xml:space="preserve">8.52576541900635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60880947113037</t>
+    <t xml:space="preserve">8.60880470275879</t>
   </si>
   <si>
     <t xml:space="preserve">8.90407085418701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68262577056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58112716674805</t>
+    <t xml:space="preserve">8.6826229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58112907409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.81641578674316</t>
@@ -671,55 +671,55 @@
     <t xml:space="preserve">8.93175315856934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92252635955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34696960449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21317577362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11629486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29160594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315235137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43001079559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62378120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73514366149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89291191101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86506938934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97643566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0599584579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0413961410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0228366851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321178436279</t>
+    <t xml:space="preserve">8.92252731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3469705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21317672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11629581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2916088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315425872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001556396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62378215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73514556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89291000366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93931484222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86507225036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97643375396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0599594116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0413951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321168899536</t>
   </si>
   <si>
     <t xml:space="preserve">9.79082679748535</t>
@@ -728,118 +728,118 @@
     <t xml:space="preserve">9.67946434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65162086486816</t>
+    <t xml:space="preserve">9.65161991119385</t>
   </si>
   <si>
     <t xml:space="preserve">9.47529220581055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7629861831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93003273010254</t>
+    <t xml:space="preserve">9.76298809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93003368377686</t>
   </si>
   <si>
     <t xml:space="preserve">10.0042753219604</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87435054779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1898822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1063632965088</t>
+    <t xml:space="preserve">9.87435150146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1898832321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1063613891602</t>
   </si>
   <si>
     <t xml:space="preserve">10.069239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2455682754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3754911422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.220009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6283483505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819425582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6933116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2779769897461</t>
+    <t xml:space="preserve">10.2455654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3754940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2200117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6283464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819463729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035326004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6933107376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2779750823975</t>
   </si>
   <si>
     <t xml:space="preserve">12.3336582183838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2130117416382</t>
+    <t xml:space="preserve">12.2130107879639</t>
   </si>
   <si>
     <t xml:space="preserve">12.407901763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1016473770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9253187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0088453292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0459642410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.185170173645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3986206054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3429374694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7605581283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224918365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2431383132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1410531997681</t>
+    <t xml:space="preserve">12.1016454696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9253206253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232355117798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.008843421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0459651947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1851720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3986196517944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3429384231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027898788452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7605562210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224927902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2431373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1410522460938</t>
   </si>
   <si>
     <t xml:space="preserve">13.4565868377686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3545045852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6329145431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514749526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885995864868</t>
+    <t xml:space="preserve">13.3545026779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6329164505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514768600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885986328125</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823432922363</t>
@@ -851,31 +851,31 @@
     <t xml:space="preserve">13.7257175445557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1781759262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2060146331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524185180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4101829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4380226135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4937105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3632440567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7947940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9811706542969</t>
+    <t xml:space="preserve">13.1781749725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2060165405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524166107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4101877212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.438024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4937076568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.363245010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7947912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9811687469482</t>
   </si>
   <si>
     <t xml:space="preserve">13.2141408920288</t>
@@ -884,22 +884,22 @@
     <t xml:space="preserve">13.7825918197632</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3818788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657526016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564304351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3912019729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259696960449</t>
+    <t xml:space="preserve">13.3818807601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657545089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564352035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3911991119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446054458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259687423706</t>
   </si>
   <si>
     <t xml:space="preserve">13.2607374191284</t>
@@ -908,391 +908,391 @@
     <t xml:space="preserve">13.3352870941162</t>
   </si>
   <si>
-    <t xml:space="preserve">13.67076587677</t>
+    <t xml:space="preserve">13.6707668304443</t>
   </si>
   <si>
     <t xml:space="preserve">13.5868968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0929975509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9998083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9532165527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5804567337036</t>
+    <t xml:space="preserve">13.0930004119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9998064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9532146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5804586410522</t>
   </si>
   <si>
     <t xml:space="preserve">12.7295618057251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.738881111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582279205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7266817092896</t>
+    <t xml:space="preserve">12.7388820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582288742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7266807556152</t>
   </si>
   <si>
     <t xml:space="preserve">13.493706703186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8291864395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807981491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801230430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155639648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1367101669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3603620529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.034200668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3230848312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6521291732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5216674804688</t>
+    <t xml:space="preserve">13.8291873931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807962417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8012294769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1367092132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3603639602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0342016220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858095169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3230867385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6521282196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5216646194458</t>
   </si>
   <si>
     <t xml:space="preserve">13.4471139907837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5403022766113</t>
+    <t xml:space="preserve">13.5403032302856</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6987237930298</t>
+    <t xml:space="preserve">13.6987257003784</t>
   </si>
   <si>
     <t xml:space="preserve">13.5030269622803</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7919101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.577579498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5123453140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.024884223938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833057403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2951288223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1302738189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9252576828003</t>
+    <t xml:space="preserve">13.7919139862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775766372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5123462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0248851776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.295126914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.130274772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9252595901489</t>
   </si>
   <si>
     <t xml:space="preserve">12.5990982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6456918716431</t>
+    <t xml:space="preserve">12.6456928253174</t>
   </si>
   <si>
     <t xml:space="preserve">13.0277643203735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6922855377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041133880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338649749756</t>
+    <t xml:space="preserve">12.6922826766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041124343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338659286499</t>
   </si>
   <si>
     <t xml:space="preserve">12.4872713088989</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1315603256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.991153717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009630203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7758550643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8600978851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.719690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379552841187</t>
+    <t xml:space="preserve">12.1315631866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9911479949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009658813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7758541107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8600988388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7196855545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379543304443</t>
   </si>
   <si>
     <t xml:space="preserve">12.1596431732178</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3094186782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715188980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.524715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9365882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9553108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9740295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7680940628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518869400024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2454929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297395706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4139881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.685450553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6667280197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5075941085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4514322280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5731210708618</t>
+    <t xml:space="preserve">12.3094158172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715160369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5247116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9365873336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9553117752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9740324020386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7680969238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518878936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.329740524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.413990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6854524612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.666729927063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203773498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5075960159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4514303207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5731239318848</t>
   </si>
   <si>
     <t xml:space="preserve">13.732253074646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6386480331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228918075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726673126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420671463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676393508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3859062194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4795122146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2829351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5263175964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5169553756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4888753890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1986894607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2922992706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6480073928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8071422576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.98499584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0318002700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160459518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.471752166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840845108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7900218963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7338562011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7432165145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0521230697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4280261993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5689716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2964897155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3246726989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904409408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7891111373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8360919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1931314468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2307167053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3622598648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072170257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9823865890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7662792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7944641113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6441326141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8226566314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8414506912231</t>
+    <t xml:space="preserve">13.6386442184448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228946685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420700073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676412582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3859081268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2829389572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706066131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5263214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5169582366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233493804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4888725280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701528549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2922983169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6480083465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8071403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.984992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0317983627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160449981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4717569351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840854644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7900247573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7338552474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7432174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0521221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334024429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4280281066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5689640045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2964887619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3246755599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904466629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7891082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8360872268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.193133354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3622589111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696308135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7662839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.794472694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441316604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.822657585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8414487838745</t>
   </si>
   <si>
     <t xml:space="preserve">15.8884210586548</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9917774200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1139297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6723232269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8602390289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5461330413818</t>
+    <t xml:space="preserve">15.9917821884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1139240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723222732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8602409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5461387634277</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528476715088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6494941711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6414203643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071895599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1300048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.998462677002</t>
+    <t xml:space="preserve">16.6494884490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1300010681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9984607696533</t>
   </si>
   <si>
     <t xml:space="preserve">19.355504989624</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2051753997803</t>
+    <t xml:space="preserve">19.2051773071289</t>
   </si>
   <si>
     <t xml:space="preserve">19.693754196167</t>
@@ -1301,178 +1301,178 @@
     <t xml:space="preserve">19.9662342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7125492095947</t>
+    <t xml:space="preserve">19.7125511169434</t>
   </si>
   <si>
     <t xml:space="preserve">19.8816719055176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8011436462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2333602905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8951110839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2709426879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1018123626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.327320098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7031497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1863746643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3461074829102</t>
+    <t xml:space="preserve">18.8011512756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2333564758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8951091766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2709407806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1018142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7031478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1863765716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3461132049561</t>
   </si>
   <si>
     <t xml:space="preserve">18.9890632629395</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0172519683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7206211090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2602272033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.372974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6454544067383</t>
+    <t xml:space="preserve">19.0172557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7206230163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9085445404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.260232925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3729801177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6454524993896</t>
   </si>
   <si>
     <t xml:space="preserve">16.9877433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2132472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2226390838623</t>
+    <t xml:space="preserve">17.2132434844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2226486206055</t>
   </si>
   <si>
     <t xml:space="preserve">17.4951229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4481391906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.18505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5055675506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6186943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.345308303833</t>
+    <t xml:space="preserve">17.4481430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1850547790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5055713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6186904907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3453178405762</t>
   </si>
   <si>
     <t xml:space="preserve">17.4584350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4490089416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4113025665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1567726135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3735942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9203453063965</t>
+    <t xml:space="preserve">17.4490127563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.411304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1567783355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3735961914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9203472137451</t>
   </si>
   <si>
     <t xml:space="preserve">18.1748733520508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.316276550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2408618927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8536014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8347473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6462078094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.52366065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.230676651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2683811187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0609893798828</t>
+    <t xml:space="preserve">18.3162727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2408561706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5802249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8535976409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8347454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6462116241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5236644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2306709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683849334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0609912872314</t>
   </si>
   <si>
     <t xml:space="preserve">18.9101600646973</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7223873138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8543605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9769077301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3634128570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674797058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4301528930664</t>
+    <t xml:space="preserve">17.7223854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8543663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9769096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011192321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3634071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.127742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674873352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4301605224609</t>
   </si>
   <si>
     <t xml:space="preserve">17.5574188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0577907562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2887516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2942199707031</t>
+    <t xml:space="preserve">17.0577926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2887535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2942237854004</t>
   </si>
   <si>
     <t xml:space="preserve">16.2046680450439</t>
@@ -1484,31 +1484,31 @@
     <t xml:space="preserve">16.3602104187012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8362655639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0153770446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0295124053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9588184356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065856933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.689395904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688774108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5904140472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6139812469482</t>
+    <t xml:space="preserve">16.8362712860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0153751373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0295162200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9588165283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.406587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893863677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688812255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5904083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.613977432251</t>
   </si>
   <si>
     <t xml:space="preserve">17.7883758544922</t>
@@ -1517,133 +1517,133 @@
     <t xml:space="preserve">17.7459564208984</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0625171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6524486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1850605010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432720184326</t>
+    <t xml:space="preserve">17.0625076293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6524448394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1850566864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5432777404785</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5566558837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6650676727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.825325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.33984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2597122192383</t>
+    <t xml:space="preserve">18.5566596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6650638580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8253192901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3398418426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2597103118896</t>
   </si>
   <si>
     <t xml:space="preserve">18.6603507995605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7263355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4237651824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8256206512451</t>
+    <t xml:space="preserve">18.7263336181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4237689971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8256225585938</t>
   </si>
   <si>
     <t xml:space="preserve">19.2511119842529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3292083740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.582239151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916976928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.036096572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.076379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0054607391357</t>
+    <t xml:space="preserve">18.3292140960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5822410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5916938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0360984802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0763778686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0054683685303</t>
   </si>
   <si>
     <t xml:space="preserve">16.499605178833</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0977516174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5279674530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712333679199</t>
+    <t xml:space="preserve">16.097749710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5279636383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.386137008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712352752686</t>
   </si>
   <si>
     <t xml:space="preserve">16.9014549255371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6839809417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.274938583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309539794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7429866790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4545936584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8683624267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6177940368652</t>
+    <t xml:space="preserve">16.6839866638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5065975189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2749462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7429828643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4545917510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8683643341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6177978515625</t>
   </si>
   <si>
     <t xml:space="preserve">16.8116302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6887073516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1472911834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425685882568</t>
+    <t xml:space="preserve">16.6887092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756629943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3505878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1472930908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425666809082</t>
   </si>
   <si>
     <t xml:space="preserve">17.9368152618408</t>
   </si>
   <si>
-    <t xml:space="preserve">17.951000213623</t>
+    <t xml:space="preserve">17.9509983062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.1826553344727</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">18.8161659240723</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5230541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7972545623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8539848327637</t>
+    <t xml:space="preserve">18.5230484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7972564697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8539905548096</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187362670898</t>
@@ -1673,37 +1673,37 @@
     <t xml:space="preserve">19.0620021820068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9390850067139</t>
+    <t xml:space="preserve">18.9390888214111</t>
   </si>
   <si>
     <t xml:space="preserve">19.1376476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0714626312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688884735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0998287200928</t>
+    <t xml:space="preserve">19.0714645385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688903808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0998306274414</t>
   </si>
   <si>
     <t xml:space="preserve">19.4307651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3362140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1471042633057</t>
+    <t xml:space="preserve">19.3362121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.147102355957</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267555236816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2605609893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2416572570801</t>
+    <t xml:space="preserve">19.2605743408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.241662979126</t>
   </si>
   <si>
     <t xml:space="preserve">19.1943798065186</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">20.0264530181885</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2817420959473</t>
+    <t xml:space="preserve">20.2817478179932</t>
   </si>
   <si>
     <t xml:space="preserve">20.1020946502686</t>
@@ -1721,28 +1721,28 @@
     <t xml:space="preserve">19.8657112121582</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2061061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1304569244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0098114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4447555541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2367362976074</t>
+    <t xml:space="preserve">20.2061023712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1304588317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0098094940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4447536468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2367401123047</t>
   </si>
   <si>
     <t xml:space="preserve">21.0092010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1180114746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9189205169678</t>
+    <t xml:space="preserve">20.1180152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9189224243164</t>
   </si>
   <si>
     <t xml:space="preserve">19.4069671630859</t>
@@ -1751,67 +1751,67 @@
     <t xml:space="preserve">19.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1934394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5963687896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8049392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412944793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715473175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.975378036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.00856590271</t>
+    <t xml:space="preserve">18.1934375762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5963726043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8049468994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473892211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412963867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9896011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539451599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9753818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0085601806641</t>
   </si>
   <si>
     <t xml:space="preserve">18.1460304260254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986289978027</t>
+    <t xml:space="preserve">18.5252552032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986270904541</t>
   </si>
   <si>
     <t xml:space="preserve">18.4020080566406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4446773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4873390197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437740325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363185882568</t>
+    <t xml:space="preserve">18.4446754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.487340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437721252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363128662109</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604652404785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.188907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7670192718506</t>
+    <t xml:space="preserve">19.1889114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.767017364502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5396957397461</t>
@@ -1820,19 +1820,19 @@
     <t xml:space="preserve">17.8142108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0701866149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1886920928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6909618377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6577816009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6388206481934</t>
+    <t xml:space="preserve">18.0701885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1886959075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6909580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6577777862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6388149261475</t>
   </si>
   <si>
     <t xml:space="preserve">17.7810287475586</t>
@@ -1841,58 +1841,58 @@
     <t xml:space="preserve">17.9990825653076</t>
   </si>
   <si>
-    <t xml:space="preserve">18.041748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0749282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9848594665527</t>
+    <t xml:space="preserve">18.0417461395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.07493019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9848613739014</t>
   </si>
   <si>
     <t xml:space="preserve">17.0747165679932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1363430023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751720428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4347705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0602874755859</t>
+    <t xml:space="preserve">17.1363391876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9751663208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4347743988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0602779388428</t>
   </si>
   <si>
     <t xml:space="preserve">16.0650196075439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2830791473389</t>
+    <t xml:space="preserve">16.2830772399902</t>
   </si>
   <si>
     <t xml:space="preserve">16.126651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1076908111572</t>
+    <t xml:space="preserve">16.1076889038086</t>
   </si>
   <si>
     <t xml:space="preserve">16.5200977325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7855567932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7476329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8898429870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7713375091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7760791778564</t>
+    <t xml:space="preserve">16.7855529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.747631072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8898448944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.771333694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7760696411133</t>
   </si>
   <si>
     <t xml:space="preserve">16.7950382232666</t>
@@ -1901,13 +1901,13 @@
     <t xml:space="preserve">16.382625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6241731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3871564865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.353967666626</t>
+    <t xml:space="preserve">15.624174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3871545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3539705276489</t>
   </si>
   <si>
     <t xml:space="preserve">15.3492307662964</t>
@@ -1916,43 +1916,43 @@
     <t xml:space="preserve">15.0790328979492</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4675283432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7946119308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0695514678955</t>
+    <t xml:space="preserve">14.467529296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7946128845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0695543289185</t>
   </si>
   <si>
     <t xml:space="preserve">14.7983293533325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8887348175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9268026351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4502182006836</t>
+    <t xml:space="preserve">14.8887357711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9268035888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4502153396606</t>
   </si>
   <si>
     <t xml:space="preserve">15.4692487716675</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3598070144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3931112289429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1266508102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9172859191895</t>
+    <t xml:space="preserve">15.3598051071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6500654220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3931131362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1266527175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9172849655151</t>
   </si>
   <si>
     <t xml:space="preserve">15.2503671646118</t>
@@ -1961,43 +1961,43 @@
     <t xml:space="preserve">15.540620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6024837493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1932668685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4462156295776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2273302078247</t>
+    <t xml:space="preserve">15.6024856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1932678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.446213722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2273330688477</t>
   </si>
   <si>
     <t xml:space="preserve">14.2701559066772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4469709396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7134351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6896438598633</t>
+    <t xml:space="preserve">13.4469690322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7134342193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6896419525146</t>
   </si>
   <si>
     <t xml:space="preserve">14.113133430481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5183429718018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2756690979004</t>
+    <t xml:space="preserve">13.5183448791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2756719589233</t>
   </si>
   <si>
     <t xml:space="preserve">13.328010559082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8759727478027</t>
+    <t xml:space="preserve">12.8759737014771</t>
   </si>
   <si>
     <t xml:space="preserve">11.567437171936</t>
@@ -2009,16 +2009,16 @@
     <t xml:space="preserve">11.5912294387817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2431173324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2621536254883</t>
+    <t xml:space="preserve">12.2431211471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.262152671814</t>
   </si>
   <si>
     <t xml:space="preserve">12.7522563934326</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662302017212</t>
+    <t xml:space="preserve">13.1662311553955</t>
   </si>
   <si>
     <t xml:space="preserve">13.1424388885498</t>
@@ -2027,37 +2027,37 @@
     <t xml:space="preserve">12.6285400390625</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7903213500977</t>
+    <t xml:space="preserve">12.7903232574463</t>
   </si>
   <si>
     <t xml:space="preserve">12.6332969665527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4810352325439</t>
+    <t xml:space="preserve">12.4810342788696</t>
   </si>
   <si>
     <t xml:space="preserve">12.3620748519897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9385862350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8339033126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7530126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5721960067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.605504989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4008989334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9433441162109</t>
+    <t xml:space="preserve">11.938588142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8339023590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7530145645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5721979141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6055030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.400897026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9433460235596</t>
   </si>
   <si>
     <t xml:space="preserve">11.7625293731689</t>
@@ -2066,145 +2066,145 @@
     <t xml:space="preserve">11.8434181213379</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1765031814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1098871231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0718202590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3668365478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.324010848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0663032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.647572517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2383613586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5055799484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3818674087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0630569458008</t>
+    <t xml:space="preserve">12.1765012741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0718193054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3668346405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3240098953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0663013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6475734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2383594512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5055818557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3818655014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0630598068237</t>
   </si>
   <si>
     <t xml:space="preserve">11.4199314117432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6435718536377</t>
+    <t xml:space="preserve">11.6435737609863</t>
   </si>
   <si>
     <t xml:space="preserve">11.6530885696411</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6483316421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813875198364</t>
+    <t xml:space="preserve">11.6483306884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813856124878</t>
   </si>
   <si>
     <t xml:space="preserve">11.5861673355103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5000953674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474964141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961488723755</t>
+    <t xml:space="preserve">11.5000982284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1605939865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474954605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961469650269</t>
   </si>
   <si>
     <t xml:space="preserve">11.6052932739258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2520608901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4385480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449974060059</t>
+    <t xml:space="preserve">10.2520618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4385499954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449964523315</t>
   </si>
   <si>
     <t xml:space="preserve">10.8928146362305</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4761848449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6244211196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7487449645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6196374893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7774381637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0021820068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726564407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2986478805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3512487411499</t>
+    <t xml:space="preserve">11.4761867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6244192123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7487440109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6196403503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7774362564087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.002179145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726545333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2986459732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3512477874756</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9495811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1641445159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7475156784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4414863586426</t>
+    <t xml:space="preserve">11.949577331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1641416549683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7475166320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4414825439453</t>
   </si>
   <si>
     <t xml:space="preserve">13.2310886383057</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2884674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2693433761597</t>
+    <t xml:space="preserve">13.2884702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2693405151367</t>
   </si>
   <si>
     <t xml:space="preserve">13.3028144836426</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3458490371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.207179069519</t>
+    <t xml:space="preserve">13.3458480834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2071800231934</t>
   </si>
   <si>
     <t xml:space="preserve">13.8766250610352</t>
@@ -2213,94 +2213,94 @@
     <t xml:space="preserve">13.2406530380249</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9489622116089</t>
+    <t xml:space="preserve">12.9489641189575</t>
   </si>
   <si>
     <t xml:space="preserve">13.3171586990356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0344228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.981822013855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9483509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0774555206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9770383834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8335876464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0487661361694</t>
+    <t xml:space="preserve">14.0344200134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9818210601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9483489990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0774564743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9770402908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8335886001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0487632751465</t>
   </si>
   <si>
     <t xml:space="preserve">14.0200748443604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1874380111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5938844680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3739252090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0631093978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7570791244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2065649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.134838104248</t>
+    <t xml:space="preserve">14.1874361038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5938854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3739233016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0631113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7570781707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2065629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1348371505737</t>
   </si>
   <si>
     <t xml:space="preserve">13.6231899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3362855911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466842651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4845237731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3506298065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3601932525635</t>
+    <t xml:space="preserve">13.3362846374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466833114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4845199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3506307601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3601942062378</t>
   </si>
   <si>
     <t xml:space="preserve">13.6889314651489</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8329753875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6553211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2555027008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9386072158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4008445739746</t>
+    <t xml:space="preserve">13.8329772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6553239822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2555055618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.93860912323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4008464813232</t>
   </si>
   <si>
     <t xml:space="preserve">13.5736970901489</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">12.6854305267334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2388916015625</t>
+    <t xml:space="preserve">12.2388954162598</t>
   </si>
   <si>
     <t xml:space="preserve">12.6566219329834</t>
@@ -2318,97 +2318,97 @@
     <t xml:space="preserve">13.1655750274658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5256824493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3083200454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5435934066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9661178588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0381412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9085025787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901266098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0717515945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.398250579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2205963134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759019851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8255786895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3934516906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1712837219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120073318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903081893921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5230846405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.729546546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7343521118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7487545013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7068424224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9421100616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1882810592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3227262496948</t>
+    <t xml:space="preserve">13.5256795883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3083209991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5435924530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.966118812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0381374359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9084997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901256561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0717496871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.398247718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2205953598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8255767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408102035522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3934478759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1712799072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903024673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5230855941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7295446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7343492507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7487525939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7068405151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9421119689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1882848739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3227252960205</t>
   </si>
   <si>
     <t xml:space="preserve">13.5929021835327</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5003786087036</t>
+    <t xml:space="preserve">14.5003805160522</t>
   </si>
   <si>
     <t xml:space="preserve">14.980523109436</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1293659210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9565162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5881013870239</t>
+    <t xml:space="preserve">15.1293668746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9565153121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5881032943726</t>
   </si>
   <si>
     <t xml:space="preserve">14.1930856704712</t>
@@ -2417,22 +2417,22 @@
     <t xml:space="preserve">13.9722185134888</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1799793243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1175603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1559743881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071277618408</t>
+    <t xml:space="preserve">13.1799802780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.117561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559705734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071258544922</t>
   </si>
   <si>
     <t xml:space="preserve">12.9735174179077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0455389022827</t>
+    <t xml:space="preserve">13.0455379486084</t>
   </si>
   <si>
     <t xml:space="preserve">13.1511697769165</t>
@@ -2441,250 +2441,250 @@
     <t xml:space="preserve">13.2279939651489</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5640935897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248542785645</t>
+    <t xml:space="preserve">13.564094543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248552322388</t>
   </si>
   <si>
     <t xml:space="preserve">13.2760076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8953952789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2218933105469</t>
+    <t xml:space="preserve">13.8953943252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2218952178955</t>
   </si>
   <si>
     <t xml:space="preserve">13.9626140594482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0202331542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5687952041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9882965087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2968997955322</t>
+    <t xml:space="preserve">14.0202322006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.568793296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9882974624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2969007492065</t>
   </si>
   <si>
     <t xml:space="preserve">14.6488971710205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560213088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3402948379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6055011749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8465957641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0442924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6759586334229</t>
+    <t xml:space="preserve">14.4560203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4367351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3402976989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6055030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8465948104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0442943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6759567260742</t>
   </si>
   <si>
     <t xml:space="preserve">15.5264797210693</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4348649978638</t>
+    <t xml:space="preserve">15.4348669052124</t>
   </si>
   <si>
     <t xml:space="preserve">15.5650539398193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.188946723938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1069774627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9526767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1455526351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0973329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2709217071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.333607673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3191385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3818244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7338256835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520687103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3847789764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9634037017822</t>
+    <t xml:space="preserve">15.1889495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1069746017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9526796340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1455507278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0973300933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2709197998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3336048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3191423416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3818254470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7338209152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520629882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3847770690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.963399887085</t>
   </si>
   <si>
     <t xml:space="preserve">16.4812164306641</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7946376800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1292190551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1147518157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3317375183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2419900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5862121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4801340103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5572786331177</t>
+    <t xml:space="preserve">16.7946395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1292171478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1147499084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3317317962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2419891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5862140655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4801321029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5572824478149</t>
   </si>
   <si>
     <t xml:space="preserve">15.1407308578491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1214418411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.627742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9285678863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000684738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6904249191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8736591339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7579345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539379119873</t>
+    <t xml:space="preserve">15.1214427947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9285669326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000665664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6904258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8736553192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7579307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539360046387</t>
   </si>
   <si>
     <t xml:space="preserve">15.1744832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2130575180054</t>
+    <t xml:space="preserve">15.213059425354</t>
   </si>
   <si>
     <t xml:space="preserve">15.545768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5361261367798</t>
+    <t xml:space="preserve">15.5361242294312</t>
   </si>
   <si>
     <t xml:space="preserve">15.4686183929443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2661008834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7289991378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7030162811279</t>
+    <t xml:space="preserve">15.2660980224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7289972305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7030200958252</t>
   </si>
   <si>
     <t xml:space="preserve">17.0212650299072</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7801723480225</t>
+    <t xml:space="preserve">16.7801666259766</t>
   </si>
   <si>
     <t xml:space="preserve">17.4504165649414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5275707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6143550872803</t>
+    <t xml:space="preserve">17.52756690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6143627166748</t>
   </si>
   <si>
     <t xml:space="preserve">17.4692268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2273406982422</t>
+    <t xml:space="preserve">17.2273330688477</t>
   </si>
   <si>
     <t xml:space="preserve">17.5127658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5611476898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547718048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0628528594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.937068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9225578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9757709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128200531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1692905426025</t>
+    <t xml:space="preserve">17.5611400604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547737121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0628490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9370708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9225521087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9757747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128238677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1692810058594</t>
   </si>
   <si>
     <t xml:space="preserve">17.1160678863525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.646800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7677459716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.304744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3192558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8403167724609</t>
+    <t xml:space="preserve">16.6468029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7677440643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3047409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3192596435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8403129577637</t>
   </si>
   <si>
     <t xml:space="preserve">17.0773620605469</t>
@@ -2696,46 +2696,46 @@
     <t xml:space="preserve">18.577075958252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3980770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8479976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.775426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4029178619385</t>
+    <t xml:space="preserve">18.3980808258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.847993850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7754287719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4029197692871</t>
   </si>
   <si>
     <t xml:space="preserve">18.3835678100586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6061058044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8804378509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3995018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5543060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897117614746</t>
+    <t xml:space="preserve">18.6061019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8804397583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3994998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5543098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897060394287</t>
   </si>
   <si>
     <t xml:space="preserve">20.2896518707275</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9993877410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6800918579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0767936706543</t>
+    <t xml:space="preserve">19.9993858337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6800899505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0767879486084</t>
   </si>
   <si>
     <t xml:space="preserve">20.3283576965332</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">20.6186199188232</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5025119781494</t>
+    <t xml:space="preserve">20.5025100708008</t>
   </si>
   <si>
     <t xml:space="preserve">20.889533996582</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">20.9185657501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3636379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1507797241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0153179168701</t>
+    <t xml:space="preserve">21.363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1507778167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0153160095215</t>
   </si>
   <si>
     <t xml:space="preserve">21.2862339019775</t>
@@ -2771,34 +2771,34 @@
     <t xml:space="preserve">21.1701278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7637500762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0443477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4410438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.789363861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8280658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7313098907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5765037536621</t>
+    <t xml:space="preserve">20.7637519836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0443420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4410419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7893619537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8280639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7313079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5764980316162</t>
   </si>
   <si>
     <t xml:space="preserve">21.0830535888672</t>
   </si>
   <si>
-    <t xml:space="preserve">21.073371887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571479797363</t>
+    <t xml:space="preserve">21.0733737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5571517944336</t>
   </si>
   <si>
     <t xml:space="preserve">21.605525970459</t>
@@ -2807,19 +2807,19 @@
     <t xml:space="preserve">22.2441158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3408679962158</t>
+    <t xml:space="preserve">22.3408699035645</t>
   </si>
   <si>
     <t xml:space="preserve">22.631139755249</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9407520294189</t>
+    <t xml:space="preserve">22.9407501220703</t>
   </si>
   <si>
     <t xml:space="preserve">23.4051856994629</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7728538513184</t>
+    <t xml:space="preserve">23.7728500366211</t>
   </si>
   <si>
     <t xml:space="preserve">23.7243576049805</t>
@@ -2828,31 +2828,31 @@
     <t xml:space="preserve">23.5982685089111</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2103023529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3751907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6176662445068</t>
+    <t xml:space="preserve">23.2102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6176700592041</t>
   </si>
   <si>
     <t xml:space="preserve">23.5400714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2490921020508</t>
+    <t xml:space="preserve">23.2490940093994</t>
   </si>
   <si>
     <t xml:space="preserve">24.0153369903564</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8504467010498</t>
+    <t xml:space="preserve">23.8504486083984</t>
   </si>
   <si>
     <t xml:space="preserve">23.3072910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">23.898946762085</t>
+    <t xml:space="preserve">23.8989372253418</t>
   </si>
   <si>
     <t xml:space="preserve">23.8795471191406</t>
@@ -2861,43 +2861,43 @@
     <t xml:space="preserve">24.4517974853516</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9668369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1705265045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3354091644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3936080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778980255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3451099395752</t>
+    <t xml:space="preserve">23.9668407440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1705226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3354110717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3936100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778903961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3451118469238</t>
   </si>
   <si>
     <t xml:space="preserve">26.1879653930664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9154090881348</t>
+    <t xml:space="preserve">26.9154109954834</t>
   </si>
   <si>
     <t xml:space="preserve">25.3635292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2461605072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.090970993042</t>
+    <t xml:space="preserve">26.2461624145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0909729003906</t>
   </si>
   <si>
     <t xml:space="preserve">25.6545085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5196971893311</t>
+    <t xml:space="preserve">24.5197010040283</t>
   </si>
   <si>
     <t xml:space="preserve">24.985258102417</t>
@@ -2906,40 +2906,40 @@
     <t xml:space="preserve">25.8678913116455</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5662364959717</t>
+    <t xml:space="preserve">26.5662384033203</t>
   </si>
   <si>
     <t xml:space="preserve">26.4013500213623</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7214202880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4100742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7204513549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4672908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0793209075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3324794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0027046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2442111968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8368396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4391689300537</t>
+    <t xml:space="preserve">26.7214279174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4100685119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7204475402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4672889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3324775695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0027027130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2442073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8368377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4391708374023</t>
   </si>
   <si>
     <t xml:space="preserve">25.4993209838867</t>
@@ -2951,97 +2951,97 @@
     <t xml:space="preserve">25.8872909545898</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1123275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6467590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5788707733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2287178039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6952648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5895442962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3005199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4654083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0580406188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.857292175293</t>
+    <t xml:space="preserve">24.1123294830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6467628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5788688659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2287216186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6952610015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5895462036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3005218505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4654102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0580425262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8572902679443</t>
   </si>
   <si>
     <t xml:space="preserve">17.5992832183838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.003324508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7551803588867</t>
+    <t xml:space="preserve">16.0033283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7551774978638</t>
   </si>
   <si>
     <t xml:space="preserve">13.5850687026978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6798572540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4826993942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6384019851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8960914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9178905487061</t>
+    <t xml:space="preserve">14.679856300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4826974868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6384010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8960933685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9178943634033</t>
   </si>
   <si>
     <t xml:space="preserve">18.6892032623291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9739456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838348388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3412094116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4264526367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.458179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0687313079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0467395782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6306228637695</t>
+    <t xml:space="preserve">17.9739437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838310241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3412075042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4264545440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0687294006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0467357635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6306209564209</t>
   </si>
   <si>
     <t xml:space="preserve">21.5745697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4967231750488</t>
+    <t xml:space="preserve">21.4967193603516</t>
   </si>
   <si>
     <t xml:space="preserve">19.852108001709</t>
@@ -3050,211 +3050,211 @@
     <t xml:space="preserve">20.066198348999</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8155193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5333099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757717132568</t>
+    <t xml:space="preserve">20.8155174255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5333061218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757736206055</t>
   </si>
   <si>
     <t xml:space="preserve">20.77659034729</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7594661712646</t>
+    <t xml:space="preserve">21.7594699859619</t>
   </si>
   <si>
     <t xml:space="preserve">22.0416793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2581062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.637638092041</t>
+    <t xml:space="preserve">23.2581081390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6376323699951</t>
   </si>
   <si>
     <t xml:space="preserve">24.2896385192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.073205947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8275909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1681880950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.29469871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5769081115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7715339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2655010223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0634803771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6718883514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0393409729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6134948730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8957061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3410148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6329612731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3336277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.146390914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6232261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7205410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1389923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.978235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6279029846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3772201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.335958480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4040832519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3920059204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3141593933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2071132659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1899852752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3651561737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6765575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5500507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0938262939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469654083252</t>
+    <t xml:space="preserve">23.0732116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8275890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1681861877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2946949005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5769062042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7715396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2654972076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6718845367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0393466949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6134986877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8957099914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923564910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3410167694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6329574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3336219787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1463871002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6232280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7205429077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1389961242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9782314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6278991699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3772163391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3359565734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.40407371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3920078277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3141574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2071094512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1899871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3651542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6765613555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5500526428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0938243865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469673156738</t>
   </si>
   <si>
     <t xml:space="preserve">23.1328201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1133232116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8793640136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9183597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6104888916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4155235290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6202373504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0491638183594</t>
+    <t xml:space="preserve">23.1133251190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8793621063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9183559417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6104850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4155216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.620231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0491619110107</t>
   </si>
   <si>
     <t xml:space="preserve">23.9321823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2400512695312</t>
+    <t xml:space="preserve">23.2400550842285</t>
   </si>
   <si>
     <t xml:space="preserve">23.5227546691895</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7120494842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2092189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1466484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8777732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9070205688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5016651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1060619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8136138916016</t>
+    <t xml:space="preserve">24.7120513916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2092208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1466464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8777751922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9070224761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5016708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1060638427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8136157989502</t>
   </si>
   <si>
     <t xml:space="preserve">26.008581161499</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2384643554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4919185638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9614276885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.064582824707</t>
+    <t xml:space="preserve">25.9013519287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2384586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4919204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1563968658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0645809173584</t>
   </si>
   <si>
     <t xml:space="preserve">23.210807800293</t>
@@ -3263,79 +3263,79 @@
     <t xml:space="preserve">23.9516773223877</t>
   </si>
   <si>
-    <t xml:space="preserve">24.068660736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7859573364258</t>
+    <t xml:space="preserve">24.0686588287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7859592437744</t>
   </si>
   <si>
     <t xml:space="preserve">23.7274703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8736915588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.56174659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3903579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8387832641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6730575561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0784111022949</t>
+    <t xml:space="preserve">23.8736972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5617504119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.39035987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8387756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.673059463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0784072875977</t>
   </si>
   <si>
     <t xml:space="preserve">24.4683437347412</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1174011230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1368961334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.707971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4585933685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6633129119873</t>
+    <t xml:space="preserve">24.1174049377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1369018554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7079734802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4585971832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6633110046387</t>
   </si>
   <si>
     <t xml:space="preserve">25.3554401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9557628631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6340656280518</t>
+    <t xml:space="preserve">24.9557609558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6340713500977</t>
   </si>
   <si>
     <t xml:space="preserve">24.5073375701904</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8680229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3456916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.590991973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0255870819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.532506942749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7233848571777</t>
+    <t xml:space="preserve">24.8680267333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3456935882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5909957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0255928039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5325012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.723388671875</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221187591553</t>
@@ -3344,19 +3344,19 @@
     <t xml:space="preserve">24.5755729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7607936859131</t>
+    <t xml:space="preserve">24.7607917785645</t>
   </si>
   <si>
     <t xml:space="preserve">25.6868858337402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9305934906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1353092193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431762695312</t>
+    <t xml:space="preserve">25.9305953979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.135311126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431819915771</t>
   </si>
   <si>
     <t xml:space="preserve">25.2872047424316</t>
@@ -3365,79 +3365,79 @@
     <t xml:space="preserve">24.6349563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7228317260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.918119430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0645809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4592037200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1426944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5723171234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6308994293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4177398681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052894592285</t>
+    <t xml:space="preserve">24.7228355407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9181232452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0645847320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4591999053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1426963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5723152160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6309051513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.41774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052913665771</t>
   </si>
   <si>
     <t xml:space="preserve">27.39821434021</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3689250946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5642032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8375988006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5894451141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9800109863281</t>
+    <t xml:space="preserve">27.3689212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5642051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8376007080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5894374847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9800052642822</t>
   </si>
   <si>
     <t xml:space="preserve">29.1752853393555</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8237762451172</t>
+    <t xml:space="preserve">28.8237819671631</t>
   </si>
   <si>
     <t xml:space="preserve">28.4136867523193</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5503807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7554321289062</t>
+    <t xml:space="preserve">28.5503845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7554302215576</t>
   </si>
   <si>
     <t xml:space="preserve">28.4527397155762</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2574577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9840621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.935245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3005695343018</t>
+    <t xml:space="preserve">28.2574596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9840641021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9352436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.300573348999</t>
   </si>
   <si>
     <t xml:space="preserve">26.5584964752197</t>
@@ -3449,10 +3449,10 @@
     <t xml:space="preserve">25.9140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.552791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0507621765137</t>
+    <t xml:space="preserve">25.5527858734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.050760269165</t>
   </si>
   <si>
     <t xml:space="preserve">26.8026008605957</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">27.281042098999</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1402893066406</t>
+    <t xml:space="preserve">28.140287399292</t>
   </si>
   <si>
     <t xml:space="preserve">28.3160438537598</t>
@@ -3473,73 +3473,73 @@
     <t xml:space="preserve">27.9742965698242</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4722709655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0426445007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2769870758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0776462554932</t>
+    <t xml:space="preserve">28.4722728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0426464080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2769832611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0776500701904</t>
   </si>
   <si>
     <t xml:space="preserve">28.9897708892822</t>
   </si>
   <si>
-    <t xml:space="preserve">29.409631729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7123165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3762836456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5813312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6887321472168</t>
+    <t xml:space="preserve">29.4096298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7123184204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762798309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5813293457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6887378692627</t>
   </si>
   <si>
     <t xml:space="preserve">31.2257614135742</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7725620269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4560470581055</t>
+    <t xml:space="preserve">31.7725601196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4560508728027</t>
   </si>
   <si>
     <t xml:space="preserve">32.055721282959</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5008087158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6318016052246</t>
+    <t xml:space="preserve">33.5008125305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6317977905273</t>
   </si>
   <si>
     <t xml:space="preserve">32.8759078979492</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2957649230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.578914642334</t>
+    <t xml:space="preserve">33.2957611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5789184570312</t>
   </si>
   <si>
     <t xml:space="preserve">33.1785926818848</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2338790893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7456665039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3178558349609</t>
+    <t xml:space="preserve">29.2338771820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7456645965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3178577423096</t>
   </si>
   <si>
     <t xml:space="preserve">29.5205879211426</t>
@@ -3548,10 +3548,10 @@
     <t xml:space="preserve">29.3347988128662</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9925575256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.344575881958</t>
+    <t xml:space="preserve">28.992561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3445777893066</t>
   </si>
   <si>
     <t xml:space="preserve">28.4351978302002</t>
@@ -3560,76 +3560,76 @@
     <t xml:space="preserve">29.5108070373535</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6574821472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7357063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4716949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8726024627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0166625976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3002262115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3882312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6620273590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2682762145996</t>
+    <t xml:space="preserve">29.6574802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7357044219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4716892242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8726043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166645050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3002300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3882369995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6620254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2682723999023</t>
   </si>
   <si>
     <t xml:space="preserve">32.6007385253906</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8843154907227</t>
+    <t xml:space="preserve">32.8843040466309</t>
   </si>
   <si>
     <t xml:space="preserve">32.9234237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1705017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3660545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0238189697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7474136352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6594161987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8771457672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9260444641113</t>
+    <t xml:space="preserve">32.1704940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3660621643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0238227844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7474212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6594123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8771514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9260368347168</t>
   </si>
   <si>
     <t xml:space="preserve">31.9749317169189</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9775466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2780570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5322875976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1874313354492</t>
+    <t xml:space="preserve">30.9775485992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2780609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5322952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1874351501465</t>
   </si>
   <si>
     <t xml:space="preserve">33.1776580810547</t>
@@ -3647,223 +3647,223 @@
     <t xml:space="preserve">33.803466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9038734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0968132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5759468078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7715187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3608322143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6372375488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1972236633301</t>
+    <t xml:space="preserve">32.9038619995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.096809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5759506225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7715148925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3608169555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6372337341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1972122192383</t>
   </si>
   <si>
     <t xml:space="preserve">33.8523559570312</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0798721313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.190055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.014045715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7109184265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2806720733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7330894470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0681686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6868133544922</t>
+    <t xml:space="preserve">33.0798759460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1900482177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0140419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7109222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2806739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7330951690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.068172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6868190765381</t>
   </si>
   <si>
     <t xml:space="preserve">28.6209888458252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8387222290039</t>
+    <t xml:space="preserve">27.8387260437012</t>
   </si>
   <si>
     <t xml:space="preserve">28.4254169464111</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2370166778564</t>
+    <t xml:space="preserve">29.2370185852051</t>
   </si>
   <si>
     <t xml:space="preserve">28.4938659667969</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6183662414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0218982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5596981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170616149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8921642303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1366176605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3527317047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7162799835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5987796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8044052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5975246429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2352333068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2646083831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8423175811768</t>
+    <t xml:space="preserve">29.6183738708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0218925476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.559700012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1170558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8921585083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1366195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3527374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7162761688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5987815856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8044033050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.597526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2352352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.264612197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8423118591309</t>
   </si>
   <si>
     <t xml:space="preserve">32.3955421447754</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4591827392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5081481933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4249114990234</t>
+    <t xml:space="preserve">32.4591865539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5081520080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.424919128418</t>
   </si>
   <si>
     <t xml:space="preserve">32.5864791870117</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1605491638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1164817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9108562469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9891929626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2401294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0504531860352</t>
+    <t xml:space="preserve">32.1605453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1164741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9108581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.989185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2401313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0504512786865</t>
   </si>
   <si>
     <t xml:space="preserve">30.3980503082275</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0491924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5289783477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9353408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0675163269043</t>
+    <t xml:space="preserve">31.0491943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5289859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9353370666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0675201416016</t>
   </si>
   <si>
     <t xml:space="preserve">31.3331508636475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4959697723389</t>
+    <t xml:space="preserve">30.4959678649902</t>
   </si>
   <si>
     <t xml:space="preserve">30.0602416992188</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4237842559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1483688354492</t>
+    <t xml:space="preserve">29.4237880706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1483669281006</t>
   </si>
   <si>
     <t xml:space="preserve">29.4776401519775</t>
   </si>
   <si>
-    <t xml:space="preserve">30.300142288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5119094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5180606842041</t>
+    <t xml:space="preserve">30.3001384735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5119113922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5180644989014</t>
   </si>
   <si>
     <t xml:space="preserve">27.9354648590088</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3124351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5817127227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4299373626709</t>
+    <t xml:space="preserve">28.3124389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5817108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4299411773682</t>
   </si>
   <si>
     <t xml:space="preserve">28.5866031646729</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5768089294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9831657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0614986419678</t>
+    <t xml:space="preserve">28.5768146514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9831638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0615005493164</t>
   </si>
   <si>
     <t xml:space="preserve">29.311185836792</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4433727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3993091583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6196212768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.99169921875</t>
+    <t xml:space="preserve">29.4433708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3993072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6196193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9917049407959</t>
   </si>
   <si>
     <t xml:space="preserve">30.0112819671631</t>
@@ -3875,85 +3875,85 @@
     <t xml:space="preserve">29.8839912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4874324798584</t>
+    <t xml:space="preserve">29.487434387207</t>
   </si>
   <si>
     <t xml:space="preserve">29.9329509735107</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5217037200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5559711456299</t>
+    <t xml:space="preserve">29.5216979980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5559749603271</t>
   </si>
   <si>
     <t xml:space="preserve">29.9231567382812</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4421195983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.755443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.931697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8925304412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8337821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.200963973999</t>
+    <t xml:space="preserve">30.4421138763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7554492950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9316940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8925285339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8337802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2009658813477</t>
   </si>
   <si>
     <t xml:space="preserve">29.8105545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6094284057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9626235961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1882801055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2177124023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3599720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5856227874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0263957977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1686553955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8357982635498</t>
+    <t xml:space="preserve">29.609432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.96262550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1882781982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2177085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3599700927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5856189727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0263977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1686592102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8358039855957</t>
   </si>
   <si>
     <t xml:space="preserve">31.144847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0271148681641</t>
+    <t xml:space="preserve">31.0271110534668</t>
   </si>
   <si>
     <t xml:space="preserve">31.2674808502197</t>
   </si>
   <si>
-    <t xml:space="preserve">30.39430809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.532377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7825584411621</t>
+    <t xml:space="preserve">30.3943061828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5323753356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7825546264648</t>
   </si>
   <si>
     <t xml:space="preserve">31.8119869232178</t>
@@ -3962,43 +3962,43 @@
     <t xml:space="preserve">32.6017684936523</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9051952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5618114471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7474994659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5071334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7187919616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7089710235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047843933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5674362182617</t>
+    <t xml:space="preserve">31.9051914215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5618095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.747501373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5071315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.718786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047729492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5674324035645</t>
   </si>
   <si>
     <t xml:space="preserve">34.377555847168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8722915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4020767211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4462280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8386573791504</t>
+    <t xml:space="preserve">33.8722877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4020805358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.446231842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8386611938477</t>
   </si>
   <si>
     <t xml:space="preserve">35.1035614013672</t>
@@ -4010,49 +4010,49 @@
     <t xml:space="preserve">35.8148498535156</t>
   </si>
   <si>
-    <t xml:space="preserve">35.692211151123</t>
+    <t xml:space="preserve">35.6922187805176</t>
   </si>
   <si>
     <t xml:space="preserve">35.545051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9080581665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8001365661621</t>
+    <t xml:space="preserve">35.9080619812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8001403808594</t>
   </si>
   <si>
     <t xml:space="preserve">35.8295745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">35.41259765625</t>
+    <t xml:space="preserve">35.4126129150391</t>
   </si>
   <si>
     <t xml:space="preserve">35.7903289794922</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1624336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6971130371094</t>
+    <t xml:space="preserve">35.162425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6971206665039</t>
   </si>
   <si>
     <t xml:space="preserve">35.7952308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9423980712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0944671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246650695801</t>
+    <t xml:space="preserve">35.9423866271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0944633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246688842773</t>
   </si>
   <si>
     <t xml:space="preserve">36.5899200439453</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1638603210449</t>
+    <t xml:space="preserve">37.1638565063477</t>
   </si>
   <si>
     <t xml:space="preserve">36.967643737793</t>
@@ -4061,37 +4061,37 @@
     <t xml:space="preserve">37.2227249145508</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2030944824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1785736083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.497428894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4876174926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8155708312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.943115234375</t>
+    <t xml:space="preserve">37.2031021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1785774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4974365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.487621307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8155670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9431114196777</t>
   </si>
   <si>
     <t xml:space="preserve">37.5317726135254</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3993263244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.753231048584</t>
+    <t xml:space="preserve">37.3993186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7532272338867</t>
   </si>
   <si>
     <t xml:space="preserve">38.8513412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2045364379883</t>
+    <t xml:space="preserve">39.204532623291</t>
   </si>
   <si>
     <t xml:space="preserve">38.1302375793457</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">37.5652351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1105804443359</t>
+    <t xml:space="preserve">38.1105880737305</t>
   </si>
   <si>
     <t xml:space="preserve">38.410285949707</t>
@@ -4112,64 +4112,64 @@
     <t xml:space="preserve">38.8082389831543</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8622817993164</t>
+    <t xml:space="preserve">38.8622856140137</t>
   </si>
   <si>
     <t xml:space="preserve">36.9118003845215</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8331871032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1083145141602</t>
+    <t xml:space="preserve">36.8331909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.108325958252</t>
   </si>
   <si>
     <t xml:space="preserve">36.6612358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4133148193359</t>
+    <t xml:space="preserve">35.4133186340332</t>
   </si>
   <si>
     <t xml:space="preserve">36.2976684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6933631896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.24853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3985710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3297996520996</t>
+    <t xml:space="preserve">35.6933670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2485389709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3985824584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3297958374023</t>
   </si>
   <si>
     <t xml:space="preserve">34.7549629211426</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2413558959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7867050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8997116088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0716667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4008369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8037185668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2606201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6094627380371</t>
+    <t xml:space="preserve">35.2413597106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7867088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8997077941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0716705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4008445739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.260627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6094589233398</t>
   </si>
   <si>
     <t xml:space="preserve">38.1597137451172</t>
@@ -4178,25 +4178,25 @@
     <t xml:space="preserve">38.1646308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6113357543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.183895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4197196960449</t>
+    <t xml:space="preserve">40.6113319396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1838912963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4197235107422</t>
   </si>
   <si>
     <t xml:space="preserve">41.0043754577637</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6627349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6453437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2938613891602</t>
+    <t xml:space="preserve">41.662727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6453399658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2938537597656</t>
   </si>
   <si>
     <t xml:space="preserve">43.8932495117188</t>
@@ -4208,19 +4208,19 @@
     <t xml:space="preserve">42.6649894714355</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4707374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0209999084473</t>
+    <t xml:space="preserve">43.4707336425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0209922790527</t>
   </si>
   <si>
     <t xml:space="preserve">44.109432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3550872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9593925476074</t>
+    <t xml:space="preserve">44.3550796508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9593887329102</t>
   </si>
   <si>
     <t xml:space="preserve">44.6203880310059</t>
@@ -4229,10 +4229,10 @@
     <t xml:space="preserve">44.993782043457</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9151649475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1120719909668</t>
+    <t xml:space="preserve">44.915168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1120834350586</t>
   </si>
   <si>
     <t xml:space="preserve">42.9302940368652</t>
@@ -4244,58 +4244,58 @@
     <t xml:space="preserve">41.1861610412598</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2522926330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3505516052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1634674072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2402038574219</t>
+    <t xml:space="preserve">42.2523002624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3505554199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1634712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2401962280273</t>
   </si>
   <si>
     <t xml:space="preserve">41.1566772460938</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2991561889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.691822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.424259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.139289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971244812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7807579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0329208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9135971069336</t>
+    <t xml:space="preserve">41.2991600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6918182373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4242515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1392936706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0329170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9136009216309</t>
   </si>
   <si>
     <t xml:space="preserve">41.2592391967773</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7278709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7081909179688</t>
+    <t xml:space="preserve">40.7278785705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.708194732666</t>
   </si>
   <si>
     <t xml:space="preserve">41.190357208252</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8201179504395</t>
+    <t xml:space="preserve">41.8201141357422</t>
   </si>
   <si>
     <t xml:space="preserve">42.2530784606934</t>
@@ -4304,115 +4304,115 @@
     <t xml:space="preserve">43.2075614929199</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3010406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0943984985352</t>
+    <t xml:space="preserve">43.3010444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0944023132324</t>
   </si>
   <si>
     <t xml:space="preserve">43.0599594116211</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5384330749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9221954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1350021362305</t>
+    <t xml:space="preserve">42.5384368896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9222030639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1349983215332</t>
   </si>
   <si>
     <t xml:space="preserve">43.6749649047852</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6971206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792755126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1977233886719</t>
+    <t xml:space="preserve">41.6971130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1792793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1977272033691</t>
   </si>
   <si>
     <t xml:space="preserve">42.2776794433594</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9271125793457</t>
+    <t xml:space="preserve">42.9271202087402</t>
   </si>
   <si>
     <t xml:space="preserve">41.982479095459</t>
   </si>
   <si>
-    <t xml:space="preserve">40.673755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.772159576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9997138977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0759887695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0120315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2026748657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9603500366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3551902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5901107788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8016777038574</t>
+    <t xml:space="preserve">40.6737480163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7721557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9997215270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0759925842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0120277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2026710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9603538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3551940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5901145935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8016738891602</t>
   </si>
   <si>
     <t xml:space="preserve">40.6934394836426</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0353889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2186660766602</t>
+    <t xml:space="preserve">39.0353851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2186698913574</t>
   </si>
   <si>
     <t xml:space="preserve">38.3121490478516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7155914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2063484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0341529846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.360107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4745063781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1042747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2469444274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4941864013672</t>
+    <t xml:space="preserve">38.7155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2063522338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0341491699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3601112365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4745140075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1042709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2469482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4941902160645</t>
   </si>
   <si>
     <t xml:space="preserve">37.6282653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9640617370605</t>
+    <t xml:space="preserve">36.9640655517578</t>
   </si>
   <si>
     <t xml:space="preserve">37.091983795166</t>
@@ -4421,22 +4421,22 @@
     <t xml:space="preserve">36.8755035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0932235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6823844909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3527488708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.299861907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2162246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9505462646484</t>
+    <t xml:space="preserve">36.0932197570801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6823768615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3527450561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2998657226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2162208557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9505386352539</t>
   </si>
   <si>
     <t xml:space="preserve">33.451171875</t>
@@ -4451,64 +4451,64 @@
     <t xml:space="preserve">35.507740020752</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5680160522461</t>
+    <t xml:space="preserve">34.5680236816406</t>
   </si>
   <si>
     <t xml:space="preserve">34.4302597045898</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0760192871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5778541564941</t>
+    <t xml:space="preserve">34.0760154724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5778503417969</t>
   </si>
   <si>
     <t xml:space="preserve">37.1707077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0329399108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1202659606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.613037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5341911315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3275337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6133499145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7414665222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8206214904785</t>
+    <t xml:space="preserve">37.0329437255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1202735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2089614868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6130332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5341949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6133460998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.741455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8206100463867</t>
   </si>
   <si>
     <t xml:space="preserve">40.135669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">39.036808013916</t>
+    <t xml:space="preserve">39.0368118286133</t>
   </si>
   <si>
     <t xml:space="preserve">38.090705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1399765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1048583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0799102783203</t>
+    <t xml:space="preserve">38.1399803161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1048545837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0799140930176</t>
   </si>
   <si>
     <t xml:space="preserve">34.734977722168</t>
@@ -4523,28 +4523,28 @@
     <t xml:space="preserve">34.2767028808594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1978607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.695240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2031021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4642601013184</t>
+    <t xml:space="preserve">34.1978645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6952476501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0993041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2031059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4642677307129</t>
   </si>
   <si>
     <t xml:space="preserve">34.7941055297852</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7743949890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3506126403809</t>
+    <t xml:space="preserve">34.7743988037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3506164550781</t>
   </si>
   <si>
     <t xml:space="preserve">34.5181617736816</t>
@@ -4553,28 +4553,28 @@
     <t xml:space="preserve">35.0848350524902</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2523803710938</t>
+    <t xml:space="preserve">35.2523727416992</t>
   </si>
   <si>
     <t xml:space="preserve">34.3604736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1784591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.50830078125</t>
+    <t xml:space="preserve">35.1784629821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5083045959473</t>
   </si>
   <si>
     <t xml:space="preserve">34.6068572998047</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2471313476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9117469787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.951171875</t>
+    <t xml:space="preserve">34.2471389770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9117431640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9511680603027</t>
   </si>
   <si>
     <t xml:space="preserve">33.8824920654297</t>
@@ -4583,55 +4583,55 @@
     <t xml:space="preserve">35.232666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3564796447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6222610473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5979347229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7799453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7898025512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2132720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3167419433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0601959228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2474479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8831214904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7257461547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2825660705566</t>
+    <t xml:space="preserve">37.3564834594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.622257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5979423522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7799491882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7897987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2132682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3167495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0601997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2474517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8831176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7257423400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2825698852539</t>
   </si>
   <si>
     <t xml:space="preserve">36.6469039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5089225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1593818664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3413887023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5040054321289</t>
+    <t xml:space="preserve">36.5089263916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1593704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.341381072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5040016174316</t>
   </si>
   <si>
     <t xml:space="preserve">36.2625465393066</t>
@@ -4640,46 +4640,46 @@
     <t xml:space="preserve">36.4497947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4839782714844</t>
+    <t xml:space="preserve">35.4839744567871</t>
   </si>
   <si>
     <t xml:space="preserve">33.9761161804199</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0986862182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0543365478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2172660827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230125427246</t>
+    <t xml:space="preserve">32.0986824035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.054328918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2172584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230087280273</t>
   </si>
   <si>
     <t xml:space="preserve">31.251127243042</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1227684020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9225635528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2807521820068</t>
+    <t xml:space="preserve">31.122766494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9225597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2807502746582</t>
   </si>
   <si>
     <t xml:space="preserve">30.7327461242676</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4091091156006</t>
+    <t xml:space="preserve">31.4091110229492</t>
   </si>
   <si>
     <t xml:space="preserve">31.4436702728271</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0437774658203</t>
+    <t xml:space="preserve">31.043773651123</t>
   </si>
   <si>
     <t xml:space="preserve">30.401969909668</t>
@@ -4688,40 +4688,40 @@
     <t xml:space="preserve">29.6071147918701</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7382030487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2000694274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6570014953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9949264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8095283508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4365272521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3772830963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7179374694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7524948120117</t>
+    <t xml:space="preserve">28.7382011413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2000713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.65700340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9949245452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8095302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4365253448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3772811889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7179355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7524890899658</t>
   </si>
   <si>
     <t xml:space="preserve">30.8512344360352</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8731918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.233585357666</t>
+    <t xml:space="preserve">31.8731842041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2335891723633</t>
   </si>
   <si>
     <t xml:space="preserve">32.6384239196777</t>
@@ -4730,118 +4730,118 @@
     <t xml:space="preserve">33.3690948486328</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6356925964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5023994445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7245559692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4234008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5589065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8129081726074</t>
+    <t xml:space="preserve">33.6356964111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5023956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7245597839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4234046936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.558910369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8129043579102</t>
   </si>
   <si>
     <t xml:space="preserve">36.4695243835449</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7953681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1014671325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9358100891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1283531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1705780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9237251281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9736175537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1584892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5337104797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6571311950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0718307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4870681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6373825073242</t>
+    <t xml:space="preserve">36.7953643798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1014556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9358062744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1283569335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.170581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9237289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9736137390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1585006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5337066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6571273803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0718383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4870643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.637378692627</t>
   </si>
   <si>
     <t xml:space="preserve">35.1316032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3093299865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4475746154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0301322937012</t>
+    <t xml:space="preserve">35.3093338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4475708007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0301284790039</t>
   </si>
   <si>
     <t xml:space="preserve">35.1266632080078</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6230888366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8353843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3515548706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8430480957031</t>
+    <t xml:space="preserve">34.6230926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8353805541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3515586853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8430519104004</t>
   </si>
   <si>
     <t xml:space="preserve">35.1414756774902</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2577514648438</t>
+    <t xml:space="preserve">34.257755279541</t>
   </si>
   <si>
     <t xml:space="preserve">34.4848556518555</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2105903625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6845397949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4744567871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4547119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2402114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4031372070312</t>
+    <t xml:space="preserve">35.2105941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6845436096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4744606018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4547157287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2402076721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.403133392334</t>
   </si>
   <si>
     <t xml:space="preserve">35.3142700195312</t>
@@ -4853,10 +4853,10 @@
     <t xml:space="preserve">35.3991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3150367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4623603820801</t>
+    <t xml:space="preserve">35.3150405883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4623641967773</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765007019043</t>
@@ -4865,31 +4865,31 @@
     <t xml:space="preserve">33.3912773132324</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7325057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1380310058594</t>
+    <t xml:space="preserve">33.7325096130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1380271911621</t>
   </si>
   <si>
     <t xml:space="preserve">33.2626991271973</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4675216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8977661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3428535461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0935249328613</t>
+    <t xml:space="preserve">31.4675197601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8977718353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3428573608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0935173034668</t>
   </si>
   <si>
     <t xml:space="preserve">34.5930061340332</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1419410705566</t>
+    <t xml:space="preserve">35.1419448852539</t>
   </si>
   <si>
     <t xml:space="preserve">33.2923698425293</t>
@@ -4901,10 +4901,10 @@
     <t xml:space="preserve">31.6554470062256</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4081726074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1499786376953</t>
+    <t xml:space="preserve">31.4081745147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1499862670898</t>
   </si>
   <si>
     <t xml:space="preserve">31.6455554962158</t>
@@ -4916,40 +4916,40 @@
     <t xml:space="preserve">32.4516487121582</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4467086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1885185241699</t>
+    <t xml:space="preserve">32.4467010498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1885108947754</t>
   </si>
   <si>
     <t xml:space="preserve">32.9857521057129</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6978950500488</t>
+    <t xml:space="preserve">33.6978912353516</t>
   </si>
   <si>
     <t xml:space="preserve">34.8155517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5485000610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1450347900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4477405548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2548675537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4625720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0619964599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5674610137939</t>
+    <t xml:space="preserve">34.5484962463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1450424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4477386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2548694610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.462574005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0619983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5674591064453</t>
   </si>
   <si>
     <t xml:space="preserve">31.5911540985107</t>
@@ -4958,7 +4958,7 @@
     <t xml:space="preserve">31.7494068145752</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1341209411621</t>
+    <t xml:space="preserve">33.1341171264648</t>
   </si>
   <si>
     <t xml:space="preserve">32.8176116943359</t>
@@ -4970,31 +4970,31 @@
     <t xml:space="preserve">36.5909423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2486763000488</t>
+    <t xml:space="preserve">37.2486801147461</t>
   </si>
   <si>
     <t xml:space="preserve">36.2744369506836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2942237854004</t>
+    <t xml:space="preserve">36.2942199707031</t>
   </si>
   <si>
     <t xml:space="preserve">36.5761108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5315971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5711631774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9766807556152</t>
+    <t xml:space="preserve">36.5316047668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.571159362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9766845703125</t>
   </si>
   <si>
     <t xml:space="preserve">37.0162506103516</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7689781188965</t>
+    <t xml:space="preserve">36.7689819335938</t>
   </si>
   <si>
     <t xml:space="preserve">35.9727668762207</t>
@@ -5009,10 +5009,10 @@
     <t xml:space="preserve">36.4772033691406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2991676330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2497138977051</t>
+    <t xml:space="preserve">36.2991638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2497177124023</t>
   </si>
   <si>
     <t xml:space="preserve">35.8244132995605</t>
@@ -5021,61 +5021,61 @@
     <t xml:space="preserve">35.3100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0222244262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4870872497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1403503417969</t>
+    <t xml:space="preserve">36.0222206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4870910644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1403465270996</t>
   </si>
   <si>
     <t xml:space="preserve">37.3985252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8883171081543</t>
+    <t xml:space="preserve">36.8883209228516</t>
   </si>
   <si>
     <t xml:space="preserve">35.0604972839355</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6047782897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3125267028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2085075378418</t>
+    <t xml:space="preserve">34.6047821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3125228881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2085037231445</t>
   </si>
   <si>
     <t xml:space="preserve">34.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5596046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2970733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9206085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5144271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2079124450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6977043151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1286544799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2376251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0896186828613</t>
+    <t xml:space="preserve">33.5596008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2970695495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9206047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5144233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2079086303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6977081298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1286506652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2376289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0896224975586</t>
   </si>
   <si>
     <t xml:space="preserve">34.2580413818359</t>
@@ -5087,7 +5087,7 @@
     <t xml:space="preserve">36.9477577209473</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7743873596191</t>
+    <t xml:space="preserve">36.7743911743164</t>
   </si>
   <si>
     <t xml:space="preserve">37.0072059631348</t>
@@ -5102,10 +5102,10 @@
     <t xml:space="preserve">37.6115264892578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3892135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1421394348145</t>
+    <t xml:space="preserve">38.3892097473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1421356201172</t>
   </si>
   <si>
     <t xml:space="preserve">37.6709671020508</t>
@@ -5114,10 +5114,10 @@
     <t xml:space="preserve">37.7105903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6963272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7409019470215</t>
+    <t xml:space="preserve">38.6963310241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7409057617188</t>
   </si>
   <si>
     <t xml:space="preserve">39.0678405761719</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">43.7934265136719</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1011352539062</t>
+    <t xml:space="preserve">45.1011390686035</t>
   </si>
   <si>
     <t xml:space="preserve">45.6905975341797</t>
@@ -5147,10 +5147,10 @@
     <t xml:space="preserve">44.6900024414062</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8485107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7940216064453</t>
+    <t xml:space="preserve">44.8485069274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7940139770508</t>
   </si>
   <si>
     <t xml:space="preserve">45.7302207946777</t>
@@ -5159,16 +5159,16 @@
     <t xml:space="preserve">44.506721496582</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9277610778809</t>
+    <t xml:space="preserve">44.9277648925781</t>
   </si>
   <si>
     <t xml:space="preserve">45.1853408813477</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7500419616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0670585632324</t>
+    <t xml:space="preserve">45.7500381469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0670547485352</t>
   </si>
   <si>
     <t xml:space="preserve">45.4875030517578</t>
@@ -5183,22 +5183,22 @@
     <t xml:space="preserve">44.184741973877</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8138389587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1996116638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1358108520508</t>
+    <t xml:space="preserve">44.813835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1996078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1358070373535</t>
   </si>
   <si>
     <t xml:space="preserve">45.2695503234863</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8033294677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8930854797363</t>
+    <t xml:space="preserve">43.8033332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8930892944336</t>
   </si>
   <si>
     <t xml:space="preserve">45.3785247802734</t>
@@ -5207,13 +5207,13 @@
     <t xml:space="preserve">44.571117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5871734619141</t>
+    <t xml:space="preserve">46.5871658325195</t>
   </si>
   <si>
     <t xml:space="preserve">45.8193855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.976692199707</t>
+    <t xml:space="preserve">43.9766960144043</t>
   </si>
   <si>
     <t xml:space="preserve">45.4478759765625</t>
@@ -5222,10 +5222,10 @@
     <t xml:space="preserve">43.6943511962891</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8534660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0218811035156</t>
+    <t xml:space="preserve">44.8534622192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0218772888184</t>
   </si>
   <si>
     <t xml:space="preserve">45.5476417541504</t>
@@ -5240,13 +5240,13 @@
     <t xml:space="preserve">45.0466766357422</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4682807922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1737174987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9661979675293</t>
+    <t xml:space="preserve">45.4682769775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1737213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9662017822266</t>
   </si>
   <si>
     <t xml:space="preserve">48.2012367248535</t>
@@ -5258,28 +5258,28 @@
     <t xml:space="preserve">47.9581985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1844329833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3095588684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5823593139648</t>
+    <t xml:space="preserve">47.1844367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3095626831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5823631286621</t>
   </si>
   <si>
     <t xml:space="preserve">46.0833206176758</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2798042297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9791564941406</t>
+    <t xml:space="preserve">45.2798004150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9791603088379</t>
   </si>
   <si>
     <t xml:space="preserve">45.7609214782715</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3790016174316</t>
+    <t xml:space="preserve">45.3789978027344</t>
   </si>
   <si>
     <t xml:space="preserve">45.6716384887695</t>
@@ -5288,28 +5288,28 @@
     <t xml:space="preserve">44.709400177002</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0378761291504</t>
+    <t xml:space="preserve">43.0378799438477</t>
   </si>
   <si>
     <t xml:space="preserve">42.8593254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0805969238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5449256896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9615669250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3010902404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.246524810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.826847076416</t>
+    <t xml:space="preserve">42.0806007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.544921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9615631103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3010864257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2465286254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8268432617188</t>
   </si>
   <si>
     <t xml:space="preserve">38.1572494506836</t>
@@ -5318,46 +5318,46 @@
     <t xml:space="preserve">37.2743682861328</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2514915466309</t>
+    <t xml:space="preserve">38.2514877319336</t>
   </si>
   <si>
     <t xml:space="preserve">38.4002838134766</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3110046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8516464233398</t>
+    <t xml:space="preserve">38.3110008239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8516426086426</t>
   </si>
   <si>
     <t xml:space="preserve">37.9588470458984</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6334075927734</t>
+    <t xml:space="preserve">38.6334037780762</t>
   </si>
   <si>
     <t xml:space="preserve">38.4548416137695</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1690864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.427001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8207626342773</t>
+    <t xml:space="preserve">39.1690902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4270057678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8207664489746</t>
   </si>
   <si>
     <t xml:space="preserve">41.2076416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4705238342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1878089904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9558067321777</t>
+    <t xml:space="preserve">41.4705276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1878051757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9558029174805</t>
   </si>
   <si>
     <t xml:space="preserve">38.8466835021973</t>
@@ -5372,7 +5372,7 @@
     <t xml:space="preserve">40.3495635986328</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2454032897949</t>
+    <t xml:space="preserve">40.2454071044922</t>
   </si>
   <si>
     <t xml:space="preserve">41.4159660339355</t>
@@ -5381,7 +5381,7 @@
     <t xml:space="preserve">41.6639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2374038696289</t>
+    <t xml:space="preserve">41.2374076843262</t>
   </si>
   <si>
     <t xml:space="preserve">41.4209251403809</t>
@@ -5390,19 +5390,19 @@
     <t xml:space="preserve">42.7551612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">43.216438293457</t>
+    <t xml:space="preserve">43.2164421081543</t>
   </si>
   <si>
     <t xml:space="preserve">43.7273254394531</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0665245056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.274845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8006019592285</t>
+    <t xml:space="preserve">45.066520690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2748413085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8005981445312</t>
   </si>
   <si>
     <t xml:space="preserve">45.1210823059082</t>
@@ -5414,16 +5414,16 @@
     <t xml:space="preserve">44.6201210021973</t>
   </si>
   <si>
-    <t xml:space="preserve">44.203483581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2065200805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3602828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3038024902344</t>
+    <t xml:space="preserve">44.2034797668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2065238952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.360279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3037986755371</t>
   </si>
   <si>
     <t xml:space="preserve">43.2276611328125</t>
@@ -5432,55 +5432,55 @@
     <t xml:space="preserve">42.8054656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0422439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3104629516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2591590881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4727363586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.244255065918</t>
+    <t xml:space="preserve">44.0422477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3104667663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2591552734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4727439880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2442588806152</t>
   </si>
   <si>
     <t xml:space="preserve">45.0753784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7408981323242</t>
+    <t xml:space="preserve">42.7409019470215</t>
   </si>
   <si>
     <t xml:space="preserve">43.5157470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8038330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0819816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1929550170898</t>
+    <t xml:space="preserve">43.8038368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0819854736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1929512023926</t>
   </si>
   <si>
     <t xml:space="preserve">46.8336944580078</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0125045776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4959373474121</t>
+    <t xml:space="preserve">47.012508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4959411621094</t>
   </si>
   <si>
     <t xml:space="preserve">46.4710998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6201133728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9247360229492</t>
+    <t xml:space="preserve">46.6201095581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.924732208252</t>
   </si>
   <si>
     <t xml:space="preserve">45.428035736084</t>
@@ -5489,19 +5489,19 @@
     <t xml:space="preserve">45.3336639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4561958312988</t>
+    <t xml:space="preserve">46.4561996459961</t>
   </si>
   <si>
     <t xml:space="preserve">46.0091705322266</t>
   </si>
   <si>
-    <t xml:space="preserve">50.146671295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0903396606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3188209533691</t>
+    <t xml:space="preserve">50.1466674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0903434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3188171386719</t>
   </si>
   <si>
     <t xml:space="preserve">48.219482421875</t>
@@ -5534,13 +5534,13 @@
     <t xml:space="preserve">43.2624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8104362487793</t>
+    <t xml:space="preserve">42.810432434082</t>
   </si>
   <si>
     <t xml:space="preserve">42.0206832885742</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8518028259277</t>
+    <t xml:space="preserve">41.8518104553223</t>
   </si>
   <si>
     <t xml:space="preserve">42.283935546875</t>
@@ -5564,7 +5564,7 @@
     <t xml:space="preserve">43.8137626647949</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3667335510254</t>
+    <t xml:space="preserve">43.3667373657227</t>
   </si>
   <si>
     <t xml:space="preserve">43.3766670227051</t>
@@ -5573,13 +5573,13 @@
     <t xml:space="preserve">43.2375946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2028312683105</t>
+    <t xml:space="preserve">43.2028274536133</t>
   </si>
   <si>
     <t xml:space="preserve">43.1829566955566</t>
   </si>
   <si>
-    <t xml:space="preserve">42.562084197998</t>
+    <t xml:space="preserve">42.5620880126953</t>
   </si>
   <si>
     <t xml:space="preserve">40.8335762023926</t>
@@ -5594,13 +5594,13 @@
     <t xml:space="preserve">41.0074195861816</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0620536804199</t>
+    <t xml:space="preserve">41.0620574951172</t>
   </si>
   <si>
     <t xml:space="preserve">41.4792861938477</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0570945739746</t>
+    <t xml:space="preserve">41.0570907592773</t>
   </si>
   <si>
     <t xml:space="preserve">40.4353141784668</t>
@@ -5612,7 +5612,7 @@
     <t xml:space="preserve">40.4900321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1617317199707</t>
+    <t xml:space="preserve">40.1617279052734</t>
   </si>
   <si>
     <t xml:space="preserve">40.0473289489746</t>
@@ -5621,10 +5621,10 @@
     <t xml:space="preserve">40.1368637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5200576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.604621887207</t>
+    <t xml:space="preserve">39.5200614929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6046257019043</t>
   </si>
   <si>
     <t xml:space="preserve">40.305980682373</t>
@@ -5648,7 +5648,7 @@
     <t xml:space="preserve">41.8479843139648</t>
   </si>
   <si>
-    <t xml:space="preserve">41.355541229248</t>
+    <t xml:space="preserve">41.3555450439453</t>
   </si>
   <si>
     <t xml:space="preserve">42.4548416137695</t>
@@ -5663,13 +5663,13 @@
     <t xml:space="preserve">40.9377098083496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0371894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4402923583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6692848205566</t>
+    <t xml:space="preserve">41.0371932983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4402885437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6692886352539</t>
   </si>
   <si>
     <t xml:space="preserve">38.7490577697754</t>
@@ -5678,7 +5678,7 @@
     <t xml:space="preserve">37.5353546142578</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6248893737793</t>
+    <t xml:space="preserve">37.624885559082</t>
   </si>
   <si>
     <t xml:space="preserve">37.2418746948242</t>
@@ -5696,10 +5696,10 @@
     <t xml:space="preserve">35.0731201171875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7844352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9585342407227</t>
+    <t xml:space="preserve">35.7844314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9585304260254</t>
   </si>
   <si>
     <t xml:space="preserve">37.5453033447266</t>
@@ -5714,7 +5714,7 @@
     <t xml:space="preserve">38.112361907959</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0974349975586</t>
+    <t xml:space="preserve">38.0974388122559</t>
   </si>
   <si>
     <t xml:space="preserve">38.3660430908203</t>
@@ -5726,7 +5726,7 @@
     <t xml:space="preserve">38.4754753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9378929138184</t>
+    <t xml:space="preserve">39.9378967285156</t>
   </si>
   <si>
     <t xml:space="preserve">42.0817756652832</t>
@@ -5735,28 +5735,28 @@
     <t xml:space="preserve">41.5644569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6937866210938</t>
+    <t xml:space="preserve">41.693790435791</t>
   </si>
   <si>
     <t xml:space="preserve">41.9922370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1913948059082</t>
+    <t xml:space="preserve">41.1913909912109</t>
   </si>
   <si>
     <t xml:space="preserve">41.5246658325195</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3804168701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5893287658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.395336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6042518615723</t>
+    <t xml:space="preserve">41.3804130554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5893325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3953399658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.604248046875</t>
   </si>
   <si>
     <t xml:space="preserve">42.8279037475586</t>
@@ -5765,22 +5765,22 @@
     <t xml:space="preserve">43.2258453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">43.514347076416</t>
+    <t xml:space="preserve">43.5143508911133</t>
   </si>
   <si>
     <t xml:space="preserve">43.1562042236328</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8326950073242</t>
+    <t xml:space="preserve">43.8326988220215</t>
   </si>
   <si>
     <t xml:space="preserve">44.3400650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6138305664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1659660339355</t>
+    <t xml:space="preserve">43.6138343811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1659698486328</t>
   </si>
   <si>
     <t xml:space="preserve">44.3402976989746</t>
@@ -6240,6 +6240,9 @@
   </si>
   <si>
     <t xml:space="preserve">31.9400005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7049999237061</t>
   </si>
 </sst>
 </file>
@@ -63261,7 +63264,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6525578704</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>13857962</v>
@@ -63282,6 +63285,32 @@
         <v>2075</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6519212963</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>6667806</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>31.3700008392334</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>30.0200004577637</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>30.8349990844727</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>30.7049999237061</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="2077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="2078">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35176801681519</t>
+    <t xml:space="preserve">5.35176610946655</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391805648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24544095993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94418144226074</t>
+    <t xml:space="preserve">5.37391710281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24543952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455720901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94418287277222</t>
   </si>
   <si>
     <t xml:space="preserve">5.06379985809326</t>
@@ -62,94 +62,94 @@
     <t xml:space="preserve">5.08152103424072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01506757736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8954496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64735412597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72709846496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91760110855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86000823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99291706085205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683460235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18784666061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3207540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55555963516235</t>
+    <t xml:space="preserve">5.01506614685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89545011520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64735507965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72709989547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91760158538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86000680923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99291610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18784809112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32075643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5555591583252</t>
   </si>
   <si>
     <t xml:space="preserve">5.39607095718384</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32518577575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16126537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70937776565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74925088882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56760883331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078008651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13787221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20698595046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29559278488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25128746032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40900611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63849353790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60305166244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80241441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279647827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45242261886597</t>
+    <t xml:space="preserve">5.32518482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16126489639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70937824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74925136566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951505661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13787364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2069878578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2955904006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25128650665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40900468826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63849401473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60305118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80241346359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279552459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45242309570312</t>
   </si>
   <si>
     <t xml:space="preserve">4.52773761749268</t>
@@ -158,100 +158,100 @@
     <t xml:space="preserve">4.64292478561401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69608736038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78469371795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355239868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82899475097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75811052322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73595905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57204055786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74038982391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62963199615479</t>
+    <t xml:space="preserve">4.69608688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78469324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79355335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73595857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57203960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7403883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62963342666626</t>
   </si>
   <si>
     <t xml:space="preserve">4.65178394317627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54989099502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53659772872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50225687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4281530380249</t>
+    <t xml:space="preserve">4.54988956451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53659868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42815399169922</t>
   </si>
   <si>
     <t xml:space="preserve">4.47153043746948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42996025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41911602020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43176794052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40285110473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139728546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43357515335083</t>
+    <t xml:space="preserve">4.42996072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41911458969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4317684173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40284967422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3413987159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43357610702515</t>
   </si>
   <si>
     <t xml:space="preserve">4.17692279815674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14800500869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32693958282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49321985244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501171112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52756071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63600492477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55467176437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65407991409302</t>
+    <t xml:space="preserve">4.14800596237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32693862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49322080612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501314163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52756118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63600587844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55467224121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926500320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65407943725586</t>
   </si>
   <si>
     <t xml:space="preserve">4.67667198181152</t>
@@ -260,52 +260,52 @@
     <t xml:space="preserve">4.66763591766357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58178424835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15111637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08333969116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85289335250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7580041885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5501537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41188669204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36308622360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26006412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31428718566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2691011428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19499778747559</t>
+    <t xml:space="preserve">4.58178281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15111541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08333873748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8528938293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75800466537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55015277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41188716888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26006317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31428670883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26910161972046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19499635696411</t>
   </si>
   <si>
     <t xml:space="preserve">4.22210788726807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26729297637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28355979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64052581787109</t>
+    <t xml:space="preserve">4.26729345321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28356075286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64052486419678</t>
   </si>
   <si>
     <t xml:space="preserve">4.67215394973755</t>
@@ -314,433 +314,433 @@
     <t xml:space="preserve">4.79867267608643</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83933877944946</t>
+    <t xml:space="preserve">4.83933782577515</t>
   </si>
   <si>
     <t xml:space="preserve">4.88904142379761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90259790420532</t>
+    <t xml:space="preserve">4.90259838104248</t>
   </si>
   <si>
     <t xml:space="preserve">4.91163492202759</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8438572883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81674528121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82126331329346</t>
+    <t xml:space="preserve">4.84385776519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8167462348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82126474380493</t>
   </si>
   <si>
     <t xml:space="preserve">4.79415273666382</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00200605392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86644887924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57726335525513</t>
+    <t xml:space="preserve">5.0020055770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86645030975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57726383209229</t>
   </si>
   <si>
     <t xml:space="preserve">4.49502658843994</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46068716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44803476333618</t>
+    <t xml:space="preserve">4.46068525314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44803380966187</t>
   </si>
   <si>
     <t xml:space="preserve">4.54111671447754</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70117664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75605249404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82465028762817</t>
+    <t xml:space="preserve">4.70117568969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75605297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82465076446533</t>
   </si>
   <si>
     <t xml:space="preserve">4.96641683578491</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65544366836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55849361419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6737380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79263830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82007741928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71946954727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57312726974487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42129945755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48349475860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8795280456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355058670044</t>
+    <t xml:space="preserve">4.65544509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55849313735962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67373752593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79263639450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82007694244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71946859359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57312822341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42130136489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48349523544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87952852249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355297088623</t>
   </si>
   <si>
     <t xml:space="preserve">4.92525959014893</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95727157592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0487322807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617330551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18592596054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22251224517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708654403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30940055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799882888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94049263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89933443069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9633584022522</t>
+    <t xml:space="preserve">4.95727205276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04873275756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07617235183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18592643737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22251129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708559036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30940198898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37799978256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049501419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89933347702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96335935592651</t>
   </si>
   <si>
     <t xml:space="preserve">5.94506645202637</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71640920639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76671552658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97250509262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08225965499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0959792137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00451755523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10969924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06396818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99079751968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18287086486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15542984008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799263000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29262447357178</t>
+    <t xml:space="preserve">5.7164101600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76671457290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97250699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08226108551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09597969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00451707839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10969829559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06396913528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99079847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18286943435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15543079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12799024581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29262351989746</t>
   </si>
   <si>
     <t xml:space="preserve">6.22859954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18744277954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21945428848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16914844512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1371374130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11884593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9542121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96793174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0456748008728</t>
+    <t xml:space="preserve">6.1874418258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21945476531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16914939880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689388275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13713788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11884450912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95421361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96793270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04567766189575</t>
   </si>
   <si>
     <t xml:space="preserve">6.19658946990967</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21030759811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30634450912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26975965499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47275304794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56502294540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63422584533691</t>
+    <t xml:space="preserve">6.21030712127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30634307861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26975870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56502103805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63422775268555</t>
   </si>
   <si>
     <t xml:space="preserve">6.68958806991577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63883924484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886600494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59270429611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67574644088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45891237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6665210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113542556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75879096984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85567283630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92949104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54195547103882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68036031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77724504470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89258050918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75417757034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799434661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106229782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36316108703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76914978027344</t>
+    <t xml:space="preserve">6.63884019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886409759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5927038192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574834823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45891332626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66652011871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113399505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75879001617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8556752204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9294900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188234329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54195594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68035984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77724409103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89258241653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75417709350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799291610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36316013336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7691502571106</t>
   </si>
   <si>
     <t xml:space="preserve">8.02750587463379</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71378469467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53386068344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48311138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46465921401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8060564994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91678047180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765165328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62613010406494</t>
+    <t xml:space="preserve">7.71378755569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385925292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48311424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4646577835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80605745315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91678094863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765213012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613105773926</t>
   </si>
   <si>
     <t xml:space="preserve">7.7876033782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89371347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216564178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436527252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29508781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55805969238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65955829620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62726211547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53499221801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52576541900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60880470275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90407085418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6826229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58112907409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81641578674316</t>
+    <t xml:space="preserve">7.893714427948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216850280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436717987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55806159973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65955638885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62726402282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53498935699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5257625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60880947113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90407180786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68262195587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58112812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81641483306885</t>
   </si>
   <si>
     <t xml:space="preserve">8.93175315856934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92252731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3469705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21317672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11629581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2916088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315425872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43001556396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62378215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73514556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89291000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931484222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86507225036621</t>
+    <t xml:space="preserve">8.92252445220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34696865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21317577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11629199981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29160499572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315330505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62378120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73514366149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89291381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93930912017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86506938934326</t>
   </si>
   <si>
     <t xml:space="preserve">9.97643375396729</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0599594116211</t>
+    <t xml:space="preserve">10.0599584579468</t>
   </si>
   <si>
     <t xml:space="preserve">10.0413951873779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.022834777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321168899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79082679748535</t>
+    <t xml:space="preserve">10.022837638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79083061218262</t>
   </si>
   <si>
     <t xml:space="preserve">9.67946434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65161991119385</t>
+    <t xml:space="preserve">9.65162086486816</t>
   </si>
   <si>
     <t xml:space="preserve">9.47529220581055</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76298809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93003368377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0042753219604</t>
+    <t xml:space="preserve">9.7629861831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93003273010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0042724609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.87435150146484</t>
@@ -749,28 +749,28 @@
     <t xml:space="preserve">10.1898832321167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.069239616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2455654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3754940032959</t>
+    <t xml:space="preserve">10.1063594818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0692405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.245566368103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3754901885986</t>
   </si>
   <si>
     <t xml:space="preserve">11.2200117111206</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6283464431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819463729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035326004028</t>
+    <t xml:space="preserve">11.6283473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819454193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035345077515</t>
   </si>
   <si>
     <t xml:space="preserve">11.6933107376099</t>
@@ -779,133 +779,133 @@
     <t xml:space="preserve">12.2779750823975</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3336582183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2130107879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.407901763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1016454696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9253206253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232355117798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.008843421936</t>
+    <t xml:space="preserve">12.3336610794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2130117416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4078979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1016483306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9253196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232383728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0088424682617</t>
   </si>
   <si>
     <t xml:space="preserve">12.0459651947021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1851720809937</t>
+    <t xml:space="preserve">12.1851711273193</t>
   </si>
   <si>
     <t xml:space="preserve">12.3986196517944</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3429384231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6027898788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7605562210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224927902222</t>
+    <t xml:space="preserve">12.3429403305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6027889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7605571746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224918365479</t>
   </si>
   <si>
     <t xml:space="preserve">13.2431373596191</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1410522460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4565868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545026779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6329164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514768600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3823432922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5122680664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7257175445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1781749725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2060165405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524166107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4101877212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.438024520874</t>
+    <t xml:space="preserve">13.1410551071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4565877914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6329145431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885967254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3823442459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5122718811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7257194519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1781702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2060136795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524194717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4101839065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4380254745483</t>
   </si>
   <si>
     <t xml:space="preserve">13.4937076568604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.363245010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7947912216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9811687469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141408920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825918197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3818807601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657545089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564352035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3911991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446054458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259687423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2607374191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3352870941162</t>
+    <t xml:space="preserve">13.3632431030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7947959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9811744689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825937271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3818817138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564304351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3912019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259677886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2607364654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3352890014648</t>
   </si>
   <si>
     <t xml:space="preserve">13.6707668304443</t>
@@ -914,22 +914,22 @@
     <t xml:space="preserve">13.5868968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0930004119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9998064041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9532146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5804586410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7295618057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388820648193</t>
+    <t xml:space="preserve">13.0929937362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9998092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9532155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5804605484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7295627593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.738881111145</t>
   </si>
   <si>
     <t xml:space="preserve">13.1582288742065</t>
@@ -941,25 +941,25 @@
     <t xml:space="preserve">13.493706703186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8291873931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807962417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8012294769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155649185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1367092132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3603639602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0342016220093</t>
+    <t xml:space="preserve">13.8291883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807981491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801233291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1367120742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3603610992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0342035293579</t>
   </si>
   <si>
     <t xml:space="preserve">14.2858095169067</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">14.3230867385864</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6521282196045</t>
+    <t xml:space="preserve">13.6521301269531</t>
   </si>
   <si>
     <t xml:space="preserve">13.5216646194458</t>
@@ -977,94 +977,94 @@
     <t xml:space="preserve">13.4471139907837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5403032302856</t>
+    <t xml:space="preserve">13.5402994155884</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6987257003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5030269622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7919139862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775766372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5123462677002</t>
+    <t xml:space="preserve">13.6987247467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5030241012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7919158935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775785446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5123481750488</t>
   </si>
   <si>
     <t xml:space="preserve">14.0248851776123</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.295126914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.130274772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9252595901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5990982055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6456928253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0277643203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922826766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041124343872</t>
+    <t xml:space="preserve">14.1833057403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2951307296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1302719116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.925256729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.599100112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6456918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0277662277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.692286491394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041133880615</t>
   </si>
   <si>
     <t xml:space="preserve">12.5338659286499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4872713088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1315631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9911479949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009658813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7758541107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8600988388062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7196855545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379543304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1596431732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3094158172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5247116088867</t>
+    <t xml:space="preserve">12.4872732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1315612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9911489486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.700966835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7758531570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8600969314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7196865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03795337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1596450805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3094148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715188980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5247163772583</t>
   </si>
   <si>
     <t xml:space="preserve">12.9365873336792</t>
@@ -1073,31 +1073,31 @@
     <t xml:space="preserve">12.9553117752075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9740324020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7680969238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2454948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.329740524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.413990020752</t>
+    <t xml:space="preserve">12.9740314483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7680950164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518821716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454919815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297414779663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.413987159729</t>
   </si>
   <si>
     <t xml:space="preserve">13.6854524612427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.666729927063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203773498535</t>
+    <t xml:space="preserve">13.6667289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203802108765</t>
   </si>
   <si>
     <t xml:space="preserve">13.5075960159302</t>
@@ -1106,100 +1106,100 @@
     <t xml:space="preserve">13.4514303207397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5731239318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.732253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6386442184448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228946685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420700073242</t>
+    <t xml:space="preserve">13.5731229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7322549819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6386461257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228918075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726663589478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420709609985</t>
   </si>
   <si>
     <t xml:space="preserve">13.0676412582397</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3859081268311</t>
+    <t xml:space="preserve">13.3859033584595</t>
   </si>
   <si>
     <t xml:space="preserve">13.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2829389572144</t>
+    <t xml:space="preserve">13.2829370498657</t>
   </si>
   <si>
     <t xml:space="preserve">13.1706066131592</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5263214111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5169582366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233493804932</t>
+    <t xml:space="preserve">13.5263156890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5169553756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233503341675</t>
   </si>
   <si>
     <t xml:space="preserve">13.4888725280762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4701528549194</t>
+    <t xml:space="preserve">13.4701538085938</t>
   </si>
   <si>
     <t xml:space="preserve">13.1986904144287</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2922983169556</t>
+    <t xml:space="preserve">13.2922973632812</t>
   </si>
   <si>
     <t xml:space="preserve">13.6480083465576</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8071403503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.984992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0317983627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160449981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4717569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840854644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7900247573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7338552474976</t>
+    <t xml:space="preserve">13.8071451187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9849967956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0317974090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4717559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840826034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7338571548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.7432174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0521221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0334024429321</t>
+    <t xml:space="preserve">15.0521268844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0334005355835</t>
   </si>
   <si>
     <t xml:space="preserve">15.4280281066895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5689640045166</t>
+    <t xml:space="preserve">15.5689630508423</t>
   </si>
   <si>
     <t xml:space="preserve">15.2964887619019</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">15.3246755599976</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3904466629028</t>
+    <t xml:space="preserve">15.3904447555542</t>
   </si>
   <si>
     <t xml:space="preserve">14.7891082763672</t>
@@ -1217,64 +1217,64 @@
     <t xml:space="preserve">14.8360872268677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.193133354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2307147979736</t>
+    <t xml:space="preserve">15.1931343078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307119369507</t>
   </si>
   <si>
     <t xml:space="preserve">15.3622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9072179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9823818206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696308135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7662839889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.794472694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6441316604614</t>
+    <t xml:space="preserve">15.9072160720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850732803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7662763595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7944688796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441335678101</t>
   </si>
   <si>
     <t xml:space="preserve">15.822657585144</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8414487838745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884210586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9917821884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1139240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6723222732544</t>
+    <t xml:space="preserve">15.8414478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8884296417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9917840957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1139335632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723203659058</t>
   </si>
   <si>
     <t xml:space="preserve">15.8602409362793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5461387634277</t>
+    <t xml:space="preserve">16.5461444854736</t>
   </si>
   <si>
     <t xml:space="preserve">16.7528476715088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6494884490967</t>
+    <t xml:space="preserve">16.6494979858398</t>
   </si>
   <si>
     <t xml:space="preserve">18.6414184570312</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">18.7071914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1300010681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9984607696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.355504989624</t>
+    <t xml:space="preserve">19.1300048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.998462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3555030822754</t>
   </si>
   <si>
     <t xml:space="preserve">19.2051773071289</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">19.9662342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8816719055176</t>
+    <t xml:space="preserve">19.7125473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8816738128662</t>
   </si>
   <si>
     <t xml:space="preserve">18.8011512756348</t>
@@ -1319,85 +1319,85 @@
     <t xml:space="preserve">19.2709407806396</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1018142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3273124694824</t>
+    <t xml:space="preserve">19.1018161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273239135742</t>
   </si>
   <si>
     <t xml:space="preserve">19.7031478881836</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1863765716553</t>
+    <t xml:space="preserve">19.186372756958</t>
   </si>
   <si>
     <t xml:space="preserve">19.3461132049561</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9890632629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0172557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7206230163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9085445404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.260232925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6454524993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9877433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2132434844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2226486206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4951229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4481430053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1850547790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5055713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6186904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3453178405762</t>
+    <t xml:space="preserve">18.9890670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0172595977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7206268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9085350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2602310180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3729705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6454544067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9877452850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.213249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2226390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4951210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4481372833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1850624084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5055675506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6186923980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3453102111816</t>
   </si>
   <si>
     <t xml:space="preserve">17.4584350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4490127563477</t>
+    <t xml:space="preserve">17.4490146636963</t>
   </si>
   <si>
     <t xml:space="preserve">17.411304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1567783355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3735961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9203472137451</t>
+    <t xml:space="preserve">17.1567802429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3735980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9203453063965</t>
   </si>
   <si>
     <t xml:space="preserve">18.1748733520508</t>
@@ -1406,175 +1406,175 @@
     <t xml:space="preserve">18.3162727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2408561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802249908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482536315918</t>
+    <t xml:space="preserve">18.2408580780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5802268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482479095459</t>
   </si>
   <si>
     <t xml:space="preserve">18.8535976409912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8347454071045</t>
+    <t xml:space="preserve">18.8347492218018</t>
   </si>
   <si>
     <t xml:space="preserve">18.6462116241455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5236644744873</t>
+    <t xml:space="preserve">18.5236625671387</t>
   </si>
   <si>
     <t xml:space="preserve">19.2306709289551</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2683849334717</t>
+    <t xml:space="preserve">19.2683811187744</t>
   </si>
   <si>
     <t xml:space="preserve">19.0609912872314</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9101600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7223854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8543663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9769096374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011192321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3634071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.127742767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674873352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4301605224609</t>
+    <t xml:space="preserve">18.9101638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7223873138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8543605804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9769077301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.363410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1277370452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4301586151123</t>
   </si>
   <si>
     <t xml:space="preserve">17.5574188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0577926635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2887535095215</t>
+    <t xml:space="preserve">17.0577964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2887554168701</t>
   </si>
   <si>
     <t xml:space="preserve">16.2942237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2046680450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4686164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3602104187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8362712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0153751373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0295162200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9588165283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.406587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893863677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688812255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5904083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.613977432251</t>
+    <t xml:space="preserve">16.2046718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.468620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3602180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8362693786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0153732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0295143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9588108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893901824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688793182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5904102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6139755249023</t>
   </si>
   <si>
     <t xml:space="preserve">17.7883758544922</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7459564208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0625076293945</t>
+    <t xml:space="preserve">17.7459487915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0625095367432</t>
   </si>
   <si>
     <t xml:space="preserve">16.6524448394775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1850566864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432777404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7318115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5566596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6650638580322</t>
+    <t xml:space="preserve">17.18505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5432796478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7318096160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5566577911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6650676727295</t>
   </si>
   <si>
     <t xml:space="preserve">18.8253192901611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3398418426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2597103118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6603507995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7263336181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4237689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8256225585938</t>
+    <t xml:space="preserve">18.3398399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2597122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6603527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7263412475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4237651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8256168365479</t>
   </si>
   <si>
     <t xml:space="preserve">19.2511119842529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3292140960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5822410583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916938781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0360984802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0763778686523</t>
+    <t xml:space="preserve">18.3292102813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.582239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5916957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0361061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0763816833496</t>
   </si>
   <si>
     <t xml:space="preserve">17.0054683685303</t>
@@ -1583,82 +1583,82 @@
     <t xml:space="preserve">16.499605178833</t>
   </si>
   <si>
-    <t xml:space="preserve">16.097749710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5279636383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.386137008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9014549255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065975189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2749462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309558868408</t>
+    <t xml:space="preserve">16.0977478027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5279769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712371826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9014530181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6839828491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5065956115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2749404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309539794922</t>
   </si>
   <si>
     <t xml:space="preserve">17.7429828643799</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4545917510986</t>
+    <t xml:space="preserve">17.4545936584473</t>
   </si>
   <si>
     <t xml:space="preserve">16.8683643341064</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6177978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8116302490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6887092590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3505878448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1472930908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9368152618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9509983062744</t>
+    <t xml:space="preserve">16.6177997589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8116321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6887130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756572723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3505859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1472988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425685882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9368228912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9510021209717</t>
   </si>
   <si>
     <t xml:space="preserve">18.1826553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8161659240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5230484008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7972564697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8539905548096</t>
+    <t xml:space="preserve">18.816162109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5230503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7972545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8539886474609</t>
   </si>
   <si>
     <t xml:space="preserve">19.1187362670898</t>
@@ -1670,205 +1670,205 @@
     <t xml:space="preserve">19.3078441619873</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0620021820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9390888214111</t>
+    <t xml:space="preserve">19.0620040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9390850067139</t>
   </si>
   <si>
     <t xml:space="preserve">19.1376476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0714645385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688903808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0998306274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4307651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3362121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.147102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267555236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2605743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.241662979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1943798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0264530181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2817478179932</t>
+    <t xml:space="preserve">19.0714626312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0998268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4307632446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3362102508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1471061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267574310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2605609893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2416591644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1943759918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0264511108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2817420959473</t>
   </si>
   <si>
     <t xml:space="preserve">20.1020946502686</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8657112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2061023712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1304588317871</t>
+    <t xml:space="preserve">19.8657131195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2061061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1304626464844</t>
   </si>
   <si>
     <t xml:space="preserve">21.0098094940186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4447536468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2367401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0092010498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1180152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9189224243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4069671630859</t>
+    <t xml:space="preserve">21.4447593688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2367362976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0091991424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1180210113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.918924331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069652557373</t>
   </si>
   <si>
     <t xml:space="preserve">19.1130638122559</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1934375762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5963726043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8049468994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473892211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715454101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896011352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539451599121</t>
+    <t xml:space="preserve">18.1934356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5963649749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8049392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412944793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9895992279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539413452148</t>
   </si>
   <si>
     <t xml:space="preserve">17.9753818511963</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0085601806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1460304260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5252552032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4020080566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4446754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.487340927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437721252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363128662109</t>
+    <t xml:space="preserve">18.00856590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.146032333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252590179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4020118713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4446716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4873390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363185882568</t>
   </si>
   <si>
     <t xml:space="preserve">19.1604652404785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1889114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.767017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8142108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0701885223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1886959075928</t>
+    <t xml:space="preserve">19.1889133453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7670192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396938323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8142127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0701904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1886978149414</t>
   </si>
   <si>
     <t xml:space="preserve">17.6909580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6577777862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6388149261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810287475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9990825653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0417461395264</t>
+    <t xml:space="preserve">17.6577816009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6388206481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.78102684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9990844726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0417499542236</t>
   </si>
   <si>
     <t xml:space="preserve">18.07493019104</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9848613739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0747165679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1363391876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9751663208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4347743988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0602779388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0650196075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2830772399902</t>
+    <t xml:space="preserve">17.9848670959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0747184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1363468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.975170135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4347667694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06028175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0650234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2830810546875</t>
   </si>
   <si>
     <t xml:space="preserve">16.126651763916</t>
@@ -1877,118 +1877,118 @@
     <t xml:space="preserve">16.1076889038086</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5200977325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7855529785156</t>
+    <t xml:space="preserve">16.5200939178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7855567932129</t>
   </si>
   <si>
     <t xml:space="preserve">16.747631072998</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8898448944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.771333694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7760696411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7950382232666</t>
+    <t xml:space="preserve">16.8898429870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7713375091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7760753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.795036315918</t>
   </si>
   <si>
     <t xml:space="preserve">16.382625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">15.624174118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3871545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3539705276489</t>
+    <t xml:space="preserve">15.6241722106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3871517181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3539714813232</t>
   </si>
   <si>
     <t xml:space="preserve">15.3492307662964</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0790328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.467529296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7946128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0695543289185</t>
+    <t xml:space="preserve">15.0790319442749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4675264358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7946119308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0695505142212</t>
   </si>
   <si>
     <t xml:space="preserve">14.7983293533325</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8887357711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9268035888672</t>
+    <t xml:space="preserve">14.8887367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9268026351929</t>
   </si>
   <si>
     <t xml:space="preserve">15.4502153396606</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4692487716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3598051071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6500654220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3931131362915</t>
+    <t xml:space="preserve">15.4692497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3598070144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6500644683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3931169509888</t>
   </si>
   <si>
     <t xml:space="preserve">15.1266527175903</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9172849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2503671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.540620803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6024856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1932678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.446213722229</t>
+    <t xml:space="preserve">14.9172859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2503662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5406198501587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1932668685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4462127685547</t>
   </si>
   <si>
     <t xml:space="preserve">14.2273330688477</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2701559066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4469690322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7134342193604</t>
+    <t xml:space="preserve">14.2701549530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4469728469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.713433265686</t>
   </si>
   <si>
     <t xml:space="preserve">13.6896419525146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.113133430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5183448791504</t>
+    <t xml:space="preserve">14.113130569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5183429718018</t>
   </si>
   <si>
     <t xml:space="preserve">13.2756719589233</t>
@@ -1997,43 +1997,43 @@
     <t xml:space="preserve">13.328010559082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8759737014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.567437171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4960632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5912294387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2431211471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.262152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7522563934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662311553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1424388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6285400390625</t>
+    <t xml:space="preserve">12.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5674390792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4960622787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5912322998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2431192398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2621507644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7522554397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1424379348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6285419464111</t>
   </si>
   <si>
     <t xml:space="preserve">12.7903232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6332969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4810342788696</t>
+    <t xml:space="preserve">12.6332979202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4810333251953</t>
   </si>
   <si>
     <t xml:space="preserve">12.3620748519897</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">11.938588142395</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8339023590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7530145645142</t>
+    <t xml:space="preserve">11.8339033126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7530117034912</t>
   </si>
   <si>
     <t xml:space="preserve">11.5721979141235</t>
@@ -2054,178 +2054,178 @@
     <t xml:space="preserve">11.6055030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.400897026062</t>
+    <t xml:space="preserve">11.4008989334106</t>
   </si>
   <si>
     <t xml:space="preserve">11.9433460235596</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7625293731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8434181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1765012741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0718193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3668346405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3240098953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0663013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6475734710693</t>
+    <t xml:space="preserve">11.7625303268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8434200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1764993667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1098852157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0718183517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3668327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3240089416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0663042068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6475744247437</t>
   </si>
   <si>
     <t xml:space="preserve">12.2383594512939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5055818557739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3818655014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0630598068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4199314117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6435737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6530885696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6483306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813856124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5861673355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5000982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605939865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474954605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961469650269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6052932739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2520618438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4385499954224</t>
+    <t xml:space="preserve">11.5055847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3818664550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0630588531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4199333190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6435699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6530866622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6483278274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5861663818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.500096321106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1605911254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474945068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6052951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2520599365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.438549041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.8449964523315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8928146362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4761867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6244192123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7487440109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6196403503418</t>
+    <t xml:space="preserve">10.8928155899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.476188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6244211196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7487468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6196384429932</t>
   </si>
   <si>
     <t xml:space="preserve">11.7774362564087</t>
   </si>
   <si>
-    <t xml:space="preserve">12.002179145813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726545333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2986459732056</t>
+    <t xml:space="preserve">12.0021810531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2986469268799</t>
   </si>
   <si>
     <t xml:space="preserve">12.3512477874756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304523468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.949577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1641416549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7475166320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4414825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2310886383057</t>
+    <t xml:space="preserve">11.9304513931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9495782852173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1641426086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7475156784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4414863586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.231086730957</t>
   </si>
   <si>
     <t xml:space="preserve">13.2884702682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2693405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3028144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458480834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2071800231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8766250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2406530380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489641189575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3171586990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0344200134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9818210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9483489990234</t>
+    <t xml:space="preserve">13.2693424224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3028135299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458490371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.207181930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8766241073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2406492233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489650726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.31715965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0344209671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9818229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9483509063721</t>
   </si>
   <si>
     <t xml:space="preserve">14.0774564743042</t>
@@ -2234,115 +2234,115 @@
     <t xml:space="preserve">13.9770402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8335886001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0487632751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0200748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1874361038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5938854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3739233016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0631113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7570781707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2065629959106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1348371505737</t>
+    <t xml:space="preserve">13.8335866928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0487651824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.020076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1874380111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5938835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3739223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0631093978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7570791244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.206563949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1348361968994</t>
   </si>
   <si>
     <t xml:space="preserve">13.6231899261475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3362846374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466833114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4845199584961</t>
+    <t xml:space="preserve">13.3362874984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219404220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466823577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4845190048218</t>
   </si>
   <si>
     <t xml:space="preserve">13.3506307601929</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3601942062378</t>
+    <t xml:space="preserve">13.3601951599121</t>
   </si>
   <si>
     <t xml:space="preserve">13.6889314651489</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8329772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6553239822388</t>
+    <t xml:space="preserve">13.8329763412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6553258895874</t>
   </si>
   <si>
     <t xml:space="preserve">14.2555055618286</t>
   </si>
   <si>
-    <t xml:space="preserve">13.93860912323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4008464813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5736970901489</t>
+    <t xml:space="preserve">13.9386072158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4008445739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5736980438232</t>
   </si>
   <si>
     <t xml:space="preserve">12.6854305267334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2388954162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655750274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5256795883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3083209991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5435924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.966118812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0381374359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9084997177124</t>
+    <t xml:space="preserve">12.2388935089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6566200256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655731201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5256805419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3083181381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5435914993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9661178588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0381412506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.908501625061</t>
   </si>
   <si>
     <t xml:space="preserve">14.9901256561279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0717496871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.398247718811</t>
+    <t xml:space="preserve">15.0717506408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3982496261597</t>
   </si>
   <si>
     <t xml:space="preserve">15.2205953598022</t>
@@ -2351,25 +2351,25 @@
     <t xml:space="preserve">15.5759048461914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8255767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408102035522</t>
+    <t xml:space="preserve">15.8255748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408159255981</t>
   </si>
   <si>
     <t xml:space="preserve">15.3934478759766</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1712799072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120054244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903024673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5230855941772</t>
+    <t xml:space="preserve">16.1712856292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903100967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5230884552002</t>
   </si>
   <si>
     <t xml:space="preserve">15.7295446395874</t>
@@ -2378,292 +2378,292 @@
     <t xml:space="preserve">15.7343492507935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7487525939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7068405151367</t>
+    <t xml:space="preserve">15.7487554550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7068395614624</t>
   </si>
   <si>
     <t xml:space="preserve">14.9421119689941</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1882848739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3227252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5929021835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003805160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.980523109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1293668746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9565153121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5881032943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1930856704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9722185134888</t>
+    <t xml:space="preserve">14.1882829666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3227224349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.592903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.500376701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9805221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1293687820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9565143585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5881023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1930828094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9722194671631</t>
   </si>
   <si>
     <t xml:space="preserve">13.1799802780151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.117561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1559705734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071258544922</t>
+    <t xml:space="preserve">13.1175603866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.155969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071249008179</t>
   </si>
   <si>
     <t xml:space="preserve">12.9735174179077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0455379486084</t>
+    <t xml:space="preserve">13.0455369949341</t>
   </si>
   <si>
     <t xml:space="preserve">13.1511697769165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2279939651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.564094543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248552322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2760076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8953943252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2218952178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626140594482</t>
+    <t xml:space="preserve">13.2279920578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5640964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248523712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.276008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8953971862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2218942642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9626150131226</t>
   </si>
   <si>
     <t xml:space="preserve">14.0202322006226</t>
   </si>
   <si>
-    <t xml:space="preserve">13.568793296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9882974624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2969007492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6488971710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4560203552246</t>
+    <t xml:space="preserve">13.5687971115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.988299369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2968997955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6488981246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4560213088989</t>
   </si>
   <si>
     <t xml:space="preserve">14.4367351531982</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3402976989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6055030822754</t>
+    <t xml:space="preserve">14.340295791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6055002212524</t>
   </si>
   <si>
     <t xml:space="preserve">14.8465948104858</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0442943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6759567260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5264797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4348669052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5650539398193</t>
+    <t xml:space="preserve">15.0442905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6759614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5264825820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4348640441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5650548934937</t>
   </si>
   <si>
     <t xml:space="preserve">15.1889495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1069746017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9526796340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1455507278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0973300933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2709197998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3336048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3191423416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3818254470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7338209152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520629882812</t>
+    <t xml:space="preserve">15.1069765090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9526777267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1455526351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0973339080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2709226608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3336029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3191413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3818264007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7338266372681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520648956299</t>
   </si>
   <si>
     <t xml:space="preserve">16.3847770690918</t>
   </si>
   <si>
-    <t xml:space="preserve">16.963399887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4812164306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7946395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1292171478271</t>
+    <t xml:space="preserve">16.9634037017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4812145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946357727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1292190551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.1147499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3317317962646</t>
+    <t xml:space="preserve">16.3317394256592</t>
   </si>
   <si>
     <t xml:space="preserve">15.2419891357422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5862140655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4801321029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5572824478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1407308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1214427947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277437210083</t>
+    <t xml:space="preserve">14.5862121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4801330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5572834014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1407318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1214418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6277389526367</t>
   </si>
   <si>
     <t xml:space="preserve">14.9285669326782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7000665664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6904258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8736553192139</t>
+    <t xml:space="preserve">15.7000713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6904277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8736562728882</t>
   </si>
   <si>
     <t xml:space="preserve">15.7579307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0539360046387</t>
+    <t xml:space="preserve">15.053936958313</t>
   </si>
   <si>
     <t xml:space="preserve">15.1744832992554</t>
   </si>
   <si>
-    <t xml:space="preserve">15.213059425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.545768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5361242294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4686183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7289972305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7030200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0212650299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7801666259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4504165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.52756690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6143627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4692268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2273330688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5127658843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5611400604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547737121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0628490447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9370708465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9225521087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9757747650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128238677979</t>
+    <t xml:space="preserve">15.2130575180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5457668304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5361261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.468620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2660989761353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7290019989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7030258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0212688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7801742553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4504108428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5275630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6143608093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4692249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2273387908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5127639770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5611438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0628528594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9370670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9225559234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.975772857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128257751465</t>
   </si>
   <si>
     <t xml:space="preserve">17.1692810058594</t>
@@ -2678,73 +2678,73 @@
     <t xml:space="preserve">16.7677440643311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3047409057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3192596435547</t>
+    <t xml:space="preserve">17.304744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3192501068115</t>
   </si>
   <si>
     <t xml:space="preserve">16.8403129577637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0773620605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3434429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.577075958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3980808258057</t>
+    <t xml:space="preserve">17.0773677825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3434371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5770778656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3980770111084</t>
   </si>
   <si>
     <t xml:space="preserve">18.847993850708</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7754287719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4029197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3835678100586</t>
+    <t xml:space="preserve">18.7754249572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4029159545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3835620880127</t>
   </si>
   <si>
     <t xml:space="preserve">18.6061019897461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8804397583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3994998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5543098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9897060394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2896518707275</t>
+    <t xml:space="preserve">17.8804340362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3995018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5543079376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9897136688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2896499633789</t>
   </si>
   <si>
     <t xml:space="preserve">19.9993858337402</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6800899505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0767879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3283576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6186199188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5025100708008</t>
+    <t xml:space="preserve">19.6800975799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0767917633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3283557891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6186180114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5025119781494</t>
   </si>
   <si>
     <t xml:space="preserve">20.889533996582</t>
@@ -2753,37 +2753,37 @@
     <t xml:space="preserve">20.9185657501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.363639831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1507778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0153160095215</t>
+    <t xml:space="preserve">21.3636379241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1507797241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0153179168701</t>
   </si>
   <si>
     <t xml:space="preserve">21.2862339019775</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3249378204346</t>
+    <t xml:space="preserve">21.3249416351318</t>
   </si>
   <si>
     <t xml:space="preserve">21.1701278686523</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7637519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0443420410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4410419464111</t>
+    <t xml:space="preserve">20.7637538909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0443458557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4410381317139</t>
   </si>
   <si>
     <t xml:space="preserve">21.7893619537354</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8280639648438</t>
+    <t xml:space="preserve">21.828067779541</t>
   </si>
   <si>
     <t xml:space="preserve">21.7313079833984</t>
@@ -2792,31 +2792,31 @@
     <t xml:space="preserve">21.5764980316162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0830535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571517944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.605525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2441158294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.631139755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9407501220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4051856994629</t>
+    <t xml:space="preserve">21.0830516815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0733757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5571460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6055278778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2441120147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3408718109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6311340332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9407558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4051876068115</t>
   </si>
   <si>
     <t xml:space="preserve">23.7728500366211</t>
@@ -2825,124 +2825,124 @@
     <t xml:space="preserve">23.7243576049805</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5982685089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2102966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3751850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6176700592041</t>
+    <t xml:space="preserve">23.5982646942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2102947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6176681518555</t>
   </si>
   <si>
     <t xml:space="preserve">23.5400714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2490940093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0153369903564</t>
+    <t xml:space="preserve">23.2490978240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0153350830078</t>
   </si>
   <si>
     <t xml:space="preserve">23.8504486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3072910308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8989372253418</t>
+    <t xml:space="preserve">23.3072891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8989448547363</t>
   </si>
   <si>
     <t xml:space="preserve">23.8795471191406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4517974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9668407440186</t>
+    <t xml:space="preserve">24.4518013000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9668369293213</t>
   </si>
   <si>
     <t xml:space="preserve">24.1705226898193</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3354110717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3936100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778903961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3451118469238</t>
+    <t xml:space="preserve">24.3354148864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3936061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778884887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3451080322266</t>
   </si>
   <si>
     <t xml:space="preserve">26.1879653930664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9154109954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3635292053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2461624145508</t>
+    <t xml:space="preserve">26.9154071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3635272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2461643218994</t>
   </si>
   <si>
     <t xml:space="preserve">26.0909729003906</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6545085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5197010040283</t>
+    <t xml:space="preserve">25.6545066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5196971893311</t>
   </si>
   <si>
     <t xml:space="preserve">24.985258102417</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8678913116455</t>
+    <t xml:space="preserve">25.8678932189941</t>
   </si>
   <si>
     <t xml:space="preserve">26.5662384033203</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7214279174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4100685119629</t>
+    <t xml:space="preserve">26.401346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7214202880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4100704193115</t>
   </si>
   <si>
     <t xml:space="preserve">27.7204475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4672889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0793228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3324775695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0027027130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2442073822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8368377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4993209838867</t>
+    <t xml:space="preserve">28.4672908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.07932472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3324794769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.00270652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2442092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8368434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4391689300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4993228912354</t>
   </si>
   <si>
     <t xml:space="preserve">25.3053359985352</t>
@@ -2954,25 +2954,25 @@
     <t xml:space="preserve">24.1123294830322</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6467628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5788688659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2287216186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6952610015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5895462036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3005218505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4654102325439</t>
+    <t xml:space="preserve">23.6467609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5788669586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2287178039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6952590942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5895519256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3005256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4654121398926</t>
   </si>
   <si>
     <t xml:space="preserve">20.0580425262451</t>
@@ -2984,112 +2984,112 @@
     <t xml:space="preserve">17.5992832183838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0033283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7551774978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5850687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.679856300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4826974868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6384010314941</t>
+    <t xml:space="preserve">16.0033302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7551803588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5850696563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798553466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4826984405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6384019851685</t>
   </si>
   <si>
     <t xml:space="preserve">17.8960933685303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9178943634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6892032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9739437103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838310241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3412075042725</t>
+    <t xml:space="preserve">18.9178905487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6892013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9739398956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838329315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3412055969238</t>
   </si>
   <si>
     <t xml:space="preserve">18.4264545440674</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9885425567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0687294006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0467357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6306209564209</t>
+    <t xml:space="preserve">17.9885444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581832885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0687255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0467376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6306266784668</t>
   </si>
   <si>
     <t xml:space="preserve">21.5745697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4967193603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.852108001709</t>
+    <t xml:space="preserve">21.4967174530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8521099090576</t>
   </si>
   <si>
     <t xml:space="preserve">20.066198348999</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8155174255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5333061218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757736206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.77659034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7594699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0416793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2581081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6376323699951</t>
+    <t xml:space="preserve">20.8155193328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5333099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757717132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7765941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7594661712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0416831970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2581043243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6376361846924</t>
   </si>
   <si>
     <t xml:space="preserve">24.2896385192871</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0732116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8275890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1681861877441</t>
+    <t xml:space="preserve">23.073205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8275871276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1681880950928</t>
   </si>
   <si>
     <t xml:space="preserve">22.2946949005127</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5769062042236</t>
+    <t xml:space="preserve">22.5769100189209</t>
   </si>
   <si>
     <t xml:space="preserve">22.7715396881104</t>
@@ -3098,217 +3098,217 @@
     <t xml:space="preserve">22.2654972076416</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6718845367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0393466949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6134986877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8957099914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923564910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3410167694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6329574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3336219787598</t>
+    <t xml:space="preserve">23.0634784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6718864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0393447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6134948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8957080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3410129547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6329612731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3336238861084</t>
   </si>
   <si>
     <t xml:space="preserve">21.1463871002197</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6232280731201</t>
+    <t xml:space="preserve">21.6232261657715</t>
   </si>
   <si>
     <t xml:space="preserve">21.7205429077148</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1389961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9782314300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3772163391113</t>
+    <t xml:space="preserve">22.1389942169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9782333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6279010772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3772220611572</t>
   </si>
   <si>
     <t xml:space="preserve">23.3359565734863</t>
   </si>
   <si>
-    <t xml:space="preserve">23.40407371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3920078277588</t>
+    <t xml:space="preserve">23.4040775299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3920116424561</t>
   </si>
   <si>
     <t xml:space="preserve">22.3141574859619</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2071094512939</t>
+    <t xml:space="preserve">22.2071132659912</t>
   </si>
   <si>
     <t xml:space="preserve">23.1899871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3651542663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6765613555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5500526428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0938243865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469673156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1328201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1133251190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8793621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9183559417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6104850769043</t>
+    <t xml:space="preserve">23.3651523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6765556335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.550048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0938282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469654083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1328182220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1133193969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8793678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9183540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6104888916016</t>
   </si>
   <si>
     <t xml:space="preserve">23.4155216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">23.620231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0491619110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9321823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2400550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5227546691895</t>
+    <t xml:space="preserve">23.6202373504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.049165725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9321842193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2400531768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5227508544922</t>
   </si>
   <si>
     <t xml:space="preserve">24.7120513916016</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2092208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1466464996338</t>
+    <t xml:space="preserve">25.2092189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1466484069824</t>
   </si>
   <si>
     <t xml:space="preserve">24.8777751922607</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9070224761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5016708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1060638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8136157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.008581161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9013519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2384586334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4919204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1563968658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9614295959473</t>
+    <t xml:space="preserve">24.9070167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5016689300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1060619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8136177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0085830688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.901346206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2384624481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4919147491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1563987731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.96142578125</t>
   </si>
   <si>
     <t xml:space="preserve">23.0645809173584</t>
   </si>
   <si>
-    <t xml:space="preserve">23.210807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9516773223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0686588287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7859592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7274703979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8736972808838</t>
+    <t xml:space="preserve">23.2108058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.951681137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0686645507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7859630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7274723052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8736953735352</t>
   </si>
   <si>
     <t xml:space="preserve">23.5617504119873</t>
   </si>
   <si>
-    <t xml:space="preserve">24.39035987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8387756347656</t>
+    <t xml:space="preserve">24.3903579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8387775421143</t>
   </si>
   <si>
     <t xml:space="preserve">24.673059463501</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0784072875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4683437347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1174049377441</t>
+    <t xml:space="preserve">24.0784130096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4683456420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1174011230469</t>
   </si>
   <si>
     <t xml:space="preserve">24.1369018554688</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7079734802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4585971832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6633110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3554401397705</t>
+    <t xml:space="preserve">23.7079696655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4585952758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6633071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3554420471191</t>
   </si>
   <si>
     <t xml:space="preserve">24.9557609558105</t>
@@ -3317,100 +3317,100 @@
     <t xml:space="preserve">24.6340713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5073375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8680267333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3456935882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5909957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0255928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5325012207031</t>
+    <t xml:space="preserve">24.5073318481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8680286407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3456954956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5909938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0255889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5325031280518</t>
   </si>
   <si>
     <t xml:space="preserve">22.723388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3221187591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5755729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7607917785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6868858337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9305953979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.135311126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2872047424316</t>
+    <t xml:space="preserve">24.3221206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5755748748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7607936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.686882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9305934906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1353092193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.287202835083</t>
   </si>
   <si>
     <t xml:space="preserve">24.6349563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7228355407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9181232452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0645847320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4591999053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1426963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5723152160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6309051513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.41774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052913665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.39821434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3689212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5642051696777</t>
+    <t xml:space="preserve">24.7228317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9181213378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0645790100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4592056274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.142692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5723171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6308975219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4177379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3982105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3689231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5642070770264</t>
   </si>
   <si>
     <t xml:space="preserve">27.8376007080078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5894374847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9800052642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1752853393555</t>
+    <t xml:space="preserve">28.5894412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9800090789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1752891540527</t>
   </si>
   <si>
     <t xml:space="preserve">28.8237819671631</t>
@@ -3422,16 +3422,16 @@
     <t xml:space="preserve">28.5503845214844</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7554302215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4527397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2574596405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9840641021729</t>
+    <t xml:space="preserve">28.7554340362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4527416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2574558258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9840621948242</t>
   </si>
   <si>
     <t xml:space="preserve">27.9352436065674</t>
@@ -3440,31 +3440,31 @@
     <t xml:space="preserve">27.300573348999</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5584964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3282146453857</t>
+    <t xml:space="preserve">26.5584945678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3282127380371</t>
   </si>
   <si>
     <t xml:space="preserve">25.9140625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5527858734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.050760269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8026008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.281042098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.140287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3160438537598</t>
+    <t xml:space="preserve">25.5527896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0507640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.802604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2810440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1402912139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3160419464111</t>
   </si>
   <si>
     <t xml:space="preserve">29.7611389160156</t>
@@ -3482,31 +3482,31 @@
     <t xml:space="preserve">28.2769832611084</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0776500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9897708892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4096298217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7123184204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3762798309326</t>
+    <t xml:space="preserve">29.0776462554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9897727966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4096279144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7123203277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762836456299</t>
   </si>
   <si>
     <t xml:space="preserve">30.5813293457031</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6887378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2257614135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7725601196289</t>
+    <t xml:space="preserve">30.6887340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2257595062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.772554397583</t>
   </si>
   <si>
     <t xml:space="preserve">32.4560508728027</t>
@@ -3518,40 +3518,40 @@
     <t xml:space="preserve">33.5008125305176</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6317977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8759078979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2957611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5789184570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1785926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2338771820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7456645965576</t>
+    <t xml:space="preserve">32.6317939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.875904083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2957649230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.578929901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1785888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2338752746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7456684112549</t>
   </si>
   <si>
     <t xml:space="preserve">28.3178577423096</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5205879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3347988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.992561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3445777893066</t>
+    <t xml:space="preserve">29.5205860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3348007202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9925594329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.344575881958</t>
   </si>
   <si>
     <t xml:space="preserve">28.4351978302002</t>
@@ -3560,223 +3560,223 @@
     <t xml:space="preserve">29.5108070373535</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6574802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7357044219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4716892242432</t>
+    <t xml:space="preserve">29.6574821472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7357063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4716968536377</t>
   </si>
   <si>
     <t xml:space="preserve">29.8726043701172</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0166645050049</t>
+    <t xml:space="preserve">31.0166606903076</t>
   </si>
   <si>
     <t xml:space="preserve">31.3002300262451</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3882369995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6620254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2682723999023</t>
+    <t xml:space="preserve">31.3882331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6620273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2682838439941</t>
   </si>
   <si>
     <t xml:space="preserve">32.6007385253906</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8843040466309</t>
+    <t xml:space="preserve">32.8843116760254</t>
   </si>
   <si>
     <t xml:space="preserve">32.9234237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1704940795898</t>
+    <t xml:space="preserve">32.1704978942871</t>
   </si>
   <si>
     <t xml:space="preserve">32.3660621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0238227844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7474212646484</t>
+    <t xml:space="preserve">32.0238304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7474174499512</t>
   </si>
   <si>
     <t xml:space="preserve">32.6594123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8771514892578</t>
+    <t xml:space="preserve">31.8771476745605</t>
   </si>
   <si>
     <t xml:space="preserve">31.9260368347168</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9749317169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9775485992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2780609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5322952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1874351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1776580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9625396728516</t>
+    <t xml:space="preserve">31.9749336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9775505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2780494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5322914123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1874313354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1776542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9625358581543</t>
   </si>
   <si>
     <t xml:space="preserve">32.9723167419434</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5394515991211</t>
+    <t xml:space="preserve">33.5394477844238</t>
   </si>
   <si>
     <t xml:space="preserve">33.803466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.096809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5759506225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7715148925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3608169555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6372337341309</t>
+    <t xml:space="preserve">32.9038696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0968132019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5759544372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7715225219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3608245849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6372413635254</t>
   </si>
   <si>
     <t xml:space="preserve">33.1972122192383</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8523559570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0798759460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1900482177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0140419006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7109222412109</t>
+    <t xml:space="preserve">33.852352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0798721313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1900444030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.014045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.710916519165</t>
   </si>
   <si>
     <t xml:space="preserve">31.2806739807129</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7330951690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.068172454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6868190765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6209888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8387260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4254169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2370185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4938659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6183738708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0218925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.559700012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170558929443</t>
+    <t xml:space="preserve">30.7330913543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0681686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6868171691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6209869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8387241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4254207611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2370166778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4938716888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6183700561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0218982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5596981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1170616149902</t>
   </si>
   <si>
     <t xml:space="preserve">29.8921585083008</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1366195678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7162761688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5987815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8044033050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.597526550293</t>
+    <t xml:space="preserve">30.1366176605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3527355194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7162799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5987796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8044013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5975246429443</t>
   </si>
   <si>
     <t xml:space="preserve">31.2352352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">31.264612197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8423118591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3955421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4591865539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5081520080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.424919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5864791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1605453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1164741516113</t>
+    <t xml:space="preserve">31.2646102905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8423156738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3955383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4591903686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5081405639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4249114990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5864753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1605529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1164817810059</t>
   </si>
   <si>
     <t xml:space="preserve">31.9108581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">31.989185333252</t>
+    <t xml:space="preserve">31.9891891479492</t>
   </si>
   <si>
     <t xml:space="preserve">31.2401313781738</t>
@@ -3785,55 +3785,55 @@
     <t xml:space="preserve">30.0504512786865</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3980503082275</t>
+    <t xml:space="preserve">30.3980541229248</t>
   </si>
   <si>
     <t xml:space="preserve">31.0491943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5289859771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9353370666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0675201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3331508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4959678649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0602416992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4237880706787</t>
+    <t xml:space="preserve">31.5289840698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.935338973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0675239562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3331527709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4959697723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0602397918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4237823486328</t>
   </si>
   <si>
     <t xml:space="preserve">30.1483669281006</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4776401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3001384735107</t>
+    <t xml:space="preserve">29.4776382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3001365661621</t>
   </si>
   <si>
     <t xml:space="preserve">29.5119113922119</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5180644989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9354648590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3124389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5817108154297</t>
+    <t xml:space="preserve">28.5180625915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9354629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3124370574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5817070007324</t>
   </si>
   <si>
     <t xml:space="preserve">28.4299411773682</t>
@@ -3842,31 +3842,31 @@
     <t xml:space="preserve">28.5866031646729</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5768146514893</t>
+    <t xml:space="preserve">28.576810836792</t>
   </si>
   <si>
     <t xml:space="preserve">28.9831638336182</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0615005493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.311185836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4433708190918</t>
+    <t xml:space="preserve">29.0614986419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3111839294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4433746337891</t>
   </si>
   <si>
     <t xml:space="preserve">29.3993072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6196193695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9917049407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0112819671631</t>
+    <t xml:space="preserve">29.6196212768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.99169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0112838745117</t>
   </si>
   <si>
     <t xml:space="preserve">29.8888874053955</t>
@@ -3878,85 +3878,85 @@
     <t xml:space="preserve">29.487434387207</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9329509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5216979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5559749603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9231567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4421138763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7554492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9316940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8925285339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8337802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2009658813477</t>
+    <t xml:space="preserve">29.9329471588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5216999053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5559730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9231605529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4421157836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7554473876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9316959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8925247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8337783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2009620666504</t>
   </si>
   <si>
     <t xml:space="preserve">29.8105545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">29.609432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.96262550354</t>
+    <t xml:space="preserve">29.6094303131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9626274108887</t>
   </si>
   <si>
     <t xml:space="preserve">30.1882781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2177085876465</t>
+    <t xml:space="preserve">30.2177104949951</t>
   </si>
   <si>
     <t xml:space="preserve">30.3599700927734</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5856189727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0263977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1686592102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8358039855957</t>
+    <t xml:space="preserve">30.585620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0263938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1686573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8357982635498</t>
   </si>
   <si>
     <t xml:space="preserve">31.144847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0271110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2674808502197</t>
+    <t xml:space="preserve">31.0271148681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674827575684</t>
   </si>
   <si>
     <t xml:space="preserve">30.3943061828613</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5323753356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7825546264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8119869232178</t>
+    <t xml:space="preserve">31.5323791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7825565338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8119926452637</t>
   </si>
   <si>
     <t xml:space="preserve">32.6017684936523</t>
@@ -3965,31 +3965,31 @@
     <t xml:space="preserve">31.9051914215088</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5618095397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.747501373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5071315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.718786239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047729492188</t>
+    <t xml:space="preserve">31.5618076324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7475032806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5071334838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7187824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7089710235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047882080078</t>
   </si>
   <si>
     <t xml:space="preserve">32.5674324035645</t>
   </si>
   <si>
-    <t xml:space="preserve">34.377555847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8722877502441</t>
+    <t xml:space="preserve">34.3775482177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8722839355469</t>
   </si>
   <si>
     <t xml:space="preserve">34.4020805358887</t>
@@ -3998,100 +3998,100 @@
     <t xml:space="preserve">34.446231842041</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8386611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1035614013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2703437805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8148498535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6922187805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.545051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9080619812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8001403808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8295745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4126129150391</t>
+    <t xml:space="preserve">34.8386650085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1035537719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2703475952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8148574829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6922264099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5450592041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9080543518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8001365661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8295669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4126052856445</t>
   </si>
   <si>
     <t xml:space="preserve">35.7903289794922</t>
   </si>
   <si>
-    <t xml:space="preserve">35.162425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6971206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9423866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0944633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246688842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5899200439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1638565063477</t>
+    <t xml:space="preserve">35.1624221801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6971282958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7952346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9423942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0944671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5899124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1638603210449</t>
   </si>
   <si>
     <t xml:space="preserve">36.967643737793</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2227249145508</t>
+    <t xml:space="preserve">37.222728729248</t>
   </si>
   <si>
     <t xml:space="preserve">37.2031021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1785774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4974365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.487621307373</t>
+    <t xml:space="preserve">37.1785736083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.497428894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4876174926758</t>
   </si>
   <si>
     <t xml:space="preserve">36.8155670166016</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9431114196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5317726135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3993186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7532272338867</t>
+    <t xml:space="preserve">36.9431076049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5317687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3993225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.753231048584</t>
   </si>
   <si>
     <t xml:space="preserve">38.8513412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">39.204532623291</t>
+    <t xml:space="preserve">39.2045402526855</t>
   </si>
   <si>
     <t xml:space="preserve">38.1302375793457</t>
@@ -4109,19 +4109,19 @@
     <t xml:space="preserve">38.9310684204102</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8082389831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8622856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9118003845215</t>
+    <t xml:space="preserve">38.8082313537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8622817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.911792755127</t>
   </si>
   <si>
     <t xml:space="preserve">36.8331909179688</t>
   </si>
   <si>
-    <t xml:space="preserve">37.108325958252</t>
+    <t xml:space="preserve">37.1083221435547</t>
   </si>
   <si>
     <t xml:space="preserve">36.6612358093262</t>
@@ -4133,7 +4133,7 @@
     <t xml:space="preserve">36.2976684570312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6933670043945</t>
+    <t xml:space="preserve">35.6933631896973</t>
   </si>
   <si>
     <t xml:space="preserve">36.2485389709473</t>
@@ -4142,7 +4142,7 @@
     <t xml:space="preserve">35.3985824584961</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3297958374023</t>
+    <t xml:space="preserve">35.3297996520996</t>
   </si>
   <si>
     <t xml:space="preserve">34.7549629211426</t>
@@ -4151,16 +4151,16 @@
     <t xml:space="preserve">35.2413597106934</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7867088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8997077941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0716705322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4008445739746</t>
+    <t xml:space="preserve">35.7867050170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8997116088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.071662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4008369445801</t>
   </si>
   <si>
     <t xml:space="preserve">36.8037109375</t>
@@ -4175,16 +4175,16 @@
     <t xml:space="preserve">38.1597137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1646308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6113319396973</t>
+    <t xml:space="preserve">38.1646270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6113357543945</t>
   </si>
   <si>
     <t xml:space="preserve">40.1838912963867</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4197235107422</t>
+    <t xml:space="preserve">40.4197196960449</t>
   </si>
   <si>
     <t xml:space="preserve">41.0043754577637</t>
@@ -4193,25 +4193,25 @@
     <t xml:space="preserve">41.662727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6453399658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2938537597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8932495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5198593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6649894714355</t>
+    <t xml:space="preserve">42.6453437805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2938613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.893253326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5198707580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6649856567383</t>
   </si>
   <si>
     <t xml:space="preserve">43.4707336425781</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0209922790527</t>
+    <t xml:space="preserve">44.02099609375</t>
   </si>
   <si>
     <t xml:space="preserve">44.109432220459</t>
@@ -4220,58 +4220,58 @@
     <t xml:space="preserve">44.3550796508789</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9593887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6203880310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.993782043457</t>
+    <t xml:space="preserve">44.9593849182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6203956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9937782287598</t>
   </si>
   <si>
     <t xml:space="preserve">44.915168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1120834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9302940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7583389282227</t>
+    <t xml:space="preserve">43.1120719909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9302978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7583312988281</t>
   </si>
   <si>
     <t xml:space="preserve">41.1861610412598</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2523002624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3505554199219</t>
+    <t xml:space="preserve">42.2522888183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3505592346191</t>
   </si>
   <si>
     <t xml:space="preserve">44.1634712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2401962280273</t>
+    <t xml:space="preserve">41.2402038574219</t>
   </si>
   <si>
     <t xml:space="preserve">41.1566772460938</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2991600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6918182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4242515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1392936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971206665039</t>
+    <t xml:space="preserve">41.2991561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6918258666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4242477416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.139289855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971130371094</t>
   </si>
   <si>
     <t xml:space="preserve">41.78076171875</t>
@@ -4280,58 +4280,58 @@
     <t xml:space="preserve">41.0329170227051</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9136009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2592391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7278785705566</t>
+    <t xml:space="preserve">41.9136047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2592353820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7278709411621</t>
   </si>
   <si>
     <t xml:space="preserve">40.708194732666</t>
   </si>
   <si>
-    <t xml:space="preserve">41.190357208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8201141357422</t>
+    <t xml:space="preserve">41.1903533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8201179504395</t>
   </si>
   <si>
     <t xml:space="preserve">42.2530784606934</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2075614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3010444641113</t>
+    <t xml:space="preserve">43.2075653076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3010406494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.0944023132324</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0599594116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5384368896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9222030639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1349983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6749649047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1977272033691</t>
+    <t xml:space="preserve">43.0599632263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.538444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9221992492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1349945068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6749534606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1792831420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1977195739746</t>
   </si>
   <si>
     <t xml:space="preserve">42.2776794433594</t>
@@ -4340,19 +4340,19 @@
     <t xml:space="preserve">42.9271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">41.982479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6737480163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7721557617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9997215270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0759925842285</t>
+    <t xml:space="preserve">41.9824829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.673755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7721519470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9997138977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.075984954834</t>
   </si>
   <si>
     <t xml:space="preserve">38.0120277404785</t>
@@ -4364,55 +4364,55 @@
     <t xml:space="preserve">39.9603538513184</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3551940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5901145935059</t>
+    <t xml:space="preserve">39.3551864624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5901184082031</t>
   </si>
   <si>
     <t xml:space="preserve">40.8016738891602</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6934394836426</t>
+    <t xml:space="preserve">40.693431854248</t>
   </si>
   <si>
     <t xml:space="preserve">39.0353851318359</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2186698913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3121490478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2063522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0341491699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3601112365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4745140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1042709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2469482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4941902160645</t>
+    <t xml:space="preserve">38.2186660766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3121528625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7155876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2063484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0341567993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3601036071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4745063781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1042671203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2469520568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4941864013672</t>
   </si>
   <si>
     <t xml:space="preserve">37.6282653808594</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9640655517578</t>
+    <t xml:space="preserve">36.9640579223633</t>
   </si>
   <si>
     <t xml:space="preserve">37.091983795166</t>
@@ -4424,10 +4424,10 @@
     <t xml:space="preserve">36.0932197570801</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6823768615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3527450561523</t>
+    <t xml:space="preserve">37.6823844909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3527412414551</t>
   </si>
   <si>
     <t xml:space="preserve">36.2998657226562</t>
@@ -4436,34 +4436,34 @@
     <t xml:space="preserve">36.2162208557129</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9505386352539</t>
+    <t xml:space="preserve">35.9505424499512</t>
   </si>
   <si>
     <t xml:space="preserve">33.451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0182151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1670455932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.507740020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5680236816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4302597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0760154724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5778503417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1707077026367</t>
+    <t xml:space="preserve">33.0182113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.167049407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5077438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5680198669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4302635192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0760192871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5778541564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.170711517334</t>
   </si>
   <si>
     <t xml:space="preserve">37.0329437255859</t>
@@ -4472,13 +4472,13 @@
     <t xml:space="preserve">38.1202735900879</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2089614868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6130332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5341949462891</t>
+    <t xml:space="preserve">38.2089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6130294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5341835021973</t>
   </si>
   <si>
     <t xml:space="preserve">39.3275375366211</t>
@@ -4487,31 +4487,31 @@
     <t xml:space="preserve">39.6133460998535</t>
   </si>
   <si>
-    <t xml:space="preserve">39.741455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8206100463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.135669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0368118286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1399803161621</t>
+    <t xml:space="preserve">39.7414627075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.820613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1356735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0368156433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0907020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1399765014648</t>
   </si>
   <si>
     <t xml:space="preserve">36.1048545837402</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0799140930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.734977722168</t>
+    <t xml:space="preserve">35.0799179077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7349739074707</t>
   </si>
   <si>
     <t xml:space="preserve">34.5230865478516</t>
@@ -4523,13 +4523,13 @@
     <t xml:space="preserve">34.2767028808594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1978645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6952476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0993041992188</t>
+    <t xml:space="preserve">34.1978607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6952362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.099308013916</t>
   </si>
   <si>
     <t xml:space="preserve">35.2031059265137</t>
@@ -4541,64 +4541,64 @@
     <t xml:space="preserve">34.7941055297852</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7743988037109</t>
+    <t xml:space="preserve">34.7744026184082</t>
   </si>
   <si>
     <t xml:space="preserve">34.3506164550781</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5181617736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0848350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2523727416992</t>
+    <t xml:space="preserve">34.5181655883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.084831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2523803710938</t>
   </si>
   <si>
     <t xml:space="preserve">34.3604736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1784629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5083045959473</t>
+    <t xml:space="preserve">35.1784591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.50830078125</t>
   </si>
   <si>
     <t xml:space="preserve">34.6068572998047</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2471389770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9117431640625</t>
+    <t xml:space="preserve">34.247142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9117469787598</t>
   </si>
   <si>
     <t xml:space="preserve">32.9511680603027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8824920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.232666015625</t>
+    <t xml:space="preserve">33.8824882507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2326698303223</t>
   </si>
   <si>
     <t xml:space="preserve">37.3564834594727</t>
   </si>
   <si>
-    <t xml:space="preserve">36.622257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5979423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7799491882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7897987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2132682800293</t>
+    <t xml:space="preserve">36.6222648620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5979385375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7799453735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7898063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.213264465332</t>
   </si>
   <si>
     <t xml:space="preserve">36.3167495727539</t>
@@ -4613,34 +4613,34 @@
     <t xml:space="preserve">35.8831176757812</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7257423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2825698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6469039916992</t>
+    <t xml:space="preserve">36.7257385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2825660705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.646900177002</t>
   </si>
   <si>
     <t xml:space="preserve">36.5089263916016</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1593704223633</t>
+    <t xml:space="preserve">37.1593742370605</t>
   </si>
   <si>
     <t xml:space="preserve">36.341381072998</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5040016174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2625465393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4497947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4839744567871</t>
+    <t xml:space="preserve">36.5039978027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2625427246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4497909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4839782714844</t>
   </si>
   <si>
     <t xml:space="preserve">33.9761161804199</t>
@@ -4649,79 +4649,79 @@
     <t xml:space="preserve">32.0986824035645</t>
   </si>
   <si>
-    <t xml:space="preserve">32.054328918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2172584533691</t>
+    <t xml:space="preserve">32.0543327331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2172622680664</t>
   </si>
   <si>
     <t xml:space="preserve">31.1230087280273</t>
   </si>
   <si>
-    <t xml:space="preserve">31.251127243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.122766494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9225597381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2807502746582</t>
+    <t xml:space="preserve">31.2511291503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1227684020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9225616455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2807521820068</t>
   </si>
   <si>
     <t xml:space="preserve">30.7327461242676</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4091110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4436702728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.043773651123</t>
+    <t xml:space="preserve">31.4091091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4436721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0437755584717</t>
   </si>
   <si>
     <t xml:space="preserve">30.401969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6071147918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7382011413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2000713348389</t>
+    <t xml:space="preserve">29.6071109771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7381992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2000694274902</t>
   </si>
   <si>
     <t xml:space="preserve">27.65700340271</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9949245452881</t>
+    <t xml:space="preserve">28.9949264526367</t>
   </si>
   <si>
     <t xml:space="preserve">29.8095302581787</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4365253448486</t>
+    <t xml:space="preserve">30.4365272521973</t>
   </si>
   <si>
     <t xml:space="preserve">30.3772811889648</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7179355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7524890899658</t>
+    <t xml:space="preserve">30.7179374694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7524948120117</t>
   </si>
   <si>
     <t xml:space="preserve">30.8512344360352</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8731842041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2335891723633</t>
+    <t xml:space="preserve">31.8731880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2335968017578</t>
   </si>
   <si>
     <t xml:space="preserve">32.6384239196777</t>
@@ -4730,13 +4730,13 @@
     <t xml:space="preserve">33.3690948486328</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6356964111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5023956298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7245597839355</t>
+    <t xml:space="preserve">33.6356925964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5023880004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7245635986328</t>
   </si>
   <si>
     <t xml:space="preserve">33.4234046936035</t>
@@ -4748,19 +4748,19 @@
     <t xml:space="preserve">35.8129043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4695243835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7953643798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1014556884766</t>
+    <t xml:space="preserve">36.4695281982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7953605651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1014633178711</t>
   </si>
   <si>
     <t xml:space="preserve">37.9358062744141</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1283569335938</t>
+    <t xml:space="preserve">38.1283531188965</t>
   </si>
   <si>
     <t xml:space="preserve">37.170581817627</t>
@@ -4772,34 +4772,34 @@
     <t xml:space="preserve">34.9736137390137</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1585006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5337066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6571273803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0718383789062</t>
+    <t xml:space="preserve">36.1584854125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5337028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6571311950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.071834564209</t>
   </si>
   <si>
     <t xml:space="preserve">35.4870643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">36.637378692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1316032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3093338012695</t>
+    <t xml:space="preserve">36.6373825073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1315994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.309326171875</t>
   </si>
   <si>
     <t xml:space="preserve">35.4475708007812</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0301284790039</t>
+    <t xml:space="preserve">36.0301322937012</t>
   </si>
   <si>
     <t xml:space="preserve">35.1266632080078</t>
@@ -4808,22 +4808,22 @@
     <t xml:space="preserve">34.6230926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8353805541992</t>
+    <t xml:space="preserve">34.8353843688965</t>
   </si>
   <si>
     <t xml:space="preserve">34.3515586853027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8430519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1414756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.257755279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4848556518555</t>
+    <t xml:space="preserve">33.8430442810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1414794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2577590942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4848518371582</t>
   </si>
   <si>
     <t xml:space="preserve">35.2105941772461</t>
@@ -4835,13 +4835,13 @@
     <t xml:space="preserve">36.4744606018066</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4547157287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2402076721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.403133392334</t>
+    <t xml:space="preserve">36.4547119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2402114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4031372070312</t>
   </si>
   <si>
     <t xml:space="preserve">35.3142700195312</t>
@@ -4853,10 +4853,10 @@
     <t xml:space="preserve">35.3991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3150405883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4623641967773</t>
+    <t xml:space="preserve">35.3150329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4623680114746</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765007019043</t>
@@ -4877,31 +4877,31 @@
     <t xml:space="preserve">31.4675197601318</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8977718353271</t>
+    <t xml:space="preserve">31.8977661132812</t>
   </si>
   <si>
     <t xml:space="preserve">32.3428573608398</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0935173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930061340332</t>
+    <t xml:space="preserve">34.0935249328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930023193359</t>
   </si>
   <si>
     <t xml:space="preserve">35.1419448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2923698425293</t>
+    <t xml:space="preserve">33.292366027832</t>
   </si>
   <si>
     <t xml:space="preserve">32.6544151306152</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6554470062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4081745147705</t>
+    <t xml:space="preserve">31.655445098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4081726074219</t>
   </si>
   <si>
     <t xml:space="preserve">32.1499862670898</t>
@@ -4910,22 +4910,22 @@
     <t xml:space="preserve">31.6455554962158</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2241706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4467010498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1885108947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6978912353516</t>
+    <t xml:space="preserve">32.2241668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4516563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4467086791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1885147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9857482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6978874206543</t>
   </si>
   <si>
     <t xml:space="preserve">34.8155517578125</t>
@@ -4934,16 +4934,16 @@
     <t xml:space="preserve">34.5484962463379</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1450424194336</t>
+    <t xml:space="preserve">32.1450386047363</t>
   </si>
   <si>
     <t xml:space="preserve">31.4477386474609</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2548694610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.462574005127</t>
+    <t xml:space="preserve">31.2548656463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4625759124756</t>
   </si>
   <si>
     <t xml:space="preserve">31.0619983673096</t>
@@ -4958,13 +4958,13 @@
     <t xml:space="preserve">31.7494068145752</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1341171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8176116943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4782257080078</t>
+    <t xml:space="preserve">33.1341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8176155090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
     <t xml:space="preserve">36.5909423828125</t>
@@ -4973,28 +4973,28 @@
     <t xml:space="preserve">37.2486801147461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2744369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2942199707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5761108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5316047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.571159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9766845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0162506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7689819335938</t>
+    <t xml:space="preserve">36.2744407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2942237854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5761070251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5316009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5711631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9766807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0162467956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7689781188965</t>
   </si>
   <si>
     <t xml:space="preserve">35.9727668762207</t>
@@ -5003,34 +5003,34 @@
     <t xml:space="preserve">35.3545951843262</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6513214111328</t>
+    <t xml:space="preserve">35.6513175964355</t>
   </si>
   <si>
     <t xml:space="preserve">36.4772033691406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2991638183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2497177124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8244132995605</t>
+    <t xml:space="preserve">36.2991676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2497138977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.824405670166</t>
   </si>
   <si>
     <t xml:space="preserve">35.3100891113281</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0222206115723</t>
+    <t xml:space="preserve">36.0222244262695</t>
   </si>
   <si>
     <t xml:space="preserve">36.4870910644531</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1403465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3985252380371</t>
+    <t xml:space="preserve">36.1403503417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3985214233398</t>
   </si>
   <si>
     <t xml:space="preserve">36.8883209228516</t>
@@ -5039,37 +5039,37 @@
     <t xml:space="preserve">35.0604972839355</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6047821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3125228881836</t>
+    <t xml:space="preserve">34.6047782897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3125190734863</t>
   </si>
   <si>
     <t xml:space="preserve">34.2085037231445</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8078689575195</t>
+    <t xml:space="preserve">34.8078727722168</t>
   </si>
   <si>
     <t xml:space="preserve">33.5596008300781</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2970695495605</t>
+    <t xml:space="preserve">33.2970733642578</t>
   </si>
   <si>
     <t xml:space="preserve">32.9206047058105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5144233703613</t>
+    <t xml:space="preserve">32.5144271850586</t>
   </si>
   <si>
     <t xml:space="preserve">33.2079086303711</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6977081298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1286506652832</t>
+    <t xml:space="preserve">32.6977043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1286544799805</t>
   </si>
   <si>
     <t xml:space="preserve">33.2376289367676</t>
@@ -5078,46 +5078,46 @@
     <t xml:space="preserve">34.0896224975586</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2580413818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1149826049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9477577209473</t>
+    <t xml:space="preserve">34.2580375671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1149864196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9477615356445</t>
   </si>
   <si>
     <t xml:space="preserve">36.7743911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0072059631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1013221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4975891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6115264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3892097473145</t>
+    <t xml:space="preserve">37.0071983337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1013145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4975929260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6115226745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.389217376709</t>
   </si>
   <si>
     <t xml:space="preserve">39.1421356201172</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6709671020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7105903625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6963310241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7409057617188</t>
+    <t xml:space="preserve">37.6709632873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7105865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6963272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7409019470215</t>
   </si>
   <si>
     <t xml:space="preserve">39.0678405761719</t>
@@ -5129,19 +5129,19 @@
     <t xml:space="preserve">43.2534980773926</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1891059875488</t>
+    <t xml:space="preserve">43.1891021728516</t>
   </si>
   <si>
     <t xml:space="preserve">42.7086181640625</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7934265136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1011390686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6905975341797</t>
+    <t xml:space="preserve">43.7934188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1011352539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6905937194824</t>
   </si>
   <si>
     <t xml:space="preserve">44.6900024414062</t>
@@ -5150,7 +5150,7 @@
     <t xml:space="preserve">44.8485069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7940139770508</t>
+    <t xml:space="preserve">44.7940216064453</t>
   </si>
   <si>
     <t xml:space="preserve">45.7302207946777</t>
@@ -5162,64 +5162,64 @@
     <t xml:space="preserve">44.9277648925781</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1853408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7500381469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0670547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4875030517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9773025512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6057891845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.184741973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.813835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1996078491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1358070373535</t>
+    <t xml:space="preserve">45.1853446960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7500419616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0670585632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4874992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.977294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6057929992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1847457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8138313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1996116638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1358108520508</t>
   </si>
   <si>
     <t xml:space="preserve">45.2695503234863</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8033332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8930892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3785247802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.571117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5871658325195</t>
+    <t xml:space="preserve">43.8033294677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8930854797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3785209655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5711135864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5871696472168</t>
   </si>
   <si>
     <t xml:space="preserve">45.8193855285645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9766960144043</t>
+    <t xml:space="preserve">43.9767036437988</t>
   </si>
   <si>
     <t xml:space="preserve">45.4478759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6943511962891</t>
+    <t xml:space="preserve">43.6943550109863</t>
   </si>
   <si>
     <t xml:space="preserve">44.8534622192383</t>
@@ -5237,43 +5237,43 @@
     <t xml:space="preserve">46.8173980712891</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0466766357422</t>
+    <t xml:space="preserve">45.0466804504395</t>
   </si>
   <si>
     <t xml:space="preserve">45.4682769775391</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1737213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9662017822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2012367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5583572387695</t>
+    <t xml:space="preserve">44.1737251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9661979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2012329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5583534240723</t>
   </si>
   <si>
     <t xml:space="preserve">47.9581985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1844367980957</t>
+    <t xml:space="preserve">47.184440612793</t>
   </si>
   <si>
     <t xml:space="preserve">45.3095626831055</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5823631286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0833206176758</t>
+    <t xml:space="preserve">45.5823593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.083324432373</t>
   </si>
   <si>
     <t xml:space="preserve">45.2798004150391</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9791603088379</t>
+    <t xml:space="preserve">45.9791564941406</t>
   </si>
   <si>
     <t xml:space="preserve">45.7609214782715</t>
@@ -5282,49 +5282,49 @@
     <t xml:space="preserve">45.3789978027344</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6716384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.709400177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0378799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8593254089355</t>
+    <t xml:space="preserve">45.6716461181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7093963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0378761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8593215942383</t>
   </si>
   <si>
     <t xml:space="preserve">42.0806007385254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.544921875</t>
+    <t xml:space="preserve">41.5449256896973</t>
   </si>
   <si>
     <t xml:space="preserve">41.9615631103516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3010864257812</t>
+    <t xml:space="preserve">38.301082611084</t>
   </si>
   <si>
     <t xml:space="preserve">38.2465286254883</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8268432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1572494506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2743682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2514877319336</t>
+    <t xml:space="preserve">38.8268508911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1572456359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2743644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2514915466309</t>
   </si>
   <si>
     <t xml:space="preserve">38.4002838134766</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3110008239746</t>
+    <t xml:space="preserve">38.3110084533691</t>
   </si>
   <si>
     <t xml:space="preserve">38.8516426086426</t>
@@ -5336,40 +5336,40 @@
     <t xml:space="preserve">38.6334037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4548416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1690902709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4270057678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2076416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4705276489258</t>
+    <t xml:space="preserve">38.4548377990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1690864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4270095825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8207626342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2076454162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4705238342285</t>
   </si>
   <si>
     <t xml:space="preserve">41.1878051757812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9558029174805</t>
+    <t xml:space="preserve">38.955810546875</t>
   </si>
   <si>
     <t xml:space="preserve">38.8466835021973</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3594856262207</t>
+    <t xml:space="preserve">40.3594818115234</t>
   </si>
   <si>
     <t xml:space="preserve">39.8337249755859</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3495635986328</t>
+    <t xml:space="preserve">40.3495674133301</t>
   </si>
   <si>
     <t xml:space="preserve">40.2454071044922</t>
@@ -5381,7 +5381,7 @@
     <t xml:space="preserve">41.6639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2374076843262</t>
+    <t xml:space="preserve">41.2374038696289</t>
   </si>
   <si>
     <t xml:space="preserve">41.4209251403809</t>
@@ -5390,13 +5390,13 @@
     <t xml:space="preserve">42.7551612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2164421081543</t>
+    <t xml:space="preserve">43.216438293457</t>
   </si>
   <si>
     <t xml:space="preserve">43.7273254394531</t>
   </si>
   <si>
-    <t xml:space="preserve">45.066520690918</t>
+    <t xml:space="preserve">45.0665168762207</t>
   </si>
   <si>
     <t xml:space="preserve">45.2748413085938</t>
@@ -5405,10 +5405,10 @@
     <t xml:space="preserve">45.8005981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1210823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2550010681152</t>
+    <t xml:space="preserve">45.1210784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.254997253418</t>
   </si>
   <si>
     <t xml:space="preserve">44.6201210021973</t>
@@ -5420,40 +5420,40 @@
     <t xml:space="preserve">43.2065238952637</t>
   </si>
   <si>
-    <t xml:space="preserve">43.360279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3037986755371</t>
+    <t xml:space="preserve">43.3602867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3038024902344</t>
   </si>
   <si>
     <t xml:space="preserve">43.2276611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8054656982422</t>
+    <t xml:space="preserve">42.8054695129395</t>
   </si>
   <si>
     <t xml:space="preserve">44.0422477722168</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3104667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2591552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4727439880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2442588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0753784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7409019470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5157470703125</t>
+    <t xml:space="preserve">44.3104629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2591590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4727401733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.244255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.075382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7408981323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5157432556152</t>
   </si>
   <si>
     <t xml:space="preserve">43.8038368225098</t>
@@ -5468,25 +5468,25 @@
     <t xml:space="preserve">46.8336944580078</t>
   </si>
   <si>
-    <t xml:space="preserve">47.012508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4959411621094</t>
+    <t xml:space="preserve">47.0125045776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4959373474121</t>
   </si>
   <si>
     <t xml:space="preserve">46.4710998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6201095581055</t>
+    <t xml:space="preserve">46.6201133728027</t>
   </si>
   <si>
     <t xml:space="preserve">45.924732208252</t>
   </si>
   <si>
-    <t xml:space="preserve">45.428035736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3336639404297</t>
+    <t xml:space="preserve">45.4280319213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3336601257324</t>
   </si>
   <si>
     <t xml:space="preserve">46.4561996459961</t>
@@ -5495,25 +5495,25 @@
     <t xml:space="preserve">46.0091705322266</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1466674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0903434753418</t>
+    <t xml:space="preserve">50.146671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0903396606445</t>
   </si>
   <si>
     <t xml:space="preserve">48.3188171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">48.219482421875</t>
+    <t xml:space="preserve">48.2194786071777</t>
   </si>
   <si>
     <t xml:space="preserve">47.5837097167969</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2724227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1200790405273</t>
+    <t xml:space="preserve">46.2724266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1200828552246</t>
   </si>
   <si>
     <t xml:space="preserve">44.6680870056152</t>
@@ -5525,7 +5525,7 @@
     <t xml:space="preserve">43.8634338378906</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1912574768066</t>
+    <t xml:space="preserve">44.1912612915039</t>
   </si>
   <si>
     <t xml:space="preserve">42.8452033996582</t>
@@ -5534,7 +5534,7 @@
     <t xml:space="preserve">43.2624320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">42.810432434082</t>
+    <t xml:space="preserve">42.8104362487793</t>
   </si>
   <si>
     <t xml:space="preserve">42.0206832885742</t>
@@ -5543,7 +5543,7 @@
     <t xml:space="preserve">41.8518104553223</t>
   </si>
   <si>
-    <t xml:space="preserve">42.283935546875</t>
+    <t xml:space="preserve">42.2839317321777</t>
   </si>
   <si>
     <t xml:space="preserve">43.3269996643066</t>
@@ -5555,28 +5555,28 @@
     <t xml:space="preserve">42.2044639587402</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1498260498047</t>
+    <t xml:space="preserve">42.149829864502</t>
   </si>
   <si>
     <t xml:space="preserve">42.8948707580566</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8137626647949</t>
+    <t xml:space="preserve">43.8137664794922</t>
   </si>
   <si>
     <t xml:space="preserve">43.3667373657227</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3766670227051</t>
+    <t xml:space="preserve">43.3766708374023</t>
   </si>
   <si>
     <t xml:space="preserve">43.2375946044922</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2028274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1829566955566</t>
+    <t xml:space="preserve">43.2028312683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1829605102539</t>
   </si>
   <si>
     <t xml:space="preserve">42.5620880126953</t>
@@ -5585,16 +5585,16 @@
     <t xml:space="preserve">40.8335762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1216583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8137092590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0074195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0620574951172</t>
+    <t xml:space="preserve">41.1216621398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8137054443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0074157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0620536804199</t>
   </si>
   <si>
     <t xml:space="preserve">41.4792861938477</t>
@@ -5612,28 +5612,28 @@
     <t xml:space="preserve">40.4900321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1617279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0473289489746</t>
+    <t xml:space="preserve">40.1617317199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0473251342773</t>
   </si>
   <si>
     <t xml:space="preserve">40.1368637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5200614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6046257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.305980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7735595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8431968688965</t>
+    <t xml:space="preserve">39.5200576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.604621887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3059844970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7735633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8432006835938</t>
   </si>
   <si>
     <t xml:space="preserve">40.1667060852051</t>
@@ -5657,7 +5657,7 @@
     <t xml:space="preserve">42.1663360595703</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2309989929199</t>
+    <t xml:space="preserve">42.2310028076172</t>
   </si>
   <si>
     <t xml:space="preserve">40.9377098083496</t>
@@ -5675,10 +5675,10 @@
     <t xml:space="preserve">38.7490577697754</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5353546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.624885559082</t>
+    <t xml:space="preserve">37.5353507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6248893737793</t>
   </si>
   <si>
     <t xml:space="preserve">37.2418746948242</t>
@@ -5687,31 +5687,31 @@
     <t xml:space="preserve">36.9334716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7689552307129</t>
+    <t xml:space="preserve">38.7689590454102</t>
   </si>
   <si>
     <t xml:space="preserve">37.321460723877</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0731201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7844314575195</t>
+    <t xml:space="preserve">35.0731239318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7844352722168</t>
   </si>
   <si>
     <t xml:space="preserve">35.9585304260254</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5453033447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2367134094238</t>
+    <t xml:space="preserve">37.5452995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2367172241211</t>
   </si>
   <si>
     <t xml:space="preserve">37.8934936523438</t>
   </si>
   <si>
-    <t xml:space="preserve">38.112361907959</t>
+    <t xml:space="preserve">38.1123580932617</t>
   </si>
   <si>
     <t xml:space="preserve">38.0974388122559</t>
@@ -5726,7 +5726,7 @@
     <t xml:space="preserve">38.4754753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9378967285156</t>
+    <t xml:space="preserve">39.9378929138184</t>
   </si>
   <si>
     <t xml:space="preserve">42.0817756652832</t>
@@ -5735,10 +5735,10 @@
     <t xml:space="preserve">41.5644569396973</t>
   </si>
   <si>
-    <t xml:space="preserve">41.693790435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9922370910645</t>
+    <t xml:space="preserve">41.6937866210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9922409057617</t>
   </si>
   <si>
     <t xml:space="preserve">41.1913909912109</t>
@@ -5750,19 +5750,19 @@
     <t xml:space="preserve">41.3804130554199</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5893325805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3953399658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.604248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8279037475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2258453369141</t>
+    <t xml:space="preserve">41.5893287658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.395336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6042518615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8279075622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2258415222168</t>
   </si>
   <si>
     <t xml:space="preserve">43.5143508911133</t>
@@ -5777,16 +5777,16 @@
     <t xml:space="preserve">44.3400650024414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6138343811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1659698486328</t>
+    <t xml:space="preserve">43.6138305664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1659660339355</t>
   </si>
   <si>
     <t xml:space="preserve">44.3402976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3652038574219</t>
+    <t xml:space="preserve">44.3652076721191</t>
   </si>
   <si>
     <t xml:space="preserve">44.0862731933594</t>
@@ -5801,10 +5801,10 @@
     <t xml:space="preserve">45.3165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">45.640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6801719665527</t>
+    <t xml:space="preserve">45.6403198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6801681518555</t>
   </si>
   <si>
     <t xml:space="preserve">45.3564109802246</t>
@@ -5816,13 +5816,13 @@
     <t xml:space="preserve">45.5058403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0376319885254</t>
+    <t xml:space="preserve">45.0376281738281</t>
   </si>
   <si>
     <t xml:space="preserve">44.4000701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8460159301758</t>
+    <t xml:space="preserve">42.846019744873</t>
   </si>
   <si>
     <t xml:space="preserve">41.1923446655273</t>
@@ -5840,10 +5840,10 @@
     <t xml:space="preserve">40.1463508605957</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7727813720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5685653686523</t>
+    <t xml:space="preserve">39.772777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5685615539551</t>
   </si>
   <si>
     <t xml:space="preserve">39.4938468933105</t>
@@ -5861,7 +5861,7 @@
     <t xml:space="preserve">40.3655128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4065284729004</t>
+    <t xml:space="preserve">41.4065246582031</t>
   </si>
   <si>
     <t xml:space="preserve">42.1686134338379</t>
@@ -5870,13 +5870,13 @@
     <t xml:space="preserve">42.4525260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2483062744141</t>
+    <t xml:space="preserve">42.2483024597168</t>
   </si>
   <si>
     <t xml:space="preserve">41.122615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7888946533203</t>
+    <t xml:space="preserve">40.788890838623</t>
   </si>
   <si>
     <t xml:space="preserve">40.9432983398438</t>
@@ -5888,7 +5888,7 @@
     <t xml:space="preserve">40.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0367698669434</t>
+    <t xml:space="preserve">40.0367660522461</t>
   </si>
   <si>
     <t xml:space="preserve">41.0479011535645</t>
@@ -5900,19 +5900,19 @@
     <t xml:space="preserve">40.2708740234375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6954231262207</t>
+    <t xml:space="preserve">41.6954193115234</t>
   </si>
   <si>
     <t xml:space="preserve">42.5372009277344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0402755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4912071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5559577941895</t>
+    <t xml:space="preserve">43.0402793884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4912033081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5559539794922</t>
   </si>
   <si>
     <t xml:space="preserve">41.9992561340332</t>
@@ -5921,10 +5921,10 @@
     <t xml:space="preserve">42.3977355957031</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5659141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7789306640625</t>
+    <t xml:space="preserve">41.56591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7789344787598</t>
   </si>
   <si>
     <t xml:space="preserve">40.8237571716309</t>
@@ -5933,25 +5933,25 @@
     <t xml:space="preserve">42.0789566040039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3716583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1823844909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8908462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5161056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5808601379395</t>
+    <t xml:space="preserve">41.3716621398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1823883056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8908500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5161094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5808639526367</t>
   </si>
   <si>
     <t xml:space="preserve">43.1149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7463989257812</t>
+    <t xml:space="preserve">42.7464027404785</t>
   </si>
   <si>
     <t xml:space="preserve">42.253288269043</t>
@@ -5966,7 +5966,7 @@
     <t xml:space="preserve">43.2843437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3988990783691</t>
+    <t xml:space="preserve">43.3989028930664</t>
   </si>
   <si>
     <t xml:space="preserve">44.1510238647461</t>
@@ -5978,7 +5978,7 @@
     <t xml:space="preserve">42.721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2620811462402</t>
+    <t xml:space="preserve">41.262077331543</t>
   </si>
   <si>
     <t xml:space="preserve">41.137378692627</t>
@@ -6243,6 +6243,9 @@
   </si>
   <si>
     <t xml:space="preserve">30.7049999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0400009155273</t>
   </si>
 </sst>
 </file>
@@ -63290,7 +63293,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6519212963</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>6667806</v>
@@ -63311,6 +63314,32 @@
         <v>2076</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6497222222</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>3411745</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>31.6800003051758</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>30.9899997711182</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>31.3349990844727</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>31.0400009155273</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="2096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="2097">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35176801681519</t>
+    <t xml:space="preserve">5.35176658630371</t>
   </si>
   <si>
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391805648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2454400062561</t>
+    <t xml:space="preserve">5.37391948699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24544143676758</t>
   </si>
   <si>
     <t xml:space="preserve">5.17455720901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94418287277222</t>
+    <t xml:space="preserve">4.94418096542358</t>
   </si>
   <si>
     <t xml:space="preserve">5.06380033493042</t>
@@ -62,181 +62,181 @@
     <t xml:space="preserve">5.08152198791504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01506662368774</t>
+    <t xml:space="preserve">5.01506614685059</t>
   </si>
   <si>
     <t xml:space="preserve">4.89545011520386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64735555648804</t>
+    <t xml:space="preserve">4.64735460281372</t>
   </si>
   <si>
     <t xml:space="preserve">4.72709941864014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91760015487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86000823974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99291610717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1568341255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18784761428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32075595855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55555868148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39607191085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32518577575684</t>
+    <t xml:space="preserve">4.91760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86000728607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99291563034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683555603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1878490447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3207540512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55556011199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39607095718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32518625259399</t>
   </si>
   <si>
     <t xml:space="preserve">5.16126537322998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74925184249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5676097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078056335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24951648712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13787364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29559183120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25128841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40900611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63849449157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60305213928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80241346359253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279790878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45242166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52773571014404</t>
+    <t xml:space="preserve">4.70937871932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7492504119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56760883331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103670120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24951601028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13787317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20698595046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2955904006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25128793716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4090051651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63849306106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60305261611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.802414894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279600143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45242261886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52773761749268</t>
   </si>
   <si>
     <t xml:space="preserve">4.64292478561401</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6960883140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78469324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82899522781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75810956954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73596143722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57203912734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74039077758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62963342666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54988813400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53659772872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50225687026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42815208435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47153043746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42995977401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41911602020264</t>
+    <t xml:space="preserve">4.69608736038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78469133377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79355430603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811147689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73596048355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66064500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57203960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74039030075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62963247299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178394317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54988861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53659677505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50225734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42815399169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4715313911438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42996072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41911649703979</t>
   </si>
   <si>
     <t xml:space="preserve">4.43176746368408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40284967422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34139776229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43357515335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17692470550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14800405502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32693815231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49321889877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34501314163208</t>
+    <t xml:space="preserve">4.40285015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34140014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43357610702515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17692232131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14800500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32693862915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49321937561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34501218795776</t>
   </si>
   <si>
     <t xml:space="preserve">4.52756071090698</t>
@@ -245,25 +245,25 @@
     <t xml:space="preserve">4.63600540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55467128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926452636719</t>
+    <t xml:space="preserve">4.5546727180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926404953003</t>
   </si>
   <si>
     <t xml:space="preserve">4.65407991409302</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67667150497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66763544082642</t>
+    <t xml:space="preserve">4.67667293548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66763496398926</t>
   </si>
   <si>
     <t xml:space="preserve">4.58178329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15111684799194</t>
+    <t xml:space="preserve">5.15111637115479</t>
   </si>
   <si>
     <t xml:space="preserve">5.08334016799927</t>
@@ -272,91 +272,91 @@
     <t xml:space="preserve">4.8528938293457</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75800466537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55015230178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41188716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36308670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26006460189819</t>
+    <t xml:space="preserve">4.75800514221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55015277862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41188621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26006412506104</t>
   </si>
   <si>
     <t xml:space="preserve">4.31428623199463</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26910161972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19499826431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22210788726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26729583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28355979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64052534103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67215251922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79867219924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83933925628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88904190063477</t>
+    <t xml:space="preserve">4.26910018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19499683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22210931777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26729345321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28356122970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64052295684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67215490341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79867124557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83933877944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88904285430908</t>
   </si>
   <si>
     <t xml:space="preserve">4.90259790420532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91163396835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84385633468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81674528121948</t>
+    <t xml:space="preserve">4.91163444519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84385776519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8167462348938</t>
   </si>
   <si>
     <t xml:space="preserve">4.82126522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79415416717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00200462341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86644983291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5772647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49502658843994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46068668365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44803333282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54111480712891</t>
+    <t xml:space="preserve">4.79415321350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00200605392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86645126342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57726430892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49502611160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46068620681763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44803524017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5411171913147</t>
   </si>
   <si>
     <t xml:space="preserve">4.70117473602295</t>
@@ -365,97 +365,97 @@
     <t xml:space="preserve">4.75605249404907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82464981079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96641731262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65544414520264</t>
+    <t xml:space="preserve">4.82464933395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96641874313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65544366836548</t>
   </si>
   <si>
     <t xml:space="preserve">4.55849456787109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67373657226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79263782501221</t>
+    <t xml:space="preserve">4.67373704910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79263925552368</t>
   </si>
   <si>
     <t xml:space="preserve">4.82007694244385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71946811676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57312870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42130041122437</t>
+    <t xml:space="preserve">4.71946716308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57312822341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42129945755005</t>
   </si>
   <si>
     <t xml:space="preserve">4.48349380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87952613830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9435510635376</t>
+    <t xml:space="preserve">4.87952756881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355297088623</t>
   </si>
   <si>
     <t xml:space="preserve">4.92525911331177</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95727014541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04873275756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617092132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18592691421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22251272201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.309401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799882888794</t>
+    <t xml:space="preserve">4.95727109909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04873466491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1859278678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2225136756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708511352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30940103530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37799835205078</t>
   </si>
   <si>
     <t xml:space="preserve">5.94049310684204</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89933443069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96335935592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.945068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71640920639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76671409606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97250509262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08225917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09598016738892</t>
+    <t xml:space="preserve">5.89933586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96335983276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94506645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71640968322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76671457290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97250461578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08225870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09597826004028</t>
   </si>
   <si>
     <t xml:space="preserve">6.00451707839966</t>
@@ -467,13 +467,13 @@
     <t xml:space="preserve">6.06396770477295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99079895019531</t>
+    <t xml:space="preserve">5.990797996521</t>
   </si>
   <si>
     <t xml:space="preserve">6.18286895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15542984008789</t>
+    <t xml:space="preserve">6.15543031692505</t>
   </si>
   <si>
     <t xml:space="preserve">6.12799119949341</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">6.228600025177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1874418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21945285797119</t>
+    <t xml:space="preserve">6.18744230270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21945428848267</t>
   </si>
   <si>
     <t xml:space="preserve">6.16914939880371</t>
@@ -497,73 +497,73 @@
     <t xml:space="preserve">6.24689292907715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13713788986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11884546279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95421171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96793270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04567575454712</t>
+    <t xml:space="preserve">6.13713836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11884498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95421361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.967933177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04567623138428</t>
   </si>
   <si>
     <t xml:space="preserve">6.19658899307251</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2103066444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30634355545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26975870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47275304794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56502246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63422536849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68958806991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63883972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886457443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59270334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6757493019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45891427993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66652059555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113399505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75879096984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85567569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92949104309082</t>
+    <t xml:space="preserve">6.21030807495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30634307861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26975727081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275352478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56502389907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63422632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68958711624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63884019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886362075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59270524978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574787139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45891237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66651916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113447189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75878953933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85567331314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92949151992798</t>
   </si>
   <si>
     <t xml:space="preserve">6.72188138961792</t>
@@ -572,124 +572,124 @@
     <t xml:space="preserve">6.54195547103882</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68036079406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77724504470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89258193969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75417709350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82799339294434</t>
+    <t xml:space="preserve">6.68036127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77724409103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89258146286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75417757034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82799434661865</t>
   </si>
   <si>
     <t xml:space="preserve">6.85106134414673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36316013336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76914930343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02750682830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71378469467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53386163711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48311138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46465730667114</t>
+    <t xml:space="preserve">7.36315965652466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76915168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02750587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71378517150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.533860206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4831109046936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46466016769409</t>
   </si>
   <si>
     <t xml:space="preserve">7.80605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91677856445312</t>
+    <t xml:space="preserve">7.91678237915039</t>
   </si>
   <si>
     <t xml:space="preserve">7.66765308380127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62613201141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78760147094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89371347427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436431884766</t>
+    <t xml:space="preserve">7.6261305809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7876033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89371538162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216802597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436336517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.29508590698242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55805587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65955638885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62726211547852</t>
+    <t xml:space="preserve">8.55805778503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65955543518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62726593017578</t>
   </si>
   <si>
     <t xml:space="preserve">8.53499031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5257625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60880947113037</t>
+    <t xml:space="preserve">8.52576160430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60880374908447</t>
   </si>
   <si>
     <t xml:space="preserve">8.90407180786133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68262386322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58112621307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81641674041748</t>
+    <t xml:space="preserve">8.68262577056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58112716674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81641387939453</t>
   </si>
   <si>
     <t xml:space="preserve">8.93175315856934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92252826690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3469705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21317863464355</t>
+    <t xml:space="preserve">8.92252635955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34696865081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21317768096924</t>
   </si>
   <si>
     <t xml:space="preserve">9.11629486083984</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29160594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315139770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43001270294189</t>
+    <t xml:space="preserve">9.29160976409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315330505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001174926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.62378025054932</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">9.73514461517334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89290809631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931484222412</t>
+    <t xml:space="preserve">9.89291191101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93931293487549</t>
   </si>
   <si>
     <t xml:space="preserve">9.86507034301758</t>
@@ -713,61 +713,61 @@
     <t xml:space="preserve">10.0599584579468</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0413980484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0228357315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0321159362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79082679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67946529388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65161991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47529220581055</t>
+    <t xml:space="preserve">10.0413951873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.022837638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0321178436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79082298278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67946434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65162086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4752950668335</t>
   </si>
   <si>
     <t xml:space="preserve">9.76298522949219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93003177642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0042753219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87435054779053</t>
+    <t xml:space="preserve">9.93003082275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0042743682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87434959411621</t>
   </si>
   <si>
     <t xml:space="preserve">10.1898832321167</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063604354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0692377090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2455673217773</t>
+    <t xml:space="preserve">10.1063585281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.069239616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2455654144287</t>
   </si>
   <si>
     <t xml:space="preserve">10.3754949569702</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2200059890747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6283483505249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819444656372</t>
+    <t xml:space="preserve">11.2200117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6283464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819463729858</t>
   </si>
   <si>
     <t xml:space="preserve">11.3035316467285</t>
@@ -776,223 +776,223 @@
     <t xml:space="preserve">11.6933107376099</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2779760360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336591720581</t>
+    <t xml:space="preserve">12.2779741287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336572647095</t>
   </si>
   <si>
     <t xml:space="preserve">12.2130136489868</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4079008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1016464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9253187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0088424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0459661483765</t>
+    <t xml:space="preserve">12.4079027175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1016492843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9253196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0088443756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0459642410278</t>
   </si>
   <si>
     <t xml:space="preserve">12.185170173645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3986225128174</t>
+    <t xml:space="preserve">12.3986206054688</t>
   </si>
   <si>
     <t xml:space="preserve">12.3429374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6027870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7605571746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224927902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2431392669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1410531997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4565868377686</t>
+    <t xml:space="preserve">12.6027879714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7605562210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224937438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2431373596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.141056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4565858840942</t>
   </si>
   <si>
     <t xml:space="preserve">13.3545036315918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6329154968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514759063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6885986328125</t>
+    <t xml:space="preserve">13.6329145431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514739990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885957717896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823442459106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5122709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.72571849823</t>
+    <t xml:space="preserve">13.5122690200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7257204055786</t>
   </si>
   <si>
     <t xml:space="preserve">13.1781730651855</t>
   </si>
   <si>
-    <t xml:space="preserve">13.206015586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524175643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4101848602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.438027381897</t>
+    <t xml:space="preserve">13.2060165405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524156570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4101829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4380254745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4937076568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.363245010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7947940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9811687469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141418457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825946807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3818826675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657487869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456431388855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3911981582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446092605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2607374191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3352861404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.67076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.586895942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.09299659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9998092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9532146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5804586410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7295637130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7388801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582279205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7266798019409</t>
   </si>
   <si>
     <t xml:space="preserve">13.493709564209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.363245010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.794792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9811716079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3818855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657487869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564342498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3911991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446054458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259716033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2607345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3352870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.67076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.586895942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.09299659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9998083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9532136917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5804605484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7295598983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388782501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582298278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7266817092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4937105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8291873931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8012313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155620574951</t>
+    <t xml:space="preserve">13.8291864395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807971954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801233291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155658721924</t>
   </si>
   <si>
     <t xml:space="preserve">14.1367101669312</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3603601455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.034200668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3230886459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6521291732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5216674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4471139907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.540301322937</t>
+    <t xml:space="preserve">14.3603610992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0342025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858114242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3230848312378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6521263122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5216636657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.447114944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.54030418396</t>
   </si>
   <si>
     <t xml:space="preserve">13.7173614501953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6987209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.503026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7919101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775756835938</t>
+    <t xml:space="preserve">13.6987237930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5030288696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7919120788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775766372681</t>
   </si>
   <si>
     <t xml:space="preserve">13.5123453140259</t>
@@ -1001,31 +1001,31 @@
     <t xml:space="preserve">14.024884223938</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833038330078</t>
+    <t xml:space="preserve">14.1833019256592</t>
   </si>
   <si>
     <t xml:space="preserve">14.295129776001</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1302709579468</t>
+    <t xml:space="preserve">13.1302719116211</t>
   </si>
   <si>
     <t xml:space="preserve">12.9252586364746</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5990962982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6456909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0277671813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041143417358</t>
+    <t xml:space="preserve">12.5990982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6456918716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0277643203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922845840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041133880615</t>
   </si>
   <si>
     <t xml:space="preserve">12.5338640213013</t>
@@ -1034,79 +1034,79 @@
     <t xml:space="preserve">12.4872703552246</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1315622329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9911499023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009658813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7758512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8601007461548</t>
+    <t xml:space="preserve">12.1315612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9911508560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.700966835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7758522033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8601026535034</t>
   </si>
   <si>
     <t xml:space="preserve">11.7196884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0379552841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1596441268921</t>
+    <t xml:space="preserve">12.0379543304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1596460342407</t>
   </si>
   <si>
     <t xml:space="preserve">12.3094167709351</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5715188980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5247135162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9365882873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9553098678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9740333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7680931091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2454948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297414779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4139881134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6854496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6667308807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3203792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5075950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4514312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5731210708618</t>
+    <t xml:space="preserve">12.5715179443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5247144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9365873336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9553108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9740304946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7680950164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518850326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297395706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4139890670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6854515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6667289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3203802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5075969696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4514293670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5731201171875</t>
   </si>
   <si>
     <t xml:space="preserve">13.7322549819946</t>
@@ -1115,175 +1115,175 @@
     <t xml:space="preserve">13.6386451721191</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7228918075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8726654052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4420738220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676412582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3859071731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4795141220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2829360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706056594849</t>
+    <t xml:space="preserve">13.7228937149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8726644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4420700073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676422119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3859052658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2829370498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706047058105</t>
   </si>
   <si>
     <t xml:space="preserve">13.5263147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51695728302</t>
+    <t xml:space="preserve">13.5169544219971</t>
   </si>
   <si>
     <t xml:space="preserve">13.4233503341675</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4888715744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.198691368103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2922954559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6480054855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8071413040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9849939346313</t>
+    <t xml:space="preserve">13.4888734817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2922964096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.648006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8071422576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.98499584198</t>
   </si>
   <si>
     <t xml:space="preserve">14.0317983627319</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1160478591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4717569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840864181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.790020942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7338571548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7432174682617</t>
+    <t xml:space="preserve">14.1160469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4717559814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840845108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7900238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7338562011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.743218421936</t>
   </si>
   <si>
     <t xml:space="preserve">15.0521230697632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0334005355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4280309677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5689687728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2964878082275</t>
+    <t xml:space="preserve">15.0334014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4280290603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5689611434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2964906692505</t>
   </si>
   <si>
     <t xml:space="preserve">15.3246726989746</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3904438018799</t>
+    <t xml:space="preserve">15.3904466629028</t>
   </si>
   <si>
     <t xml:space="preserve">14.7891082763672</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8360872268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1931324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2307157516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3622589111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9823865890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696327209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850732803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7662811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7944679260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.644136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8226594924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8414497375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884315490723</t>
+    <t xml:space="preserve">14.836088180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1931352615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307138442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3622598648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823846817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696365356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850761413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7662839889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7944688796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8226556777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8414478302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.888427734375</t>
   </si>
   <si>
     <t xml:space="preserve">15.9917831420898</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1139278411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6723213195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8602361679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5461330413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528438568115</t>
+    <t xml:space="preserve">16.1139316558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723232269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8602342605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5461406707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528476715088</t>
   </si>
   <si>
     <t xml:space="preserve">16.6494922637939</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6414165496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1300029754639</t>
+    <t xml:space="preserve">18.6414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071876525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1300010681152</t>
   </si>
   <si>
     <t xml:space="preserve">18.9984607696533</t>
@@ -1292,13 +1292,13 @@
     <t xml:space="preserve">19.355504989624</t>
   </si>
   <si>
-    <t xml:space="preserve">19.205171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6937522888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9662399291992</t>
+    <t xml:space="preserve">19.2051696777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6937580108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9662342071533</t>
   </si>
   <si>
     <t xml:space="preserve">19.7125492095947</t>
@@ -1307,52 +1307,52 @@
     <t xml:space="preserve">19.8816757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8011512756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2333583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8951091766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.270938873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1018180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3273143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7031497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1863784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3461055755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9890651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0172557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7206287384033</t>
+    <t xml:space="preserve">18.8011531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2333602905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8951053619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2709426879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1018161773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273181915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7031517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1863861083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3461112976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9890670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0172500610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7206230163574</t>
   </si>
   <si>
     <t xml:space="preserve">17.9085426330566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2602252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3729801177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6454582214355</t>
+    <t xml:space="preserve">17.2602291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3729763031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6454563140869</t>
   </si>
   <si>
     <t xml:space="preserve">16.9877433776855</t>
@@ -1361,28 +1361,28 @@
     <t xml:space="preserve">17.2132434844971</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2226390838623</t>
+    <t xml:space="preserve">17.2226409912109</t>
   </si>
   <si>
     <t xml:space="preserve">17.4951229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4481449127197</t>
+    <t xml:space="preserve">17.4481410980225</t>
   </si>
   <si>
     <t xml:space="preserve">17.1850605010986</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5055732727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6186904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.345308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.458438873291</t>
+    <t xml:space="preserve">17.5055656433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.618688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3453140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4584369659424</t>
   </si>
   <si>
     <t xml:space="preserve">17.4490089416504</t>
@@ -1391,28 +1391,28 @@
     <t xml:space="preserve">17.4112987518311</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1567802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3735942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9203491210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1748695373535</t>
+    <t xml:space="preserve">17.1567726135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3735980987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9203453063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1748714447021</t>
   </si>
   <si>
     <t xml:space="preserve">18.3162746429443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2408599853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5802249908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482498168945</t>
+    <t xml:space="preserve">18.2408638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.580228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482479095459</t>
   </si>
   <si>
     <t xml:space="preserve">18.8536033630371</t>
@@ -1421,88 +1421,88 @@
     <t xml:space="preserve">18.8347473144531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6462135314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.52366065979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2306709289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.268383026123</t>
+    <t xml:space="preserve">18.6462154388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5236682891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.230676651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683792114258</t>
   </si>
   <si>
     <t xml:space="preserve">19.0609874725342</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9101657867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.72239112854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8543605804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9769058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4011173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3634071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1277351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674854278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4301567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5574188232422</t>
+    <t xml:space="preserve">18.9101619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7223873138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8543663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9769096374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4011135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3634033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1277389526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4301528930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5574150085449</t>
   </si>
   <si>
     <t xml:space="preserve">17.0577907562256</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2887516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2942276000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2046699523926</t>
+    <t xml:space="preserve">17.2887535095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.294225692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2046661376953</t>
   </si>
   <si>
     <t xml:space="preserve">16.468620300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3602085113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8362712860107</t>
+    <t xml:space="preserve">16.3602066040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8362636566162</t>
   </si>
   <si>
     <t xml:space="preserve">17.0153770446777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0295143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9588184356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4065933227539</t>
+    <t xml:space="preserve">17.0295162200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9588108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4065895080566</t>
   </si>
   <si>
     <t xml:space="preserve">17.6893882751465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3688812255859</t>
+    <t xml:space="preserve">17.3688831329346</t>
   </si>
   <si>
     <t xml:space="preserve">17.5904102325439</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">17.7883720397949</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7459545135498</t>
+    <t xml:space="preserve">17.7459526062012</t>
   </si>
   <si>
     <t xml:space="preserve">17.0625114440918</t>
@@ -1529,46 +1529,46 @@
     <t xml:space="preserve">17.5432758331299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7318058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5566577911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6650638580322</t>
+    <t xml:space="preserve">17.7318134307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5566539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.665060043335</t>
   </si>
   <si>
     <t xml:space="preserve">18.8253211975098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3398475646973</t>
+    <t xml:space="preserve">18.3398456573486</t>
   </si>
   <si>
     <t xml:space="preserve">18.2597122192383</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6603527069092</t>
+    <t xml:space="preserve">18.6603546142578</t>
   </si>
   <si>
     <t xml:space="preserve">18.72633934021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4237728118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8256206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2511119842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3292121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5822429656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5916957855225</t>
+    <t xml:space="preserve">18.423770904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8256187438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2511177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3292140960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5822410583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5916976928711</t>
   </si>
   <si>
     <t xml:space="preserve">18.0360984802246</t>
@@ -1577,10 +1577,10 @@
     <t xml:space="preserve">17.0763778686523</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0054626464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.499605178833</t>
+    <t xml:space="preserve">17.0054664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4995994567871</t>
   </si>
   <si>
     <t xml:space="preserve">16.0977516174316</t>
@@ -1589,25 +1589,25 @@
     <t xml:space="preserve">16.5279712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3861408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9014568328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6839847564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065975189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2749462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309501647949</t>
+    <t xml:space="preserve">16.3861389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712390899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9014492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6839866638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5065994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.274938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309539794922</t>
   </si>
   <si>
     <t xml:space="preserve">17.7429847717285</t>
@@ -1619,118 +1619,118 @@
     <t xml:space="preserve">16.8683605194092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6177959442139</t>
+    <t xml:space="preserve">16.6177940368652</t>
   </si>
   <si>
     <t xml:space="preserve">16.8116302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6887130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756629943848</t>
+    <t xml:space="preserve">16.6887092590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756610870361</t>
   </si>
   <si>
     <t xml:space="preserve">17.3505859375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1472911834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425647735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9368133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9510021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1826572418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.816162109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5230503082275</t>
+    <t xml:space="preserve">17.1472988128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9368114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9509983062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.182653427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8161678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5230484008789</t>
   </si>
   <si>
     <t xml:space="preserve">18.7972564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8539848327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187400817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2700214385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3078460693359</t>
+    <t xml:space="preserve">18.8539886474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187419891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2700252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3078441619873</t>
   </si>
   <si>
     <t xml:space="preserve">19.0620059967041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1376495361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0714588165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688903808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0998249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4307632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3362064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1471004486084</t>
+    <t xml:space="preserve">18.9390907287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1376438140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0714569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0998306274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4307613372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3362159729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1471061706543</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267574310303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2605609893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2416572570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1943817138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0264492034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2817459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1020908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8657073974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2061023712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1304664611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0098075866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4447574615479</t>
+    <t xml:space="preserve">19.2605724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2416553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1943778991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0264530181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2817440032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1020946502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8657093048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2061061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1304626464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0098133087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4447555541992</t>
   </si>
   <si>
     <t xml:space="preserve">21.2367362976074</t>
@@ -1739,79 +1739,79 @@
     <t xml:space="preserve">21.0092029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1180152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.918924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4069633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1130638122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1934375762939</t>
+    <t xml:space="preserve">20.1180171966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9189262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1130619049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1934394836426</t>
   </si>
   <si>
     <t xml:space="preserve">18.5963649749756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8049411773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1412887573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7715435028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896011352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539432525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9753875732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0085697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1460361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5252647399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4020099639893</t>
+    <t xml:space="preserve">18.8049430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1412944793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7715492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9896030426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9753799438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0085678100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1460304260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4020137786865</t>
   </si>
   <si>
     <t xml:space="preserve">18.4446754455566</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4873371124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437683105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363147735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604709625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1889038085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7670135498047</t>
+    <t xml:space="preserve">18.4873390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437702178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363109588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604671478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1889095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.767017364502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5396938323975</t>
@@ -1820,16 +1820,16 @@
     <t xml:space="preserve">17.8142108917236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0701904296875</t>
+    <t xml:space="preserve">18.0701866149902</t>
   </si>
   <si>
     <t xml:space="preserve">18.18869972229</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6909599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6577796936035</t>
+    <t xml:space="preserve">17.6909656524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6577777862549</t>
   </si>
   <si>
     <t xml:space="preserve">17.6388187408447</t>
@@ -1838,31 +1838,31 @@
     <t xml:space="preserve">17.7810287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9990844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0417423248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0749320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.98486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0747203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1363410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.975170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4347705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0602874755859</t>
+    <t xml:space="preserve">17.9990825653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0417404174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.07493019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9848556518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0747165679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1363430023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9751682281494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4347724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06028175354</t>
   </si>
   <si>
     <t xml:space="preserve">16.0650215148926</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">16.2830753326416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.126651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1076889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5200958251953</t>
+    <t xml:space="preserve">16.1266460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1076831817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5200939178467</t>
   </si>
   <si>
     <t xml:space="preserve">16.7855587005615</t>
@@ -1886,85 +1886,85 @@
     <t xml:space="preserve">16.7476329803467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8898468017578</t>
+    <t xml:space="preserve">16.8898448944092</t>
   </si>
   <si>
     <t xml:space="preserve">16.7713298797607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7760772705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7950325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3826274871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6241731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3871517181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3539705276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.349232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0790328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4675283432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7946100234985</t>
+    <t xml:space="preserve">16.7760696411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7950401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3826217651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.624174118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3871536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3539714813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3492307662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0790309906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.467529296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7946109771729</t>
   </si>
   <si>
     <t xml:space="preserve">15.0695514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7983274459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8887367248535</t>
+    <t xml:space="preserve">14.7983245849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8887386322021</t>
   </si>
   <si>
     <t xml:space="preserve">14.9268026351929</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4502182006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4692459106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3598079681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6500625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3931159973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1266508102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9172849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2503671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5406265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6024789810181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1932678222656</t>
+    <t xml:space="preserve">15.450216293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4692478179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3598070144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6500635147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3931150436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.126651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9172859191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2503662109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5406246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.602481842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1932668685913</t>
   </si>
   <si>
     <t xml:space="preserve">14.446213722229</t>
@@ -1976,115 +1976,115 @@
     <t xml:space="preserve">14.2701549530029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4469699859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7134342193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.689642906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.113130569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5183439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2756700515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3280096054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5674381256104</t>
+    <t xml:space="preserve">13.4469680786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.713436126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6896457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1131315231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5183420181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2756681442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8759727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.567437171936</t>
   </si>
   <si>
     <t xml:space="preserve">11.4960632324219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5912313461304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2431163787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.262152671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.752254486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662302017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1424350738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6285409927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.790322303772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6332979202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.481032371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3620738983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9385862350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8339061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7530145645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5721969604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6055068969727</t>
+    <t xml:space="preserve">11.5912303924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2431182861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2621517181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7522573471069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662263870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1424407958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6285419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7903232574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6332988739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4810333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3620777130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9385890960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8339052200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7530136108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5721979141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6055030822754</t>
   </si>
   <si>
     <t xml:space="preserve">11.4008979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9433450698853</t>
+    <t xml:space="preserve">11.9433441162109</t>
   </si>
   <si>
     <t xml:space="preserve">11.7625284194946</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8434209823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1765031814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0718221664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3668336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3240089416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0663051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6475734710693</t>
+    <t xml:space="preserve">11.8434190750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1765041351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.109884262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.071816444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3668355941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3240098953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0663061141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6475772857666</t>
   </si>
   <si>
     <t xml:space="preserve">12.2383594512939</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">11.3818655014038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0630559921265</t>
+    <t xml:space="preserve">11.0630588531494</t>
   </si>
   <si>
     <t xml:space="preserve">11.4199304580688</t>
@@ -2105,217 +2105,217 @@
     <t xml:space="preserve">11.6435699462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6530895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6483306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5861663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.500096321106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605930328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4474973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3566436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6961488723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6052942276001</t>
+    <t xml:space="preserve">11.6530876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6483297348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813846588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5861673355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5000944137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1605920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4474964141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3566446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6961479187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6052951812744</t>
   </si>
   <si>
     <t xml:space="preserve">10.2520618438721</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4385499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8449974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8928165435791</t>
+    <t xml:space="preserve">10.4385480880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8449983596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8928155899048</t>
   </si>
   <si>
     <t xml:space="preserve">11.4761867523193</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6244220733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7487468719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6196384429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7774391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0021781921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7726554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2986459732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3512477874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304542541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9495801925659</t>
+    <t xml:space="preserve">11.6244201660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7487487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6196374893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.777437210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.00217628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7726573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2986478805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3512468338013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304533004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.949577331543</t>
   </si>
   <si>
     <t xml:space="preserve">13.1641435623169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7475156784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4414854049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2310886383057</t>
+    <t xml:space="preserve">13.7475147247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4414825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.231086730957</t>
   </si>
   <si>
     <t xml:space="preserve">13.2884702682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2693405151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3028125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458490371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.207179069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8766250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.240650177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9489622116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.31715965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0344181060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9818210601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9483489990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0774574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9770383834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.833589553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0487661361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0200757980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1874361038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5938844680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3739261627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0631103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7570772171021</t>
+    <t xml:space="preserve">13.269341468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3028144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458480834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2071809768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8766212463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2406511306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9489650726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3171606063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0344190597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9818229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9483480453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0774555206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9770412445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8335886001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0487613677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0200748443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1874341964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5938854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3739233016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0631113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7570810317993</t>
   </si>
   <si>
     <t xml:space="preserve">14.206563949585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1348371505737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6231908798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3362874984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3219404220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5466804504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4845199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3506298065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3601932525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6889324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8329763412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6553249359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2555046081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.93860912323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4008445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5736980438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6854295730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2388935089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655759811401</t>
+    <t xml:space="preserve">14.134838104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6231918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3362865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3219394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5466823577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4845209121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3506288528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3601951599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6889343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8329744338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6553258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2555065155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9386072158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4008455276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5736989974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6854286193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2388973236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6566228866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655750274658</t>
   </si>
   <si>
     <t xml:space="preserve">13.5256814956665</t>
@@ -2324,127 +2324,127 @@
     <t xml:space="preserve">14.3083200454712</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5435914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9661207199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0381412506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9084997177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901266098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0717487335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.398247718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2205972671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5759029388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8255748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9408121109009</t>
+    <t xml:space="preserve">14.5435876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9661197662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0381383895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9085006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901256561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0717496871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3982486724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2205944061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5759019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8255796432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9408149719238</t>
   </si>
   <si>
     <t xml:space="preserve">15.3934488296509</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1712779998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9120006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5903062820435</t>
+    <t xml:space="preserve">16.1712818145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9120054244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5903091430664</t>
   </si>
   <si>
     <t xml:space="preserve">15.5230855941772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7295475006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7343463897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7487516403198</t>
+    <t xml:space="preserve">15.7295455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7343521118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7487535476685</t>
   </si>
   <si>
     <t xml:space="preserve">14.7068386077881</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9421081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1882810592651</t>
+    <t xml:space="preserve">14.9421129226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1882858276367</t>
   </si>
   <si>
     <t xml:space="preserve">14.3227243423462</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5929050445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003776550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9805240631104</t>
+    <t xml:space="preserve">13.592903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003786087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9805212020874</t>
   </si>
   <si>
     <t xml:space="preserve">15.1293697357178</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9565153121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5881023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1930847167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9722166061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1799802780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1175603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1559715270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0071268081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9735174179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0455369949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1511697769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2279930114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5640954971313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4248552322388</t>
+    <t xml:space="preserve">14.9565143585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5881013870239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1930866241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9722194671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1799774169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1175575256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1559705734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0071287155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9735164642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0455379486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1511688232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2279949188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5640964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4248542785645</t>
   </si>
   <si>
     <t xml:space="preserve">13.2760076522827</t>
@@ -2453,37 +2453,37 @@
     <t xml:space="preserve">13.8953952789307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2218914031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9626150131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0202341079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5687942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.988299369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2969007492065</t>
+    <t xml:space="preserve">14.2218942642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9626178741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0202331542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.568793296814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9882974624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2968988418579</t>
   </si>
   <si>
     <t xml:space="preserve">14.6488971710205</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4560194015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.340295791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6055002212524</t>
+    <t xml:space="preserve">14.4560213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4367351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3402948379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6054992675781</t>
   </si>
   <si>
     <t xml:space="preserve">14.8465957641602</t>
@@ -2492,28 +2492,28 @@
     <t xml:space="preserve">15.0442914962769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6759567260742</t>
+    <t xml:space="preserve">15.6759605407715</t>
   </si>
   <si>
     <t xml:space="preserve">15.5264797210693</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4348621368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.565055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1889486312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1069774627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9526767730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1455516815186</t>
+    <t xml:space="preserve">15.4348649978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5650568008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1889495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1069765090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9526777267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1455507278442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0973300933838</t>
@@ -2522,34 +2522,34 @@
     <t xml:space="preserve">15.270920753479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3336067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3191404342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3818235397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7338237762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0520687103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3847789764404</t>
+    <t xml:space="preserve">15.3336048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3818244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7338209152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0520668029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3847770690918</t>
   </si>
   <si>
     <t xml:space="preserve">16.9634037017822</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4812126159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.794641494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1292133331299</t>
+    <t xml:space="preserve">16.4812145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7946376800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1292171478271</t>
   </si>
   <si>
     <t xml:space="preserve">16.1147537231445</t>
@@ -2561,262 +2561,262 @@
     <t xml:space="preserve">15.2419910430908</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5862112045288</t>
+    <t xml:space="preserve">14.5862150192261</t>
   </si>
   <si>
     <t xml:space="preserve">14.4801340103149</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5572805404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1407299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1214437484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6277437210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9285669326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000703811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6904268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8736572265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7579336166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0539379119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1744832992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2130575180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5457668304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5361242294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.46861743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2660999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7289981842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7030220031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0212688446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7801704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4504127502441</t>
+    <t xml:space="preserve">14.5572814941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1407279968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1214418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.627742767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9285650253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000684738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6904249191284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8736562728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7579326629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0539350509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1744823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2130584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5457706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5361261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4686193466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2660970687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7290010452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7030181884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0212650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7801761627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4504165649414</t>
   </si>
   <si>
     <t xml:space="preserve">17.52756690979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6143608093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4692268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2273368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5127716064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5611400604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1547679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0628490447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9370670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9225597381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.975772857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2128219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1692886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1160659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6467971801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.767749786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3047389984131</t>
+    <t xml:space="preserve">17.6143589019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4692325592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2273426055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5127658843994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5611438751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1547698974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0628547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9370708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9225540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9757747650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2128238677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1692867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1160640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.646800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7677478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3047409057617</t>
   </si>
   <si>
     <t xml:space="preserve">17.3192539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8403148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0773677825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3434429168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5770778656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3980808258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8479976654053</t>
+    <t xml:space="preserve">16.8403129577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0773620605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3434410095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.577075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3980751037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.847993850708</t>
   </si>
   <si>
     <t xml:space="preserve">18.7754287719727</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4029159545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3835697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6061000823975</t>
+    <t xml:space="preserve">18.4029178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3835735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6061058044434</t>
   </si>
   <si>
     <t xml:space="preserve">17.8804378509521</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3994998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5543117523193</t>
+    <t xml:space="preserve">19.3995018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5543079376221</t>
   </si>
   <si>
     <t xml:space="preserve">19.9897060394287</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2896518707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.999382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6800956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0767917633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3283519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6186237335205</t>
+    <t xml:space="preserve">20.2896461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9993839263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6800861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.076789855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3283576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6186218261719</t>
   </si>
   <si>
     <t xml:space="preserve">20.502513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8895378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9185638427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.363639831543</t>
+    <t xml:space="preserve">20.8895359039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9185676574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3636379241943</t>
   </si>
   <si>
     <t xml:space="preserve">21.1507797241211</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0153179168701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2862358093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3249378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1701278686523</t>
+    <t xml:space="preserve">21.0153160095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2862339019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3249359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.170129776001</t>
   </si>
   <si>
     <t xml:space="preserve">20.7637538909912</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0443477630615</t>
+    <t xml:space="preserve">21.0443458557129</t>
   </si>
   <si>
     <t xml:space="preserve">21.4410438537598</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7893657684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8280658721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7313060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5764961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0830459594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5571460723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.605525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2441120147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3408699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.631139755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9407501220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4051856994629</t>
+    <t xml:space="preserve">21.789363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8280639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7313137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5764980316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0830478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0733757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5571517944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6055278778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2441158294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3408737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6311340332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9407539367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4051818847656</t>
   </si>
   <si>
     <t xml:space="preserve">23.7728576660156</t>
@@ -2825,61 +2825,61 @@
     <t xml:space="preserve">23.7243595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5982646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.210298538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3751850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6176662445068</t>
+    <t xml:space="preserve">23.5982666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2102966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3751831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6176681518555</t>
   </si>
   <si>
     <t xml:space="preserve">23.540075302124</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2490940093994</t>
+    <t xml:space="preserve">23.249095916748</t>
   </si>
   <si>
     <t xml:space="preserve">24.0153350830078</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8504505157471</t>
+    <t xml:space="preserve">23.8504447937012</t>
   </si>
   <si>
     <t xml:space="preserve">23.3072910308838</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8989448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8795471191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4517993927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9668350219727</t>
+    <t xml:space="preserve">23.8989429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8795490264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4518013000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9668388366699</t>
   </si>
   <si>
     <t xml:space="preserve">24.170524597168</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3354091644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3936061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5778923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3451061248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1879653930664</t>
+    <t xml:space="preserve">24.335412979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3936080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5778942108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3451080322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1879634857178</t>
   </si>
   <si>
     <t xml:space="preserve">26.9154109954834</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">25.3635292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2461605072021</t>
+    <t xml:space="preserve">26.2461566925049</t>
   </si>
   <si>
     <t xml:space="preserve">26.0909729003906</t>
@@ -2897,34 +2897,34 @@
     <t xml:space="preserve">25.6545085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5197010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9852561950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8678894042969</t>
+    <t xml:space="preserve">24.5196990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.985258102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8678932189941</t>
   </si>
   <si>
     <t xml:space="preserve">26.566234588623</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4013538360596</t>
+    <t xml:space="preserve">26.4013481140137</t>
   </si>
   <si>
     <t xml:space="preserve">26.7214241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4100723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7204475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4672889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0793190002441</t>
+    <t xml:space="preserve">27.4100742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7204456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4672927856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0793209075928</t>
   </si>
   <si>
     <t xml:space="preserve">27.3324775695801</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">27.0027027130127</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2442111968994</t>
+    <t xml:space="preserve">28.2442092895508</t>
   </si>
   <si>
     <t xml:space="preserve">27.8368358612061</t>
@@ -2942,142 +2942,142 @@
     <t xml:space="preserve">27.4391708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4993228912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3053340911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8872909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1123294830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.646764755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5788726806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2287139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6952590942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.589542388916</t>
+    <t xml:space="preserve">25.4993209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3053321838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8872928619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1123237609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6467628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5788707733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2287158966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6952571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5895462036133</t>
   </si>
   <si>
     <t xml:space="preserve">20.3005237579346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4654102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0580425262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8572902679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5992851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0033283233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7551755905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5850696563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.679856300354</t>
+    <t xml:space="preserve">20.4654083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.058048248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.857292175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5992813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0033264160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7551784515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5850706100464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798543930054</t>
   </si>
   <si>
     <t xml:space="preserve">15.4826984405518</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6384010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.896089553833</t>
+    <t xml:space="preserve">15.6384000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8960876464844</t>
   </si>
   <si>
     <t xml:space="preserve">18.9178924560547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6892032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9739418029785</t>
+    <t xml:space="preserve">18.6892051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9739437103271</t>
   </si>
   <si>
     <t xml:space="preserve">18.8838329315186</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3412075042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4264526367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9885387420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581813812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0687255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0467357635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6306228637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5745716094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4967174530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8521099090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.066198348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8155193328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5333080291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1757755279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7765941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7594661712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0416812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2581100463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6376323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2896385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0732078552246</t>
+    <t xml:space="preserve">19.341215133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.426456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581756591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0687313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0467376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6306209564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5745697021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4967193603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.852108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0662002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8155174255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5333061218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1757736206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7765979766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.759464263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0416793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2581062316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6376342773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2896327972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0732097625732</t>
   </si>
   <si>
     <t xml:space="preserve">21.8275890350342</t>
@@ -3092,37 +3092,37 @@
     <t xml:space="preserve">22.5769081115723</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7715339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2655010223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0634841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6718826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0393447875977</t>
+    <t xml:space="preserve">22.7715358734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2655067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0634784698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6718864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.039342880249</t>
   </si>
   <si>
     <t xml:space="preserve">21.6134948730469</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8957099914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2923603057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3410186767578</t>
+    <t xml:space="preserve">21.8957080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2923622131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3410205841064</t>
   </si>
   <si>
     <t xml:space="preserve">21.6329593658447</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3336219787598</t>
+    <t xml:space="preserve">22.3336162567139</t>
   </si>
   <si>
     <t xml:space="preserve">21.1463871002197</t>
@@ -3131,145 +3131,145 @@
     <t xml:space="preserve">21.6232280731201</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7205390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1389961242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9782333374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6279048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.37721824646</t>
+    <t xml:space="preserve">21.7205410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1389904022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9782314300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6279010772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3772201538086</t>
   </si>
   <si>
     <t xml:space="preserve">23.335958480835</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4040775299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3920154571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3141536712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2071113586426</t>
+    <t xml:space="preserve">23.4040813446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3920097351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3141574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2071132659912</t>
   </si>
   <si>
     <t xml:space="preserve">23.1899871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3651523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6765556335449</t>
+    <t xml:space="preserve">23.3651542663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6765594482422</t>
   </si>
   <si>
     <t xml:space="preserve">23.5500469207764</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0938262939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7469654083252</t>
+    <t xml:space="preserve">23.0938282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7469635009766</t>
   </si>
   <si>
     <t xml:space="preserve">23.1328201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1133232116699</t>
+    <t xml:space="preserve">23.1133270263672</t>
   </si>
   <si>
     <t xml:space="preserve">22.8793640136719</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9183578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6104850769043</t>
+    <t xml:space="preserve">22.9183559417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6104907989502</t>
   </si>
   <si>
     <t xml:space="preserve">23.4155235290527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6202354431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0491619110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9321842193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2400493621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5227527618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7120552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2092208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1466522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8777751922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.907018661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5016708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1060676574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8136177062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.008581161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9013481140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2384624481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.49192237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1563949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9614315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0645847320557</t>
+    <t xml:space="preserve">23.6202373504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0491638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.932186126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2400512695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5227546691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7120513916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2092170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1466464996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8777770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9070205688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5016670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1060657501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8136100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0085792541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2384643554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4919204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1563987731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9614295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0645809173584</t>
   </si>
   <si>
     <t xml:space="preserve">23.2108058929443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9516830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0686588287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7859554290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7274684906006</t>
+    <t xml:space="preserve">23.9516773223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.068660736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7859573364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.727466583252</t>
   </si>
   <si>
     <t xml:space="preserve">23.8736934661865</t>
@@ -3278,22 +3278,22 @@
     <t xml:space="preserve">23.5617485046387</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3903560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8387813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.673059463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0784111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4683418273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1174049377441</t>
+    <t xml:space="preserve">24.39035987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8387794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6730613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0784091949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4683437347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1174011230469</t>
   </si>
   <si>
     <t xml:space="preserve">24.1368999481201</t>
@@ -3302,40 +3302,40 @@
     <t xml:space="preserve">23.7079734802246</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4585933685303</t>
+    <t xml:space="preserve">24.4585971832275</t>
   </si>
   <si>
     <t xml:space="preserve">24.66330909729</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3554458618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9557609558105</t>
+    <t xml:space="preserve">25.3554439544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9557628631592</t>
   </si>
   <si>
     <t xml:space="preserve">24.6340656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5073375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8680229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3456993103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5909938812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0255870819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5325031280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.723388671875</t>
+    <t xml:space="preserve">24.5073337554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8680267333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3456916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.590991973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0255966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5325050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7233867645264</t>
   </si>
   <si>
     <t xml:space="preserve">24.3221206665039</t>
@@ -3347,247 +3347,247 @@
     <t xml:space="preserve">24.7607936859131</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6868877410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9305953979492</t>
+    <t xml:space="preserve">25.6868858337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9305973052979</t>
   </si>
   <si>
     <t xml:space="preserve">26.135311126709</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4431800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.287202835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6349582672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7228355407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9181232452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.064582824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4592037200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1426944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5723133087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6309051513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4177436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1052932739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3982162475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3689212799072</t>
+    <t xml:space="preserve">25.4431743621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2872066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6349601745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7228374481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.918119430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0645866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4592018127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1426963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5723209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6309013366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4177379608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1052875518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3982105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3689231872559</t>
   </si>
   <si>
     <t xml:space="preserve">27.5642051696777</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8376007080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5894412994385</t>
+    <t xml:space="preserve">27.8375968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5894432067871</t>
   </si>
   <si>
     <t xml:space="preserve">28.9800071716309</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1752910614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8237781524658</t>
+    <t xml:space="preserve">29.1752872467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8237819671631</t>
   </si>
   <si>
     <t xml:space="preserve">28.413688659668</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5503845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7554302215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4527397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2574577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9840602874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.935245513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.300573348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5584983825684</t>
+    <t xml:space="preserve">28.5503807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7554321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4527435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2574596405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9840621948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9352436065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3005695343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5584964752197</t>
   </si>
   <si>
     <t xml:space="preserve">25.3282146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5527877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0507583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8026027679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2810440063477</t>
+    <t xml:space="preserve">25.9140644073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5527896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0507640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8025989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2810459136963</t>
   </si>
   <si>
     <t xml:space="preserve">28.1402893066406</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3160438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7611351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9743003845215</t>
+    <t xml:space="preserve">28.3160457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7611427307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9743022918701</t>
   </si>
   <si>
     <t xml:space="preserve">28.4722690582275</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0426483154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2769832611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0776481628418</t>
+    <t xml:space="preserve">28.0426445007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2769870758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0776500701904</t>
   </si>
   <si>
     <t xml:space="preserve">28.989767074585</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4096260070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7123184204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3762836456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5813293457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6887321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2257614135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7725582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4560432434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0557174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5008163452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6318016052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8759002685547</t>
+    <t xml:space="preserve">29.4096298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7123203277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3762817382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5813274383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6887359619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.225757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7725563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4560470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0557136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5008125305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6317977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8758964538574</t>
   </si>
   <si>
     <t xml:space="preserve">33.2957572937012</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5789222717285</t>
+    <t xml:space="preserve">33.5789260864258</t>
   </si>
   <si>
     <t xml:space="preserve">33.1785926818848</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2338790893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7456684112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3178558349609</t>
+    <t xml:space="preserve">29.2338733673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7456645965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3178596496582</t>
   </si>
   <si>
     <t xml:space="preserve">29.5205879211426</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3347988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9925594329834</t>
+    <t xml:space="preserve">29.3348026275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9925575256348</t>
   </si>
   <si>
     <t xml:space="preserve">29.3445777893066</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4351940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5108070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6574802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.735710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4716968536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8726024627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.016658782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3002243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3882331848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6620197296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2682762145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6007423400879</t>
+    <t xml:space="preserve">28.4351978302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5108108520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6574821472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7357082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4716949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8726005554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0166606903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3002300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3882312774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6620273590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2682876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6007461547852</t>
   </si>
   <si>
     <t xml:space="preserve">32.8843116760254</t>
@@ -3596,49 +3596,49 @@
     <t xml:space="preserve">32.9234161376953</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1705017089844</t>
+    <t xml:space="preserve">32.1705055236816</t>
   </si>
   <si>
     <t xml:space="preserve">32.3660621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0238265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7474212646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6594161987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8771495819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.92604637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9749374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9775505065918</t>
+    <t xml:space="preserve">32.0238304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7474174499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6594123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8771457672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9260349273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.974925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9775466918945</t>
   </si>
   <si>
     <t xml:space="preserve">32.2780570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5322952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1874351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.177661895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9625396728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9723091125488</t>
+    <t xml:space="preserve">32.5322914123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.187427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1776657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.962532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9723167419434</t>
   </si>
   <si>
     <t xml:space="preserve">33.5394515991211</t>
@@ -3647,46 +3647,46 @@
     <t xml:space="preserve">33.8034629821777</t>
   </si>
   <si>
-    <t xml:space="preserve">32.903865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0968132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5759429931641</t>
+    <t xml:space="preserve">32.9038619995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.096809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5759544372559</t>
   </si>
   <si>
     <t xml:space="preserve">34.7715148925781</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3608245849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6372337341309</t>
+    <t xml:space="preserve">34.3608283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6372375488281</t>
   </si>
   <si>
     <t xml:space="preserve">33.1972198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8523597717285</t>
+    <t xml:space="preserve">33.8523559570312</t>
   </si>
   <si>
     <t xml:space="preserve">33.0798759460449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1900520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0140495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7109203338623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2806777954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7330913543701</t>
+    <t xml:space="preserve">32.1900482177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0140533447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7109146118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2806720733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7330932617188</t>
   </si>
   <si>
     <t xml:space="preserve">30.0681686401367</t>
@@ -3695,49 +3695,49 @@
     <t xml:space="preserve">29.6868152618408</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6209850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8387279510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.425422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2370147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4938659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.618371963501</t>
+    <t xml:space="preserve">28.6209869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8387222290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4254188537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2370204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4938697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6183681488037</t>
   </si>
   <si>
     <t xml:space="preserve">29.0218944549561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5597038269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1170635223389</t>
+    <t xml:space="preserve">29.5596981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.117057800293</t>
   </si>
   <si>
     <t xml:space="preserve">29.8921566009521</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1366176605225</t>
+    <t xml:space="preserve">30.1366138458252</t>
   </si>
   <si>
     <t xml:space="preserve">31.3527393341064</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7162837982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5987815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8044033050537</t>
+    <t xml:space="preserve">30.7162799835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.598783493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8044013977051</t>
   </si>
   <si>
     <t xml:space="preserve">31.5975208282471</t>
@@ -3749,10 +3749,10 @@
     <t xml:space="preserve">31.264612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8423137664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3955421447754</t>
+    <t xml:space="preserve">31.8423156738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3955383300781</t>
   </si>
   <si>
     <t xml:space="preserve">32.4591865539551</t>
@@ -3764,22 +3764,22 @@
     <t xml:space="preserve">32.424919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5864791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1605415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1164817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9108600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9891929626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2401275634766</t>
+    <t xml:space="preserve">32.5864753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1605453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1164779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9108581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9891815185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2401332855225</t>
   </si>
   <si>
     <t xml:space="preserve">30.0504512786865</t>
@@ -3788,43 +3788,43 @@
     <t xml:space="preserve">30.3980522155762</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0491924285889</t>
+    <t xml:space="preserve">31.0491905212402</t>
   </si>
   <si>
     <t xml:space="preserve">31.5289859771729</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9353466033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0675277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3331508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4959697723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0602474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4237880706787</t>
+    <t xml:space="preserve">31.935338973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0675239562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3331489562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4959659576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.060245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4237842559814</t>
   </si>
   <si>
     <t xml:space="preserve">30.1483688354492</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4776382446289</t>
+    <t xml:space="preserve">29.4776401519775</t>
   </si>
   <si>
     <t xml:space="preserve">30.3001346588135</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5119132995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5180625915527</t>
+    <t xml:space="preserve">29.5119094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.51806640625</t>
   </si>
   <si>
     <t xml:space="preserve">27.9354648590088</t>
@@ -3833,40 +3833,40 @@
     <t xml:space="preserve">28.312442779541</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5817108154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4299411773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5866031646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5768070220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9831619262695</t>
+    <t xml:space="preserve">28.5817089080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4299392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5866050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5768127441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9831676483154</t>
   </si>
   <si>
     <t xml:space="preserve">29.0614986419678</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3111820220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4433670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3993053436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6196193695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9916973114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0112838745117</t>
+    <t xml:space="preserve">29.311185836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4433689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3993091583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6196212768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.99169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.011287689209</t>
   </si>
   <si>
     <t xml:space="preserve">29.8888874053955</t>
@@ -3875,100 +3875,100 @@
     <t xml:space="preserve">29.8839931488037</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4874305725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9329471588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5217018127441</t>
+    <t xml:space="preserve">29.487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9329509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5217037200928</t>
   </si>
   <si>
     <t xml:space="preserve">29.5559730529785</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9231548309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4421138763428</t>
+    <t xml:space="preserve">29.9231586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.44211769104</t>
   </si>
   <si>
     <t xml:space="preserve">30.7554473876953</t>
   </si>
   <si>
-    <t xml:space="preserve">30.931697845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8925266265869</t>
+    <t xml:space="preserve">30.9316959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8925285339355</t>
   </si>
   <si>
     <t xml:space="preserve">30.8337783813477</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2009658813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8105583190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6094341278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9626235961914</t>
+    <t xml:space="preserve">31.2009601593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8105564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.609432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.96262550354</t>
   </si>
   <si>
     <t xml:space="preserve">30.1882781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2177066802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3599720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.585620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0263977050781</t>
+    <t xml:space="preserve">30.2177085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3599681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5856227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0263996124268</t>
   </si>
   <si>
     <t xml:space="preserve">30.1686573028564</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8358001708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1448459625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0271129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.267484664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.39430809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.532377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7825584411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8119812011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6017723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9051952362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5618076324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7475032806396</t>
+    <t xml:space="preserve">30.8358020782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1448440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0271148681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2674827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3943023681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5323753356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7825546264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8119831085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6017684936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9051933288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7475051879883</t>
   </si>
   <si>
     <t xml:space="preserve">30.5071315765381</t>
@@ -3977,40 +3977,40 @@
     <t xml:space="preserve">31.718786239624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7089729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7047805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5674324035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3775482177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8722877502441</t>
+    <t xml:space="preserve">31.7089767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7047882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5674362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3775596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8722801208496</t>
   </si>
   <si>
     <t xml:space="preserve">34.4020805358887</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4462280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8386611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1035614013672</t>
+    <t xml:space="preserve">34.4462242126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8386573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1035652160645</t>
   </si>
   <si>
     <t xml:space="preserve">35.2703475952148</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8148612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6922149658203</t>
+    <t xml:space="preserve">35.8148574829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6922264099121</t>
   </si>
   <si>
     <t xml:space="preserve">35.5450553894043</t>
@@ -4019,22 +4019,22 @@
     <t xml:space="preserve">35.9080581665039</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8001327514648</t>
+    <t xml:space="preserve">35.8001365661621</t>
   </si>
   <si>
     <t xml:space="preserve">35.8295669555664</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4126052856445</t>
+    <t xml:space="preserve">35.4126091003418</t>
   </si>
   <si>
     <t xml:space="preserve">35.7903289794922</t>
   </si>
   <si>
-    <t xml:space="preserve">35.162425994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6971206665039</t>
+    <t xml:space="preserve">35.1624221801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6971168518066</t>
   </si>
   <si>
     <t xml:space="preserve">35.7952308654785</t>
@@ -4043,13 +4043,13 @@
     <t xml:space="preserve">35.9423980712891</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0944709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8246650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5899200439453</t>
+    <t xml:space="preserve">36.0944633483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8246688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.589916229248</t>
   </si>
   <si>
     <t xml:space="preserve">37.1638603210449</t>
@@ -4064,25 +4064,25 @@
     <t xml:space="preserve">37.2030982971191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1785774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.497428894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.487621307373</t>
+    <t xml:space="preserve">37.1785736083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4974327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4876174926758</t>
   </si>
   <si>
     <t xml:space="preserve">36.8155746459961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9431076049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5317764282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3993263244629</t>
+    <t xml:space="preserve">36.9431037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5317649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3993186950684</t>
   </si>
   <si>
     <t xml:space="preserve">38.7532348632812</t>
@@ -4091,16 +4091,16 @@
     <t xml:space="preserve">38.8513374328613</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2045364379883</t>
+    <t xml:space="preserve">39.204532623291</t>
   </si>
   <si>
     <t xml:space="preserve">38.130241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5652313232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1105918884277</t>
+    <t xml:space="preserve">37.5652351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1105880737305</t>
   </si>
   <si>
     <t xml:space="preserve">38.4102783203125</t>
@@ -4109,13 +4109,13 @@
     <t xml:space="preserve">38.9310646057129</t>
   </si>
   <si>
-    <t xml:space="preserve">38.808235168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8622817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9118041992188</t>
+    <t xml:space="preserve">38.8082389831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8622856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9117965698242</t>
   </si>
   <si>
     <t xml:space="preserve">36.833194732666</t>
@@ -4127,19 +4127,19 @@
     <t xml:space="preserve">36.6612358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4133224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.297664642334</t>
+    <t xml:space="preserve">35.4133186340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2976684570312</t>
   </si>
   <si>
     <t xml:space="preserve">35.693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2485427856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3985824584961</t>
+    <t xml:space="preserve">36.24853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3985862731934</t>
   </si>
   <si>
     <t xml:space="preserve">35.3297958374023</t>
@@ -4154,22 +4154,22 @@
     <t xml:space="preserve">35.7867050170898</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8997116088867</t>
+    <t xml:space="preserve">35.8997192382812</t>
   </si>
   <si>
     <t xml:space="preserve">36.0716667175293</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4008445739746</t>
+    <t xml:space="preserve">36.4008369445801</t>
   </si>
   <si>
     <t xml:space="preserve">36.8037147521973</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2606239318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6094512939453</t>
+    <t xml:space="preserve">37.260627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6094551086426</t>
   </si>
   <si>
     <t xml:space="preserve">38.1597137451172</t>
@@ -4181,10 +4181,10 @@
     <t xml:space="preserve">40.6113357543945</t>
   </si>
   <si>
-    <t xml:space="preserve">40.183895111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4197235107422</t>
+    <t xml:space="preserve">40.1838912963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4197196960449</t>
   </si>
   <si>
     <t xml:space="preserve">41.0043792724609</t>
@@ -4193,31 +4193,31 @@
     <t xml:space="preserve">41.662727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6453323364258</t>
+    <t xml:space="preserve">42.6453399658203</t>
   </si>
   <si>
     <t xml:space="preserve">43.2938652038574</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8932571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5198669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6649932861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4707336425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.02099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.109432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3550834655762</t>
+    <t xml:space="preserve">43.893253326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5198593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6649856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4707374572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.0209884643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1094284057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3550796508789</t>
   </si>
   <si>
     <t xml:space="preserve">44.9593849182129</t>
@@ -4229,103 +4229,103 @@
     <t xml:space="preserve">44.9937858581543</t>
   </si>
   <si>
-    <t xml:space="preserve">44.915168762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1120758056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9302864074707</t>
+    <t xml:space="preserve">44.9151725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1120796203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9302940368652</t>
   </si>
   <si>
     <t xml:space="preserve">42.7583351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">41.186164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2522888183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3505592346191</t>
+    <t xml:space="preserve">41.1861572265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2522926330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3505516052246</t>
   </si>
   <si>
     <t xml:space="preserve">44.1634712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2402076721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.156681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2991600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.691822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4242477416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1392860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6971092224121</t>
+    <t xml:space="preserve">41.2402038574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1566772460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2991561889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6918182373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4242553710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1393013000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6971168518066</t>
   </si>
   <si>
     <t xml:space="preserve">41.7807540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0329132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9136009216309</t>
+    <t xml:space="preserve">41.0329170227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9135932922363</t>
   </si>
   <si>
     <t xml:space="preserve">41.2592353820801</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7278747558594</t>
+    <t xml:space="preserve">40.7278785705566</t>
   </si>
   <si>
     <t xml:space="preserve">40.7081985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1903610229492</t>
+    <t xml:space="preserve">41.1903533935547</t>
   </si>
   <si>
     <t xml:space="preserve">41.8201179504395</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2530784606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2075614929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3010444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0944061279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0599632263184</t>
+    <t xml:space="preserve">42.2530746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2075538635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3010406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0944023132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0599594116211</t>
   </si>
   <si>
     <t xml:space="preserve">42.5384407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9221992492676</t>
+    <t xml:space="preserve">42.9222030639648</t>
   </si>
   <si>
     <t xml:space="preserve">42.1349983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6749610900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1792755126953</t>
+    <t xml:space="preserve">43.6749687194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1792793273926</t>
   </si>
   <si>
     <t xml:space="preserve">43.1977272033691</t>
@@ -4334,121 +4334,121 @@
     <t xml:space="preserve">42.2776756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9271202087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9824752807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.673755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.772159576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9997100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0759887695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.012035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2026748657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9603614807129</t>
+    <t xml:space="preserve">42.9271240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.982479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6737480163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7721557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9997138977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.075984954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0120277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2026710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9603500366211</t>
   </si>
   <si>
     <t xml:space="preserve">39.3551902770996</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5901184082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8016738891602</t>
+    <t xml:space="preserve">40.5901107788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8016700744629</t>
   </si>
   <si>
     <t xml:space="preserve">40.6934356689453</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0353889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2186698913574</t>
+    <t xml:space="preserve">39.0353851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2186660766602</t>
   </si>
   <si>
     <t xml:space="preserve">38.3121490478516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7155952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2063522338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0341491699219</t>
+    <t xml:space="preserve">38.7155876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.206356048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0341567993164</t>
   </si>
   <si>
     <t xml:space="preserve">39.360107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4745025634766</t>
+    <t xml:space="preserve">38.4745101928711</t>
   </si>
   <si>
     <t xml:space="preserve">39.1042709350586</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2469482421875</t>
+    <t xml:space="preserve">39.2469520568848</t>
   </si>
   <si>
     <t xml:space="preserve">38.4941825866699</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6282653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9640579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.091983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8754997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0932197570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6823844909668</t>
+    <t xml:space="preserve">37.6282691955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9640617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0919876098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8755035400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0932235717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6823806762695</t>
   </si>
   <si>
     <t xml:space="preserve">37.3527450561523</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2998657226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2162246704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9505424499512</t>
+    <t xml:space="preserve">36.299861907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2162208557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9505500793457</t>
   </si>
   <si>
     <t xml:space="preserve">33.4511756896973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0182189941406</t>
+    <t xml:space="preserve">33.0182151794434</t>
   </si>
   <si>
     <t xml:space="preserve">32.167049407959</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5077438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5680160522461</t>
+    <t xml:space="preserve">35.507740020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5680198669434</t>
   </si>
   <si>
     <t xml:space="preserve">34.4302558898926</t>
@@ -4463,34 +4463,34 @@
     <t xml:space="preserve">37.1707077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0329475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1202697753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2089614868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6130294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5341835021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3275337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.613338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7414703369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8206100463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1356773376465</t>
+    <t xml:space="preserve">37.0329399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1202659606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6130332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5341873168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3275375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6133460998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7414627075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.820613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.135669708252</t>
   </si>
   <si>
     <t xml:space="preserve">39.036808013916</t>
@@ -4499,52 +4499,52 @@
     <t xml:space="preserve">38.0906982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1399765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1048545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.079906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7349739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5230903625488</t>
+    <t xml:space="preserve">38.1399803161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1048583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0799102783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7349700927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5230827331543</t>
   </si>
   <si>
     <t xml:space="preserve">34.3653984069824</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2767028808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1978569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.695240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0993041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2030982971191</t>
+    <t xml:space="preserve">34.2766990661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1978607177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6952438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2031021118164</t>
   </si>
   <si>
     <t xml:space="preserve">35.4642639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7941017150879</t>
+    <t xml:space="preserve">34.7941093444824</t>
   </si>
   <si>
     <t xml:space="preserve">34.7743911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3506202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5181579589844</t>
+    <t xml:space="preserve">34.3506126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5181617736816</t>
   </si>
   <si>
     <t xml:space="preserve">35.084831237793</t>
@@ -4553,79 +4553,79 @@
     <t xml:space="preserve">35.2523803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3604774475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1784629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5082969665527</t>
+    <t xml:space="preserve">34.3604736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1784591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.50830078125</t>
   </si>
   <si>
     <t xml:space="preserve">34.606861114502</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2471313476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9117469787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9511680603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8824996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3564796447754</t>
+    <t xml:space="preserve">34.2471351623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9117431640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.951171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8824920654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.232666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3564758300781</t>
   </si>
   <si>
     <t xml:space="preserve">36.6222610473633</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5979309082031</t>
+    <t xml:space="preserve">37.5979385375977</t>
   </si>
   <si>
     <t xml:space="preserve">36.7799415588379</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7898101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2132682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3167495727539</t>
+    <t xml:space="preserve">36.7898025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.213264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3167457580566</t>
   </si>
   <si>
     <t xml:space="preserve">35.0601997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2474403381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8831214904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7257423400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2825736999512</t>
+    <t xml:space="preserve">35.247444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8831176757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7257385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2825698852539</t>
   </si>
   <si>
     <t xml:space="preserve">36.6469039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5089302062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1593780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3413848876953</t>
+    <t xml:space="preserve">36.5089263916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1593742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3413772583008</t>
   </si>
   <si>
     <t xml:space="preserve">36.5040016174316</t>
@@ -4634,31 +4634,31 @@
     <t xml:space="preserve">36.2625465393066</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4497947692871</t>
+    <t xml:space="preserve">36.4497985839844</t>
   </si>
   <si>
     <t xml:space="preserve">35.4839744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9761161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0986824035645</t>
+    <t xml:space="preserve">33.9761199951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0986785888672</t>
   </si>
   <si>
     <t xml:space="preserve">32.0543365478516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2172622680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.123010635376</t>
+    <t xml:space="preserve">33.2172584533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230125427246</t>
   </si>
   <si>
     <t xml:space="preserve">31.251127243042</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1227645874023</t>
+    <t xml:space="preserve">31.1227684020996</t>
   </si>
   <si>
     <t xml:space="preserve">31.9225597381592</t>
@@ -4667,25 +4667,25 @@
     <t xml:space="preserve">31.2807540893555</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7327461242676</t>
+    <t xml:space="preserve">30.7327480316162</t>
   </si>
   <si>
     <t xml:space="preserve">31.4091110229492</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4436740875244</t>
+    <t xml:space="preserve">31.4436721801758</t>
   </si>
   <si>
     <t xml:space="preserve">31.0437755584717</t>
   </si>
   <si>
-    <t xml:space="preserve">30.401969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6071128845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7382030487061</t>
+    <t xml:space="preserve">30.4019680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6071147918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7382011413574</t>
   </si>
   <si>
     <t xml:space="preserve">28.2000713348389</t>
@@ -4697,16 +4697,16 @@
     <t xml:space="preserve">28.9949264526367</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8095283508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4365272521973</t>
+    <t xml:space="preserve">29.8095321655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4365291595459</t>
   </si>
   <si>
     <t xml:space="preserve">30.3772811889648</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7179355621338</t>
+    <t xml:space="preserve">30.7179336547852</t>
   </si>
   <si>
     <t xml:space="preserve">30.7524948120117</t>
@@ -4718,88 +4718,88 @@
     <t xml:space="preserve">31.8731861114502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2335891723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6384239196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3690948486328</t>
+    <t xml:space="preserve">32.2335929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6384162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3690910339355</t>
   </si>
   <si>
     <t xml:space="preserve">33.6356925964355</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5023994445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7245635986328</t>
+    <t xml:space="preserve">33.5023956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7245597839355</t>
   </si>
   <si>
     <t xml:space="preserve">33.4234008789062</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5589141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8129081726074</t>
+    <t xml:space="preserve">34.5589065551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8129043579102</t>
   </si>
   <si>
     <t xml:space="preserve">36.4695281982422</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7953681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1014633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9358024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1283493041992</t>
+    <t xml:space="preserve">36.7953643798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1014595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9358100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1283531188965</t>
   </si>
   <si>
     <t xml:space="preserve">37.1705780029297</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9237213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9736137390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1584968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5337066650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6571311950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.071834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4870643615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6373825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1315956115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3093299865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4475746154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0301284790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1266593933105</t>
+    <t xml:space="preserve">36.9237289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9736175537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1584930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5336990356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6571350097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0718383789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.487060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.637378692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1316070556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.309326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4475708007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0301361083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1266632080078</t>
   </si>
   <si>
     <t xml:space="preserve">34.6230926513672</t>
@@ -4808,37 +4808,37 @@
     <t xml:space="preserve">34.8353805541992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3515510559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8430557250977</t>
+    <t xml:space="preserve">34.3515586853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8430519104004</t>
   </si>
   <si>
     <t xml:space="preserve">35.1414794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.257755279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4848518371582</t>
+    <t xml:space="preserve">34.2577514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4848594665527</t>
   </si>
   <si>
     <t xml:space="preserve">35.2105903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6845436096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4744529724121</t>
+    <t xml:space="preserve">35.6845397949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4744567871094</t>
   </si>
   <si>
     <t xml:space="preserve">36.4547119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2402153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4031372070312</t>
+    <t xml:space="preserve">35.2402114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.403133392334</t>
   </si>
   <si>
     <t xml:space="preserve">35.314266204834</t>
@@ -4850,85 +4850,85 @@
     <t xml:space="preserve">35.3991050720215</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3150367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4623641967773</t>
+    <t xml:space="preserve">35.3150329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4623680114746</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765007019043</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3912696838379</t>
+    <t xml:space="preserve">33.3912734985352</t>
   </si>
   <si>
     <t xml:space="preserve">33.7325096130371</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1380233764648</t>
+    <t xml:space="preserve">34.1380271911621</t>
   </si>
   <si>
     <t xml:space="preserve">33.2626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4675197601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8977680206299</t>
+    <t xml:space="preserve">31.4675216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8977661132812</t>
   </si>
   <si>
     <t xml:space="preserve">32.3428535461426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0935211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5929985046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1419448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2923736572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.654411315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6554470062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4081745147705</t>
+    <t xml:space="preserve">34.0935287475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930023193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1419410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6544151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.655445098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4081726074219</t>
   </si>
   <si>
     <t xml:space="preserve">32.1499824523926</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6455535888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2241592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4516487121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.446704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1885185241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9857559204102</t>
+    <t xml:space="preserve">31.6455554962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2241630554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4516525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4467124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1885147094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9857521057129</t>
   </si>
   <si>
     <t xml:space="preserve">33.6978874206543</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8155479431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5485000610352</t>
+    <t xml:space="preserve">34.8155517578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5484962463379</t>
   </si>
   <si>
     <t xml:space="preserve">32.1450347900391</t>
@@ -4937,37 +4937,37 @@
     <t xml:space="preserve">31.4477386474609</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2548694610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4625720977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0620002746582</t>
+    <t xml:space="preserve">31.2548675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.462574005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0619983673096</t>
   </si>
   <si>
     <t xml:space="preserve">30.5674610137939</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5911540985107</t>
+    <t xml:space="preserve">31.5911560058594</t>
   </si>
   <si>
     <t xml:space="preserve">31.7494049072266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1341171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8176078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4782257080078</t>
+    <t xml:space="preserve">33.1341133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8176116943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4782295227051</t>
   </si>
   <si>
     <t xml:space="preserve">36.5909461975098</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2486763000488</t>
+    <t xml:space="preserve">37.2486801147461</t>
   </si>
   <si>
     <t xml:space="preserve">36.2744407653809</t>
@@ -4979,22 +4979,22 @@
     <t xml:space="preserve">36.5761108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5316047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5711669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9766845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0162506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7689743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9727668762207</t>
+    <t xml:space="preserve">36.5316009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5711631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9766807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.016242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7689781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.972770690918</t>
   </si>
   <si>
     <t xml:space="preserve">35.3545951843262</t>
@@ -5009,19 +5009,19 @@
     <t xml:space="preserve">36.2991676330566</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2497100830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.824405670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3100852966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4870986938477</t>
+    <t xml:space="preserve">36.2497062683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8244094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3100891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0222206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4870910644531</t>
   </si>
   <si>
     <t xml:space="preserve">36.1403465270996</t>
@@ -5030,7 +5030,7 @@
     <t xml:space="preserve">37.3985252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8883247375488</t>
+    <t xml:space="preserve">36.8883209228516</t>
   </si>
   <si>
     <t xml:space="preserve">35.0604972839355</t>
@@ -5039,7 +5039,7 @@
     <t xml:space="preserve">34.6047782897949</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3125267028809</t>
+    <t xml:space="preserve">34.3125228881836</t>
   </si>
   <si>
     <t xml:space="preserve">34.2084999084473</t>
@@ -5048,25 +5048,25 @@
     <t xml:space="preserve">34.8078727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5596046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2970695495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9206123352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5144271850586</t>
+    <t xml:space="preserve">33.5596008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2970733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9206085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5144233703613</t>
   </si>
   <si>
     <t xml:space="preserve">33.2079124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6977081298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1286506652832</t>
+    <t xml:space="preserve">32.6977043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1286544799805</t>
   </si>
   <si>
     <t xml:space="preserve">33.2376289367676</t>
@@ -5075,7 +5075,7 @@
     <t xml:space="preserve">34.0896224975586</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2580451965332</t>
+    <t xml:space="preserve">34.2580413818359</t>
   </si>
   <si>
     <t xml:space="preserve">35.1149826049805</t>
@@ -5084,25 +5084,25 @@
     <t xml:space="preserve">36.94775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7743873596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.007194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4975891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6115226745605</t>
+    <t xml:space="preserve">36.7743911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0072021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4975929260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6115188598633</t>
   </si>
   <si>
     <t xml:space="preserve">38.3892135620117</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1421394348145</t>
+    <t xml:space="preserve">39.1421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">37.6709632873535</t>
@@ -5111,13 +5111,13 @@
     <t xml:space="preserve">37.7105903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6963310241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.740909576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0678329467773</t>
+    <t xml:space="preserve">38.6963272094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7409057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0678405761719</t>
   </si>
   <si>
     <t xml:space="preserve">42.2727127075195</t>
@@ -5129,10 +5129,10 @@
     <t xml:space="preserve">43.1891021728516</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7086219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7934226989746</t>
+    <t xml:space="preserve">42.7086181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7934265136719</t>
   </si>
   <si>
     <t xml:space="preserve">45.1011352539062</t>
@@ -5150,13 +5150,13 @@
     <t xml:space="preserve">44.794017791748</t>
   </si>
   <si>
-    <t xml:space="preserve">45.730224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.506721496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9277648925781</t>
+    <t xml:space="preserve">45.7302207946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5067176818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9277572631836</t>
   </si>
   <si>
     <t xml:space="preserve">45.1853446960449</t>
@@ -5165,22 +5165,22 @@
     <t xml:space="preserve">45.7500343322754</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0670585632324</t>
+    <t xml:space="preserve">46.0670547485352</t>
   </si>
   <si>
     <t xml:space="preserve">45.4874992370605</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9772987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6057891845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1847381591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8138313293457</t>
+    <t xml:space="preserve">44.977294921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6057929992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.184741973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.813835144043</t>
   </si>
   <si>
     <t xml:space="preserve">44.1996078491211</t>
@@ -5189,10 +5189,10 @@
     <t xml:space="preserve">45.1358108520508</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2695541381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8033294677734</t>
+    <t xml:space="preserve">45.2695465087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8033256530762</t>
   </si>
   <si>
     <t xml:space="preserve">44.8930892944336</t>
@@ -5207,10 +5207,10 @@
     <t xml:space="preserve">46.5871658325195</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8193855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9766998291016</t>
+    <t xml:space="preserve">45.8193893432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9767036437988</t>
   </si>
   <si>
     <t xml:space="preserve">45.4478759765625</t>
@@ -5222,7 +5222,7 @@
     <t xml:space="preserve">44.853458404541</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0218772888184</t>
+    <t xml:space="preserve">45.0218811035156</t>
   </si>
   <si>
     <t xml:space="preserve">45.5476379394531</t>
@@ -5234,7 +5234,7 @@
     <t xml:space="preserve">46.8173942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0466766357422</t>
+    <t xml:space="preserve">45.0466804504395</t>
   </si>
   <si>
     <t xml:space="preserve">45.4682769775391</t>
@@ -5246,16 +5246,16 @@
     <t xml:space="preserve">46.9661979675293</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2012367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5583572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9582023620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.184440612793</t>
+    <t xml:space="preserve">48.2012329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5583534240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9581985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1844367980957</t>
   </si>
   <si>
     <t xml:space="preserve">45.3095588684082</t>
@@ -5264,7 +5264,7 @@
     <t xml:space="preserve">45.5823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">46.083324432373</t>
+    <t xml:space="preserve">46.0833206176758</t>
   </si>
   <si>
     <t xml:space="preserve">45.2798004150391</t>
@@ -5276,7 +5276,7 @@
     <t xml:space="preserve">45.7609176635742</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3789978027344</t>
+    <t xml:space="preserve">45.3789939880371</t>
   </si>
   <si>
     <t xml:space="preserve">45.6716384887695</t>
@@ -5285,7 +5285,7 @@
     <t xml:space="preserve">44.709400177002</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0378761291504</t>
+    <t xml:space="preserve">43.0378799438477</t>
   </si>
   <si>
     <t xml:space="preserve">42.8593254089355</t>
@@ -5294,40 +5294,40 @@
     <t xml:space="preserve">42.0806045532227</t>
   </si>
   <si>
-    <t xml:space="preserve">41.544921875</t>
+    <t xml:space="preserve">41.5449256896973</t>
   </si>
   <si>
     <t xml:space="preserve">41.9615631103516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.301082611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2465286254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8268432617188</t>
+    <t xml:space="preserve">38.3010864257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.246524810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.826847076416</t>
   </si>
   <si>
     <t xml:space="preserve">38.1572494506836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2743682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2514877319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4002799987793</t>
+    <t xml:space="preserve">37.2743644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2514915466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4002876281738</t>
   </si>
   <si>
     <t xml:space="preserve">38.3110046386719</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8516464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9588432312012</t>
+    <t xml:space="preserve">38.8516426086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9588508605957</t>
   </si>
   <si>
     <t xml:space="preserve">38.6334075927734</t>
@@ -5342,10 +5342,10 @@
     <t xml:space="preserve">39.4270057678223</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8207664489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2076416015625</t>
+    <t xml:space="preserve">40.8207702636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2076454162598</t>
   </si>
   <si>
     <t xml:space="preserve">41.4705238342285</t>
@@ -5354,46 +5354,46 @@
     <t xml:space="preserve">41.187801361084</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9558029174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8466835021973</t>
+    <t xml:space="preserve">38.9558067321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8466873168945</t>
   </si>
   <si>
     <t xml:space="preserve">40.3594856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8337249755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3495674133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2454071044922</t>
+    <t xml:space="preserve">39.8337287902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3495635986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2454032897949</t>
   </si>
   <si>
     <t xml:space="preserve">41.4159660339355</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6639633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2374038696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4209213256836</t>
+    <t xml:space="preserve">41.6639595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2374000549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4209251403809</t>
   </si>
   <si>
     <t xml:space="preserve">42.7551612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2164421081543</t>
+    <t xml:space="preserve">43.216438293457</t>
   </si>
   <si>
     <t xml:space="preserve">43.7273254394531</t>
   </si>
   <si>
-    <t xml:space="preserve">45.066520690918</t>
+    <t xml:space="preserve">45.0665245056152</t>
   </si>
   <si>
     <t xml:space="preserve">45.2748374938965</t>
@@ -5405,19 +5405,19 @@
     <t xml:space="preserve">45.1210823059082</t>
   </si>
   <si>
-    <t xml:space="preserve">45.254997253418</t>
+    <t xml:space="preserve">45.2550010681152</t>
   </si>
   <si>
     <t xml:space="preserve">44.6201210021973</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2034797668457</t>
+    <t xml:space="preserve">44.203483581543</t>
   </si>
   <si>
     <t xml:space="preserve">43.2065238952637</t>
   </si>
   <si>
-    <t xml:space="preserve">43.360279083252</t>
+    <t xml:space="preserve">43.3602828979492</t>
   </si>
   <si>
     <t xml:space="preserve">42.3038024902344</t>
@@ -5429,25 +5429,25 @@
     <t xml:space="preserve">42.8054695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0422477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3104629516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.259162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4727401733398</t>
+    <t xml:space="preserve">44.0422439575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3104667663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2591590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4727439880371</t>
   </si>
   <si>
     <t xml:space="preserve">45.244255065918</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0753784179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.740894317627</t>
+    <t xml:space="preserve">45.075382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7408981323242</t>
   </si>
   <si>
     <t xml:space="preserve">43.5157470703125</t>
@@ -5459,13 +5459,13 @@
     <t xml:space="preserve">44.0819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1929550170898</t>
+    <t xml:space="preserve">46.1929512023926</t>
   </si>
   <si>
     <t xml:space="preserve">46.8336906433105</t>
   </si>
   <si>
-    <t xml:space="preserve">47.012508392334</t>
+    <t xml:space="preserve">47.0125045776367</t>
   </si>
   <si>
     <t xml:space="preserve">46.4959373474121</t>
@@ -5474,10 +5474,10 @@
     <t xml:space="preserve">46.4710998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6201095581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9247360229492</t>
+    <t xml:space="preserve">46.6201133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.924732208252</t>
   </si>
   <si>
     <t xml:space="preserve">45.428035736084</t>
@@ -5486,13 +5486,13 @@
     <t xml:space="preserve">45.3336601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4561996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0091667175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1466674804688</t>
+    <t xml:space="preserve">46.4562034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0091705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.146671295166</t>
   </si>
   <si>
     <t xml:space="preserve">48.0903396606445</t>
@@ -5501,16 +5501,16 @@
     <t xml:space="preserve">48.3188209533691</t>
   </si>
   <si>
-    <t xml:space="preserve">48.219482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5837097167969</t>
+    <t xml:space="preserve">48.2194786071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5837059020996</t>
   </si>
   <si>
     <t xml:space="preserve">46.2724227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1200790405273</t>
+    <t xml:space="preserve">45.1200828552246</t>
   </si>
   <si>
     <t xml:space="preserve">44.6680870056152</t>
@@ -5519,19 +5519,19 @@
     <t xml:space="preserve">44.106819152832</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8634300231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1912612915039</t>
+    <t xml:space="preserve">43.8634338378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1912574768066</t>
   </si>
   <si>
     <t xml:space="preserve">42.8452033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2624320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8104400634766</t>
+    <t xml:space="preserve">43.2624359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8104362487793</t>
   </si>
   <si>
     <t xml:space="preserve">42.0206832885742</t>
@@ -5546,7 +5546,7 @@
     <t xml:space="preserve">43.3270034790039</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3120956420898</t>
+    <t xml:space="preserve">43.3120994567871</t>
   </si>
   <si>
     <t xml:space="preserve">42.2044639587402</t>
@@ -5555,13 +5555,13 @@
     <t xml:space="preserve">42.1498260498047</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8948745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8137626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3667373657227</t>
+    <t xml:space="preserve">42.8948707580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8137664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3667411804199</t>
   </si>
   <si>
     <t xml:space="preserve">43.3766708374023</t>
@@ -5591,25 +5591,25 @@
     <t xml:space="preserve">41.0074157714844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0620574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4792823791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0570907592773</t>
+    <t xml:space="preserve">41.0620498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4792861938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0570869445801</t>
   </si>
   <si>
     <t xml:space="preserve">40.4353141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2263984680176</t>
+    <t xml:space="preserve">40.2263946533203</t>
   </si>
   <si>
     <t xml:space="preserve">40.4900321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1617317199707</t>
+    <t xml:space="preserve">40.1617279052734</t>
   </si>
   <si>
     <t xml:space="preserve">40.0473289489746</t>
@@ -5618,19 +5618,19 @@
     <t xml:space="preserve">40.1368637084961</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5200576782227</t>
+    <t xml:space="preserve">39.5200614929199</t>
   </si>
   <si>
     <t xml:space="preserve">39.604621887207</t>
   </si>
   <si>
-    <t xml:space="preserve">40.305980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7735595703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8431968688965</t>
+    <t xml:space="preserve">40.3059844970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7735633850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8432006835938</t>
   </si>
   <si>
     <t xml:space="preserve">40.1667060852051</t>
@@ -5654,16 +5654,16 @@
     <t xml:space="preserve">42.1663360595703</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2309989929199</t>
+    <t xml:space="preserve">42.2310028076172</t>
   </si>
   <si>
     <t xml:space="preserve">40.9377098083496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0371894836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4402923583984</t>
+    <t xml:space="preserve">41.0371932983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4402885437012</t>
   </si>
   <si>
     <t xml:space="preserve">39.6692848205566</t>
@@ -5672,22 +5672,22 @@
     <t xml:space="preserve">38.7490577697754</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5353546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6248893737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2418746948242</t>
+    <t xml:space="preserve">37.5353507995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.624885559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2418785095215</t>
   </si>
   <si>
     <t xml:space="preserve">36.9334716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7689552307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.321460723877</t>
+    <t xml:space="preserve">38.7689590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3214569091797</t>
   </si>
   <si>
     <t xml:space="preserve">35.0731201171875</t>
@@ -5696,25 +5696,25 @@
     <t xml:space="preserve">35.7844352722168</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9585342407227</t>
+    <t xml:space="preserve">35.9585304260254</t>
   </si>
   <si>
     <t xml:space="preserve">37.5453033447266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2367134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8934936523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.112361907959</t>
+    <t xml:space="preserve">38.2367172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.893497467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1123580932617</t>
   </si>
   <si>
     <t xml:space="preserve">38.0974349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3660430908203</t>
+    <t xml:space="preserve">38.3660469055176</t>
   </si>
   <si>
     <t xml:space="preserve">38.4307098388672</t>
@@ -5723,13 +5723,13 @@
     <t xml:space="preserve">38.4754753112793</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9378929138184</t>
+    <t xml:space="preserve">39.9378967285156</t>
   </si>
   <si>
     <t xml:space="preserve">42.0817756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5644569396973</t>
+    <t xml:space="preserve">41.5644607543945</t>
   </si>
   <si>
     <t xml:space="preserve">41.6937866210938</t>
@@ -5738,13 +5738,13 @@
     <t xml:space="preserve">41.9922370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1913948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5246658325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3804168701172</t>
+    <t xml:space="preserve">41.1913909912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5246696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3804130554199</t>
   </si>
   <si>
     <t xml:space="preserve">41.5893287658691</t>
@@ -5765,10 +5765,10 @@
     <t xml:space="preserve">43.514347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1562042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8326950073242</t>
+    <t xml:space="preserve">43.1562080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8326988220215</t>
   </si>
   <si>
     <t xml:space="preserve">44.3400650024414</t>
@@ -5783,7 +5783,7 @@
     <t xml:space="preserve">44.3402976989746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.3652038574219</t>
+    <t xml:space="preserve">44.3652076721191</t>
   </si>
   <si>
     <t xml:space="preserve">44.0862731933594</t>
@@ -5798,10 +5798,10 @@
     <t xml:space="preserve">45.3165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">45.640323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6801719665527</t>
+    <t xml:space="preserve">45.6403198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6801681518555</t>
   </si>
   <si>
     <t xml:space="preserve">45.3564109802246</t>
@@ -5813,13 +5813,13 @@
     <t xml:space="preserve">45.5058403015137</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0376319885254</t>
+    <t xml:space="preserve">45.0376281738281</t>
   </si>
   <si>
     <t xml:space="preserve">44.4000701904297</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8460159301758</t>
+    <t xml:space="preserve">42.846019744873</t>
   </si>
   <si>
     <t xml:space="preserve">41.1923446655273</t>
@@ -5837,10 +5837,10 @@
     <t xml:space="preserve">40.1463508605957</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7727813720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5685653686523</t>
+    <t xml:space="preserve">39.772777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5685615539551</t>
   </si>
   <si>
     <t xml:space="preserve">39.4938468933105</t>
@@ -5858,7 +5858,7 @@
     <t xml:space="preserve">40.3655128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4065284729004</t>
+    <t xml:space="preserve">41.4065246582031</t>
   </si>
   <si>
     <t xml:space="preserve">42.1686134338379</t>
@@ -5867,13 +5867,13 @@
     <t xml:space="preserve">42.4525260925293</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2483062744141</t>
+    <t xml:space="preserve">42.2483024597168</t>
   </si>
   <si>
     <t xml:space="preserve">41.122615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7888946533203</t>
+    <t xml:space="preserve">40.788890838623</t>
   </si>
   <si>
     <t xml:space="preserve">40.9432983398438</t>
@@ -5885,7 +5885,7 @@
     <t xml:space="preserve">40.3406066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0367698669434</t>
+    <t xml:space="preserve">40.0367660522461</t>
   </si>
   <si>
     <t xml:space="preserve">41.0479011535645</t>
@@ -5897,19 +5897,19 @@
     <t xml:space="preserve">40.2708740234375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6954231262207</t>
+    <t xml:space="preserve">41.6954193115234</t>
   </si>
   <si>
     <t xml:space="preserve">42.5372009277344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0402755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4912071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5559577941895</t>
+    <t xml:space="preserve">43.0402793884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4912033081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5559539794922</t>
   </si>
   <si>
     <t xml:space="preserve">41.9992561340332</t>
@@ -5918,10 +5918,10 @@
     <t xml:space="preserve">42.3977355957031</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5659141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7789306640625</t>
+    <t xml:space="preserve">41.56591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7789344787598</t>
   </si>
   <si>
     <t xml:space="preserve">40.8237571716309</t>
@@ -5930,25 +5930,25 @@
     <t xml:space="preserve">42.0789566040039</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3716583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1823844909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8908462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5161056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5808601379395</t>
+    <t xml:space="preserve">41.3716621398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1823883056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8908500671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5161094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5808639526367</t>
   </si>
   <si>
     <t xml:space="preserve">43.1149864196777</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7463989257812</t>
+    <t xml:space="preserve">42.7464027404785</t>
   </si>
   <si>
     <t xml:space="preserve">42.253288269043</t>
@@ -5963,7 +5963,7 @@
     <t xml:space="preserve">43.2843437194824</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3988990783691</t>
+    <t xml:space="preserve">43.3989028930664</t>
   </si>
   <si>
     <t xml:space="preserve">44.1510238647461</t>
@@ -5975,7 +5975,7 @@
     <t xml:space="preserve">42.721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2620811462402</t>
+    <t xml:space="preserve">41.262077331543</t>
   </si>
   <si>
     <t xml:space="preserve">41.137378692627</t>
@@ -6300,6 +6300,9 @@
   </si>
   <si>
     <t xml:space="preserve">27.9099998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0100002288818</t>
   </si>
 </sst>
 </file>
@@ -63867,7 +63870,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="1" t="n">
-        <v>45530.6515972222</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B2202" t="n">
         <v>1826907</v>
@@ -63888,6 +63891,32 @@
         <v>2095</v>
       </c>
       <c r="H2202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>45531.6494907407</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>2142146</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>28.1749992370605</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>27.7150001525879</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>27.7999992370605</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>28.0100002288818</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H2203" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/STMMI.MI.xlsx
+++ b/data/STMMI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="2097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="2098">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,268 +44,268 @@
     <t xml:space="preserve">STMMI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37391901016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24544095993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17455625534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9441819190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06379985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08152198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01506853103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89545059204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64735412597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7270975112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9176025390625</t>
+    <t xml:space="preserve">5.37391805648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24544048309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17455720901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94418334960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06380081176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08152151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0150671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8954496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64735317230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72709846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91760063171387</t>
   </si>
   <si>
     <t xml:space="preserve">4.86000871658325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99291515350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15683555603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18784856796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32075643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55555963516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39607048034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32518720626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16126537322998</t>
+    <t xml:space="preserve">4.99291658401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15683507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18784809112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32075595855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55556011199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.396071434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32518529891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16126441955566</t>
   </si>
   <si>
     <t xml:space="preserve">4.70937776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74924993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56761026382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27078294754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19103574752808</t>
+    <t xml:space="preserve">4.74925136566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27078104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19103527069092</t>
   </si>
   <si>
     <t xml:space="preserve">4.24951601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13787364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20698642730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2955904006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25128936767578</t>
+    <t xml:space="preserve">4.13787317276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2069845199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29558992385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25128698348999</t>
   </si>
   <si>
     <t xml:space="preserve">4.4090051651001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63849353790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60305023193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80241441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68279504776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45242166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52773666381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6429238319397</t>
+    <t xml:space="preserve">4.63849496841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60305118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80241298675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68279647827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45242357254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52773761749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64292240142822</t>
   </si>
   <si>
     <t xml:space="preserve">4.69608736038208</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78469228744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79355478286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8289942741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75811100006104</t>
+    <t xml:space="preserve">4.78469467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7935528755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82899522781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75811052322388</t>
   </si>
   <si>
     <t xml:space="preserve">4.73595905303955</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66064596176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57203912734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74038934707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62963438034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65178489685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.549889087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53659629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50225591659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4281530380249</t>
+    <t xml:space="preserve">4.66064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57203960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74039030075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6296329498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65178442001343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54988956451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53659868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50225782394409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42815351486206</t>
   </si>
   <si>
     <t xml:space="preserve">4.47153234481812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42996120452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41911554336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43176746368408</t>
+    <t xml:space="preserve">4.42996168136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41911602020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43176889419556</t>
   </si>
   <si>
     <t xml:space="preserve">4.40285015106201</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34139680862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43357515335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1769232749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14800548553467</t>
+    <t xml:space="preserve">4.34139728546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43357467651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17692422866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14800453186035</t>
   </si>
   <si>
     <t xml:space="preserve">4.32693815231323</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49321937561035</t>
+    <t xml:space="preserve">4.49321985244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.34501123428345</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52756023406982</t>
+    <t xml:space="preserve">4.52755880355835</t>
   </si>
   <si>
     <t xml:space="preserve">4.63600540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55467176437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69926452636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65408039093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67667198181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66763496398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58178377151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15111684799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08333921432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85289287567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75800561904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55015325546265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4118857383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3630838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26006364822388</t>
+    <t xml:space="preserve">4.55467319488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69926500320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65407943725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67667150497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66763544082642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58178281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15111589431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08333826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8528938293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75800657272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55015230178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41188764572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36308622360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26006460189819</t>
   </si>
   <si>
     <t xml:space="preserve">4.3142876625061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26910161972046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19499731063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22210693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26729345321655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28356075286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64052534103394</t>
+    <t xml:space="preserve">4.26910066604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19499778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22210788726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26729393005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28356170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6405234336853</t>
   </si>
   <si>
     <t xml:space="preserve">4.67215394973755</t>
@@ -314,10 +314,10 @@
     <t xml:space="preserve">4.79867172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83933877944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88904190063477</t>
+    <t xml:space="preserve">4.83933925628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88904285430908</t>
   </si>
   <si>
     <t xml:space="preserve">4.90259742736816</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">4.9116358757019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8438572883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8167462348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82126522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79415321350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00200605392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86645126342773</t>
+    <t xml:space="preserve">4.84385633468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81674671173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82126426696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79415225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00200510025024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86644887924194</t>
   </si>
   <si>
     <t xml:space="preserve">4.57726526260376</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49502611160278</t>
+    <t xml:space="preserve">4.49502754211426</t>
   </si>
   <si>
     <t xml:space="preserve">4.46068668365479</t>
@@ -356,286 +356,286 @@
     <t xml:space="preserve">4.44803476333618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54111623764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70117568969727</t>
+    <t xml:space="preserve">4.54111671447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70117521286011</t>
   </si>
   <si>
     <t xml:space="preserve">4.75605344772339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82465028762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96641731262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65544414520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55849266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67373561859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79263830184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82007789611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7194676399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57312870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42129993438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48349475860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87952852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94355010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92526006698608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95727014541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04873418807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07617282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18592739105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2225136756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22708654403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30940008163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37799835205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94049406051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89933586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96335887908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94506692886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71641159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76671457290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97250604629517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08225917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09597969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0045166015625</t>
+    <t xml:space="preserve">4.82464981079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96641635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65544462203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55849456787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67373847961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82007741928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71946811676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57312774658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42130088806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48349523544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87952661514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94355201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92526054382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9572696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04873466491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07617139816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22251319885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22708559036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30940103530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37799787521362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94049310684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89933443069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96335744857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94506549835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7164101600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76671552658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97250556945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0822606086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0959792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00451850891113</t>
   </si>
   <si>
     <t xml:space="preserve">6.1096978187561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06396770477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99079847335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18286943435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15543031692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12799024581909</t>
+    <t xml:space="preserve">6.06396579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99079751968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18287086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15543174743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12799119949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.29262399673462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22859907150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18744325637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21945571899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16914892196655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24689292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13713836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11884498596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95421266555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96793222427368</t>
+    <t xml:space="preserve">6.22860097885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18744134902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21945333480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16915035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24689245223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13713788986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11884546279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95421314239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96793270111084</t>
   </si>
   <si>
     <t xml:space="preserve">6.0456748008728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19658851623535</t>
+    <t xml:space="preserve">6.19658660888672</t>
   </si>
   <si>
     <t xml:space="preserve">6.21030712127686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30634307861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26975917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47275257110596</t>
+    <t xml:space="preserve">6.30634355545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26975870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47275304794312</t>
   </si>
   <si>
     <t xml:space="preserve">6.56502389907837</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63422679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68958711624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.638840675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57886457443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59270429611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67574882507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45891237258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66651964187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67113590240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75879049301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85567426681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92949056625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72188234329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54195642471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68036031723022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77724456787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89258241653442</t>
+    <t xml:space="preserve">6.63422632217407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68958806991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63884019851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57886219024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59270334243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67574739456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45891284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66652059555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67113351821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75879144668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85567378997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92949104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72188091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54195594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68036127090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77724504470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89258337020874</t>
   </si>
   <si>
     <t xml:space="preserve">6.75417709350586</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82799434661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85106182098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3631591796875</t>
+    <t xml:space="preserve">6.82799291610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85106134414673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36316013336182</t>
   </si>
   <si>
     <t xml:space="preserve">7.7691502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02750396728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71378660202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385925292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48310995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46465682983398</t>
+    <t xml:space="preserve">8.02750587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71378707885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385829925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48311233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46465826034546</t>
   </si>
   <si>
     <t xml:space="preserve">7.80605602264404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91678285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66765165328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62613105773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78760480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89371299743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91216850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18436813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29508876800537</t>
+    <t xml:space="preserve">7.91678142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66765117645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62613248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78760099411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89371538162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91216516494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18436050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29508781433105</t>
   </si>
   <si>
     <t xml:space="preserve">8.55805778503418</t>
@@ -644,94 +644,94 @@
     <t xml:space="preserve">8.65955543518066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62726020812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53498840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52576446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60880661010742</t>
+    <t xml:space="preserve">8.6272611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53498935699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52576732635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60880565643311</t>
   </si>
   <si>
     <t xml:space="preserve">8.90407180786133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68262386322021</t>
+    <t xml:space="preserve">8.68262195587158</t>
   </si>
   <si>
     <t xml:space="preserve">8.58112525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81641483306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93175411224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92252540588379</t>
+    <t xml:space="preserve">8.81641674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93175315856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92252635955811</t>
   </si>
   <si>
     <t xml:space="preserve">9.34696865081787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21317672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11629295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29160690307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27315330505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43000984191895</t>
+    <t xml:space="preserve">9.21317958831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11629486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29160976409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27315616607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43001174926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.62378120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73514175415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89291000366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93931579589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86507225036621</t>
+    <t xml:space="preserve">9.73514461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89291095733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93931293487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86507034301758</t>
   </si>
   <si>
     <t xml:space="preserve">9.97643566131592</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0599603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0413999557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0228357315063</t>
+    <t xml:space="preserve">10.0599584579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0413970947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0228366851807</t>
   </si>
   <si>
     <t xml:space="preserve">10.0321168899536</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7908296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67946243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65161991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47529315948486</t>
+    <t xml:space="preserve">9.79082584381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67945957183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65162086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47529220581055</t>
   </si>
   <si>
     <t xml:space="preserve">9.76298713684082</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">9.93003082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0042743682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87435054779053</t>
+    <t xml:space="preserve">10.0042762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87435245513916</t>
   </si>
   <si>
     <t xml:space="preserve">10.1898822784424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1063613891602</t>
+    <t xml:space="preserve">10.1063594818115</t>
   </si>
   <si>
     <t xml:space="preserve">10.069239616394</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">10.3754920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">11.220009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.628345489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5819416046143</t>
+    <t xml:space="preserve">11.2200088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6283473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5819435119629</t>
   </si>
   <si>
     <t xml:space="preserve">11.3035335540771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6933126449585</t>
+    <t xml:space="preserve">11.6933107376099</t>
   </si>
   <si>
     <t xml:space="preserve">12.2779750823975</t>
@@ -782,139 +782,139 @@
     <t xml:space="preserve">12.3336553573608</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2130098342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4078998565674</t>
+    <t xml:space="preserve">12.2130117416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4079008102417</t>
   </si>
   <si>
     <t xml:space="preserve">12.1016483306885</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9253187179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8232364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0088415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0459632873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1851711273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3986206054688</t>
+    <t xml:space="preserve">11.9253215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8232326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0088424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0459642410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1851720809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3986196517944</t>
   </si>
   <si>
     <t xml:space="preserve">12.3429374694824</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6027898788452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7605600357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1224937438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2431373596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1410531997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4565849304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3545045852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6329145431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6514797210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6886005401611</t>
+    <t xml:space="preserve">12.6027889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7605571746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1224918365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2431383132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1410512924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4565877914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3545026779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6329126358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6514749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6885967254639</t>
   </si>
   <si>
     <t xml:space="preserve">13.3823432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5122699737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.72571849823</t>
+    <t xml:space="preserve">13.5122718811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7257165908813</t>
   </si>
   <si>
     <t xml:space="preserve">13.1781749725342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2060165405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2524185180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4101839065552</t>
+    <t xml:space="preserve">13.206015586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2524166107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4101848602295</t>
   </si>
   <si>
     <t xml:space="preserve">13.438024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.493709564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.363245010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7947931289673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9811744689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141427993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7825927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3818778991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657516479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4564332962036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3912010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3446073532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3259677886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2607345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3352870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6707677841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5868997573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0929975509644</t>
+    <t xml:space="preserve">13.4937124252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3632440567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.794792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9811706542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7825918197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3818826675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657526016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4564323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3911981582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3259696960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2607364654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3352899551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6707668304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.586895942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.09299659729</t>
   </si>
   <si>
     <t xml:space="preserve">12.999810218811</t>
@@ -923,91 +923,91 @@
     <t xml:space="preserve">12.9532146453857</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5804595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7295608520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7388801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1582279205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7266778945923</t>
+    <t xml:space="preserve">12.5804624557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7295598983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.738883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1582288742065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7266817092896</t>
   </si>
   <si>
     <t xml:space="preserve">13.4937086105347</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8291864395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0807981491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8012313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0155630111694</t>
+    <t xml:space="preserve">13.8291883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0807943344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801230430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0155620574951</t>
   </si>
   <si>
     <t xml:space="preserve">14.1367092132568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3603630065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0342063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858104705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3230876922607</t>
+    <t xml:space="preserve">14.3603591918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0342035293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858095169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3230848312378</t>
   </si>
   <si>
     <t xml:space="preserve">13.6521291732788</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5216655731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4471168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.54030418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7173624038696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6987228393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5030279159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7919139862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5775766372681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5123443603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0248832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2951288223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1302728652954</t>
+    <t xml:space="preserve">13.5216627120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4471130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.540301322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.717360496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6987237930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5030269622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7919111251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5775785446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5123481750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0248823165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833047866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2951326370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.130274772644</t>
   </si>
   <si>
     <t xml:space="preserve">12.9252557754517</t>
@@ -1016,37 +1016,37 @@
     <t xml:space="preserve">12.5990982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6456937789917</t>
+    <t xml:space="preserve">12.645694732666</t>
   </si>
   <si>
     <t xml:space="preserve">13.0277643203735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6922874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8041124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4872722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1315631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9911508560181</t>
+    <t xml:space="preserve">12.6922836303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8041114807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338678359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4872694015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1315603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9911518096924</t>
   </si>
   <si>
     <t xml:space="preserve">11.7009677886963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7758531570435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8601007461548</t>
+    <t xml:space="preserve">11.7758512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8600978851318</t>
   </si>
   <si>
     <t xml:space="preserve">11.719687461853</t>
@@ -1055,46 +1055,46 @@
     <t xml:space="preserve">12.0379543304443</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1596460342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3094158172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5715198516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5247135162354</t>
+    <t xml:space="preserve">12.1596422195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3094167709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5715179443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.524715423584</t>
   </si>
   <si>
     <t xml:space="preserve">12.9365873336792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9553089141846</t>
+    <t xml:space="preserve">12.9553079605103</t>
   </si>
   <si>
     <t xml:space="preserve">12.9740324020386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7680969238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1518878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.245493888855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.329740524292</t>
+    <t xml:space="preserve">12.7680950164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1518859863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2454948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297414779663</t>
   </si>
   <si>
     <t xml:space="preserve">13.4139862060547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6854496002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6667280197144</t>
+    <t xml:space="preserve">13.6854515075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.66672706604</t>
   </si>
   <si>
     <t xml:space="preserve">13.3203792572021</t>
@@ -1103,40 +1103,40 @@
     <t xml:space="preserve">13.5075979232788</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4514331817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5731172561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7322568893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6386451721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7228918075562</t>
+    <t xml:space="preserve">13.4514284133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5731229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7322540283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6386480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7228937149048</t>
   </si>
   <si>
     <t xml:space="preserve">13.8726673126221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4420680999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0676383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3859081268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4795112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2829351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1706085205078</t>
+    <t xml:space="preserve">13.4420719146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0676403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3859062194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4795122146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2829399108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1706066131592</t>
   </si>
   <si>
     <t xml:space="preserve">13.5263175964355</t>
@@ -1145,58 +1145,58 @@
     <t xml:space="preserve">13.5169553756714</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4233484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4888744354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701538085938</t>
+    <t xml:space="preserve">13.4233493804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4888763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701528549194</t>
   </si>
   <si>
     <t xml:space="preserve">13.198691368103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2923021316528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6480093002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8071403503418</t>
+    <t xml:space="preserve">13.2922973632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.648006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8071393966675</t>
   </si>
   <si>
     <t xml:space="preserve">13.9849939346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0318002700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1160478591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4717569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5840864181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7900190353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7338562011719</t>
+    <t xml:space="preserve">14.0317993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1160469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4717578887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5840873718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7900228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7338571548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.7432165145874</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0521240234375</t>
+    <t xml:space="preserve">15.0521259307861</t>
   </si>
   <si>
     <t xml:space="preserve">15.0334014892578</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4280319213867</t>
+    <t xml:space="preserve">15.4280300140381</t>
   </si>
   <si>
     <t xml:space="preserve">15.5689668655396</t>
@@ -1205,112 +1205,112 @@
     <t xml:space="preserve">15.2964887619019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3246736526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3904447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7891092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.836088180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1931352615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2307157516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3622617721558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9072179794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9823875427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8696355819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7850770950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7662792205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7944669723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6441307067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8226585388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8414516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8884267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9917764663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1139278411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6723194122314</t>
+    <t xml:space="preserve">15.3246688842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3904466629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7891082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.836085319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1931314468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2307138442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3622589111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9072198867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9823837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8696365356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7850713729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7662811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7944679260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6441373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8226613998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8414449691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8884258270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9917869567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1139297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6723222732544</t>
   </si>
   <si>
     <t xml:space="preserve">15.8602390289307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5461406707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7528438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6494922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6414184570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071895599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1300106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9984607696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3555068969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.205171585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6937580108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9662342071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7125511169434</t>
+    <t xml:space="preserve">16.5461368560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7528476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6494941711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6414203643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1300048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.998462677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.355504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2051677703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6937561035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9662380218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7125549316406</t>
   </si>
   <si>
     <t xml:space="preserve">19.8816776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8011531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2333583831787</t>
+    <t xml:space="preserve">18.8011474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2333564758301</t>
   </si>
   <si>
     <t xml:space="preserve">18.8951072692871</t>
@@ -1322,67 +1322,67 @@
     <t xml:space="preserve">19.1018161773682</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3273143768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7031574249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1863784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3461132049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9890651702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0172519683838</t>
+    <t xml:space="preserve">19.3273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7031517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1863803863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3461074829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9890670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0172538757324</t>
   </si>
   <si>
     <t xml:space="preserve">17.7206249237061</t>
   </si>
   <si>
-    <t xml:space="preserve">17.908540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2602272033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.372974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6454544067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9877490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2132472991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2226371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4951267242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4481391906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.18505859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5055713653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.618688583374</t>
+    <t xml:space="preserve">17.9085426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2602310180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3729705810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6454582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9877452850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2132415771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2226409912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4951190948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4481430053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1850547790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5055694580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6186943054199</t>
   </si>
   <si>
     <t xml:space="preserve">17.3453140258789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4584369659424</t>
+    <t xml:space="preserve">17.4584407806396</t>
   </si>
   <si>
     <t xml:space="preserve">17.4490089416504</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">17.4112968444824</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1567821502686</t>
+    <t xml:space="preserve">17.1567783355713</t>
   </si>
   <si>
     <t xml:space="preserve">17.3735904693604</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">18.2408599853516</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5802249908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4482460021973</t>
+    <t xml:space="preserve">18.5802230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4482517242432</t>
   </si>
   <si>
     <t xml:space="preserve">18.8536033630371</t>
@@ -1421,25 +1421,25 @@
     <t xml:space="preserve">18.8347492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6462097167969</t>
+    <t xml:space="preserve">18.6462135314941</t>
   </si>
   <si>
     <t xml:space="preserve">18.5236644744873</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2306690216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2683811187744</t>
+    <t xml:space="preserve">19.2306709289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2683792114258</t>
   </si>
   <si>
     <t xml:space="preserve">19.0609931945801</t>
   </si>
   <si>
-    <t xml:space="preserve">18.91015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7223815917969</t>
+    <t xml:space="preserve">18.9101581573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7223873138428</t>
   </si>
   <si>
     <t xml:space="preserve">17.8543605804443</t>
@@ -1448,73 +1448,73 @@
     <t xml:space="preserve">17.9769134521484</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4011135101318</t>
+    <t xml:space="preserve">18.4011116027832</t>
   </si>
   <si>
     <t xml:space="preserve">18.3634128570557</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1277370452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9674797058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4301509857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5574150085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0577964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2887554168701</t>
+    <t xml:space="preserve">18.1277351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9674835205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4301490783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5574188232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0577945709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2887516021729</t>
   </si>
   <si>
     <t xml:space="preserve">16.294225692749</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2046680450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4686222076416</t>
+    <t xml:space="preserve">16.2046737670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4686241149902</t>
   </si>
   <si>
     <t xml:space="preserve">16.3602123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8362674713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0153789520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9588165283203</t>
+    <t xml:space="preserve">16.8362655639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0153732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0295143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">17.4065895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6893882751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3688812255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5904159545898</t>
+    <t xml:space="preserve">17.6893920898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3688774108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5904102325439</t>
   </si>
   <si>
     <t xml:space="preserve">17.613977432251</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7883739471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7459564208984</t>
+    <t xml:space="preserve">17.7883758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7459487915039</t>
   </si>
   <si>
     <t xml:space="preserve">17.0625114440918</t>
@@ -1523,304 +1523,304 @@
     <t xml:space="preserve">16.6524448394775</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5432758331299</t>
+    <t xml:space="preserve">17.5432777404785</t>
   </si>
   <si>
     <t xml:space="preserve">17.7318096160889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5566558837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6650676727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.825325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3398418426514</t>
+    <t xml:space="preserve">18.5566596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6650714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8253211975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3398342132568</t>
   </si>
   <si>
     <t xml:space="preserve">18.2597141265869</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6603527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7263412475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4237632751465</t>
+    <t xml:space="preserve">18.6603565216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7263374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4237670898438</t>
   </si>
   <si>
     <t xml:space="preserve">18.8256187438965</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2511157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3292198181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5822429656982</t>
+    <t xml:space="preserve">19.2511119842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3292121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.582239151001</t>
   </si>
   <si>
     <t xml:space="preserve">17.5916938781738</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0361022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.076379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0054626464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4996032714844</t>
+    <t xml:space="preserve">18.0360927581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0763816833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.005464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.499605178833</t>
   </si>
   <si>
     <t xml:space="preserve">16.097749710083</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5279712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3861408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4712352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9014549255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6839866638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5065937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2749423980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4309539794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7429790496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4545860290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8683643341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6177959442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8116321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6887130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1756591796875</t>
+    <t xml:space="preserve">16.5279655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3861389160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712333679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9014568328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6839847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5065975189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2749443054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4309558868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7429847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4545955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8683586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.617790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8116226196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6887073516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1756610870361</t>
   </si>
   <si>
     <t xml:space="preserve">17.3505821228027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1472988128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1425666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9368171691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.951000213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1826553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8161659240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5230503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7972526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.853982925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1187324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2700214385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0620059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9390869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1376476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0714626312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688884735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0998287200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4307670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3362102508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.147102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267574310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.260570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2416553497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1943817138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0264549255371</t>
+    <t xml:space="preserve">17.1472911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1425704956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9368209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9509983062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1826591491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8161678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5230464935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7972545623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8539848327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1187381744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.27001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3078441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0620079040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9390926361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.071460723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688903808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0998229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4307613372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3362121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1471004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2605667114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2416591644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1943759918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0264568328857</t>
   </si>
   <si>
     <t xml:space="preserve">20.2817497253418</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1020965576172</t>
+    <t xml:space="preserve">20.1020984649658</t>
   </si>
   <si>
     <t xml:space="preserve">19.8657131195068</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2061042785645</t>
+    <t xml:space="preserve">20.2061004638672</t>
   </si>
   <si>
     <t xml:space="preserve">20.1304626464844</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0098114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4447593688965</t>
+    <t xml:space="preserve">21.0098094940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4447555541992</t>
   </si>
   <si>
     <t xml:space="preserve">21.2367382049561</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0091991424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1180171966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9189281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4069633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1130676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1934375762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5963649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8049411773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8473930358887</t>
+    <t xml:space="preserve">21.0092029571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1180152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9189262390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4069652557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1130657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1934394836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5963706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8049430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8473949432373</t>
   </si>
   <si>
     <t xml:space="preserve">18.1412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7715511322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9896068572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4539470672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9753818511963</t>
+    <t xml:space="preserve">17.7715454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9896011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4539413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.975378036499</t>
   </si>
   <si>
     <t xml:space="preserve">18.00856590271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1460361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0986347198486</t>
+    <t xml:space="preserve">18.146032333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.525260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0986289978027</t>
   </si>
   <si>
     <t xml:space="preserve">18.4020099639893</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4446754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.487340927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6437702178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2363128662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1604671478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1889114379883</t>
+    <t xml:space="preserve">18.4446773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4873371124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6437740325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2363185882568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1604652404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.188907623291</t>
   </si>
   <si>
     <t xml:space="preserve">18.7670192718506</t>